--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E06A991-169D-4577-8B40-E130806AC1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC841EC-D203-465D-842B-C1B0CC84743E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="357">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1059,18 +1059,12 @@
     <t>...</t>
   </si>
   <si>
-    <t>gcd(e, m)</t>
-  </si>
-  <si>
     <t>(e, d)</t>
   </si>
   <si>
     <t>Inverse?</t>
   </si>
   <si>
-    <t>d x e = 1 mod m</t>
-  </si>
-  <si>
     <t>(11 x 1 mod 26 = 11)</t>
   </si>
   <si>
@@ -1111,6 +1105,15 @@
   </si>
   <si>
     <t>GCD(5,  24) = 1</t>
+  </si>
+  <si>
+    <t>gcd(e, n)</t>
+  </si>
+  <si>
+    <t>d x e = 1 mod n</t>
+  </si>
+  <si>
+    <t>(11 x 19 mod 26 = 1)</t>
   </si>
 </sst>
 </file>
@@ -1665,32 +1668,32 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.28515625" customWidth="1"/>
-    <col min="22" max="22" width="65.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.33203125" customWidth="1"/>
+    <col min="22" max="22" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="14"/>
       <c r="C2" s="46" t="s">
@@ -1729,7 +1732,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="14"/>
       <c r="C3" s="45" t="s">
@@ -1768,7 +1771,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2926,7 +2929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -3325,13 +3328,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U31" s="48" t="s">
         <v>117</v>
       </c>
       <c r="V31" s="48"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U32" t="s">
         <v>35</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="21:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U33" t="s">
         <v>36</v>
       </c>
@@ -3347,7 +3350,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="21:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="U34" s="30" t="s">
         <v>37</v>
       </c>
@@ -3355,13 +3358,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:22" x14ac:dyDescent="0.3">
       <c r="V35" s="29"/>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="21:22" x14ac:dyDescent="0.3">
       <c r="V36" s="29"/>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="21:22" x14ac:dyDescent="0.3">
       <c r="V37" s="29"/>
     </row>
   </sheetData>
@@ -3389,28 +3392,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3424,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>294</v>
       </c>
@@ -3700,12 +3703,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H19" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>12</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
         <v>285</v>
       </c>
@@ -3731,31 +3734,31 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>300</v>
       </c>
@@ -3780,7 +3783,7 @@
       <c r="N1" s="33"/>
       <c r="Q1" s="33"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3799,10 +3802,10 @@
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3828,22 +3831,22 @@
         <v>302</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="R3" s="38" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3881,10 +3884,10 @@
         <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3928,10 +3931,10 @@
         <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3973,10 +3976,10 @@
         <v>7</v>
       </c>
       <c r="R6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4014,10 +4017,10 @@
         <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H11" s="4">
         <v>8</v>
       </c>
@@ -4169,7 +4172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>316</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H13" s="4">
         <v>10</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>300</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -4336,7 +4339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -4475,7 +4478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -4502,8 +4505,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>9</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4553,7 +4559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>317</v>
       </c>
@@ -4572,7 +4578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N26" s="4">
         <v>23</v>
       </c>
@@ -4588,7 +4594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N27" s="4">
         <v>24</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N28" s="4">
         <v>25</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>300</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -4661,7 +4667,7 @@
       <c r="C30" s="37"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -4676,7 +4682,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -4688,7 +4694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>4</v>
       </c>
@@ -4698,7 +4704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -4708,7 +4714,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>6</v>
       </c>
@@ -4724,7 +4730,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>7</v>
       </c>
@@ -4736,7 +4742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>8</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>9</v>
       </c>
@@ -4762,7 +4768,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>10</v>
       </c>
@@ -4774,7 +4780,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>11</v>
       </c>
@@ -4791,12 +4797,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
         <v>318</v>
       </c>
@@ -4804,12 +4810,12 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>300</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -4836,7 +4842,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -4847,7 +4853,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>3</v>
       </c>
@@ -4859,7 +4865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>4</v>
       </c>
@@ -4869,7 +4875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>5</v>
       </c>
@@ -4879,7 +4885,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>6</v>
       </c>
@@ -4895,7 +4901,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>7</v>
       </c>
@@ -4909,7 +4915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>8</v>
       </c>
@@ -4919,7 +4925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>9</v>
       </c>
@@ -4933,13 +4939,13 @@
         <v>333</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="42" t="s">
         <v>330</v>
       </c>
@@ -4947,19 +4953,19 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E57" s="49" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F57" s="49"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>300</v>
       </c>
@@ -4973,16 +4979,16 @@
         <v>7</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -4994,7 +5000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>2</v>
       </c>
@@ -5006,7 +5012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>3</v>
       </c>
@@ -5022,10 +5028,10 @@
       </c>
       <c r="F61" s="4"/>
       <c r="G61" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>4</v>
       </c>
@@ -5040,7 +5046,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>5</v>
       </c>
@@ -5055,10 +5061,10 @@
         <v>121</v>
       </c>
       <c r="G63" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>6</v>
       </c>
@@ -5074,10 +5080,10 @@
       </c>
       <c r="F64" s="4"/>
       <c r="G64" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>7</v>
       </c>
@@ -5091,7 +5097,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>8</v>
       </c>
@@ -5102,7 +5108,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>9</v>
       </c>
@@ -5117,10 +5123,10 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>10</v>
       </c>
@@ -5134,7 +5140,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>11</v>
       </c>
@@ -5148,10 +5154,10 @@
         <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>12</v>
       </c>
@@ -5161,18 +5167,18 @@
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5193,29 +5199,29 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="95.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="95.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>298</v>
       </c>
@@ -5226,7 +5232,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4"/>
@@ -5235,7 +5241,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5246,7 +5252,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
@@ -5265,7 +5271,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
@@ -5291,7 +5297,7 @@
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5372,7 +5378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D8" s="32">
         <f>LCM(A7-1,B7-1)</f>
         <v>12</v>
@@ -5399,7 +5405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>124</v>
       </c>
@@ -5429,7 +5435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -5458,7 +5464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>126</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -5513,7 +5519,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -5543,7 +5549,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -5567,7 +5573,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
@@ -5586,7 +5592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
@@ -5612,7 +5618,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -5638,7 +5644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
@@ -5660,7 +5666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -5691,7 +5697,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -5715,7 +5721,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
@@ -5741,7 +5747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -5760,7 +5766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
@@ -5787,7 +5793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -5808,7 +5814,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -5830,7 +5836,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>141</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -5865,7 +5871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
@@ -5884,7 +5890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
@@ -5903,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>320</v>
       </c>
@@ -5919,7 +5925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>27</v>
       </c>
@@ -5951,59 +5957,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="15:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="O33" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="C61" s="24"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
     </row>
@@ -6023,30 +6029,30 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" customWidth="1"/>
-    <col min="20" max="25" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="20" max="25" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J1" s="49" t="s">
         <v>114</v>
       </c>
@@ -6056,7 +6062,7 @@
       </c>
       <c r="M1" s="49"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>107</v>
       </c>
@@ -6079,7 +6085,7 @@
       <c r="Q2" s="49"/>
       <c r="R2" s="49"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -6134,26 +6140,26 @@
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
       <c r="C4">
         <f>A4*B4</f>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <f>INDEX(P5:P53,MATCH(1,Q5:Q53,0))</f>
         <v>5</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>63</v>
@@ -6194,17 +6200,17 @@
       </c>
       <c r="U4" s="29"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="D5">
         <f>(A4-1)*(B4-1)</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <f>INDEX(P4:P53,MATCH(1,R4:R53,0))</f>
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>64</v>
@@ -6245,13 +6251,13 @@
       </c>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="D6">
         <f>LCM(A4-1,B4-1)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <f>MOD(F5,D4)</f>
@@ -6269,19 +6275,19 @@
       </c>
       <c r="K6" s="13">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="L6" s="26">
         <f t="shared" si="2"/>
-        <v>4.4601490397061246E+43</v>
-      </c>
-      <c r="M6" s="31" t="e">
+        <v>4194304</v>
+      </c>
+      <c r="M6" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>2</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P6">
         <v>3</v>
@@ -6296,7 +6302,7 @@
       </c>
       <c r="U6" s="29"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6312,26 +6318,26 @@
       </c>
       <c r="K7" s="13">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="L7" s="26">
         <f t="shared" si="2"/>
-        <v>1.088690056823018E+44</v>
-      </c>
-      <c r="M7" s="13" t="e">
+        <v>48828125</v>
+      </c>
+      <c r="M7" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>3</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P7">
         <v>4</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R7" s="7" t="str">
         <f t="shared" si="5"/>
@@ -6339,7 +6345,7 @@
       </c>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6355,19 +6361,19 @@
       </c>
       <c r="K8" s="13">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L8" s="26">
         <f t="shared" si="2"/>
-        <v>4.7101286972462449E+27</v>
-      </c>
-      <c r="M8" s="13" t="e">
+        <v>2048</v>
+      </c>
+      <c r="M8" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>4</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P8">
         <v>5</v>
@@ -6382,7 +6388,7 @@
       </c>
       <c r="U8" s="29"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -6398,19 +6404,19 @@
       </c>
       <c r="K9" s="13">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L9" s="26">
         <f t="shared" si="2"/>
-        <v>9.9999999999999991E+28</v>
-      </c>
-      <c r="M9" s="13" t="e">
+        <v>177147</v>
+      </c>
+      <c r="M9" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N9" t="e">
+        <v>5</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P9">
         <v>6</v>
@@ -6421,11 +6427,11 @@
       </c>
       <c r="R9" s="7">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U9" s="29"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -6445,15 +6451,15 @@
       </c>
       <c r="L10" s="26">
         <f t="shared" si="2"/>
-        <v>3.6845653286788893E+22</v>
-      </c>
-      <c r="M10" s="13" t="e">
+        <v>362797056</v>
+      </c>
+      <c r="M10" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N10" t="e">
+        <v>6</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P10">
         <v>7</v>
@@ -6464,11 +6470,11 @@
       </c>
       <c r="R10" s="7">
         <f>IF(P10&lt;=E$4,"-",MOD(P10*E$4,D$4))</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U10" s="29"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>17</v>
       </c>
@@ -6488,30 +6494,30 @@
       </c>
       <c r="L11" s="26">
         <f t="shared" si="2"/>
-        <v>3.2199057558131799E+24</v>
-      </c>
-      <c r="M11" s="13" t="e">
+        <v>1977326743</v>
+      </c>
+      <c r="M11" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N11" t="e">
+        <v>7</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P11">
         <v>8</v>
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="U11" s="29"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>19</v>
       </c>
@@ -6531,15 +6537,15 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" si="2"/>
-        <v>1.5474250491067253E+26</v>
-      </c>
-      <c r="M12" s="13" t="e">
+        <v>8589934592</v>
+      </c>
+      <c r="M12" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N12" t="e">
+        <v>8</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P12">
         <v>9</v>
@@ -6550,11 +6556,11 @@
       </c>
       <c r="R12" s="7">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="U12" s="29"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>72</v>
       </c>
@@ -6567,19 +6573,19 @@
       </c>
       <c r="K13" s="13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="2"/>
-        <v>2.8823037615171174E+17</v>
-      </c>
-      <c r="M13" s="13" t="e">
+        <v>285311670611</v>
+      </c>
+      <c r="M13" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N13" t="e">
+        <v>9</v>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P13">
         <v>10</v>
@@ -6594,7 +6600,7 @@
       </c>
       <c r="U13" s="29"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>73</v>
       </c>
@@ -6607,19 +6613,19 @@
       </c>
       <c r="K14" s="13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L14" s="26">
         <f t="shared" si="2"/>
-        <v>1.8626451492309569E+20</v>
-      </c>
-      <c r="M14" s="13" t="e">
+        <v>743008370688</v>
+      </c>
+      <c r="M14" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N14" t="e">
+        <v>10</v>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P14">
         <v>11</v>
@@ -6630,11 +6636,11 @@
       </c>
       <c r="R14" s="7">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U14" s="29"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>74</v>
       </c>
@@ -6647,34 +6653,34 @@
       </c>
       <c r="K15" s="13">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L15" s="26">
         <f t="shared" si="2"/>
-        <v>8.3076749736557242E+34</v>
-      </c>
-      <c r="M15" s="13" t="e">
+        <v>31381059609</v>
+      </c>
+      <c r="M15" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N15" t="e">
+        <v>11</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P15">
         <v>12</v>
       </c>
       <c r="Q15">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U15" s="29"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
         <v>75</v>
       </c>
@@ -6687,19 +6693,19 @@
       </c>
       <c r="K16" s="13">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L16" s="26">
         <f t="shared" si="2"/>
-        <v>4.8196857210675092E+35</v>
-      </c>
-      <c r="M16" s="13" t="e">
+        <v>100000000000</v>
+      </c>
+      <c r="M16" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N16" t="e">
+        <v>12</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P16">
         <v>13</v>
@@ -6710,11 +6716,11 @@
       </c>
       <c r="R16" s="7">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="U16" s="29"/>
     </row>
-    <row r="17" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>76</v>
       </c>
@@ -6731,15 +6737,15 @@
       </c>
       <c r="L17" s="26">
         <f t="shared" si="2"/>
-        <v>2.0153812643461118E+32</v>
-      </c>
-      <c r="M17" s="13" t="e">
+        <v>1792160394037</v>
+      </c>
+      <c r="M17" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N17" t="e">
+        <v>13</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P17">
         <v>14</v>
@@ -6750,11 +6756,11 @@
       </c>
       <c r="R17" s="7">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="U17" s="29"/>
     </row>
-    <row r="18" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>77</v>
       </c>
@@ -6767,19 +6773,19 @@
       </c>
       <c r="K18" s="13">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L18" s="26">
         <f>POWER(K18,F$4)</f>
-        <v>1.7286737396774712E+33</v>
-      </c>
-      <c r="M18" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N18" t="e">
+        <v>0</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P18">
         <v>15</v>
@@ -6794,7 +6800,7 @@
       </c>
       <c r="U18" s="29"/>
     </row>
-    <row r="19" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
         <v>78</v>
       </c>
@@ -6807,34 +6813,34 @@
       </c>
       <c r="K19" s="13">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L19" s="26">
         <f t="shared" si="2"/>
-        <v>1.2783403948858939E+34</v>
-      </c>
-      <c r="M19" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="M19" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N19" t="e">
+        <v>1</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P19">
         <v>16</v>
       </c>
       <c r="Q19">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U19" s="29"/>
     </row>
-    <row r="20" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>79</v>
       </c>
@@ -6847,19 +6853,19 @@
       </c>
       <c r="K20" s="13">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="2"/>
-        <v>1.5863092971714916E+30</v>
-      </c>
-      <c r="M20" s="13" t="e">
+        <v>4194304</v>
+      </c>
+      <c r="M20" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N20" t="e">
+        <v>2</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P20">
         <v>17</v>
@@ -6870,11 +6876,11 @@
       </c>
       <c r="R20" s="7">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U20" s="29"/>
     </row>
-    <row r="21" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
         <v>80</v>
       </c>
@@ -6887,19 +6893,19 @@
       </c>
       <c r="K21" s="13">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="2"/>
-        <v>1.9781359483314151E+31</v>
-      </c>
-      <c r="M21" s="13" t="e">
+        <v>48828125</v>
+      </c>
+      <c r="M21" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N21" t="e">
+        <v>3</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P21">
         <v>18</v>
@@ -6910,11 +6916,11 @@
       </c>
       <c r="R21" s="7">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U21" s="29"/>
     </row>
-    <row r="22" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H22" t="s">
         <v>81</v>
       </c>
@@ -6927,19 +6933,19 @@
       </c>
       <c r="K22" s="13">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="L22" s="26">
         <f t="shared" si="2"/>
-        <v>3.0910586430935376E+39</v>
-      </c>
-      <c r="M22" s="13" t="e">
+        <v>2048</v>
+      </c>
+      <c r="M22" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N22" t="e">
+        <v>4</v>
+      </c>
+      <c r="N22" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P22">
         <v>19</v>
@@ -6950,10 +6956,10 @@
       </c>
       <c r="R22" s="7">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="8:21" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>82</v>
       </c>
@@ -6966,33 +6972,33 @@
       </c>
       <c r="K23" s="13">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="L23" s="26">
         <f t="shared" si="2"/>
-        <v>1.0620036506406717E+40</v>
-      </c>
-      <c r="M23" s="13" t="e">
+        <v>177147</v>
+      </c>
+      <c r="M23" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N23" t="e">
+        <v>5</v>
+      </c>
+      <c r="N23" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P23">
         <v>20</v>
       </c>
       <c r="Q23">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R23" s="7">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
         <v>83</v>
       </c>
@@ -7005,19 +7011,19 @@
       </c>
       <c r="K24" s="13">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L24" s="26">
         <f t="shared" si="2"/>
-        <v>5.3687091199999995E+37</v>
-      </c>
-      <c r="M24" s="13" t="e">
+        <v>362797056</v>
+      </c>
+      <c r="M24" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N24" t="e">
+        <v>6</v>
+      </c>
+      <c r="N24" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P24">
         <v>21</v>
@@ -7028,10 +7034,10 @@
       </c>
       <c r="R24" s="7">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="8:21" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>84</v>
       </c>
@@ -7044,19 +7050,19 @@
       </c>
       <c r="K25" s="13">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L25" s="26">
         <f t="shared" si="2"/>
-        <v>2.2098334710081732E+38</v>
-      </c>
-      <c r="M25" s="13" t="e">
+        <v>1977326743</v>
+      </c>
+      <c r="M25" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N25" t="e">
+        <v>7</v>
+      </c>
+      <c r="N25" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P25">
         <v>22</v>
@@ -7067,10 +7073,10 @@
       </c>
       <c r="R25" s="7">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="8:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
         <v>85</v>
       </c>
@@ -7083,19 +7089,19 @@
       </c>
       <c r="K26" s="13">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="2"/>
-        <v>8.5164331908653772E+38</v>
-      </c>
-      <c r="M26" s="13" t="e">
+        <v>8589934592</v>
+      </c>
+      <c r="M26" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N26" t="e">
+        <v>8</v>
+      </c>
+      <c r="N26" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P26">
         <v>23</v>
@@ -7106,10 +7112,10 @@
       </c>
       <c r="R26" s="7">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="8:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
         <v>86</v>
       </c>
@@ -7122,33 +7128,33 @@
       </c>
       <c r="K27" s="13">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L27" s="26">
         <f t="shared" si="2"/>
-        <v>2.5287310893279634E+36</v>
-      </c>
-      <c r="M27" s="13" t="e">
+        <v>285311670611</v>
+      </c>
+      <c r="M27" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N27" t="e">
+        <v>9</v>
+      </c>
+      <c r="N27" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P27">
         <v>24</v>
       </c>
       <c r="Q27">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R27" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H28" t="s">
         <v>87</v>
       </c>
@@ -7161,19 +7167,19 @@
       </c>
       <c r="K28" s="13">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="2"/>
-        <v>1.2129821994589221E+37</v>
-      </c>
-      <c r="M28" s="13" t="e">
+        <v>743008370688</v>
+      </c>
+      <c r="M28" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N28" t="e">
+        <v>10</v>
+      </c>
+      <c r="N28" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P28">
         <v>25</v>
@@ -7187,7 +7193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H29" t="s">
         <v>88</v>
       </c>
@@ -7200,19 +7206,19 @@
       </c>
       <c r="K29" s="13">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="L29" s="26">
         <f t="shared" si="2"/>
-        <v>6.8630377364882997E+42</v>
-      </c>
-      <c r="M29" s="13" t="e">
+        <v>31381059609</v>
+      </c>
+      <c r="M29" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N29" t="e">
+        <v>11</v>
+      </c>
+      <c r="N29" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>no</v>
       </c>
       <c r="P29">
         <v>26</v>
@@ -7223,10 +7229,10 @@
       </c>
       <c r="R29" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="8:21" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="8:21" x14ac:dyDescent="0.3">
       <c r="P30">
         <v>27</v>
       </c>
@@ -7236,23 +7242,23 @@
       </c>
       <c r="R30" s="7">
         <f t="shared" ref="R30:R35" si="8">IF(P30&lt;=E$4,"-",MOD(P30*E$4,D$4))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="8:21" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="8:21" x14ac:dyDescent="0.3">
       <c r="P31">
         <v>28</v>
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="8:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="8:21" x14ac:dyDescent="0.3">
       <c r="P32">
         <v>29</v>
       </c>
@@ -7265,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P33">
         <v>30</v>
       </c>
@@ -7275,10 +7281,10 @@
       </c>
       <c r="R33" s="7">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="16:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P34">
         <v>31</v>
       </c>
@@ -7288,23 +7294,23 @@
       </c>
       <c r="R34" s="7">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P35">
         <v>32</v>
       </c>
       <c r="Q35">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="16:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P36">
         <v>33</v>
       </c>
@@ -7314,10 +7320,10 @@
       </c>
       <c r="R36" s="7">
         <f t="shared" ref="R36:R53" si="10">IF(P36&lt;=E$4,"-",MOD(P36*E$4,D$4))</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="16:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P37">
         <v>34</v>
       </c>
@@ -7330,7 +7336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P38">
         <v>35</v>
       </c>
@@ -7340,23 +7346,23 @@
       </c>
       <c r="R38" s="7">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="16:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P39">
         <v>36</v>
       </c>
       <c r="Q39">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R39" s="7">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="16:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P40">
         <v>37</v>
       </c>
@@ -7366,10 +7372,10 @@
       </c>
       <c r="R40" s="7">
         <f t="shared" si="10"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="16:18" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P41">
         <v>38</v>
       </c>
@@ -7379,10 +7385,10 @@
       </c>
       <c r="R41" s="7">
         <f t="shared" si="10"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="16:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P42">
         <v>39</v>
       </c>
@@ -7395,20 +7401,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P43">
         <v>40</v>
       </c>
       <c r="Q43">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R43" s="7">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="16:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P44">
         <v>41</v>
       </c>
@@ -7418,10 +7424,10 @@
       </c>
       <c r="R44" s="7">
         <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="16:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P45">
         <v>42</v>
       </c>
@@ -7431,10 +7437,10 @@
       </c>
       <c r="R45" s="7">
         <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="16:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P46">
         <v>43</v>
       </c>
@@ -7444,23 +7450,23 @@
       </c>
       <c r="R46" s="7">
         <f t="shared" si="10"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="16:18" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P47">
         <v>44</v>
       </c>
       <c r="Q47">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R47" s="7">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P48">
         <v>45</v>
       </c>
@@ -7470,10 +7476,10 @@
       </c>
       <c r="R48" s="7">
         <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P49">
         <v>46</v>
       </c>
@@ -7483,10 +7489,10 @@
       </c>
       <c r="R49" s="7">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="16:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P50">
         <v>47</v>
       </c>
@@ -7496,23 +7502,23 @@
       </c>
       <c r="R50" s="7">
         <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="16:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P51">
         <v>48</v>
       </c>
       <c r="Q51">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R51" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P52">
         <v>49</v>
       </c>
@@ -7525,7 +7531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P53">
         <v>50</v>
       </c>
@@ -7535,7 +7541,7 @@
       </c>
       <c r="R53" s="7">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7573,19 +7579,19 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>185</v>
       </c>
@@ -7606,7 +7612,7 @@
       </c>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>159</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -7640,7 +7646,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -7657,7 +7663,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7674,7 +7680,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>167</v>
       </c>
@@ -7691,7 +7697,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -7711,7 +7717,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -7728,7 +7734,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -7745,7 +7751,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>174</v>
       </c>
@@ -7753,7 +7759,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -7764,7 +7770,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -7773,13 +7779,13 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>179</v>
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>180</v>
       </c>
@@ -7788,7 +7794,7 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -7797,7 +7803,7 @@
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>184</v>
       </c>
@@ -7812,13 +7818,13 @@
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>187</v>
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>67</v>
       </c>
@@ -7830,7 +7836,7 @@
       </c>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>79</v>
       </c>
@@ -7839,7 +7845,7 @@
       </c>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -7848,7 +7854,7 @@
       </c>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>181</v>
       </c>
@@ -7860,13 +7866,13 @@
       </c>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>194</v>
       </c>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>209</v>
       </c>
@@ -7881,7 +7887,7 @@
       </c>
       <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -7896,7 +7902,7 @@
       </c>
       <c r="H24" s="29"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -7907,7 +7913,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -7921,12 +7927,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>207</v>
       </c>
@@ -7934,7 +7940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>208</v>
       </c>
@@ -7942,7 +7948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>208</v>
       </c>
@@ -7950,7 +7956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>209</v>
       </c>
@@ -7958,7 +7964,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>196</v>
       </c>
@@ -7966,7 +7972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -7988,19 +7994,19 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>231</v>
       </c>
@@ -8011,7 +8017,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -8022,7 +8028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -8033,7 +8039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -8044,7 +8050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -8069,7 +8075,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>232</v>
       </c>
@@ -8083,7 +8089,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -8109,7 +8115,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -8132,7 +8138,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>245</v>
       </c>
@@ -8155,7 +8161,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -8166,7 +8172,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -8180,7 +8186,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>255</v>
       </c>
@@ -8203,7 +8209,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -8223,7 +8229,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>263</v>
       </c>
@@ -8247,7 +8253,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -8272,17 +8278,17 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -8296,7 +8302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8320,7 +8326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D4">
         <f>D3-B3</f>
         <v>-3</v>
@@ -8334,7 +8340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H5" s="26">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -8344,7 +8350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" s="26">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -8354,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H7" s="26">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -8364,7 +8370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" s="26">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -8374,7 +8380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="26">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -8384,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="26">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -8394,7 +8400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H11" s="26">
         <f t="shared" ref="H11:H40" si="2">H10+H$3</f>
         <v>18</v>
@@ -8404,7 +8410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H12" s="26">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -8414,7 +8420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H13" s="26">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -8424,7 +8430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H14" s="26">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -8434,7 +8440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -8444,7 +8450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H16" s="26">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -8454,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="26">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -8464,7 +8470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="26">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -8474,7 +8480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="26">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -8484,7 +8490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="26">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -8494,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="26">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -8504,7 +8510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="26">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -8514,7 +8520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="26">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -8524,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="26">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -8534,7 +8540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="26">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -8544,7 +8550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="26">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -8554,7 +8560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="26">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -8564,7 +8570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="26">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -8574,7 +8580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="26">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -8584,7 +8590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="26">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -8594,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="26">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -8604,7 +8610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="26">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -8614,7 +8620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33" s="26">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -8624,7 +8630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34" s="26">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -8634,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="26">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -8644,7 +8650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="26">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -8654,7 +8660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="26">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -8664,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="26">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -8674,7 +8680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="26">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -8684,7 +8690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H40" s="26">
         <f t="shared" si="2"/>
         <v>76</v>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC841EC-D203-465D-842B-C1B0CC84743E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265D58E0-60CC-4CFC-A9CD-8BECB7295FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -32,18 +32,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="372">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -978,12 +972,6 @@
     <t>(3 ^ 3 mod 7 = 6)</t>
   </si>
   <si>
-    <t>(3 ^ 4 mod 7 = 4)</t>
-  </si>
-  <si>
-    <t>(4 ^ 3 mod 7 = 1), (6 ^ 4 mod 7 = 1)</t>
-  </si>
-  <si>
     <t>Exponent</t>
   </si>
   <si>
@@ -1041,12 +1029,6 @@
     <t>(11,26)</t>
   </si>
   <si>
-    <t>(3 x 11 mod 26 = 7)</t>
-  </si>
-  <si>
-    <t>(7 x 19 mod 26 = 3)</t>
-  </si>
-  <si>
     <t>Figure 6. Finding the modular multiplicative inverse.</t>
   </si>
   <si>
@@ -1065,18 +1047,6 @@
     <t>Inverse?</t>
   </si>
   <si>
-    <t>(11 x 1 mod 26 = 11)</t>
-  </si>
-  <si>
-    <t>(11 x 2 mod 26 = 22)</t>
-  </si>
-  <si>
-    <t>(11 x 3 mod 26 = 7)</t>
-  </si>
-  <si>
-    <t>(11 x 4 mod 26 = 18)</t>
-  </si>
-  <si>
     <t>5 x 7 = 35</t>
   </si>
   <si>
@@ -1089,31 +1059,100 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>29 x 5 = 1 mod 24</t>
-  </si>
-  <si>
-    <t>33 ^ 29 = 3 mod 35</t>
-  </si>
-  <si>
     <t>Figure 7. Encryption and decryption using "textbook" RSA.</t>
   </si>
   <si>
     <t>(5 - 1) x (7 - 1) = 24</t>
   </si>
   <si>
-    <t>3 ^ 5 mod 35</t>
-  </si>
-  <si>
-    <t>GCD(5,  24) = 1</t>
-  </si>
-  <si>
     <t>gcd(e, n)</t>
   </si>
   <si>
     <t>d x e = 1 mod n</t>
   </si>
   <si>
-    <t>(11 x 19 mod 26 = 1)</t>
+    <t>gcd(e, t)</t>
+  </si>
+  <si>
+    <t>t(n)</t>
+  </si>
+  <si>
+    <t>d x e = 1 mod t</t>
+  </si>
+  <si>
+    <t>Coprime?</t>
+  </si>
+  <si>
+    <t>(3 ^ 5 = 33 mod 35)</t>
+  </si>
+  <si>
+    <t>(29 ^ 5 = 1 mod 24)</t>
+  </si>
+  <si>
+    <t>(33 ^ 29 = 3 mod 35)</t>
+  </si>
+  <si>
+    <t>(3 ^ 3 = 6 mod 7)</t>
+  </si>
+  <si>
+    <t>(3 ^ 4 = 4 mod 7)</t>
+  </si>
+  <si>
+    <t>(4 ^ 3 = 1 mod 7), (6 ^ 4 = 1 mod 7)</t>
+  </si>
+  <si>
+    <t>(7 x 19 = 3 mod 26)</t>
+  </si>
+  <si>
+    <t>(11 x 1 = 11 mod 26)</t>
+  </si>
+  <si>
+    <t>(11 x 2 = 22 mod 26)</t>
+  </si>
+  <si>
+    <t>(11 x 3 = 7 mod 26)</t>
+  </si>
+  <si>
+    <t>(11 x 4= 18 mod 26)</t>
+  </si>
+  <si>
+    <t>(11 x 19 = 1 mod 26)</t>
+  </si>
+  <si>
+    <t>Divisor</t>
+  </si>
+  <si>
+    <t>Figure 9. Euler's totient function.</t>
+  </si>
+  <si>
+    <t>Figure 9. Finding the modular multiplicative inverse.</t>
+  </si>
+  <si>
+    <t>(5 x 1 = 5 mod 24)</t>
+  </si>
+  <si>
+    <t>(5 x 2 = 10 mod 24)</t>
+  </si>
+  <si>
+    <t>(5 x 3 = 15 mod 24)</t>
+  </si>
+  <si>
+    <t>(5 x 4 = 20 mod 24)</t>
+  </si>
+  <si>
+    <t>(5 x 5 = 1 mod 24)</t>
+  </si>
+  <si>
+    <t>(5 x 6 = 6 mod 24)</t>
+  </si>
+  <si>
+    <t>(5 x 29 = 1 mod 24)</t>
+  </si>
+  <si>
+    <t>(3 x 11 = 7 mod 26)</t>
+  </si>
+  <si>
+    <t>gcd(5, 24) = 1</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,6 +1371,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1665,7 +1711,7 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1704,25 +1750,25 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="45" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="45" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="1" t="s">
@@ -1735,31 +1781,31 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="45" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="50"/>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="47"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19" t="s">
         <v>99</v>
@@ -3329,10 +3375,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U31" s="48" t="s">
+      <c r="U31" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="V31" s="48"/>
+      <c r="V31" s="51"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U32" t="s">
@@ -3732,10 +3778,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E13DE6-8DF4-4B7C-B600-DC44B025BC54}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3744,21 +3790,27 @@
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="8.109375" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.21875" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.21875" customWidth="1"/>
+    <col min="21" max="21" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>300</v>
       </c>
@@ -3783,7 +3835,7 @@
       <c r="N1" s="33"/>
       <c r="Q1" s="33"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3798,14 +3850,14 @@
         <v>96</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>99</v>
+        <v>360</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="33" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3819,34 +3871,47 @@
         <v>2</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="40" t="s">
-        <v>315</v>
-      </c>
       <c r="J3" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>302</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="R3" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="R3" s="39" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T3" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="X3" s="45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3867,7 +3932,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N4" s="5">
         <v>1</v>
@@ -3884,10 +3949,28 @@
         <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y4" s="39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3914,7 +3997,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N5" s="4">
         <v>2</v>
@@ -3931,10 +4014,30 @@
         <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5">
+        <v>24</v>
+      </c>
+      <c r="V5" s="5">
+        <f>GCD(T5,U5)</f>
+        <v>1</v>
+      </c>
+      <c r="W5" s="5">
+        <v>35</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" ref="X5:X39" si="4">MOD(T5*T$9,U5)</f>
+        <v>5</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3976,10 +4079,30 @@
         <v>7</v>
       </c>
       <c r="R6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+      <c r="T6" s="4">
+        <v>2</v>
+      </c>
+      <c r="U6" s="5">
+        <v>24</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" ref="V6:V39" si="5">GCD(T6,U6)</f>
+        <v>2</v>
+      </c>
+      <c r="W6" s="5">
+        <v>35</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4000,7 +4123,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N7" s="4">
         <v>4</v>
@@ -4017,10 +4140,30 @@
         <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+      <c r="T7" s="5">
+        <v>3</v>
+      </c>
+      <c r="U7" s="5">
+        <v>24</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="W7" s="5">
+        <v>35</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4061,10 +4204,30 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="T8" s="4">
+        <v>4</v>
+      </c>
+      <c r="U8" s="5">
+        <v>24</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="W8" s="5">
+        <v>35</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4102,8 +4265,28 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T9" s="43">
+        <v>5</v>
+      </c>
+      <c r="U9" s="5">
+        <v>24</v>
+      </c>
+      <c r="V9" s="43">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="5">
+        <v>35</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4144,8 +4327,28 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T10" s="4">
+        <v>6</v>
+      </c>
+      <c r="U10" s="5">
+        <v>24</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="W10" s="5">
+        <v>35</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H11" s="4">
         <v>8</v>
       </c>
@@ -4171,10 +4374,30 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T11" s="5">
+        <v>7</v>
+      </c>
+      <c r="U11" s="5">
+        <v>24</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="5">
+        <v>35</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4204,8 +4427,25 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T12" s="4">
+        <v>8</v>
+      </c>
+      <c r="U12" s="5">
+        <v>24</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="W12" s="5">
+        <v>35</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H13" s="4">
         <v>10</v>
       </c>
@@ -4231,8 +4471,25 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T13" s="5">
+        <v>9</v>
+      </c>
+      <c r="U13" s="5">
+        <v>24</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="W13" s="5">
+        <v>35</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>300</v>
       </c>
@@ -4273,8 +4530,25 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T14" s="4">
+        <v>10</v>
+      </c>
+      <c r="U14" s="5">
+        <v>24</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W14" s="5">
+        <v>35</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -4303,15 +4577,32 @@
         <v>26</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" ref="P15:P29" si="4">GCD(N15,O15)</f>
+        <f t="shared" ref="P15:P29" si="6">GCD(N15,O15)</f>
         <v>2</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T15" s="4">
+        <v>11</v>
+      </c>
+      <c r="U15" s="5">
+        <v>24</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="5">
+        <v>35</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -4331,15 +4622,32 @@
         <v>26</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T16" s="4">
+        <v>12</v>
+      </c>
+      <c r="U16" s="5">
+        <v>24</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="W16" s="5">
+        <v>35</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -4349,7 +4657,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="H17" s="42" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N17" s="4">
         <v>14</v>
@@ -4358,15 +4666,32 @@
         <v>26</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T17" s="4">
+        <v>13</v>
+      </c>
+      <c r="U17" s="5">
+        <v>24</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W17" s="5">
+        <v>35</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -4388,15 +4713,32 @@
         <v>26</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T18" s="4">
+        <v>14</v>
+      </c>
+      <c r="U18" s="5">
+        <v>24</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W18" s="5">
+        <v>35</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -4416,15 +4758,32 @@
         <v>26</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T19" s="4">
+        <v>15</v>
+      </c>
+      <c r="U19" s="5">
+        <v>24</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="W19" s="5">
+        <v>35</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -4440,15 +4799,32 @@
         <v>26</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T20" s="4">
+        <v>16</v>
+      </c>
+      <c r="U20" s="5">
+        <v>24</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="W20" s="5">
+        <v>35</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -4470,15 +4846,32 @@
         <v>26</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T21" s="4">
+        <v>17</v>
+      </c>
+      <c r="U21" s="5">
+        <v>24</v>
+      </c>
+      <c r="V21" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W21" s="5">
+        <v>35</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -4498,7 +4891,7 @@
         <v>26</v>
       </c>
       <c r="P22" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q22" s="43">
@@ -4506,10 +4899,27 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="T22" s="4">
+        <v>18</v>
+      </c>
+      <c r="U22" s="5">
+        <v>24</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="W22" s="5">
+        <v>35</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>9</v>
       </c>
@@ -4532,15 +4942,32 @@
         <v>26</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T23" s="4">
+        <v>19</v>
+      </c>
+      <c r="U23" s="5">
+        <v>24</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W23" s="5">
+        <v>35</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4551,17 +4978,34 @@
         <v>26</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T24" s="4">
+        <v>20</v>
+      </c>
+      <c r="U24" s="5">
+        <v>24</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="W24" s="5">
+        <v>35</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N25" s="4">
         <v>22</v>
@@ -4570,15 +5014,32 @@
         <v>26</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T25" s="4">
+        <v>21</v>
+      </c>
+      <c r="U25" s="5">
+        <v>24</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="W25" s="5">
+        <v>35</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N26" s="4">
         <v>23</v>
       </c>
@@ -4586,15 +5047,32 @@
         <v>26</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T26" s="4">
+        <v>22</v>
+      </c>
+      <c r="U26" s="5">
+        <v>24</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W26" s="5">
+        <v>35</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N27" s="4">
         <v>24</v>
       </c>
@@ -4602,15 +5080,32 @@
         <v>26</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T27" s="4">
+        <v>23</v>
+      </c>
+      <c r="U27" s="5">
+        <v>24</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W27" s="5">
+        <v>35</v>
+      </c>
+      <c r="X27" s="4">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N28" s="4">
         <v>25</v>
       </c>
@@ -4618,15 +5113,32 @@
         <v>26</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T28" s="4">
+        <v>24</v>
+      </c>
+      <c r="U28" s="5">
+        <v>24</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="W28" s="5">
+        <v>35</v>
+      </c>
+      <c r="X28" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>300</v>
       </c>
@@ -4649,15 +5161,32 @@
         <v>26</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T29" s="4">
+        <v>25</v>
+      </c>
+      <c r="U29" s="5">
+        <v>24</v>
+      </c>
+      <c r="V29" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W29" s="5">
+        <v>35</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -4666,8 +5195,25 @@
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T30" s="4">
+        <v>26</v>
+      </c>
+      <c r="U30" s="5">
+        <v>24</v>
+      </c>
+      <c r="V30" s="5">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W30" s="5">
+        <v>35</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -4679,10 +5225,27 @@
       </c>
       <c r="D31" s="4"/>
       <c r="N31" s="42" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="T31" s="4">
+        <v>27</v>
+      </c>
+      <c r="U31" s="5">
+        <v>24</v>
+      </c>
+      <c r="V31" s="5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="W31" s="5">
+        <v>35</v>
+      </c>
+      <c r="X31" s="4">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -4693,8 +5256,25 @@
       <c r="D32" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="T32" s="4">
+        <v>28</v>
+      </c>
+      <c r="U32" s="5">
+        <v>24</v>
+      </c>
+      <c r="V32" s="5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="W32" s="5">
+        <v>35</v>
+      </c>
+      <c r="X32" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>4</v>
       </c>
@@ -4703,8 +5283,32 @@
       <c r="D33" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="46"/>
+      <c r="T33" s="43">
+        <v>29</v>
+      </c>
+      <c r="U33" s="5">
+        <v>24</v>
+      </c>
+      <c r="V33" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W33" s="5">
+        <v>35</v>
+      </c>
+      <c r="X33" s="43">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -4713,8 +5317,38 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="R34" s="25"/>
+      <c r="T34" s="4">
+        <v>30</v>
+      </c>
+      <c r="U34" s="5">
+        <v>24</v>
+      </c>
+      <c r="V34" s="5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="W34" s="5">
+        <v>35</v>
+      </c>
+      <c r="X34" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>6</v>
       </c>
@@ -4727,10 +5361,41 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <v>35</v>
+      </c>
+      <c r="P35" s="5">
+        <f>GCD(N35,O35)</f>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4" t="str">
+        <f>IF(P35=1,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="T35" s="4">
+        <v>31</v>
+      </c>
+      <c r="U35" s="5">
+        <v>24</v>
+      </c>
+      <c r="V35" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W35" s="5">
+        <v>35</v>
+      </c>
+      <c r="X35" s="4">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>7</v>
       </c>
@@ -4741,8 +5406,39 @@
       <c r="D36" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N36" s="4">
+        <v>2</v>
+      </c>
+      <c r="O36" s="4">
+        <v>35</v>
+      </c>
+      <c r="P36" s="5">
+        <f>GCD(N36,O36)</f>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4" t="str">
+        <f t="shared" ref="Q36:Q69" si="7">IF(P36=1,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="T36" s="4">
+        <v>32</v>
+      </c>
+      <c r="U36" s="5">
+        <v>24</v>
+      </c>
+      <c r="V36" s="5">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="W36" s="5">
+        <v>35</v>
+      </c>
+      <c r="X36" s="4">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>8</v>
       </c>
@@ -4751,8 +5447,39 @@
       <c r="D37" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N37" s="5">
+        <v>3</v>
+      </c>
+      <c r="O37" s="5">
+        <v>35</v>
+      </c>
+      <c r="P37" s="5">
+        <f>GCD(N37,O37)</f>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="T37" s="4">
+        <v>33</v>
+      </c>
+      <c r="U37" s="5">
+        <v>24</v>
+      </c>
+      <c r="V37" s="5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="W37" s="5">
+        <v>35</v>
+      </c>
+      <c r="X37" s="4">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>9</v>
       </c>
@@ -4765,10 +5492,41 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="N38" s="5">
+        <v>4</v>
+      </c>
+      <c r="O38" s="5">
+        <v>35</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" ref="P38:P69" si="8">GCD(N38,O38)</f>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="T38" s="4">
+        <v>34</v>
+      </c>
+      <c r="U38" s="5">
+        <v>24</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W38" s="5">
+        <v>35</v>
+      </c>
+      <c r="X38" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>10</v>
       </c>
@@ -4779,8 +5537,39 @@
         <v>4</v>
       </c>
       <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N39" s="5">
+        <v>5</v>
+      </c>
+      <c r="O39" s="5">
+        <v>35</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q39" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="T39" s="4">
+        <v>35</v>
+      </c>
+      <c r="U39" s="5">
+        <v>24</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W39" s="5">
+        <v>35</v>
+      </c>
+      <c r="X39" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>11</v>
       </c>
@@ -4794,28 +5583,89 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+      <c r="N40" s="4">
+        <v>6</v>
+      </c>
+      <c r="O40" s="5">
+        <v>35</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N41" s="5">
+        <v>7</v>
+      </c>
+      <c r="O41" s="5">
+        <v>35</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="Q41" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="T41" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N42" s="5">
+        <v>8</v>
+      </c>
+      <c r="O42" s="5">
+        <v>35</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N43" s="5">
+        <v>9</v>
+      </c>
+      <c r="O43" s="5">
+        <v>35</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>300</v>
       </c>
@@ -4831,8 +5681,22 @@
       <c r="E44" s="39" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N44" s="4">
+        <v>10</v>
+      </c>
+      <c r="O44" s="5">
+        <v>35</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q44" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -4841,8 +5705,22 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N45" s="5">
+        <v>11</v>
+      </c>
+      <c r="O45" s="5">
+        <v>35</v>
+      </c>
+      <c r="P45" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -4852,20 +5730,48 @@
       <c r="C46" s="37" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N46" s="5">
+        <v>12</v>
+      </c>
+      <c r="O46" s="5">
+        <v>35</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>3</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D47" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N47" s="5">
+        <v>13</v>
+      </c>
+      <c r="O47" s="5">
+        <v>35</v>
+      </c>
+      <c r="P47" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>4</v>
       </c>
@@ -4874,98 +5780,237 @@
       <c r="D48" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N48" s="4">
+        <v>14</v>
+      </c>
+      <c r="O48" s="5">
+        <v>35</v>
+      </c>
+      <c r="P48" s="5">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="Q48" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>5</v>
       </c>
-      <c r="B49" s="4">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4">
         <v>3</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N49" s="5">
+        <v>15</v>
+      </c>
+      <c r="O49" s="5">
+        <v>35</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q49" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>6</v>
       </c>
-      <c r="B50" s="4">
-        <f>MOD(B49*B45,B46)</f>
+      <c r="B50" s="4"/>
+      <c r="C50" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" s="4">
+        <f>MOD(D49*D47,D48)</f>
         <v>7</v>
       </c>
-      <c r="C50" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="D50" s="4"/>
       <c r="E50" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="N50" s="5">
+        <v>16</v>
+      </c>
+      <c r="O50" s="5">
+        <v>35</v>
+      </c>
+      <c r="P50" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>7</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4">
-        <f>B50</f>
-        <v>7</v>
-      </c>
-      <c r="D51" s="4">
+      <c r="B51" s="4">
         <f>C51</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="4">
+        <f>D50</f>
+        <v>7</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="N51" s="5">
+        <v>17</v>
+      </c>
+      <c r="O51" s="5">
+        <v>35</v>
+      </c>
+      <c r="P51" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="4">
+        <v>19</v>
+      </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D52" s="4"/>
+      <c r="N52" s="4">
+        <v>18</v>
+      </c>
+      <c r="O52" s="5">
+        <v>35</v>
+      </c>
+      <c r="P52" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>9</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="4">
+        <f>MOD(B51*B52,B46)</f>
+        <v>3</v>
+      </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4">
-        <f>MOD(D52*D51,D48)</f>
-        <v>3</v>
-      </c>
+      <c r="D53" s="4"/>
       <c r="E53" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+      <c r="N53" s="5">
+        <v>19</v>
+      </c>
+      <c r="O53" s="5">
+        <v>35</v>
+      </c>
+      <c r="P53" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N54" s="5">
+        <v>20</v>
+      </c>
+      <c r="O54" s="5">
+        <v>35</v>
+      </c>
+      <c r="P54" s="5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q54" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="42" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N55" s="5">
+        <v>21</v>
+      </c>
+      <c r="O55" s="5">
+        <v>35</v>
+      </c>
+      <c r="P55" s="5">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="Q55" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E57" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="F57" s="49"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N56" s="4">
+        <v>22</v>
+      </c>
+      <c r="O56" s="5">
+        <v>35</v>
+      </c>
+      <c r="P56" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E57" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="F57" s="52"/>
+      <c r="N57" s="5">
+        <v>23</v>
+      </c>
+      <c r="O57" s="5">
+        <v>35</v>
+      </c>
+      <c r="P57" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>300</v>
       </c>
@@ -4979,206 +6024,371 @@
         <v>7</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N58" s="4">
+        <v>24</v>
+      </c>
+      <c r="O58" s="5">
+        <v>35</v>
+      </c>
+      <c r="P58" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>1</v>
       </c>
-      <c r="D59" s="4">
+      <c r="B59" s="4">
         <v>5</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N59" s="5">
+        <v>25</v>
+      </c>
+      <c r="O59" s="5">
+        <v>35</v>
+      </c>
+      <c r="P59" s="5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q59" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>2</v>
       </c>
-      <c r="D60" s="4">
+      <c r="B60" s="4">
         <v>7</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N60" s="5">
+        <v>26</v>
+      </c>
+      <c r="O60" s="5">
+        <v>35</v>
+      </c>
+      <c r="P60" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q60" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>3</v>
       </c>
+      <c r="B61" s="4">
+        <f>B59*B60</f>
+        <v>35</v>
+      </c>
       <c r="C61" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="D61" s="4">
-        <f>D59*D60</f>
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="N61" s="5">
+        <v>27</v>
+      </c>
+      <c r="O61" s="5">
+        <v>35</v>
+      </c>
+      <c r="P61" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>4</v>
       </c>
-      <c r="B62" s="4">
+      <c r="C62" s="4">
+        <f>B61</f>
         <v>35</v>
       </c>
-      <c r="C62" s="4">
-        <f>D61</f>
+      <c r="D62" s="4">
         <v>35</v>
       </c>
-      <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N62" s="4">
+        <v>28</v>
+      </c>
+      <c r="O62" s="5">
+        <v>35</v>
+      </c>
+      <c r="P62" s="5">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="Q62" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>5</v>
       </c>
-      <c r="B63" s="4"/>
+      <c r="B63" s="4">
+        <f>(B59-1)*(B60-1)</f>
+        <v>24</v>
+      </c>
       <c r="C63" s="37"/>
-      <c r="D63" s="4">
-        <f>(D59-1)*(D60-1)</f>
-        <v>24</v>
-      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
         <v>121</v>
       </c>
       <c r="G63" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="N63" s="5">
+        <v>29</v>
+      </c>
+      <c r="O63" s="5">
+        <v>35</v>
+      </c>
+      <c r="P63" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q63" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>6</v>
       </c>
-      <c r="B64" s="4"/>
+      <c r="B64" s="4">
+        <v>5</v>
+      </c>
       <c r="C64" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="D64" s="4">
-        <v>5</v>
+        <v>299</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+      <c r="N64" s="4">
+        <v>30</v>
+      </c>
+      <c r="O64" s="5">
+        <v>35</v>
+      </c>
+      <c r="P64" s="5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q64" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>7</v>
       </c>
-      <c r="B65" s="4">
-        <v>5</v>
-      </c>
+      <c r="B65" s="4"/>
       <c r="C65" s="4">
         <v>5</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="4">
+        <v>5</v>
+      </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N65" s="5">
+        <v>31</v>
+      </c>
+      <c r="O65" s="5">
+        <v>35</v>
+      </c>
+      <c r="P65" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q65" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>8</v>
       </c>
-      <c r="B66" s="33">
+      <c r="C66" s="4"/>
+      <c r="D66" s="33">
         <v>3</v>
       </c>
-      <c r="C66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N66" s="5">
+        <v>32</v>
+      </c>
+      <c r="O66" s="5">
+        <v>35</v>
+      </c>
+      <c r="P66" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>9</v>
       </c>
-      <c r="B67" s="4">
-        <f>MOD(POWER(B66,B65),B62)</f>
+      <c r="B67" s="4"/>
+      <c r="C67" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D67" s="4">
         <v>33</v>
       </c>
-      <c r="C67" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="N67" s="5">
+        <v>33</v>
+      </c>
+      <c r="O67" s="5">
+        <v>35</v>
+      </c>
+      <c r="P67" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q67" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>10</v>
       </c>
-      <c r="B68" s="4"/>
+      <c r="B68" s="4">
+        <v>33</v>
+      </c>
       <c r="C68" s="4">
         <v>33</v>
       </c>
-      <c r="D68" s="4">
-        <v>33</v>
-      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N68" s="4">
+        <v>34</v>
+      </c>
+      <c r="O68" s="5">
+        <v>35</v>
+      </c>
+      <c r="P68" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q68" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>11</v>
       </c>
-      <c r="B69" s="4"/>
+      <c r="B69" s="4">
+        <v>29</v>
+      </c>
       <c r="C69" s="4"/>
-      <c r="D69" s="4">
-        <v>29</v>
-      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="N69" s="5">
+        <v>35</v>
+      </c>
+      <c r="O69" s="5">
+        <v>35</v>
+      </c>
+      <c r="P69" s="5">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="Q69" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>12</v>
       </c>
-      <c r="B70" s="4"/>
+      <c r="B70" s="33">
+        <v>3</v>
+      </c>
       <c r="C70" s="4"/>
-      <c r="D70" s="33">
-        <v>3</v>
-      </c>
       <c r="G70" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N71" s="47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5198,8 +6408,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5253,10 +6463,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="19" t="s">
         <v>99</v>
       </c>
@@ -5291,11 +6501,11 @@
         <v>23</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -5426,10 +6636,10 @@
         <v>32</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>28</v>
@@ -5482,10 +6692,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -5507,16 +6717,16 @@
         <v>6</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -5546,7 +6756,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -5565,12 +6775,12 @@
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -5911,7 +7121,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H30">
         <v>25</v>
@@ -5930,7 +7140,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H31">
         <v>26</v>
@@ -6029,7 +7239,7 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6053,37 +7263,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="49"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="J2" s="49" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="J2" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49" t="s">
+      <c r="K2" s="52"/>
+      <c r="L2" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="P2" s="49" t="s">
+      <c r="M2" s="52"/>
+      <c r="P2" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -6137,29 +7347,29 @@
         <v>123</v>
       </c>
       <c r="S3" s="25"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
       <c r="C4">
         <f>A4*B4</f>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <f>INDEX(P5:P53,MATCH(1,Q5:Q53,0))</f>
         <v>5</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>63</v>
@@ -6206,11 +7416,11 @@
       </c>
       <c r="D5">
         <f>(A4-1)*(B4-1)</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <f>INDEX(P4:P53,MATCH(1,R4:R53,0))</f>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>64</v>
@@ -6257,7 +7467,7 @@
       </c>
       <c r="D6">
         <f>LCM(A4-1,B4-1)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <f>MOD(F5,D4)</f>
@@ -6275,19 +7485,19 @@
       </c>
       <c r="K6" s="13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="L6" s="26">
         <f t="shared" si="2"/>
-        <v>4194304</v>
-      </c>
-      <c r="M6" s="31">
+        <v>4.4601490397061246E+43</v>
+      </c>
+      <c r="M6" s="31" t="e">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N6" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P6">
         <v>3</v>
@@ -6318,26 +7528,26 @@
       </c>
       <c r="K7" s="13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="L7" s="26">
         <f t="shared" si="2"/>
-        <v>48828125</v>
-      </c>
-      <c r="M7" s="13">
+        <v>1.088690056823018E+44</v>
+      </c>
+      <c r="M7" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="N7" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N7" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P7">
         <v>4</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R7" s="7" t="str">
         <f t="shared" si="5"/>
@@ -6361,19 +7571,19 @@
       </c>
       <c r="K8" s="13">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L8" s="26">
         <f t="shared" si="2"/>
-        <v>2048</v>
-      </c>
-      <c r="M8" s="13">
+        <v>4.7101286972462449E+27</v>
+      </c>
+      <c r="M8" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N8" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N8" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P8">
         <v>5</v>
@@ -6404,19 +7614,19 @@
       </c>
       <c r="K9" s="13">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L9" s="26">
         <f t="shared" si="2"/>
-        <v>177147</v>
-      </c>
-      <c r="M9" s="13">
+        <v>9.9999999999999991E+28</v>
+      </c>
+      <c r="M9" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N9" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N9" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P9">
         <v>6</v>
@@ -6427,7 +7637,7 @@
       </c>
       <c r="R9" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U9" s="29"/>
     </row>
@@ -6451,15 +7661,15 @@
       </c>
       <c r="L10" s="26">
         <f t="shared" si="2"/>
-        <v>362797056</v>
-      </c>
-      <c r="M10" s="13">
+        <v>3.6845653286788893E+22</v>
+      </c>
+      <c r="M10" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N10" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N10" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P10">
         <v>7</v>
@@ -6470,7 +7680,7 @@
       </c>
       <c r="R10" s="7">
         <f>IF(P10&lt;=E$4,"-",MOD(P10*E$4,D$4))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U10" s="29"/>
     </row>
@@ -6494,26 +7704,26 @@
       </c>
       <c r="L11" s="26">
         <f t="shared" si="2"/>
-        <v>1977326743</v>
-      </c>
-      <c r="M11" s="13">
+        <v>3.2199057558131799E+24</v>
+      </c>
+      <c r="M11" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N11" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N11" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P11">
         <v>8</v>
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="U11" s="29"/>
     </row>
@@ -6537,15 +7747,15 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" si="2"/>
-        <v>8589934592</v>
-      </c>
-      <c r="M12" s="13">
+        <v>1.5474250491067253E+26</v>
+      </c>
+      <c r="M12" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N12" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N12" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P12">
         <v>9</v>
@@ -6556,7 +7766,7 @@
       </c>
       <c r="R12" s="7">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="U12" s="29"/>
     </row>
@@ -6573,19 +7783,19 @@
       </c>
       <c r="K13" s="13">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="2"/>
-        <v>285311670611</v>
-      </c>
-      <c r="M13" s="13">
+        <v>2.8823037615171174E+17</v>
+      </c>
+      <c r="M13" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N13" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N13" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P13">
         <v>10</v>
@@ -6613,19 +7823,19 @@
       </c>
       <c r="K14" s="13">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L14" s="26">
         <f t="shared" si="2"/>
-        <v>743008370688</v>
-      </c>
-      <c r="M14" s="13">
+        <v>1.8626451492309569E+20</v>
+      </c>
+      <c r="M14" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="N14" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N14" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P14">
         <v>11</v>
@@ -6636,7 +7846,7 @@
       </c>
       <c r="R14" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U14" s="29"/>
     </row>
@@ -6653,30 +7863,30 @@
       </c>
       <c r="K15" s="13">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L15" s="26">
         <f t="shared" si="2"/>
-        <v>31381059609</v>
-      </c>
-      <c r="M15" s="13">
+        <v>8.3076749736557242E+34</v>
+      </c>
+      <c r="M15" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="N15" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N15" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P15">
         <v>12</v>
       </c>
       <c r="Q15">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U15" s="29"/>
     </row>
@@ -6693,19 +7903,19 @@
       </c>
       <c r="K16" s="13">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L16" s="26">
         <f t="shared" si="2"/>
-        <v>100000000000</v>
-      </c>
-      <c r="M16" s="13">
+        <v>4.8196857210675092E+35</v>
+      </c>
+      <c r="M16" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="N16" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N16" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P16">
         <v>13</v>
@@ -6716,7 +7926,7 @@
       </c>
       <c r="R16" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="U16" s="29"/>
     </row>
@@ -6737,15 +7947,15 @@
       </c>
       <c r="L17" s="26">
         <f t="shared" si="2"/>
-        <v>1792160394037</v>
-      </c>
-      <c r="M17" s="13">
+        <v>2.0153812643461118E+32</v>
+      </c>
+      <c r="M17" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="N17" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N17" t="e">
         <f t="shared" si="6"/>
-        <v>yes</v>
+        <v>#NUM!</v>
       </c>
       <c r="P17">
         <v>14</v>
@@ -6756,7 +7966,7 @@
       </c>
       <c r="R17" s="7">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="U17" s="29"/>
     </row>
@@ -6773,19 +7983,19 @@
       </c>
       <c r="K18" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L18" s="26">
         <f>POWER(K18,F$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="13">
+        <v>1.7286737396774712E+33</v>
+      </c>
+      <c r="M18" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N18" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N18" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P18">
         <v>15</v>
@@ -6813,30 +8023,30 @@
       </c>
       <c r="K19" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L19" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="13">
+        <v>1.2783403948858939E+34</v>
+      </c>
+      <c r="M19" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N19" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N19" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P19">
         <v>16</v>
       </c>
       <c r="Q19">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U19" s="29"/>
     </row>
@@ -6853,19 +8063,19 @@
       </c>
       <c r="K20" s="13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="2"/>
-        <v>4194304</v>
-      </c>
-      <c r="M20" s="13">
+        <v>1.5863092971714916E+30</v>
+      </c>
+      <c r="M20" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N20" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N20" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P20">
         <v>17</v>
@@ -6876,7 +8086,7 @@
       </c>
       <c r="R20" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="U20" s="29"/>
     </row>
@@ -6893,19 +8103,19 @@
       </c>
       <c r="K21" s="13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="2"/>
-        <v>48828125</v>
-      </c>
-      <c r="M21" s="13">
+        <v>1.9781359483314151E+31</v>
+      </c>
+      <c r="M21" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="N21" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N21" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P21">
         <v>18</v>
@@ -6916,7 +8126,7 @@
       </c>
       <c r="R21" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U21" s="29"/>
     </row>
@@ -6933,19 +8143,19 @@
       </c>
       <c r="K22" s="13">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L22" s="26">
         <f t="shared" si="2"/>
-        <v>2048</v>
-      </c>
-      <c r="M22" s="13">
+        <v>3.0910586430935376E+39</v>
+      </c>
+      <c r="M22" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N22" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N22" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P22">
         <v>19</v>
@@ -6956,7 +8166,7 @@
       </c>
       <c r="R22" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="8:21" x14ac:dyDescent="0.3">
@@ -6972,26 +8182,26 @@
       </c>
       <c r="K23" s="13">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="L23" s="26">
         <f t="shared" si="2"/>
-        <v>177147</v>
-      </c>
-      <c r="M23" s="13">
+        <v>1.0620036506406717E+40</v>
+      </c>
+      <c r="M23" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N23" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N23" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P23">
         <v>20</v>
       </c>
       <c r="Q23">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R23" s="7">
         <f t="shared" si="5"/>
@@ -7011,19 +8221,19 @@
       </c>
       <c r="K24" s="13">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L24" s="26">
         <f t="shared" si="2"/>
-        <v>362797056</v>
-      </c>
-      <c r="M24" s="13">
+        <v>5.3687091199999995E+37</v>
+      </c>
+      <c r="M24" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N24" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N24" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P24">
         <v>21</v>
@@ -7034,7 +8244,7 @@
       </c>
       <c r="R24" s="7">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="8:21" x14ac:dyDescent="0.3">
@@ -7050,19 +8260,19 @@
       </c>
       <c r="K25" s="13">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L25" s="26">
         <f t="shared" si="2"/>
-        <v>1977326743</v>
-      </c>
-      <c r="M25" s="13">
+        <v>2.2098334710081732E+38</v>
+      </c>
+      <c r="M25" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N25" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N25" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P25">
         <v>22</v>
@@ -7073,7 +8283,7 @@
       </c>
       <c r="R25" s="7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="8:21" x14ac:dyDescent="0.3">
@@ -7089,19 +8299,19 @@
       </c>
       <c r="K26" s="13">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="2"/>
-        <v>8589934592</v>
-      </c>
-      <c r="M26" s="13">
+        <v>8.5164331908653772E+38</v>
+      </c>
+      <c r="M26" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N26" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N26" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P26">
         <v>23</v>
@@ -7112,7 +8322,7 @@
       </c>
       <c r="R26" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="8:21" x14ac:dyDescent="0.3">
@@ -7128,26 +8338,26 @@
       </c>
       <c r="K27" s="13">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L27" s="26">
         <f t="shared" si="2"/>
-        <v>285311670611</v>
-      </c>
-      <c r="M27" s="13">
+        <v>2.5287310893279634E+36</v>
+      </c>
+      <c r="M27" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N27" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N27" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P27">
         <v>24</v>
       </c>
       <c r="Q27">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R27" s="7">
         <f t="shared" si="5"/>
@@ -7167,19 +8377,19 @@
       </c>
       <c r="K28" s="13">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="2"/>
-        <v>743008370688</v>
-      </c>
-      <c r="M28" s="13">
+        <v>1.2129821994589221E+37</v>
+      </c>
+      <c r="M28" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="N28" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N28" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P28">
         <v>25</v>
@@ -7206,19 +8416,19 @@
       </c>
       <c r="K29" s="13">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="L29" s="26">
         <f t="shared" si="2"/>
-        <v>31381059609</v>
-      </c>
-      <c r="M29" s="13">
+        <v>6.8630377364882997E+42</v>
+      </c>
+      <c r="M29" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="N29" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="N29" t="e">
         <f t="shared" si="6"/>
-        <v>no</v>
+        <v>#NUM!</v>
       </c>
       <c r="P29">
         <v>26</v>
@@ -7229,7 +8439,7 @@
       </c>
       <c r="R29" s="7">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="8:21" x14ac:dyDescent="0.3">
@@ -7242,7 +8452,7 @@
       </c>
       <c r="R30" s="7">
         <f t="shared" ref="R30:R35" si="8">IF(P30&lt;=E$4,"-",MOD(P30*E$4,D$4))</f>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="8:21" x14ac:dyDescent="0.3">
@@ -7251,11 +8461,11 @@
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="8:21" x14ac:dyDescent="0.3">
@@ -7281,7 +8491,7 @@
       </c>
       <c r="R33" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="16:18" x14ac:dyDescent="0.3">
@@ -7294,7 +8504,7 @@
       </c>
       <c r="R34" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="16:18" x14ac:dyDescent="0.3">
@@ -7303,11 +8513,11 @@
       </c>
       <c r="Q35">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="16:18" x14ac:dyDescent="0.3">
@@ -7320,7 +8530,7 @@
       </c>
       <c r="R36" s="7">
         <f t="shared" ref="R36:R53" si="10">IF(P36&lt;=E$4,"-",MOD(P36*E$4,D$4))</f>
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="16:18" x14ac:dyDescent="0.3">
@@ -7346,7 +8556,7 @@
       </c>
       <c r="R38" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="16:18" x14ac:dyDescent="0.3">
@@ -7355,11 +8565,11 @@
       </c>
       <c r="Q39">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R39" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="16:18" x14ac:dyDescent="0.3">
@@ -7372,7 +8582,7 @@
       </c>
       <c r="R40" s="7">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="16:18" x14ac:dyDescent="0.3">
@@ -7385,7 +8595,7 @@
       </c>
       <c r="R41" s="7">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="16:18" x14ac:dyDescent="0.3">
@@ -7407,11 +8617,11 @@
       </c>
       <c r="Q43">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R43" s="7">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="16:18" x14ac:dyDescent="0.3">
@@ -7424,7 +8634,7 @@
       </c>
       <c r="R44" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="16:18" x14ac:dyDescent="0.3">
@@ -7437,7 +8647,7 @@
       </c>
       <c r="R45" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="16:18" x14ac:dyDescent="0.3">
@@ -7450,7 +8660,7 @@
       </c>
       <c r="R46" s="7">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="16:18" x14ac:dyDescent="0.3">
@@ -7459,7 +8669,7 @@
       </c>
       <c r="Q47">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R47" s="7">
         <f t="shared" si="10"/>
@@ -7476,7 +8686,7 @@
       </c>
       <c r="R48" s="7">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="16:18" x14ac:dyDescent="0.3">
@@ -7489,7 +8699,7 @@
       </c>
       <c r="R49" s="7">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="16:18" x14ac:dyDescent="0.3">
@@ -7502,7 +8712,7 @@
       </c>
       <c r="R50" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="16:18" x14ac:dyDescent="0.3">
@@ -7511,7 +8721,7 @@
       </c>
       <c r="Q51">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R51" s="7">
         <f t="shared" si="10"/>
@@ -7541,7 +8751,7 @@
       </c>
       <c r="R53" s="7">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7990,8 +9200,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8272,10 +9482,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E485E03-FDA4-40E5-9DDA-BB586457AA05}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8620,7 +9830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H33" s="26">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -8630,7 +9840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H34" s="26">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -8640,7 +9850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H35" s="26">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -8650,7 +9860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H36" s="26">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -8660,7 +9870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H37" s="26">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -8670,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H38" s="26">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -8680,7 +9890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H39" s="26">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -8690,7 +9900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" s="26">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -8698,6 +9908,310 @@
       <c r="I40" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46:B69" si="3">GCD(A46,A$69)</f>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46:E57" si="4">GCD(D46,D$57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F57">
+        <f>COUNTIF(E46:E57,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>18</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>19</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>21</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>24</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265D58E0-60CC-4CFC-A9CD-8BECB7295FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F7D5F-8468-40F2-BCEB-5C6CC780DD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="375">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1153,6 +1153,15 @@
   </si>
   <si>
     <t>gcd(5, 24) = 1</t>
+  </si>
+  <si>
+    <t>(4 ^ 29 = 9 mod 35)</t>
+  </si>
+  <si>
+    <t>(9 ^ 5 = 4 mod 35)</t>
+  </si>
+  <si>
+    <t>Figure 10. Digital signing.</t>
   </si>
 </sst>
 </file>
@@ -3778,20 +3787,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E13DE6-8DF4-4B7C-B600-DC44B025BC54}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="8.109375" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
@@ -6391,12 +6400,159 @@
         <v>340</v>
       </c>
     </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" s="38"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>1</v>
+      </c>
+      <c r="B76" s="46">
+        <v>4</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>2</v>
+      </c>
+      <c r="B77" s="4">
+        <v>9</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" t="s">
+        <v>372</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>3</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="37">
+        <v>9</v>
+      </c>
+      <c r="D78" s="4">
+        <v>9</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>4</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="46">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>373</v>
+      </c>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B80" s="4"/>
+      <c r="C80" s="37"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="37"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S4:S29">
     <sortCondition ref="S4:S29"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E74:F74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F7D5F-8468-40F2-BCEB-5C6CC780DD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19898333-1591-4A1B-9E23-7024168C00E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="374">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -969,9 +969,6 @@
     <t>(3,7)</t>
   </si>
   <si>
-    <t>(3 ^ 3 mod 7 = 6)</t>
-  </si>
-  <si>
     <t>Exponent</t>
   </si>
   <si>
@@ -1032,12 +1029,6 @@
     <t>Figure 6. Finding the modular multiplicative inverse.</t>
   </si>
   <si>
-    <t>(3 ^ 1 mod 7 = 3)</t>
-  </si>
-  <si>
-    <t>(3 ^ 2 mod 7 = 2)</t>
-  </si>
-  <si>
     <t>...</t>
   </si>
   <si>
@@ -1162,6 +1153,12 @@
   </si>
   <si>
     <t>Figure 10. Digital signing.</t>
+  </si>
+  <si>
+    <t>(3 ^ 1 = 3 mod 7)</t>
+  </si>
+  <si>
+    <t>(3 ^ 2 = 2 mod 7)</t>
   </si>
 </sst>
 </file>
@@ -3789,16 +3786,16 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
@@ -3859,11 +3856,11 @@
         <v>96</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="33" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -3880,28 +3877,28 @@
         <v>2</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>302</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="R3" s="39" t="s">
         <v>302</v>
@@ -3914,10 +3911,10 @@
       </c>
       <c r="V3" s="45"/>
       <c r="W3" s="45" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="X3" s="45" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3941,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="N4" s="5">
         <v>1</v>
@@ -3958,22 +3955,22 @@
         <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Y4" s="39" t="s">
         <v>302</v>
@@ -4006,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="N5" s="4">
         <v>2</v>
@@ -4023,7 +4020,7 @@
         <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
@@ -4043,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -4071,7 +4068,7 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="N6" s="5">
         <v>3</v>
@@ -4088,7 +4085,7 @@
         <v>7</v>
       </c>
       <c r="R6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="T6" s="4">
         <v>2</v>
@@ -4108,7 +4105,7 @@
         <v>10</v>
       </c>
       <c r="Y6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -4132,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N7" s="4">
         <v>4</v>
@@ -4149,7 +4146,7 @@
         <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="T7" s="5">
         <v>3</v>
@@ -4169,7 +4166,7 @@
         <v>15</v>
       </c>
       <c r="Y7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -4213,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="T8" s="4">
         <v>4</v>
@@ -4233,7 +4230,7 @@
         <v>20</v>
       </c>
       <c r="Y8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -4292,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -4354,7 +4351,7 @@
         <v>6</v>
       </c>
       <c r="Y10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -4401,12 +4398,12 @@
         <v>11</v>
       </c>
       <c r="Y11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4666,7 +4663,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="H17" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N17" s="4">
         <v>14</v>
@@ -4908,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="T22" s="4">
         <v>18</v>
@@ -5014,7 +5011,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N25" s="4">
         <v>22</v>
@@ -5234,7 +5231,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="N31" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T31" s="4">
         <v>27</v>
@@ -5314,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="Y33" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -5333,10 +5330,10 @@
         <v>3</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="R34" s="25"/>
       <c r="T34" s="4">
@@ -5370,7 +5367,7 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N35" s="5">
         <v>1</v>
@@ -5501,7 +5498,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N38" s="5">
         <v>4</v>
@@ -5592,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N40" s="4">
         <v>6</v>
@@ -5628,14 +5625,14 @@
         <v>No</v>
       </c>
       <c r="T41" s="47" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -5760,7 +5757,7 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D47" s="4">
         <v>11</v>
@@ -5840,7 +5837,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N50" s="5">
         <v>16</v>
@@ -5920,7 +5917,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N53" s="5">
         <v>19</v>
@@ -5959,7 +5956,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -6001,7 +5998,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E57" s="52" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F57" s="52"/>
       <c r="N57" s="5">
@@ -6033,10 +6030,10 @@
         <v>7</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>302</v>
@@ -6124,7 +6121,7 @@
       </c>
       <c r="F61" s="4"/>
       <c r="G61" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N61" s="5">
         <v>27</v>
@@ -6183,7 +6180,7 @@
         <v>121</v>
       </c>
       <c r="G63" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N63" s="5">
         <v>29</v>
@@ -6215,7 +6212,7 @@
       </c>
       <c r="F64" s="4"/>
       <c r="G64" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N64" s="4">
         <v>30</v>
@@ -6299,7 +6296,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N67" s="5">
         <v>33</v>
@@ -6357,7 +6354,7 @@
         <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N69" s="5">
         <v>35</v>
@@ -6383,7 +6380,7 @@
       </c>
       <c r="C70" s="4"/>
       <c r="G70" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,12 +6389,12 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="N71" s="47" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,7 +6442,7 @@
       </c>
       <c r="D77" s="4"/>
       <c r="E77" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F77" s="4"/>
     </row>
@@ -6472,7 +6469,7 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F79" s="4"/>
     </row>
@@ -6484,7 +6481,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="37"/>
@@ -6792,10 +6789,10 @@
         <v>32</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>28</v>
@@ -6848,10 +6845,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -6873,16 +6870,16 @@
         <v>6</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -6912,7 +6909,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -6931,12 +6928,12 @@
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -7277,7 +7274,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H30">
         <v>25</v>
@@ -7296,7 +7293,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H31">
         <v>26</v>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19898333-1591-4A1B-9E23-7024168C00E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96268B72-3BA5-4159-97BF-064BC5A2C61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="388">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1159,6 +1159,48 @@
   </si>
   <si>
     <t>(3 ^ 2 = 2 mod 7)</t>
+  </si>
+  <si>
+    <t>Generator (G)</t>
+  </si>
+  <si>
+    <t>Alice's private key (a)</t>
+  </si>
+  <si>
+    <t>aG</t>
+  </si>
+  <si>
+    <t>Alice's public key (aG)</t>
+  </si>
+  <si>
+    <t>Bob's random number (r)</t>
+  </si>
+  <si>
+    <t>Bob's random key (rG)</t>
+  </si>
+  <si>
+    <t>Bob's message (M)</t>
+  </si>
+  <si>
+    <t>(8,29)</t>
+  </si>
+  <si>
+    <t>raG</t>
+  </si>
+  <si>
+    <t>M+raG</t>
+  </si>
+  <si>
+    <t>(rG, M+raG)</t>
+  </si>
+  <si>
+    <t>arG (same as raG)</t>
+  </si>
+  <si>
+    <t>(M+raG) - arG = (M+raG) - raG = M</t>
+  </si>
+  <si>
+    <t>Figure xx. ElGamal encryption.</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1384,6 +1426,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1756,25 +1801,25 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="48" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="48" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="1" t="s">
@@ -1787,31 +1832,31 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="50"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="48" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="50"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="50"/>
+      <c r="O3" s="51"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19" t="s">
         <v>99</v>
@@ -3381,10 +3426,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U31" s="51" t="s">
+      <c r="U31" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="V31" s="51"/>
+      <c r="V31" s="52"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U32" t="s">
@@ -3784,19 +3829,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E13DE6-8DF4-4B7C-B600-DC44B025BC54}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
     <col min="6" max="6" width="7.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="8.109375" customWidth="1"/>
@@ -5997,10 +6042,10 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="F57" s="52"/>
+      <c r="F57" s="53"/>
       <c r="N57" s="5">
         <v>23</v>
       </c>
@@ -6398,8 +6443,8 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
@@ -6497,51 +6542,431 @@
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
+      <c r="A83" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="F83" s="38"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="37"/>
+      <c r="A84" s="4">
+        <v>1</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>299</v>
+      </c>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="3" t="s">
+        <v>374</v>
+      </c>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
+      <c r="A85" s="4">
+        <v>2</v>
+      </c>
+      <c r="C85" s="37">
+        <v>2</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="A86" s="4">
+        <v>3</v>
+      </c>
+      <c r="B86" s="5">
+        <v>3</v>
+      </c>
+      <c r="C86" s="37"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="4"/>
+      <c r="A87" s="4">
+        <v>4</v>
+      </c>
+      <c r="B87" s="5">
+        <f>B86*B84</f>
+        <v>6</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
+      <c r="A88" s="4">
+        <v>5</v>
+      </c>
+      <c r="C88" s="37">
+        <v>6</v>
+      </c>
+      <c r="D88" s="4">
+        <v>6</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
+      <c r="A89" s="4">
+        <v>6</v>
+      </c>
+      <c r="C89" s="37"/>
+      <c r="D89" s="4">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
+      <c r="A90" s="4">
+        <v>7</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="4">
+        <f>D89*D85</f>
+        <v>8</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
+      <c r="A91" s="4">
+        <v>8</v>
+      </c>
+      <c r="D91" s="48">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4">
+        <f>D89*D88</f>
+        <v>24</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>10</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D93" s="4">
+        <f>D91+(D89*D88)</f>
+        <v>29</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>11</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>12</v>
+      </c>
+      <c r="B95" s="4">
+        <v>8</v>
+      </c>
+      <c r="C95" s="37"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>13</v>
+      </c>
+      <c r="B96" s="5">
+        <v>29</v>
+      </c>
+      <c r="C96" s="37"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>14</v>
+      </c>
+      <c r="B97" s="4">
+        <f>B86*B95</f>
+        <v>24</v>
+      </c>
+      <c r="C97" s="37"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>15</v>
+      </c>
+      <c r="B98" s="48">
+        <f>B96-B97</f>
+        <v>5</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>1</v>
+      </c>
+      <c r="B103" s="4">
+        <v>2</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>2</v>
+      </c>
+      <c r="C104" s="37">
+        <v>2</v>
+      </c>
+      <c r="D104" s="4">
+        <v>2</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>3</v>
+      </c>
+      <c r="B105" s="5">
+        <v>3</v>
+      </c>
+      <c r="C105" s="37"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>4</v>
+      </c>
+      <c r="B106" s="5">
+        <f>B105*B103</f>
+        <v>6</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>5</v>
+      </c>
+      <c r="C107" s="37">
+        <v>6</v>
+      </c>
+      <c r="D107" s="4">
+        <v>6</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>6</v>
+      </c>
+      <c r="C108" s="37"/>
+      <c r="D108" s="4">
+        <v>4</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>7</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="4">
+        <f>D108*D104</f>
+        <v>8</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>8</v>
+      </c>
+      <c r="D110" s="48">
+        <v>5</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>9</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>10</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>11</v>
+      </c>
+      <c r="C113" s="37"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>12</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>13</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>14</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>15</v>
+      </c>
+      <c r="B117" s="48"/>
+      <c r="E117" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S4:S29">
@@ -6616,10 +7041,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="19" t="s">
         <v>99</v>
       </c>
@@ -6654,11 +7079,11 @@
         <v>23</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -7416,37 +7841,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="52"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="J2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="J2" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="P2" s="52" t="s">
+      <c r="M2" s="53"/>
+      <c r="P2" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -7500,8 +7925,8 @@
         <v>123</v>
       </c>
       <c r="S3" s="25"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96268B72-3BA5-4159-97BF-064BC5A2C61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5766F015-AE0A-4891-9BF6-49379FB080A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="406">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1071,9 +1071,6 @@
     <t>d x e = 1 mod t</t>
   </si>
   <si>
-    <t>Coprime?</t>
-  </si>
-  <si>
     <t>(3 ^ 5 = 33 mod 35)</t>
   </si>
   <si>
@@ -1113,9 +1110,6 @@
     <t>Divisor</t>
   </si>
   <si>
-    <t>Figure 9. Euler's totient function.</t>
-  </si>
-  <si>
     <t>Figure 9. Finding the modular multiplicative inverse.</t>
   </si>
   <si>
@@ -1201,6 +1195,66 @@
   </si>
   <si>
     <t>Figure xx. ElGamal encryption.</t>
+  </si>
+  <si>
+    <t>Source: https://crypto.stackexchange.com/questions/45040/can-elliptic-curve-cryptography-encrypt-with-public-key-and-decrypt-with-private</t>
+  </si>
+  <si>
+    <t>Figure 8. Euler's totient function.</t>
+  </si>
+  <si>
+    <t>y = g^x mod p</t>
+  </si>
+  <si>
+    <t>k (must be coprime to p-1)</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>r = g^k mod p</t>
+  </si>
+  <si>
+    <t>m = 7</t>
+  </si>
+  <si>
+    <t>(r,s)</t>
+  </si>
+  <si>
+    <t>g^m mod p</t>
+  </si>
+  <si>
+    <t>y^r mod p</t>
+  </si>
+  <si>
+    <t>r^s mod p</t>
+  </si>
+  <si>
+    <t>Figure xx. ElGamal digital signature.</t>
+  </si>
+  <si>
+    <t>Source: https://en.wikipedia.org/wiki/ElGamal_signature_scheme</t>
+  </si>
+  <si>
+    <t>s = k^-1 * (m - rx) mod (p-1)</t>
+  </si>
+  <si>
+    <t>g^m = y^r * r^s mod p</t>
+  </si>
+  <si>
+    <t>Private key</t>
+  </si>
+  <si>
+    <t>Public key</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Ephemeral key</t>
+  </si>
+  <si>
+    <t>Signature</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1426,6 +1480,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1442,6 +1502,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1801,25 +1867,25 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="49" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="49" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="1" t="s">
@@ -1832,31 +1898,31 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="49" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="49" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="51"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19" t="s">
         <v>99</v>
@@ -3426,10 +3492,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U31" s="52" t="s">
+      <c r="U31" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="V31" s="52"/>
+      <c r="V31" s="54"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U32" t="s">
@@ -3829,22 +3895,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E13DE6-8DF4-4B7C-B600-DC44B025BC54}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y117"/>
+  <dimension ref="A1:Y135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
     <col min="6" max="6" width="7.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -3901,7 +3967,7 @@
         <v>96</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="33" t="s">
@@ -3956,7 +4022,7 @@
       </c>
       <c r="V3" s="45"/>
       <c r="W3" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X3" s="45" t="s">
         <v>332</v>
@@ -3983,7 +4049,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N4" s="5">
         <v>1</v>
@@ -4000,7 +4066,7 @@
         <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>331</v>
@@ -4048,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N5" s="4">
         <v>2</v>
@@ -4065,7 +4131,7 @@
         <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
@@ -4085,7 +4151,7 @@
         <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -4113,7 +4179,7 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N6" s="5">
         <v>3</v>
@@ -4130,7 +4196,7 @@
         <v>7</v>
       </c>
       <c r="R6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T6" s="4">
         <v>2</v>
@@ -4150,7 +4216,7 @@
         <v>10</v>
       </c>
       <c r="Y6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -4191,7 +4257,7 @@
         <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T7" s="5">
         <v>3</v>
@@ -4211,7 +4277,7 @@
         <v>15</v>
       </c>
       <c r="Y7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -4275,7 +4341,7 @@
         <v>20</v>
       </c>
       <c r="Y8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -4334,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -4396,7 +4462,7 @@
         <v>6</v>
       </c>
       <c r="Y10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -4950,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T22" s="4">
         <v>18</v>
@@ -5356,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="Y33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -5377,9 +5443,7 @@
       <c r="P34" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="Q34" s="9" t="s">
-        <v>344</v>
-      </c>
+      <c r="Q34" s="48"/>
       <c r="R34" s="25"/>
       <c r="T34" s="4">
         <v>30</v>
@@ -5412,22 +5476,19 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" t="s">
-        <v>348</v>
-      </c>
-      <c r="N35" s="5">
-        <v>1</v>
-      </c>
-      <c r="O35" s="5">
+        <v>347</v>
+      </c>
+      <c r="N35" s="56">
+        <v>1</v>
+      </c>
+      <c r="O35" s="56">
         <v>35</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="56">
         <f>GCD(N35,O35)</f>
         <v>1</v>
       </c>
-      <c r="Q35" s="4" t="str">
-        <f>IF(P35=1,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
+      <c r="Q35" s="4"/>
       <c r="T35" s="4">
         <v>31</v>
       </c>
@@ -5457,20 +5518,17 @@
       <c r="D36" s="4">
         <v>6</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="56">
         <v>2</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="56">
         <v>35</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="56">
         <f>GCD(N36,O36)</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="4" t="str">
-        <f t="shared" ref="Q36:Q69" si="7">IF(P36=1,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
+      <c r="Q36" s="4"/>
       <c r="T36" s="4">
         <v>32</v>
       </c>
@@ -5498,20 +5556,17 @@
       <c r="D37" s="4">
         <v>4</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="56">
         <v>3</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="56">
         <v>35</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="56">
         <f>GCD(N37,O37)</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+      <c r="Q37" s="4"/>
       <c r="T37" s="4">
         <v>33</v>
       </c>
@@ -5543,22 +5598,19 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>349</v>
-      </c>
-      <c r="N38" s="5">
+        <v>348</v>
+      </c>
+      <c r="N38" s="56">
         <v>4</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="56">
         <v>35</v>
       </c>
-      <c r="P38" s="5">
-        <f t="shared" ref="P38:P69" si="8">GCD(N38,O38)</f>
-        <v>1</v>
-      </c>
-      <c r="Q38" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+      <c r="P38" s="56">
+        <f t="shared" ref="P38:P69" si="7">GCD(N38,O38)</f>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4"/>
       <c r="T38" s="4">
         <v>34</v>
       </c>
@@ -5595,13 +5647,10 @@
         <v>35</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="Q39" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
+      <c r="Q39" s="4"/>
       <c r="T39" s="4">
         <v>35</v>
       </c>
@@ -5634,22 +5683,19 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>350</v>
-      </c>
-      <c r="N40" s="4">
+        <v>349</v>
+      </c>
+      <c r="N40" s="56">
         <v>6</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="56">
         <v>35</v>
       </c>
-      <c r="P40" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4" t="str">
+      <c r="P40" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
@@ -5662,15 +5708,12 @@
         <v>35</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="Q41" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
+      <c r="Q41" s="4"/>
       <c r="T41" s="47" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
@@ -5682,39 +5725,33 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="N42" s="5">
+      <c r="N42" s="56">
         <v>8</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="56">
         <v>35</v>
       </c>
-      <c r="P42" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q42" s="4" t="str">
+      <c r="P42" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="N43" s="5">
+      <c r="N43" s="56">
         <v>9</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="56">
         <v>35</v>
       </c>
-      <c r="P43" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q43" s="4" t="str">
+      <c r="P43" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
@@ -5739,13 +5776,10 @@
         <v>35</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="Q44" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
+      <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -5756,20 +5790,17 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="N45" s="5">
+      <c r="N45" s="56">
         <v>11</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="56">
         <v>35</v>
       </c>
-      <c r="P45" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q45" s="4" t="str">
+      <c r="P45" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
@@ -5781,20 +5812,17 @@
       <c r="C46" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="56">
         <v>12</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="56">
         <v>35</v>
       </c>
-      <c r="P46" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q46" s="4" t="str">
+      <c r="P46" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
@@ -5807,20 +5835,17 @@
       <c r="D47" s="4">
         <v>11</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="56">
         <v>13</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="56">
         <v>35</v>
       </c>
-      <c r="P47" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q47" s="4" t="str">
+      <c r="P47" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -5838,20 +5863,17 @@
         <v>35</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="Q48" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
+      <c r="Q48" s="4"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>5</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="4">
+      <c r="D49" s="50">
         <v>3</v>
       </c>
       <c r="N49" s="5">
@@ -5861,13 +5883,10 @@
         <v>35</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="Q49" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
+      <c r="Q49" s="4"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
@@ -5882,22 +5901,19 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>367</v>
-      </c>
-      <c r="N50" s="5">
+        <v>365</v>
+      </c>
+      <c r="N50" s="56">
         <v>16</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="56">
         <v>35</v>
       </c>
-      <c r="P50" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q50" s="4" t="str">
+      <c r="P50" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
@@ -5912,20 +5928,17 @@
         <v>7</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="N51" s="5">
+      <c r="N51" s="56">
         <v>17</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="56">
         <v>35</v>
       </c>
-      <c r="P51" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q51" s="4" t="str">
+      <c r="P51" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -5936,48 +5949,42 @@
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="N52" s="4">
+      <c r="N52" s="56">
         <v>18</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="56">
         <v>35</v>
       </c>
-      <c r="P52" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q52" s="4" t="str">
+      <c r="P52" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>9</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="50">
         <f>MOD(B51*B52,B46)</f>
         <v>3</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" t="s">
-        <v>351</v>
-      </c>
-      <c r="N53" s="5">
+        <v>350</v>
+      </c>
+      <c r="N53" s="56">
         <v>19</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53" s="56">
         <v>35</v>
       </c>
-      <c r="P53" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q53" s="4" t="str">
+      <c r="P53" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
@@ -5991,13 +5998,10 @@
         <v>35</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="Q54" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
+      <c r="Q54" s="4"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="42" t="s">
@@ -6013,53 +6017,44 @@
         <v>35</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="Q55" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
+      <c r="Q55" s="4"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="N56" s="4">
+      <c r="N56" s="56">
         <v>22</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56" s="56">
         <v>35</v>
       </c>
-      <c r="P56" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q56" s="4" t="str">
+      <c r="P56" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E57" s="53" t="s">
+      <c r="E57" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="F57" s="53"/>
-      <c r="N57" s="5">
+      <c r="F57" s="55"/>
+      <c r="N57" s="56">
         <v>23</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O57" s="56">
         <v>35</v>
       </c>
-      <c r="P57" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q57" s="4" t="str">
+      <c r="P57" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
@@ -6083,20 +6078,17 @@
       <c r="G58" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="56">
         <v>24</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O58" s="56">
         <v>35</v>
       </c>
-      <c r="P58" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q58" s="4" t="str">
+      <c r="P58" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -6116,13 +6108,10 @@
         <v>35</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="Q59" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
+      <c r="Q59" s="4"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
@@ -6135,20 +6124,17 @@
       <c r="F60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N60" s="5">
+      <c r="N60" s="56">
         <v>26</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60" s="56">
         <v>35</v>
       </c>
-      <c r="P60" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q60" s="4" t="str">
+      <c r="P60" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q60" s="4"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -6168,20 +6154,17 @@
       <c r="G61" t="s">
         <v>333</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N61" s="56">
         <v>27</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O61" s="56">
         <v>35</v>
       </c>
-      <c r="P61" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q61" s="4" t="str">
+      <c r="P61" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
@@ -6203,13 +6186,10 @@
         <v>35</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="Q62" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
+      <c r="Q62" s="4"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -6227,20 +6207,17 @@
       <c r="G63" t="s">
         <v>338</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N63" s="56">
         <v>29</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O63" s="56">
         <v>35</v>
       </c>
-      <c r="P63" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q63" s="4" t="str">
+      <c r="P63" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q63" s="4"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
@@ -6257,7 +6234,7 @@
       </c>
       <c r="F64" s="4"/>
       <c r="G64" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N64" s="4">
         <v>30</v>
@@ -6266,13 +6243,10 @@
         <v>35</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="Q64" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
+      <c r="Q64" s="4"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
@@ -6287,20 +6261,17 @@
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="N65" s="5">
+      <c r="N65" s="56">
         <v>31</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65" s="56">
         <v>35</v>
       </c>
-      <c r="P65" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q65" s="4" t="str">
+      <c r="P65" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q65" s="4"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
@@ -6312,20 +6283,17 @@
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="N66" s="5">
+      <c r="N66" s="56">
         <v>32</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66" s="56">
         <v>35</v>
       </c>
-      <c r="P66" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q66" s="4" t="str">
+      <c r="P66" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
@@ -6341,22 +6309,19 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" t="s">
-        <v>345</v>
-      </c>
-      <c r="N67" s="5">
+        <v>344</v>
+      </c>
+      <c r="N67" s="56">
         <v>33</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="56">
         <v>35</v>
       </c>
-      <c r="P67" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q67" s="4" t="str">
+      <c r="P67" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q67" s="4"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
@@ -6371,20 +6336,17 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="N68" s="4">
+      <c r="N68" s="56">
         <v>34</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="56">
         <v>35</v>
       </c>
-      <c r="P68" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q68" s="4" t="str">
+      <c r="P68" s="56">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q68" s="4"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
@@ -6399,7 +6361,7 @@
         <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N69" s="5">
         <v>35</v>
@@ -6408,13 +6370,10 @@
         <v>35</v>
       </c>
       <c r="P69" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="Q69" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
+      <c r="Q69" s="4"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
@@ -6425,7 +6384,7 @@
       </c>
       <c r="C70" s="4"/>
       <c r="G70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,7 +6393,7 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="N71" s="47" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,8 +6402,8 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
@@ -6487,7 +6446,7 @@
       </c>
       <c r="D77" s="4"/>
       <c r="E77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F77" s="4"/>
     </row>
@@ -6514,7 +6473,7 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F79" s="4"/>
     </row>
@@ -6526,7 +6485,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="37"/>
@@ -6571,7 +6530,7 @@
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F84" s="4"/>
     </row>
@@ -6586,7 +6545,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6599,7 +6558,7 @@
       <c r="C86" s="37"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F86" s="4"/>
     </row>
@@ -6616,7 +6575,7 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F87" s="4"/>
     </row>
@@ -6631,7 +6590,7 @@
         <v>6</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6643,7 +6602,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6657,18 +6616,18 @@
         <v>8</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>8</v>
       </c>
-      <c r="D91" s="48">
+      <c r="D91" s="50">
         <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -6680,7 +6639,7 @@
         <v>24</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6696,7 +6655,7 @@
         <v>29</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6704,11 +6663,11 @@
         <v>11</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6721,7 +6680,7 @@
       <c r="C95" s="37"/>
       <c r="D95" s="4"/>
       <c r="E95" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6734,10 +6693,10 @@
       <c r="C96" s="37"/>
       <c r="D96" s="4"/>
       <c r="E96" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>14</v>
       </c>
@@ -6748,45 +6707,47 @@
       <c r="C97" s="37"/>
       <c r="D97" s="4"/>
       <c r="E97" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>15</v>
       </c>
-      <c r="B98" s="48">
+      <c r="B98" s="50">
         <f>B96-B97</f>
         <v>5</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="37"/>
       <c r="D99" s="4"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="37"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E100" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="37"/>
       <c r="D101" s="4"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>300</v>
       </c>
@@ -6803,170 +6764,365 @@
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>1</v>
       </c>
       <c r="B103" s="4">
-        <v>2</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>299</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C103" s="37"/>
       <c r="D103" s="4"/>
       <c r="E103" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>2</v>
       </c>
-      <c r="C104" s="37">
+      <c r="B104" s="4">
+        <v>3</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="4">
-        <v>2</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>3</v>
       </c>
-      <c r="B105" s="5">
-        <v>3</v>
-      </c>
-      <c r="C105" s="37"/>
+      <c r="B105" s="4">
+        <v>4</v>
+      </c>
+      <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E105" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>4</v>
       </c>
-      <c r="B106" s="5">
-        <f>B105*B103</f>
-        <v>6</v>
-      </c>
-      <c r="C106" s="37" t="s">
+      <c r="B106" s="4">
+        <f>MOD(POWER(B104,B105),B103)</f>
+        <v>3</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>299</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+      <c r="F106" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>5</v>
       </c>
-      <c r="C107" s="37">
-        <v>6</v>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4">
+        <f>B106</f>
+        <v>3</v>
       </c>
       <c r="D107" s="4">
-        <v>6</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <f>C107</f>
+        <v>3</v>
+      </c>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>6</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="4">
-        <v>4</v>
+      <c r="B108" s="4">
+        <v>17</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+      <c r="F108" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>7</v>
       </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="4">
-        <f>D108*D104</f>
-        <v>8</v>
-      </c>
+      <c r="B109" s="4">
+        <v>7</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
       <c r="E109" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="F109" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>8</v>
       </c>
-      <c r="D110" s="48">
-        <v>5</v>
-      </c>
+      <c r="B110" s="4">
+        <f>MOD(POWER(B104,B109),B103)</f>
+        <v>3</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
       <c r="E110" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>9</v>
       </c>
+      <c r="B111" s="4">
+        <f>MOD(2*(B108-(B105*B110)),B103-1)</f>
+        <v>10</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>299</v>
+      </c>
       <c r="D111" s="4"/>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E111" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F111" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>10</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D112" s="4">
+        <f>B110</f>
+        <v>3</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>11</v>
       </c>
-      <c r="C113" s="37"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4">
+        <f>B111</f>
+        <v>10</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>12</v>
       </c>
       <c r="B114" s="4"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C114" s="4"/>
+      <c r="D114" s="57">
+        <f>MOD(POWER(B104,B108),B103)</f>
+        <v>9</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>13</v>
       </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="57">
+        <f>MOD(POWER(B106,B110),B103)</f>
+        <v>1</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>14</v>
       </c>
       <c r="B116" s="4"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C116" s="4"/>
+      <c r="D116" s="4">
+        <f>MOD(POWER(B110,B111),B103)</f>
+        <v>3</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>15</v>
       </c>
-      <c r="B117" s="48"/>
-      <c r="E117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4" t="str">
+        <f>IF(D114=MOD((D115*D116),B103),"true","false")</f>
+        <v>false</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="48"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="16"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S4:S29">
@@ -7041,10 +7197,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="19" t="s">
         <v>99</v>
       </c>
@@ -7079,11 +7235,11 @@
         <v>23</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -7841,37 +7997,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53" t="s">
+      <c r="K1" s="55"/>
+      <c r="L1" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="53"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="J2" s="53" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="J2" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="P2" s="53" t="s">
+      <c r="M2" s="55"/>
+      <c r="P2" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -7925,8 +8081,8 @@
         <v>123</v>
       </c>
       <c r="S3" s="25"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -10062,8 +10218,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10092,206 +10248,206 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <f>MOD(A3,B3)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <f>MATCH(1,I3:I40,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" s="26">
         <f>A3</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I3" s="26">
         <f t="shared" ref="I3:I40" si="0">MOD(H3,B$3)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D4">
         <f>D3-B3</f>
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="H4" s="26">
         <f t="shared" ref="H4:H10" si="1">H3+H$3</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I4" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H5" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I5" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" s="26">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I6" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H7" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" s="26">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="26">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="26">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H11" s="26">
         <f t="shared" ref="H11:H40" si="2">H10+H$3</f>
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H12" s="26">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H13" s="26">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H14" s="26">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="26">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I15" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H16" s="26">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I16" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="26">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="26">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="26">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="26">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="26">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
@@ -10301,187 +10457,187 @@
     <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="26">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="I22" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="26">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="26">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="26">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="I25" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="26">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="I26" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="26">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="I27" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="26">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="I28" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="26">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="I29" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="26">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="I30" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="26">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="26">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="I32" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H33" s="26">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="I33" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H34" s="26">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H35" s="26">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="I35" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H36" s="26">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="I36" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H37" s="26">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="I37" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H38" s="26">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="I38" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H39" s="26">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="I39" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" s="26">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="I40" s="26">
         <f t="shared" si="0"/>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5766F015-AE0A-4891-9BF6-49379FB080A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FE1578-1B0D-4FE2-A32C-20797127219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="423">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1215,9 +1215,6 @@
     <t>r = g^k mod p</t>
   </si>
   <si>
-    <t>m = 7</t>
-  </si>
-  <si>
     <t>(r,s)</t>
   </si>
   <si>
@@ -1255,6 +1252,60 @@
   </si>
   <si>
     <t>Signature</t>
+  </si>
+  <si>
+    <t>Public Key</t>
+  </si>
+  <si>
+    <t>v = s^-1*m*g+s^-1*r*Ka</t>
+  </si>
+  <si>
+    <t>Figure xx. digital signature using multiplication to simulate ECDSA.</t>
+  </si>
+  <si>
+    <t>Source: https://www.instructables.com/Understanding-how-ECDSA-protects-your-data/</t>
+  </si>
+  <si>
+    <t>v == r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   = s^-1*m*g+s^-1*r*ka*g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   = s^-1(m+ka*r)*g</t>
+  </si>
+  <si>
+    <t>r = ke*g</t>
+  </si>
+  <si>
+    <t>v = s^-1(m+ka*r)*g</t>
+  </si>
+  <si>
+    <t>ke*g = s^-1(m+ka*r)*g</t>
+  </si>
+  <si>
+    <t>ke = s^-1(m+ka*r)</t>
+  </si>
+  <si>
+    <t>s = ke^-1(m+ka*r)</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>Ka = ka*g</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>Ephemeral key (private)</t>
+  </si>
+  <si>
+    <t>Ephemeral key (public)</t>
+  </si>
+  <si>
+    <t>Verification</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1509,6 +1560,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3895,16 +3949,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E13DE6-8DF4-4B7C-B600-DC44B025BC54}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y135"/>
+  <dimension ref="A1:Y144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.21875" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.44140625" customWidth="1"/>
@@ -6769,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="4"/>
@@ -6809,7 +6863,7 @@
         <v>57</v>
       </c>
       <c r="F105" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -6818,7 +6872,7 @@
       </c>
       <c r="B106" s="4">
         <f>MOD(POWER(B104,B105),B103)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>299</v>
@@ -6828,7 +6882,7 @@
         <v>388</v>
       </c>
       <c r="F106" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -6838,11 +6892,11 @@
       <c r="B107" s="4"/>
       <c r="C107" s="4">
         <f>B106</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D107" s="4">
-        <f>C107</f>
-        <v>3</v>
+        <f>B106</f>
+        <v>4</v>
       </c>
       <c r="E107" s="3"/>
     </row>
@@ -6854,10 +6908,10 @@
         <v>17</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>392</v>
+        <v>56</v>
       </c>
       <c r="F108" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -6865,7 +6919,7 @@
         <v>7</v>
       </c>
       <c r="B109" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -6873,7 +6927,7 @@
         <v>389</v>
       </c>
       <c r="F109" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -6882,7 +6936,7 @@
       </c>
       <c r="B110" s="4">
         <f>MOD(POWER(B104,B109),B103)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -6895,18 +6949,18 @@
         <v>9</v>
       </c>
       <c r="B111" s="4">
-        <f>MOD(2*(B108-(B105*B110)),B103-1)</f>
-        <v>10</v>
+        <f>MOD(5*(B108-(B105*B110)),B103-1)</f>
+        <v>3</v>
       </c>
       <c r="C111" s="37" t="s">
         <v>299</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F111" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -6915,11 +6969,11 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D112" s="4">
         <f>B110</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>390</v>
@@ -6933,7 +6987,7 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4">
         <f>B111</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>149</v>
@@ -6947,10 +7001,10 @@
       <c r="C114" s="4"/>
       <c r="D114" s="57">
         <f>MOD(POWER(B104,B108),B103)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -6961,10 +7015,10 @@
       <c r="C115" s="4"/>
       <c r="D115" s="57">
         <f>MOD(POWER(B106,B110),B103)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -6975,10 +7029,10 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4">
         <f>MOD(POWER(B110,B111),B103)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -6989,10 +7043,10 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
         <f>IF(D114=MOD((D115*D116),B103),"true","false")</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -7004,13 +7058,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -7022,107 +7076,340 @@
       <c r="F120" s="16"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="3"/>
+      <c r="A121" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="39" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+      <c r="A122" s="4">
+        <v>1</v>
+      </c>
+      <c r="B122" s="4">
+        <v>2</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>299</v>
+      </c>
       <c r="D122" s="4"/>
-      <c r="E122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
+      <c r="A123" s="4">
+        <v>2</v>
+      </c>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+      <c r="C123" s="37">
+        <v>2</v>
+      </c>
+      <c r="D123" s="4">
+        <v>2</v>
+      </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
+      <c r="A124" s="4">
+        <v>3</v>
+      </c>
+      <c r="B124" s="4">
+        <v>3</v>
+      </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F124" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="A125" s="4">
+        <v>4</v>
+      </c>
+      <c r="B125" s="4">
+        <f>B122*B124</f>
+        <v>6</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>299</v>
+      </c>
       <c r="D125" s="4"/>
-      <c r="E125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F125" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
+      <c r="A126" s="4">
+        <v>5</v>
+      </c>
       <c r="B126" s="4"/>
+      <c r="C126" s="4">
+        <v>6</v>
+      </c>
+      <c r="D126" s="4">
+        <v>6</v>
+      </c>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
+      <c r="A127" s="4">
+        <v>6</v>
+      </c>
+      <c r="B127" s="4">
+        <v>4</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F127" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="A128" s="4">
+        <v>7</v>
+      </c>
+      <c r="B128" s="4">
+        <v>12</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F128" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>8</v>
+      </c>
+      <c r="B129" s="4">
+        <f>B122*B127</f>
+        <v>8</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F129" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>9</v>
+      </c>
+      <c r="B130" s="57">
+        <f>1/B127*(B128+(B124*B129))</f>
+        <v>9</v>
+      </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
+      <c r="E130" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F130" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>10</v>
+      </c>
       <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
+      <c r="C131" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D131" s="4">
+        <f>B128</f>
+        <v>12</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F131" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>11</v>
+      </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
+      <c r="D132" s="4">
+        <f>B129</f>
+        <v>8</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F132" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>12</v>
+      </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
+      <c r="D133" s="4">
+        <f>B130</f>
+        <v>9</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F133" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>13</v>
+      </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
+      <c r="D134" s="57">
+        <f>(1/D133*D131*D123)+(1/D133*D132*D126)</f>
+        <v>8</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F134" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>14</v>
+      </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="3"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="58" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>15</v>
+      </c>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="58" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>16</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>17</v>
+      </c>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>18</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>19</v>
+      </c>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>20</v>
+      </c>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>21</v>
+      </c>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4" t="str">
+        <f>IF(D134=D132,"true","false")</f>
+        <v>true</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="3"/>
+      <c r="F144" t="s">
+        <v>408</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S4:S29">
@@ -10248,246 +10535,246 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>7</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
       </c>
       <c r="C3">
         <f>MOD(A3,B3)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <f>MATCH(1,I3:I40,0)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3" s="26">
         <f>A3</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="26">
         <f t="shared" ref="I3:I40" si="0">MOD(H3,B$3)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D4">
         <f>D3-B3</f>
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="H4" s="26">
         <f t="shared" ref="H4:H10" si="1">H3+H$3</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H5" s="26">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" s="26">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I6" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H7" s="26">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" s="26">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="26">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="26">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H11" s="26">
         <f t="shared" ref="H11:H40" si="2">H10+H$3</f>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H12" s="26">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H13" s="26">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H14" s="26">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="26">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I15" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H16" s="26">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I16" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="26">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="26">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="26">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="26">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="26">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="26">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I22" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="26">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="26">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="26">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="I25" s="26">
         <f t="shared" si="0"/>
@@ -10497,87 +10784,87 @@
     <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="26">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="I26" s="26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="26">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="I27" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="26">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="I28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="26">
         <f t="shared" si="2"/>
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="I29" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="26">
         <f t="shared" si="2"/>
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="I30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="26">
         <f t="shared" si="2"/>
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="26">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="I32" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H33" s="26">
         <f t="shared" si="2"/>
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="I33" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H34" s="26">
         <f t="shared" si="2"/>
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="0"/>
@@ -10587,61 +10874,61 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H35" s="26">
         <f t="shared" si="2"/>
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="I35" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H36" s="26">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="I36" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H37" s="26">
         <f t="shared" si="2"/>
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="I37" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H38" s="26">
         <f t="shared" si="2"/>
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="I38" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H39" s="26">
         <f t="shared" si="2"/>
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="I39" s="26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" s="26">
         <f t="shared" si="2"/>
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="I40" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FE1578-1B0D-4FE2-A32C-20797127219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBBF012-E4A4-4D48-9007-AE605F62A96F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="426">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1032,9 +1032,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>(e, d)</t>
-  </si>
-  <si>
     <t>Inverse?</t>
   </si>
   <si>
@@ -1059,16 +1056,10 @@
     <t>gcd(e, n)</t>
   </si>
   <si>
-    <t>d x e = 1 mod n</t>
-  </si>
-  <si>
-    <t>gcd(e, t)</t>
-  </si>
-  <si>
     <t>t(n)</t>
   </si>
   <si>
-    <t>d x e = 1 mod t</t>
+    <t>Coprime?</t>
   </si>
   <si>
     <t>(3 ^ 5 = 33 mod 35)</t>
@@ -1306,6 +1297,24 @@
   </si>
   <si>
     <t>Verification</t>
+  </si>
+  <si>
+    <t>Proof of correctness</t>
+  </si>
+  <si>
+    <t>Integers</t>
+  </si>
+  <si>
+    <t>e x d = 1 mod n</t>
+  </si>
+  <si>
+    <t>(e,d)</t>
+  </si>
+  <si>
+    <t>gcd(e,n)</t>
+  </si>
+  <si>
+    <t>e x d = 1 mod t</t>
   </si>
 </sst>
 </file>
@@ -3951,8 +3960,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y43" sqref="Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3968,14 +3977,14 @@
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.21875" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
     <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" customWidth="1"/>
     <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.21875" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
     <col min="21" max="21" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
@@ -4018,14 +4027,16 @@
       </c>
       <c r="D2" s="4"/>
       <c r="N2" s="33" t="s">
-        <v>96</v>
+        <v>421</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="P2" s="4"/>
+        <v>353</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>340</v>
+      </c>
       <c r="Q2" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -4054,32 +4065,34 @@
         <v>302</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>339</v>
+        <v>424</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
       <c r="R3" s="39" t="s">
         <v>302</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>96</v>
+        <v>421</v>
       </c>
       <c r="U3" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="45"/>
+      <c r="V3" s="45" t="s">
+        <v>340</v>
+      </c>
       <c r="W3" s="45" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="X3" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -4103,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N4" s="5">
         <v>1</v>
@@ -4120,22 +4133,22 @@
         <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>341</v>
+        <v>143</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="Y4" s="39" t="s">
         <v>302</v>
@@ -4168,7 +4181,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N5" s="4">
         <v>2</v>
@@ -4185,7 +4198,7 @@
         <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
@@ -4205,7 +4218,7 @@
         <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -4233,7 +4246,7 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N6" s="5">
         <v>3</v>
@@ -4250,7 +4263,7 @@
         <v>7</v>
       </c>
       <c r="R6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="T6" s="4">
         <v>2</v>
@@ -4270,7 +4283,7 @@
         <v>10</v>
       </c>
       <c r="Y6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -4311,7 +4324,7 @@
         <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="T7" s="5">
         <v>3</v>
@@ -4331,7 +4344,7 @@
         <v>15</v>
       </c>
       <c r="Y7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -4395,7 +4408,7 @@
         <v>20</v>
       </c>
       <c r="Y8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -4454,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -4516,7 +4529,7 @@
         <v>6</v>
       </c>
       <c r="Y10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -5070,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="T22" s="4">
         <v>18</v>
@@ -5476,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="Y33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -5495,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q34" s="48"/>
       <c r="R34" s="25"/>
@@ -5530,7 +5543,7 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N35" s="56">
         <v>1</v>
@@ -5652,7 +5665,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N38" s="56">
         <v>4</v>
@@ -5737,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N40" s="56">
         <v>6</v>
@@ -5767,7 +5780,7 @@
       </c>
       <c r="Q41" s="4"/>
       <c r="T41" s="47" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
@@ -5955,7 +5968,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N50" s="56">
         <v>16</v>
@@ -6026,7 +6039,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N53" s="56">
         <v>19</v>
@@ -6095,7 +6108,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E57" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F57" s="55"/>
       <c r="N57" s="56">
@@ -6124,10 +6137,10 @@
         <v>7</v>
       </c>
       <c r="E58" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="F58" s="38" t="s">
         <v>334</v>
-      </c>
-      <c r="F58" s="38" t="s">
-        <v>335</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>302</v>
@@ -6206,7 +6219,7 @@
       </c>
       <c r="F61" s="4"/>
       <c r="G61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N61" s="56">
         <v>27</v>
@@ -6259,7 +6272,7 @@
         <v>121</v>
       </c>
       <c r="G63" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N63" s="56">
         <v>29</v>
@@ -6288,7 +6301,7 @@
       </c>
       <c r="F64" s="4"/>
       <c r="G64" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N64" s="4">
         <v>30</v>
@@ -6363,7 +6376,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N67" s="56">
         <v>33</v>
@@ -6415,7 +6428,7 @@
         <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N69" s="5">
         <v>35</v>
@@ -6438,7 +6451,7 @@
       </c>
       <c r="C70" s="4"/>
       <c r="G70" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,12 +6460,12 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="N71" s="47" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,7 +6513,7 @@
       </c>
       <c r="D77" s="4"/>
       <c r="E77" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F77" s="4"/>
     </row>
@@ -6527,7 +6540,7 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F79" s="4"/>
     </row>
@@ -6539,7 +6552,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="37"/>
@@ -6584,7 +6597,7 @@
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F84" s="4"/>
     </row>
@@ -6599,7 +6612,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6612,7 +6625,7 @@
       <c r="C86" s="37"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F86" s="4"/>
     </row>
@@ -6629,7 +6642,7 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F87" s="4"/>
     </row>
@@ -6644,7 +6657,7 @@
         <v>6</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6656,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6670,7 +6683,7 @@
         <v>8</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6681,7 +6694,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -6693,7 +6706,7 @@
         <v>24</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6709,7 +6722,7 @@
         <v>29</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6717,11 +6730,11 @@
         <v>11</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6734,7 +6747,7 @@
       <c r="C95" s="37"/>
       <c r="D95" s="4"/>
       <c r="E95" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6747,7 +6760,7 @@
       <c r="C96" s="37"/>
       <c r="D96" s="4"/>
       <c r="E96" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6761,7 +6774,7 @@
       <c r="C97" s="37"/>
       <c r="D97" s="4"/>
       <c r="E97" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6773,7 +6786,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6785,13 +6798,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="37"/>
       <c r="D100" s="4"/>
       <c r="E100" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -6863,7 +6876,7 @@
         <v>57</v>
       </c>
       <c r="F105" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -6879,10 +6892,10 @@
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F106" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -6911,7 +6924,7 @@
         <v>56</v>
       </c>
       <c r="F108" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -6924,10 +6937,10 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F109" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -6941,7 +6954,7 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -6957,10 +6970,10 @@
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F111" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -6969,14 +6982,14 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D112" s="4">
         <f>B110</f>
         <v>5</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -7004,7 +7017,7 @@
         <v>5</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -7018,7 +7031,7 @@
         <v>2</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -7032,7 +7045,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -7046,7 +7059,7 @@
         <v>true</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -7058,13 +7071,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -7133,10 +7146,10 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F124" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -7152,10 +7165,10 @@
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F125" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -7179,10 +7192,10 @@
         <v>4</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F127" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -7196,7 +7209,7 @@
         <v>56</v>
       </c>
       <c r="F128" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -7208,10 +7221,10 @@
         <v>8</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F129" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -7225,10 +7238,10 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F130" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -7247,7 +7260,7 @@
         <v>56</v>
       </c>
       <c r="F131" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -7261,10 +7274,10 @@
         <v>8</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F132" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -7281,7 +7294,7 @@
         <v>149</v>
       </c>
       <c r="F133" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -7295,10 +7308,10 @@
         <v>8</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F134" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7309,7 +7322,10 @@
       <c r="C135" s="4"/>
       <c r="D135" s="57"/>
       <c r="E135" s="58" t="s">
-        <v>410</v>
+        <v>407</v>
+      </c>
+      <c r="F135" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7320,7 +7336,7 @@
       <c r="C136" s="4"/>
       <c r="D136" s="57"/>
       <c r="E136" s="58" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -7331,7 +7347,7 @@
       <c r="C137" s="4"/>
       <c r="D137" s="57"/>
       <c r="E137" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -7342,7 +7358,7 @@
       <c r="C138" s="4"/>
       <c r="D138" s="57"/>
       <c r="E138" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -7353,7 +7369,7 @@
       <c r="C139" s="4"/>
       <c r="D139" s="57"/>
       <c r="E139" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -7364,7 +7380,7 @@
       <c r="C140" s="4"/>
       <c r="D140" s="57"/>
       <c r="E140" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -7375,7 +7391,7 @@
       <c r="C141" s="4"/>
       <c r="D141" s="57"/>
       <c r="E141" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -7389,7 +7405,7 @@
         <v>true</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -7401,14 +7417,14 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="3"/>
       <c r="F144" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBBF012-E4A4-4D48-9007-AE605F62A96F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B15469-9D25-4594-80DD-6CCDEC2D3EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="434">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1248,39 +1248,12 @@
     <t>Public Key</t>
   </si>
   <si>
-    <t>v = s^-1*m*g+s^-1*r*Ka</t>
-  </si>
-  <si>
-    <t>Figure xx. digital signature using multiplication to simulate ECDSA.</t>
-  </si>
-  <si>
     <t>Source: https://www.instructables.com/Understanding-how-ECDSA-protects-your-data/</t>
   </si>
   <si>
-    <t>v == r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   = s^-1*m*g+s^-1*r*ka*g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   = s^-1(m+ka*r)*g</t>
-  </si>
-  <si>
     <t>r = ke*g</t>
   </si>
   <si>
-    <t>v = s^-1(m+ka*r)*g</t>
-  </si>
-  <si>
-    <t>ke*g = s^-1(m+ka*r)*g</t>
-  </si>
-  <si>
-    <t>ke = s^-1(m+ka*r)</t>
-  </si>
-  <si>
-    <t>s = ke^-1(m+ka*r)</t>
-  </si>
-  <si>
     <t>ka</t>
   </si>
   <si>
@@ -1290,15 +1263,9 @@
     <t>ke</t>
   </si>
   <si>
-    <t>Ephemeral key (private)</t>
-  </si>
-  <si>
     <t>Ephemeral key (public)</t>
   </si>
   <si>
-    <t>Verification</t>
-  </si>
-  <si>
     <t>Proof of correctness</t>
   </si>
   <si>
@@ -1315,6 +1282,63 @@
   </si>
   <si>
     <t>e x d = 1 mod t</t>
+  </si>
+  <si>
+    <t>Hash of message</t>
+  </si>
+  <si>
+    <t>Figure xx. Digital signature using multiplication over the real numbers to simulate ECDSA.</t>
+  </si>
+  <si>
+    <t>Ephemeral private key</t>
+  </si>
+  <si>
+    <t>Ephemeral public key</t>
+  </si>
+  <si>
+    <t>ke*g = s^-1(h + r*ka)*g</t>
+  </si>
+  <si>
+    <t>ke = s^-1(h + r*ka)</t>
+  </si>
+  <si>
+    <t>s = ke^-1(h + r*ka)</t>
+  </si>
+  <si>
+    <t>r = s^-1(h + r*ka)*g</t>
+  </si>
+  <si>
+    <t>r = s^-1*h*g + s^-1*r*Ka</t>
+  </si>
+  <si>
+    <t>r = s^-1*h*g + s^-1*r*ka*g</t>
+  </si>
+  <si>
+    <t>r'</t>
+  </si>
+  <si>
+    <t>Distribute s^-1 over addition</t>
+  </si>
+  <si>
+    <t>Expand Ka from step 4</t>
+  </si>
+  <si>
+    <t>Expand r from step 8</t>
+  </si>
+  <si>
+    <t>Divide both sides by g</t>
+  </si>
+  <si>
+    <t>Multiply both sides by s</t>
+  </si>
+  <si>
+    <t>ke*s = (h + r*ka)</t>
+  </si>
+  <si>
+    <t>Divide both sides by ke</t>
+  </si>
+  <si>
+    <t>Verification (r' == r)</t>
   </si>
 </sst>
 </file>
@@ -1549,6 +1573,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1563,15 +1596,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1930,25 +1954,25 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="51" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="51" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="1" t="s">
@@ -1961,31 +1985,31 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="53"/>
+      <c r="O3" s="56"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19" t="s">
         <v>99</v>
@@ -3555,10 +3579,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U31" s="54" t="s">
+      <c r="U31" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="V31" s="54"/>
+      <c r="V31" s="57"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U32" t="s">
@@ -3958,10 +3982,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E13DE6-8DF4-4B7C-B600-DC44B025BC54}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y144"/>
+  <dimension ref="A1:Y145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y43" sqref="Y43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3970,7 +3994,7 @@
     <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.21875" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
     <col min="6" max="6" width="7.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" customWidth="1"/>
@@ -4027,7 +4051,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="N2" s="33" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>353</v>
@@ -4065,22 +4089,22 @@
         <v>302</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="R3" s="39" t="s">
         <v>302</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="U3" s="45" t="s">
         <v>25</v>
@@ -4136,7 +4160,7 @@
         <v>348</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>339</v>
@@ -4148,7 +4172,7 @@
         <v>3</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="Y4" s="39" t="s">
         <v>302</v>
@@ -5545,13 +5569,13 @@
       <c r="E35" t="s">
         <v>344</v>
       </c>
-      <c r="N35" s="56">
-        <v>1</v>
-      </c>
-      <c r="O35" s="56">
+      <c r="N35" s="51">
+        <v>1</v>
+      </c>
+      <c r="O35" s="51">
         <v>35</v>
       </c>
-      <c r="P35" s="56">
+      <c r="P35" s="51">
         <f>GCD(N35,O35)</f>
         <v>1</v>
       </c>
@@ -5585,13 +5609,13 @@
       <c r="D36" s="4">
         <v>6</v>
       </c>
-      <c r="N36" s="56">
+      <c r="N36" s="51">
         <v>2</v>
       </c>
-      <c r="O36" s="56">
+      <c r="O36" s="51">
         <v>35</v>
       </c>
-      <c r="P36" s="56">
+      <c r="P36" s="51">
         <f>GCD(N36,O36)</f>
         <v>1</v>
       </c>
@@ -5623,13 +5647,13 @@
       <c r="D37" s="4">
         <v>4</v>
       </c>
-      <c r="N37" s="56">
+      <c r="N37" s="51">
         <v>3</v>
       </c>
-      <c r="O37" s="56">
+      <c r="O37" s="51">
         <v>35</v>
       </c>
-      <c r="P37" s="56">
+      <c r="P37" s="51">
         <f>GCD(N37,O37)</f>
         <v>1</v>
       </c>
@@ -5667,13 +5691,13 @@
       <c r="E38" t="s">
         <v>345</v>
       </c>
-      <c r="N38" s="56">
+      <c r="N38" s="51">
         <v>4</v>
       </c>
-      <c r="O38" s="56">
+      <c r="O38" s="51">
         <v>35</v>
       </c>
-      <c r="P38" s="56">
+      <c r="P38" s="51">
         <f t="shared" ref="P38:P69" si="7">GCD(N38,O38)</f>
         <v>1</v>
       </c>
@@ -5752,13 +5776,13 @@
       <c r="E40" t="s">
         <v>346</v>
       </c>
-      <c r="N40" s="56">
+      <c r="N40" s="51">
         <v>6</v>
       </c>
-      <c r="O40" s="56">
+      <c r="O40" s="51">
         <v>35</v>
       </c>
-      <c r="P40" s="56">
+      <c r="P40" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -5792,13 +5816,13 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="N42" s="56">
+      <c r="N42" s="51">
         <v>8</v>
       </c>
-      <c r="O42" s="56">
+      <c r="O42" s="51">
         <v>35</v>
       </c>
-      <c r="P42" s="56">
+      <c r="P42" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -5808,13 +5832,13 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="N43" s="56">
+      <c r="N43" s="51">
         <v>9</v>
       </c>
-      <c r="O43" s="56">
+      <c r="O43" s="51">
         <v>35</v>
       </c>
-      <c r="P43" s="56">
+      <c r="P43" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -5857,13 +5881,13 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="N45" s="56">
+      <c r="N45" s="51">
         <v>11</v>
       </c>
-      <c r="O45" s="56">
+      <c r="O45" s="51">
         <v>35</v>
       </c>
-      <c r="P45" s="56">
+      <c r="P45" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -5879,13 +5903,13 @@
       <c r="C46" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="N46" s="56">
+      <c r="N46" s="51">
         <v>12</v>
       </c>
-      <c r="O46" s="56">
+      <c r="O46" s="51">
         <v>35</v>
       </c>
-      <c r="P46" s="56">
+      <c r="P46" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -5902,13 +5926,13 @@
       <c r="D47" s="4">
         <v>11</v>
       </c>
-      <c r="N47" s="56">
+      <c r="N47" s="51">
         <v>13</v>
       </c>
-      <c r="O47" s="56">
+      <c r="O47" s="51">
         <v>35</v>
       </c>
-      <c r="P47" s="56">
+      <c r="P47" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -5970,13 +5994,13 @@
       <c r="E50" t="s">
         <v>362</v>
       </c>
-      <c r="N50" s="56">
+      <c r="N50" s="51">
         <v>16</v>
       </c>
-      <c r="O50" s="56">
+      <c r="O50" s="51">
         <v>35</v>
       </c>
-      <c r="P50" s="56">
+      <c r="P50" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -5995,13 +6019,13 @@
         <v>7</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="N51" s="56">
+      <c r="N51" s="51">
         <v>17</v>
       </c>
-      <c r="O51" s="56">
+      <c r="O51" s="51">
         <v>35</v>
       </c>
-      <c r="P51" s="56">
+      <c r="P51" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6016,13 +6040,13 @@
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="N52" s="56">
+      <c r="N52" s="51">
         <v>18</v>
       </c>
-      <c r="O52" s="56">
+      <c r="O52" s="51">
         <v>35</v>
       </c>
-      <c r="P52" s="56">
+      <c r="P52" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6041,13 +6065,13 @@
       <c r="E53" t="s">
         <v>347</v>
       </c>
-      <c r="N53" s="56">
+      <c r="N53" s="51">
         <v>19</v>
       </c>
-      <c r="O53" s="56">
+      <c r="O53" s="51">
         <v>35</v>
       </c>
-      <c r="P53" s="56">
+      <c r="P53" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6094,30 +6118,30 @@
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="N56" s="56">
+      <c r="N56" s="51">
         <v>22</v>
       </c>
-      <c r="O56" s="56">
+      <c r="O56" s="51">
         <v>35</v>
       </c>
-      <c r="P56" s="56">
+      <c r="P56" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q56" s="4"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="F57" s="55"/>
-      <c r="N57" s="56">
+      <c r="F57" s="58"/>
+      <c r="N57" s="51">
         <v>23</v>
       </c>
-      <c r="O57" s="56">
+      <c r="O57" s="51">
         <v>35</v>
       </c>
-      <c r="P57" s="56">
+      <c r="P57" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6145,13 +6169,13 @@
       <c r="G58" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="N58" s="56">
+      <c r="N58" s="51">
         <v>24</v>
       </c>
-      <c r="O58" s="56">
+      <c r="O58" s="51">
         <v>35</v>
       </c>
-      <c r="P58" s="56">
+      <c r="P58" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6191,13 +6215,13 @@
       <c r="F60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N60" s="56">
+      <c r="N60" s="51">
         <v>26</v>
       </c>
-      <c r="O60" s="56">
+      <c r="O60" s="51">
         <v>35</v>
       </c>
-      <c r="P60" s="56">
+      <c r="P60" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6221,13 +6245,13 @@
       <c r="G61" t="s">
         <v>332</v>
       </c>
-      <c r="N61" s="56">
+      <c r="N61" s="51">
         <v>27</v>
       </c>
-      <c r="O61" s="56">
+      <c r="O61" s="51">
         <v>35</v>
       </c>
-      <c r="P61" s="56">
+      <c r="P61" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6274,13 +6298,13 @@
       <c r="G63" t="s">
         <v>337</v>
       </c>
-      <c r="N63" s="56">
+      <c r="N63" s="51">
         <v>29</v>
       </c>
-      <c r="O63" s="56">
+      <c r="O63" s="51">
         <v>35</v>
       </c>
-      <c r="P63" s="56">
+      <c r="P63" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6328,13 +6352,13 @@
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="N65" s="56">
+      <c r="N65" s="51">
         <v>31</v>
       </c>
-      <c r="O65" s="56">
+      <c r="O65" s="51">
         <v>35</v>
       </c>
-      <c r="P65" s="56">
+      <c r="P65" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6350,13 +6374,13 @@
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="N66" s="56">
+      <c r="N66" s="51">
         <v>32</v>
       </c>
-      <c r="O66" s="56">
+      <c r="O66" s="51">
         <v>35</v>
       </c>
-      <c r="P66" s="56">
+      <c r="P66" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6378,13 +6402,13 @@
       <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="N67" s="56">
+      <c r="N67" s="51">
         <v>33</v>
       </c>
-      <c r="O67" s="56">
+      <c r="O67" s="51">
         <v>35</v>
       </c>
-      <c r="P67" s="56">
+      <c r="P67" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6403,13 +6427,13 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="N68" s="56">
+      <c r="N68" s="51">
         <v>34</v>
       </c>
-      <c r="O68" s="56">
+      <c r="O68" s="51">
         <v>35</v>
       </c>
-      <c r="P68" s="56">
+      <c r="P68" s="51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6469,8 +6493,8 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
@@ -7012,7 +7036,7 @@
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="57">
+      <c r="D114" s="52">
         <f>MOD(POWER(B104,B108),B103)</f>
         <v>5</v>
       </c>
@@ -7026,7 +7050,7 @@
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="57">
+      <c r="D115" s="52">
         <f>MOD(POWER(B106,B110),B103)</f>
         <v>2</v>
       </c>
@@ -7146,7 +7170,7 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="3" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F124" t="s">
         <v>397</v>
@@ -7165,7 +7189,7 @@
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F125" t="s">
         <v>402</v>
@@ -7192,7 +7216,7 @@
         <v>4</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F127" t="s">
         <v>417</v>
@@ -7206,10 +7230,10 @@
         <v>12</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="F128" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -7221,7 +7245,7 @@
         <v>8</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F129" t="s">
         <v>418</v>
@@ -7231,14 +7255,14 @@
       <c r="A130" s="4">
         <v>9</v>
       </c>
-      <c r="B130" s="57">
+      <c r="B130" s="52">
         <f>1/B127*(B128+(B124*B129))</f>
         <v>9</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="3" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F130" t="s">
         <v>401</v>
@@ -7257,7 +7281,7 @@
         <v>12</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="F131" t="s">
         <v>399</v>
@@ -7277,7 +7301,7 @@
         <v>387</v>
       </c>
       <c r="F132" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -7303,15 +7327,15 @@
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
-      <c r="D134" s="57">
+      <c r="D134" s="52">
         <f>(1/D133*D131*D123)+(1/D133*D132*D126)</f>
         <v>8</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="F134" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7320,12 +7344,15 @@
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="58" t="s">
-        <v>407</v>
+      <c r="D135" s="3" t="str">
+        <f>IF(D134=D132,"Verified","Invalid")</f>
+        <v>Verified</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="F135" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7334,9 +7361,12 @@
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="57"/>
-      <c r="E136" s="58" t="s">
-        <v>408</v>
+      <c r="D136" s="52"/>
+      <c r="E136" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F136" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -7345,9 +7375,12 @@
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="3" t="s">
-        <v>409</v>
+      <c r="D137" s="52"/>
+      <c r="E137" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="F137" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -7356,9 +7389,12 @@
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="57"/>
+      <c r="D138" s="52"/>
       <c r="E138" s="3" t="s">
-        <v>410</v>
+        <v>419</v>
+      </c>
+      <c r="F138" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -7367,9 +7403,12 @@
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
-      <c r="D139" s="57"/>
+      <c r="D139" s="52"/>
       <c r="E139" s="3" t="s">
-        <v>411</v>
+        <v>420</v>
+      </c>
+      <c r="F139" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -7378,9 +7417,12 @@
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="57"/>
+      <c r="D140" s="52"/>
       <c r="E140" s="3" t="s">
-        <v>412</v>
+        <v>431</v>
+      </c>
+      <c r="F140" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -7389,24 +7431,18 @@
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="57"/>
       <c r="E141" s="3" t="s">
-        <v>413</v>
+        <v>421</v>
+      </c>
+      <c r="F141" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="4">
-        <v>21</v>
-      </c>
+      <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="4" t="str">
-        <f>IF(D134=D132,"true","false")</f>
-        <v>true</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>406</v>
-      </c>
+      <c r="E142" s="3"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
@@ -7417,14 +7453,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="47" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="3"/>
-      <c r="F144" t="s">
-        <v>405</v>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -7500,10 +7538,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="19" t="s">
         <v>99</v>
       </c>
@@ -7538,11 +7576,11 @@
         <v>23</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -8300,37 +8338,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="55"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="J2" s="55" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="J2" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55" t="s">
+      <c r="K2" s="58"/>
+      <c r="L2" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="P2" s="55" t="s">
+      <c r="M2" s="58"/>
+      <c r="P2" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -8384,8 +8422,8 @@
         <v>123</v>
       </c>
       <c r="S3" s="25"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -9822,8 +9860,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10237,8 +10275,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B15469-9D25-4594-80DD-6CCDEC2D3EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDDD3B-5004-4342-92AB-2F6AB9A552B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="7" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="537">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -489,12 +489,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>y^2 = x^3 + ax + b</t>
-  </si>
-  <si>
-    <t>x^2 = x^3 + 2x + 2 (mod 17)</t>
-  </si>
-  <si>
     <t>(5,1)</t>
   </si>
   <si>
@@ -726,9 +720,6 @@
     <t>Eve cannont efficiently compute P.</t>
   </si>
   <si>
-    <t>G + G</t>
-  </si>
-  <si>
     <t>Curve parameter</t>
   </si>
   <si>
@@ -741,48 +732,18 @@
     <t>(5,1) + (5,1)</t>
   </si>
   <si>
-    <t>3(xG^2) + a / 2(yG)</t>
-  </si>
-  <si>
     <t>3(5^2) + 2 / 2(1)</t>
   </si>
   <si>
     <t>77(2^-1)</t>
   </si>
   <si>
-    <t>9(9)</t>
-  </si>
-  <si>
-    <t>13 (mod 17)</t>
-  </si>
-  <si>
-    <t>X coordinate for 2G</t>
-  </si>
-  <si>
-    <t>x2G</t>
-  </si>
-  <si>
-    <t>s^2 - 2(xG)</t>
-  </si>
-  <si>
     <t>13^2 - 2(5)</t>
   </si>
   <si>
     <t>169 - 10</t>
   </si>
   <si>
-    <t>6 (mod 17)</t>
-  </si>
-  <si>
-    <t>Y coordinate for 2G</t>
-  </si>
-  <si>
-    <t>y2G</t>
-  </si>
-  <si>
-    <t>s(xG - x2G) - yG</t>
-  </si>
-  <si>
     <t>13(5 - 6) - 1</t>
   </si>
   <si>
@@ -795,9 +756,6 @@
     <t>3G</t>
   </si>
   <si>
-    <t>2G + G</t>
-  </si>
-  <si>
     <t>(6,3) + (5,1)</t>
   </si>
   <si>
@@ -810,45 +768,15 @@
     <t>Add</t>
   </si>
   <si>
-    <t>y2G - yG / x2G - xG</t>
-  </si>
-  <si>
     <t>3 - 1 / 6 - 5</t>
   </si>
   <si>
     <t>2(1^-1)</t>
   </si>
   <si>
-    <t>3 (mod 17)</t>
-  </si>
-  <si>
-    <t>2 (mod 17)</t>
-  </si>
-  <si>
-    <t>X coordinate for 3G</t>
-  </si>
-  <si>
-    <t>Y coordinate for 3G</t>
-  </si>
-  <si>
-    <t>x3G</t>
-  </si>
-  <si>
-    <t>y3G</t>
-  </si>
-  <si>
-    <t>s^2 - (x2G + xG)</t>
-  </si>
-  <si>
-    <t>s(x2G - x3G) - y2G</t>
-  </si>
-  <si>
     <t>2^2 - (6 + 5)</t>
   </si>
   <si>
-    <t>10 (mod 17)</t>
-  </si>
-  <si>
     <t>2(6 - 10) - 3</t>
   </si>
   <si>
@@ -1339,6 +1267,387 @@
   </si>
   <si>
     <t>Verification (r' == r)</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>(10,6) + (5,1)</t>
+  </si>
+  <si>
+    <t>6 - 1 / 10 - 5</t>
+  </si>
+  <si>
+    <t>5(5^-1)</t>
+  </si>
+  <si>
+    <t>1^2 - (10 + 5)</t>
+  </si>
+  <si>
+    <t>1(10 - 3) - 6</t>
+  </si>
+  <si>
+    <t>10 - 3 - 6</t>
+  </si>
+  <si>
+    <t>(3,1)</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>(3,1) + (5,1)</t>
+  </si>
+  <si>
+    <t>1 - 1 / 3 - 5</t>
+  </si>
+  <si>
+    <t>9,16</t>
+  </si>
+  <si>
+    <t>16,13</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>13,7</t>
+  </si>
+  <si>
+    <t>7,6</t>
+  </si>
+  <si>
+    <t>7,11</t>
+  </si>
+  <si>
+    <t>13,10</t>
+  </si>
+  <si>
+    <t>0,11</t>
+  </si>
+  <si>
+    <t>16,4</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>3,16</t>
+  </si>
+  <si>
+    <t>10,11</t>
+  </si>
+  <si>
+    <t>6,14</t>
+  </si>
+  <si>
+    <t>5,16</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>(x,y)</t>
+  </si>
+  <si>
+    <t>s(x - x2) - yG</t>
+  </si>
+  <si>
+    <t>(x,y) + (x,y)</t>
+  </si>
+  <si>
+    <t>3x^2 + a / 2y</t>
+  </si>
+  <si>
+    <t>y^2 = x^3 + ax + b mod p</t>
+  </si>
+  <si>
+    <t>y^2 = x^3 + 2x + 2 mod 17</t>
+  </si>
+  <si>
+    <t>x coordinate for 2G</t>
+  </si>
+  <si>
+    <t>y coordinate for 2G</t>
+  </si>
+  <si>
+    <t>s^2 - 2x</t>
+  </si>
+  <si>
+    <t>(x2,y2)</t>
+  </si>
+  <si>
+    <t>(x2,y2) + (x,y)</t>
+  </si>
+  <si>
+    <t>y2 - y / x2 - x</t>
+  </si>
+  <si>
+    <t>s^2 - (x2 + x)</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>s(x2 - x3) - y2</t>
+  </si>
+  <si>
+    <t>4 - (6 + 5)</t>
+  </si>
+  <si>
+    <t>(x3,y3)</t>
+  </si>
+  <si>
+    <t>(x3,y3) + (x,y)</t>
+  </si>
+  <si>
+    <t>y3 - y / x3 - x</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>s^2 - (x3 + x)</t>
+  </si>
+  <si>
+    <t>s(x3 - x4) - y3</t>
+  </si>
+  <si>
+    <t>1 - (10 + 5)</t>
+  </si>
+  <si>
+    <t>(x4,y4) + (x,y)</t>
+  </si>
+  <si>
+    <t>(x4,y4)</t>
+  </si>
+  <si>
+    <t>y4 - y / x4 - x</t>
+  </si>
+  <si>
+    <t>s^2 - (x4 + x)</t>
+  </si>
+  <si>
+    <t>s(x4 - x5) - y4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>0(-2^-1)</t>
+  </si>
+  <si>
+    <t>0 - (3 + 5)</t>
+  </si>
+  <si>
+    <t>0^2 - (3 + 5)</t>
+  </si>
+  <si>
+    <t>0(3 - 9) - 1</t>
+  </si>
+  <si>
+    <t>0 - 0 - 1</t>
+  </si>
+  <si>
+    <t>x coordinate for 3G</t>
+  </si>
+  <si>
+    <t>y coordinate for 3G</t>
+  </si>
+  <si>
+    <t>x coordinate for 4G</t>
+  </si>
+  <si>
+    <t>y coordinate for 4G</t>
+  </si>
+  <si>
+    <t>(x5,y5)</t>
+  </si>
+  <si>
+    <t>(9,16)</t>
+  </si>
+  <si>
+    <t>6G</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>y6</t>
+  </si>
+  <si>
+    <t>(x5,y5) + (x,y)</t>
+  </si>
+  <si>
+    <t>y5 - y / x5 - x</t>
+  </si>
+  <si>
+    <t>s^2 - (x5 + x)</t>
+  </si>
+  <si>
+    <t>s(x5 - x6) - y5</t>
+  </si>
+  <si>
+    <t>(9,16) + (5,1)</t>
+  </si>
+  <si>
+    <t>16 - 1 / 9 - 5</t>
+  </si>
+  <si>
+    <t>15(4^-1)</t>
+  </si>
+  <si>
+    <t>8^2 - (9 + 5)</t>
+  </si>
+  <si>
+    <t>64 - (9 + 5)</t>
+  </si>
+  <si>
+    <t>8(9 - 16) - 16</t>
+  </si>
+  <si>
+    <t>72 - 128 - 16</t>
+  </si>
+  <si>
+    <t>(16,13)</t>
+  </si>
+  <si>
+    <t>7G</t>
+  </si>
+  <si>
+    <t>(x6,y6)</t>
+  </si>
+  <si>
+    <t>(x6,y6) + (x,y)</t>
+  </si>
+  <si>
+    <t>(16,13) + (5,1)</t>
+  </si>
+  <si>
+    <t>y6 - y / x6 - x</t>
+  </si>
+  <si>
+    <t>13 - 1 / 16 - 5</t>
+  </si>
+  <si>
+    <t>12(11^-1)</t>
+  </si>
+  <si>
+    <t>x coordinate for 7G</t>
+  </si>
+  <si>
+    <t>y coordinate for 7G</t>
+  </si>
+  <si>
+    <t>x coordinate for 5G</t>
+  </si>
+  <si>
+    <t>y coordinate for 5G</t>
+  </si>
+  <si>
+    <t>x coordinate for 6G</t>
+  </si>
+  <si>
+    <t>y coordinate for 6G</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>y7</t>
+  </si>
+  <si>
+    <t>s^2 - (x6 + x)</t>
+  </si>
+  <si>
+    <t>s(x6 - x7) - y6</t>
+  </si>
+  <si>
+    <t>15^2 - (16 + 5)</t>
+  </si>
+  <si>
+    <t>225 - (16 + 5)</t>
+  </si>
+  <si>
+    <t>15(16 - 0) - 13</t>
+  </si>
+  <si>
+    <t>240 - 0 - 13</t>
+  </si>
+  <si>
+    <t>(x7,y7)</t>
+  </si>
+  <si>
+    <t>(0,6)</t>
+  </si>
+  <si>
+    <t>8G</t>
+  </si>
+  <si>
+    <t>(x7,y7) + (x,y)</t>
+  </si>
+  <si>
+    <t>(0,6) + (5,1)</t>
+  </si>
+  <si>
+    <t>y7 - y / x7 - x</t>
+  </si>
+  <si>
+    <t>6 - 1 / 0 - 5</t>
+  </si>
+  <si>
+    <t>5(-5^-1)</t>
+  </si>
+  <si>
+    <t>x coordinate for 8G</t>
+  </si>
+  <si>
+    <t>y coordinate for 8G</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>y8</t>
+  </si>
+  <si>
+    <t>s^2 - (x7 + x)</t>
+  </si>
+  <si>
+    <t>16^2 - (0 + 5)</t>
+  </si>
+  <si>
+    <t>256 - (0 + 5)</t>
+  </si>
+  <si>
+    <t>s(x7 - x8) - y7</t>
+  </si>
+  <si>
+    <t>16(0 - 13) - 6</t>
+  </si>
+  <si>
+    <t>0 - 208 - 6</t>
+  </si>
+  <si>
+    <t>(x8,y8)</t>
+  </si>
+  <si>
+    <t>(13,7)</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +2224,7 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3660,7 +3969,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3699,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3715,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -3743,7 +4052,7 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3759,7 +4068,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3775,10 +4084,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="H9" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3794,7 +4103,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>14</v>
@@ -3803,7 +4112,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3822,7 +4131,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3838,7 +4147,7 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3854,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H13" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3882,7 +4191,7 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3898,10 +4207,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3917,10 +4226,10 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="H16" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -3939,23 +4248,23 @@
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G18" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="H18" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H19" s="2" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3966,12 +4275,12 @@
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3984,8 +4293,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView showGridLines="0" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4016,7 +4325,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -4028,7 +4337,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="I1">
         <v>3</v>
@@ -4047,20 +4356,20 @@
         <v>2</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D2" s="4"/>
       <c r="N2" s="33" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="P2" s="50" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -4077,46 +4386,46 @@
         <v>2</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="U3" s="45" t="s">
         <v>25</v>
       </c>
       <c r="V3" s="45" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="W3" s="45" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="X3" s="45" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -4140,7 +4449,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="N4" s="5">
         <v>1</v>
@@ -4157,13 +4466,13 @@
         <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="V4" s="9" t="s">
         <v>143</v>
@@ -4172,10 +4481,10 @@
         <v>3</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="Y4" s="39" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -4187,11 +4496,11 @@
         <v>6</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
@@ -4205,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="N5" s="4">
         <v>2</v>
@@ -4222,7 +4531,7 @@
         <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
@@ -4242,7 +4551,7 @@
         <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -4270,7 +4579,7 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="N6" s="5">
         <v>3</v>
@@ -4287,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="R6" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="T6" s="4">
         <v>2</v>
@@ -4307,7 +4616,7 @@
         <v>10</v>
       </c>
       <c r="Y6" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -4331,7 +4640,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="N7" s="4">
         <v>4</v>
@@ -4348,7 +4657,7 @@
         <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="T7" s="5">
         <v>3</v>
@@ -4368,7 +4677,7 @@
         <v>15</v>
       </c>
       <c r="Y7" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -4377,14 +4686,14 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="37" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D8" s="4">
         <f>D7*D3</f>
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="H8" s="4">
         <v>5</v>
@@ -4412,7 +4721,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="T8" s="4">
         <v>4</v>
@@ -4432,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="Y8" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -4487,11 +4796,11 @@
         <v>35</v>
       </c>
       <c r="X9" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T9*T$9,U9)</f>
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -4508,7 +4817,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="H10" s="4">
         <v>7</v>
@@ -4549,11 +4858,11 @@
         <v>35</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T10*T$9,U10)</f>
         <v>6</v>
       </c>
       <c r="Y10" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -4596,16 +4905,16 @@
         <v>35</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T11*T$9,U11)</f>
         <v>11</v>
       </c>
       <c r="Y11" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4649,7 +4958,7 @@
         <v>35</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T12*T$9,U12)</f>
         <v>16</v>
       </c>
     </row>
@@ -4693,13 +5002,13 @@
         <v>35</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T13*T$9,U13)</f>
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>6</v>
@@ -4711,7 +5020,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="H14" s="4">
         <v>11</v>
@@ -4752,7 +5061,7 @@
         <v>35</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T14*T$9,U14)</f>
         <v>2</v>
       </c>
     </row>
@@ -4764,7 +5073,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D15" s="4"/>
       <c r="H15" s="4">
@@ -4806,7 +5115,7 @@
         <v>35</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T15*T$9,U15)</f>
         <v>7</v>
       </c>
     </row>
@@ -4851,7 +5160,7 @@
         <v>35</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T16*T$9,U16)</f>
         <v>12</v>
       </c>
     </row>
@@ -4865,7 +5174,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="H17" s="42" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="N17" s="4">
         <v>14</v>
@@ -4895,7 +5204,7 @@
         <v>35</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T17*T$9,U17)</f>
         <v>17</v>
       </c>
     </row>
@@ -4908,11 +5217,11 @@
         <v>8</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="N18" s="4">
         <v>15</v>
@@ -4942,7 +5251,7 @@
         <v>35</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T18*T$9,U18)</f>
         <v>22</v>
       </c>
     </row>
@@ -4987,7 +5296,7 @@
         <v>35</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T19*T$9,U19)</f>
         <v>3</v>
       </c>
     </row>
@@ -5028,7 +5337,7 @@
         <v>35</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T20*T$9,U20)</f>
         <v>8</v>
       </c>
     </row>
@@ -5038,14 +5347,14 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="37" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D21" s="4">
         <f>POWER(D20,D16)</f>
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="N21" s="4">
         <v>18</v>
@@ -5075,7 +5384,7 @@
         <v>35</v>
       </c>
       <c r="X21" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T21*T$9,U21)</f>
         <v>13</v>
       </c>
     </row>
@@ -5107,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="T22" s="4">
         <v>18</v>
@@ -5123,7 +5432,7 @@
         <v>35</v>
       </c>
       <c r="X22" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T22*T$9,U22)</f>
         <v>18</v>
       </c>
     </row>
@@ -5141,7 +5450,7 @@
         <v>4096</v>
       </c>
       <c r="E23" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="N23" s="4">
         <v>20</v>
@@ -5171,7 +5480,7 @@
         <v>35</v>
       </c>
       <c r="X23" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T23*T$9,U23)</f>
         <v>23</v>
       </c>
     </row>
@@ -5207,13 +5516,13 @@
         <v>35</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T24*T$9,U24)</f>
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="N25" s="4">
         <v>22</v>
@@ -5243,7 +5552,7 @@
         <v>35</v>
       </c>
       <c r="X25" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T25*T$9,U25)</f>
         <v>9</v>
       </c>
     </row>
@@ -5276,7 +5585,7 @@
         <v>35</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T26*T$9,U26)</f>
         <v>14</v>
       </c>
     </row>
@@ -5309,7 +5618,7 @@
         <v>35</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T27*T$9,U27)</f>
         <v>19</v>
       </c>
     </row>
@@ -5342,13 +5651,13 @@
         <v>35</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T28*T$9,U28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>6</v>
@@ -5360,7 +5669,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="N29" s="4">
         <v>26</v>
@@ -5390,7 +5699,7 @@
         <v>35</v>
       </c>
       <c r="X29" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T29*T$9,U29)</f>
         <v>5</v>
       </c>
     </row>
@@ -5417,7 +5726,7 @@
         <v>35</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T30*T$9,U30)</f>
         <v>10</v>
       </c>
     </row>
@@ -5429,11 +5738,11 @@
         <v>7</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D31" s="4"/>
       <c r="N31" s="42" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="T31" s="4">
         <v>27</v>
@@ -5449,7 +5758,7 @@
         <v>35</v>
       </c>
       <c r="X31" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T31*T$9,U31)</f>
         <v>15</v>
       </c>
     </row>
@@ -5459,7 +5768,7 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="37" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="D32" s="4">
         <v>3</v>
@@ -5478,7 +5787,7 @@
         <v>35</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" si="4"/>
+        <f>MOD(T32*T$9,U32)</f>
         <v>20</v>
       </c>
     </row>
@@ -5513,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="Y33" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -5532,7 +5841,7 @@
         <v>3</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="Q34" s="48"/>
       <c r="R34" s="25"/>
@@ -5563,11 +5872,11 @@
         <v>6</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="N35" s="51">
         <v>1</v>
@@ -5682,14 +5991,14 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="37" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D38" s="4">
         <f>MOD(POWER(D32,D37),D33)</f>
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="N38" s="51">
         <v>4</v>
@@ -5774,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="N40" s="51">
         <v>6</v>
@@ -5804,14 +6113,14 @@
       </c>
       <c r="Q41" s="4"/>
       <c r="T41" s="47" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -5846,7 +6155,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>6</v>
@@ -5858,7 +6167,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="N44" s="4">
         <v>10</v>
@@ -5901,7 +6210,7 @@
         <v>26</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="N46" s="51">
         <v>12</v>
@@ -5921,7 +6230,7 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="37" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D47" s="4">
         <v>11</v>
@@ -5985,14 +6294,14 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="37" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D50" s="4">
         <f>MOD(D49*D47,D48)</f>
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="N50" s="51">
         <v>16</v>
@@ -6063,7 +6372,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="N53" s="51">
         <v>19</v>
@@ -6096,7 +6405,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="42" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -6132,7 +6441,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E57" s="58" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="F57" s="58"/>
       <c r="N57" s="51">
@@ -6149,7 +6458,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>6</v>
@@ -6161,13 +6470,13 @@
         <v>7</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="N58" s="51">
         <v>24</v>
@@ -6236,14 +6545,14 @@
         <v>35</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="N61" s="51">
         <v>27</v>
@@ -6296,7 +6605,7 @@
         <v>121</v>
       </c>
       <c r="G63" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="N63" s="51">
         <v>29</v>
@@ -6318,14 +6627,14 @@
         <v>5</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="N64" s="4">
         <v>30</v>
@@ -6392,7 +6701,7 @@
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="37" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -6400,7 +6709,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="N67" s="51">
         <v>33</v>
@@ -6452,7 +6761,7 @@
         <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="N69" s="5">
         <v>35</v>
@@ -6475,7 +6784,7 @@
       </c>
       <c r="C70" s="4"/>
       <c r="G70" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,12 +6793,12 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="N71" s="47" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,7 +6807,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>6</v>
@@ -6510,7 +6819,7 @@
         <v>7</v>
       </c>
       <c r="E75" s="39" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="F75" s="38"/>
     </row>
@@ -6533,11 +6842,11 @@
         <v>9</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="F77" s="4"/>
     </row>
@@ -6564,7 +6873,7 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="F79" s="4"/>
     </row>
@@ -6576,7 +6885,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="37"/>
@@ -6593,7 +6902,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>6</v>
@@ -6605,7 +6914,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="F83" s="38"/>
     </row>
@@ -6617,11 +6926,11 @@
         <v>2</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="3" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="F84" s="4"/>
     </row>
@@ -6636,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6649,7 +6958,7 @@
       <c r="C86" s="37"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="F86" s="4"/>
     </row>
@@ -6662,11 +6971,11 @@
         <v>6</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="3" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="F87" s="4"/>
     </row>
@@ -6681,7 +6990,7 @@
         <v>6</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6693,7 +7002,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6707,7 +7016,7 @@
         <v>8</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6718,7 +7027,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -6730,7 +7039,7 @@
         <v>24</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6739,14 +7048,14 @@
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="37" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D93" s="4">
         <f>D91+(D89*D88)</f>
         <v>29</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6754,11 +7063,11 @@
         <v>11</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="3" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6771,7 +7080,7 @@
       <c r="C95" s="37"/>
       <c r="D95" s="4"/>
       <c r="E95" s="3" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6784,7 +7093,7 @@
       <c r="C96" s="37"/>
       <c r="D96" s="4"/>
       <c r="E96" s="3" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6798,7 +7107,7 @@
       <c r="C97" s="37"/>
       <c r="D97" s="4"/>
       <c r="E97" s="3" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6810,7 +7119,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6822,13 +7131,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="37"/>
       <c r="D100" s="4"/>
       <c r="E100" s="3" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -6840,7 +7149,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>6</v>
@@ -6852,7 +7161,7 @@
         <v>7</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -6884,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -6900,7 +7209,7 @@
         <v>57</v>
       </c>
       <c r="F105" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -6912,14 +7221,14 @@
         <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="3" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="F106" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -6948,7 +7257,7 @@
         <v>56</v>
       </c>
       <c r="F108" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -6961,10 +7270,10 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="3" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="F109" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -6978,7 +7287,7 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="3" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -6990,14 +7299,14 @@
         <v>3</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="3" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="F111" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -7006,14 +7315,14 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D112" s="4">
         <f>B110</f>
         <v>5</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -7041,7 +7350,7 @@
         <v>5</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -7055,7 +7364,7 @@
         <v>2</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -7069,7 +7378,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -7083,7 +7392,7 @@
         <v>true</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -7095,13 +7404,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -7114,7 +7423,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>6</v>
@@ -7126,7 +7435,7 @@
         <v>7</v>
       </c>
       <c r="E121" s="39" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -7137,14 +7446,14 @@
         <v>2</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -7170,10 +7479,10 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="3" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="F124" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -7185,14 +7494,14 @@
         <v>6</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="3" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="F125" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -7216,10 +7525,10 @@
         <v>4</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="F127" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -7230,10 +7539,10 @@
         <v>12</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F128" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -7245,10 +7554,10 @@
         <v>8</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F129" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -7262,10 +7571,10 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="3" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="F130" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -7274,17 +7583,17 @@
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="37" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D131" s="4">
         <f>B128</f>
         <v>12</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F131" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -7298,10 +7607,10 @@
         <v>8</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="F132" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -7318,7 +7627,7 @@
         <v>149</v>
       </c>
       <c r="F133" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -7332,10 +7641,10 @@
         <v>8</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="F134" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7349,10 +7658,10 @@
         <v>Verified</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="F135" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7363,10 +7672,10 @@
       <c r="C136" s="4"/>
       <c r="D136" s="52"/>
       <c r="E136" s="3" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="F136" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -7377,10 +7686,10 @@
       <c r="C137" s="4"/>
       <c r="D137" s="52"/>
       <c r="E137" s="53" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F137" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -7391,10 +7700,10 @@
       <c r="C138" s="4"/>
       <c r="D138" s="52"/>
       <c r="E138" s="3" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="F138" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -7405,10 +7714,10 @@
       <c r="C139" s="4"/>
       <c r="D139" s="52"/>
       <c r="E139" s="3" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="F139" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -7419,10 +7728,10 @@
       <c r="C140" s="4"/>
       <c r="D140" s="52"/>
       <c r="E140" s="3" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="F140" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -7432,10 +7741,10 @@
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="E141" s="3" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="F141" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -7453,7 +7762,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="47" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -7462,12 +7771,12 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S4:S29">
-    <sortCondition ref="S4:S29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X9:X32">
+    <sortCondition ref="X9:X32"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E57:F57"/>
@@ -7483,8 +7792,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7508,7 +7817,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
@@ -7711,10 +8020,10 @@
         <v>32</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>28</v>
@@ -7767,10 +8076,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -7792,16 +8101,16 @@
         <v>6</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -7831,7 +8140,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -7850,12 +8159,12 @@
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -8196,7 +8505,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="H30">
         <v>25</v>
@@ -8215,7 +8524,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="H31">
         <v>26</v>
@@ -8314,26 +8623,25 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" customWidth="1"/>
     <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
     <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="20" max="25" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8427,24 +8735,24 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <f>A4*B4</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <f>INDEX(P5:P53,MATCH(1,Q5:Q53,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
         <v>63</v>
@@ -8491,11 +8799,11 @@
       </c>
       <c r="D5">
         <f>(A4-1)*(B4-1)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <f>INDEX(P4:P53,MATCH(1,R4:R53,0))</f>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
         <v>64</v>
@@ -8542,11 +8850,11 @@
       </c>
       <c r="D6">
         <f>LCM(A4-1,B4-1)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <f>MOD(F5,D4)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
         <v>65</v>
@@ -8556,30 +8864,30 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K6" s="13">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="L6" s="26">
         <f t="shared" si="2"/>
-        <v>4.4601490397061246E+43</v>
-      </c>
-      <c r="M6" s="31" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>2097152</v>
+      </c>
+      <c r="M6" s="31">
+        <f>MOD(L6,C$4)</f>
+        <v>2</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P6">
         <v>3</v>
       </c>
       <c r="Q6">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8599,23 +8907,23 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L7" s="26">
         <f t="shared" si="2"/>
-        <v>1.088690056823018E+44</v>
-      </c>
-      <c r="M7" s="13" t="e">
+        <v>10460353203</v>
+      </c>
+      <c r="M7" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>3</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P7">
         <v>4</v>
@@ -8624,9 +8932,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="R7" s="7" t="str">
+      <c r="R7" s="7">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="U7" s="29"/>
     </row>
@@ -8642,34 +8950,34 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>1024</v>
+        <v>64</v>
       </c>
       <c r="K8" s="13">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="L8" s="26">
         <f t="shared" si="2"/>
-        <v>4.7101286972462449E+27</v>
-      </c>
-      <c r="M8" s="13" t="e">
+        <v>27512614111</v>
+      </c>
+      <c r="M8" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>4</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P8">
         <v>5</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="7" t="str">
+        <v>5</v>
+      </c>
+      <c r="R8" s="7">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>15</v>
       </c>
       <c r="U8" s="29"/>
     </row>
@@ -8685,34 +8993,34 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>3125</v>
+        <v>125</v>
       </c>
       <c r="K9" s="13">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L9" s="26">
         <f t="shared" si="2"/>
-        <v>9.9999999999999991E+28</v>
-      </c>
-      <c r="M9" s="13" t="e">
+        <v>8031810176</v>
+      </c>
+      <c r="M9" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N9" t="e">
+        <v>5</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P9">
         <v>6</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="U9" s="29"/>
     </row>
@@ -8728,23 +9036,23 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>7776</v>
+        <v>216</v>
       </c>
       <c r="K10" s="13">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L10" s="26">
         <f t="shared" si="2"/>
-        <v>3.6845653286788893E+22</v>
-      </c>
-      <c r="M10" s="13" t="e">
+        <v>612220032</v>
+      </c>
+      <c r="M10" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N10" t="e">
+        <v>6</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P10">
         <v>7</v>
@@ -8755,7 +9063,7 @@
       </c>
       <c r="R10" s="7">
         <f>IF(P10&lt;=E$4,"-",MOD(P10*E$4,D$4))</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U10" s="29"/>
     </row>
@@ -8771,34 +9079,34 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>16807</v>
+        <v>343</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L11" s="26">
         <f t="shared" si="2"/>
-        <v>3.2199057558131799E+24</v>
-      </c>
-      <c r="M11" s="13" t="e">
+        <v>62748517</v>
+      </c>
+      <c r="M11" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N11" t="e">
+        <v>7</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P11">
         <v>8</v>
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="U11" s="29"/>
     </row>
@@ -8814,34 +9122,34 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>32768</v>
+        <v>512</v>
       </c>
       <c r="K12" s="13">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L12" s="26">
         <f t="shared" si="2"/>
-        <v>1.5474250491067253E+26</v>
-      </c>
-      <c r="M12" s="13" t="e">
+        <v>410338673</v>
+      </c>
+      <c r="M12" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N12" t="e">
+        <v>8</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P12">
         <v>9</v>
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" s="7">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="U12" s="29"/>
     </row>
@@ -8854,34 +9162,34 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>59049</v>
+        <v>729</v>
       </c>
       <c r="K13" s="13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="2"/>
-        <v>2.8823037615171174E+17</v>
-      </c>
-      <c r="M13" s="13" t="e">
+        <v>2187</v>
+      </c>
+      <c r="M13" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N13" t="e">
+        <v>9</v>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P13">
         <v>10</v>
       </c>
       <c r="Q13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U13" s="29"/>
     </row>
@@ -8894,23 +9202,23 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L14" s="26">
         <f t="shared" si="2"/>
-        <v>1.8626451492309569E+20</v>
-      </c>
-      <c r="M14" s="13" t="e">
+        <v>10000000</v>
+      </c>
+      <c r="M14" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N14" t="e">
+        <v>10</v>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P14">
         <v>11</v>
@@ -8921,7 +9229,7 @@
       </c>
       <c r="R14" s="7">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U14" s="29"/>
     </row>
@@ -8934,34 +9242,34 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>161051</v>
+        <v>1331</v>
       </c>
       <c r="K15" s="13">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L15" s="26">
         <f t="shared" si="2"/>
-        <v>8.3076749736557242E+34</v>
-      </c>
-      <c r="M15" s="13" t="e">
+        <v>19487171</v>
+      </c>
+      <c r="M15" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N15" t="e">
+        <v>11</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P15">
         <v>12</v>
       </c>
       <c r="Q15">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="U15" s="29"/>
     </row>
@@ -8974,23 +9282,23 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>248832</v>
+        <v>1728</v>
       </c>
       <c r="K16" s="13">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L16" s="26">
         <f t="shared" si="2"/>
-        <v>4.8196857210675092E+35</v>
-      </c>
-      <c r="M16" s="13" t="e">
+        <v>35831808</v>
+      </c>
+      <c r="M16" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N16" t="e">
+        <v>12</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P16">
         <v>13</v>
@@ -9001,7 +9309,7 @@
       </c>
       <c r="R16" s="7">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U16" s="29"/>
     </row>
@@ -9014,23 +9322,23 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>371293</v>
+        <v>2197</v>
       </c>
       <c r="K17" s="13">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="2"/>
-        <v>2.0153812643461118E+32</v>
-      </c>
-      <c r="M17" s="13" t="e">
+        <v>893871739</v>
+      </c>
+      <c r="M17" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N17" t="e">
+        <v>13</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P17">
         <v>14</v>
@@ -9041,7 +9349,7 @@
       </c>
       <c r="R17" s="7">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="U17" s="29"/>
     </row>
@@ -9054,34 +9362,34 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>537824</v>
+        <v>2744</v>
       </c>
       <c r="K18" s="13">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L18" s="26">
         <f>POWER(K18,F$4)</f>
-        <v>1.7286737396774712E+33</v>
-      </c>
-      <c r="M18" s="13" t="e">
+        <v>78125</v>
+      </c>
+      <c r="M18" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N18" t="e">
+        <v>14</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P18">
         <v>15</v>
       </c>
       <c r="Q18">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18" s="7">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U18" s="29"/>
     </row>
@@ -9094,30 +9402,30 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>759375</v>
+        <v>3375</v>
       </c>
       <c r="K19" s="13">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L19" s="26">
         <f t="shared" si="2"/>
-        <v>1.2783403948858939E+34</v>
-      </c>
-      <c r="M19" s="13" t="e">
+        <v>4782969</v>
+      </c>
+      <c r="M19" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N19" t="e">
+        <v>15</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P19">
         <v>16</v>
       </c>
       <c r="Q19">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="5"/>
@@ -9134,23 +9442,23 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>1048576</v>
+        <v>4096</v>
       </c>
       <c r="K20" s="13">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="2"/>
-        <v>1.5863092971714916E+30</v>
-      </c>
-      <c r="M20" s="13" t="e">
+        <v>16384</v>
+      </c>
+      <c r="M20" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N20" t="e">
+        <v>16</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P20">
         <v>17</v>
@@ -9161,7 +9469,7 @@
       </c>
       <c r="R20" s="7">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U20" s="29"/>
     </row>
@@ -9174,34 +9482,34 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>1419857</v>
+        <v>4913</v>
       </c>
       <c r="K21" s="13">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="2"/>
-        <v>1.9781359483314151E+31</v>
-      </c>
-      <c r="M21" s="13" t="e">
+        <v>17249876309</v>
+      </c>
+      <c r="M21" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N21" t="e">
+        <v>17</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P21">
         <v>18</v>
       </c>
       <c r="Q21">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U21" s="29"/>
     </row>
@@ -9214,23 +9522,23 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>1889568</v>
+        <v>5832</v>
       </c>
       <c r="K22" s="13">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L22" s="26">
         <f t="shared" si="2"/>
-        <v>3.0910586430935376E+39</v>
-      </c>
-      <c r="M22" s="13" t="e">
+        <v>4586471424</v>
+      </c>
+      <c r="M22" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N22" t="e">
+        <v>18</v>
+      </c>
+      <c r="N22" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P22">
         <v>19</v>
@@ -9241,7 +9549,7 @@
       </c>
       <c r="R22" s="7">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="8:21" x14ac:dyDescent="0.3">
@@ -9253,34 +9561,34 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>2476099</v>
+        <v>6859</v>
       </c>
       <c r="K23" s="13">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L23" s="26">
         <f t="shared" si="2"/>
-        <v>1.0620036506406717E+40</v>
-      </c>
-      <c r="M23" s="13" t="e">
+        <v>13492928512</v>
+      </c>
+      <c r="M23" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N23" t="e">
+        <v>19</v>
+      </c>
+      <c r="N23" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P23">
         <v>20</v>
       </c>
       <c r="Q23">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R23" s="7">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="8:21" x14ac:dyDescent="0.3">
@@ -9292,34 +9600,34 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>3200000</v>
+        <v>8000</v>
       </c>
       <c r="K24" s="13">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L24" s="26">
         <f t="shared" si="2"/>
-        <v>5.3687091199999995E+37</v>
-      </c>
-      <c r="M24" s="13" t="e">
+        <v>105413504</v>
+      </c>
+      <c r="M24" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N24" t="e">
+        <v>20</v>
+      </c>
+      <c r="N24" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P24">
         <v>21</v>
       </c>
       <c r="Q24">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" s="7">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="8:21" x14ac:dyDescent="0.3">
@@ -9331,7 +9639,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>4084101</v>
+        <v>9261</v>
       </c>
       <c r="K25" s="13">
         <f t="shared" si="1"/>
@@ -9339,15 +9647,15 @@
       </c>
       <c r="L25" s="26">
         <f t="shared" si="2"/>
-        <v>2.2098334710081732E+38</v>
-      </c>
-      <c r="M25" s="13" t="e">
+        <v>1801088541</v>
+      </c>
+      <c r="M25" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N25" t="e">
+        <v>21</v>
+      </c>
+      <c r="N25" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P25">
         <v>22</v>
@@ -9358,7 +9666,7 @@
       </c>
       <c r="R25" s="7">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="8:21" x14ac:dyDescent="0.3">
@@ -9370,7 +9678,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>5153632</v>
+        <v>10648</v>
       </c>
       <c r="K26" s="13">
         <f t="shared" si="1"/>
@@ -9378,15 +9686,15 @@
       </c>
       <c r="L26" s="26">
         <f t="shared" si="2"/>
-        <v>8.5164331908653772E+38</v>
-      </c>
-      <c r="M26" s="13" t="e">
+        <v>2494357888</v>
+      </c>
+      <c r="M26" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N26" t="e">
+        <v>22</v>
+      </c>
+      <c r="N26" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P26">
         <v>23</v>
@@ -9397,7 +9705,7 @@
       </c>
       <c r="R26" s="7">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="8:21" x14ac:dyDescent="0.3">
@@ -9409,34 +9717,34 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>6436343</v>
+        <v>12167</v>
       </c>
       <c r="K27" s="13">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L27" s="26">
         <f t="shared" si="2"/>
-        <v>2.5287310893279634E+36</v>
-      </c>
-      <c r="M27" s="13" t="e">
+        <v>3404825447</v>
+      </c>
+      <c r="M27" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N27" t="e">
+        <v>23</v>
+      </c>
+      <c r="N27" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P27">
         <v>24</v>
       </c>
       <c r="Q27">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R27" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="8:21" x14ac:dyDescent="0.3">
@@ -9448,34 +9756,34 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>7962624</v>
+        <v>13824</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="2"/>
-        <v>1.2129821994589221E+37</v>
-      </c>
-      <c r="M28" s="13" t="e">
+        <v>21870000000</v>
+      </c>
+      <c r="M28" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N28" t="e">
+        <v>24</v>
+      </c>
+      <c r="N28" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P28">
         <v>25</v>
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="8:21" x14ac:dyDescent="0.3">
@@ -9487,23 +9795,23 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>9765625</v>
+        <v>15625</v>
       </c>
       <c r="K29" s="13">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L29" s="26">
         <f t="shared" si="2"/>
-        <v>6.8630377364882997E+42</v>
-      </c>
-      <c r="M29" s="13" t="e">
+        <v>268435456</v>
+      </c>
+      <c r="M29" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N29" t="e">
+        <v>25</v>
+      </c>
+      <c r="N29" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>yes</v>
       </c>
       <c r="P29">
         <v>26</v>
@@ -9514,7 +9822,7 @@
       </c>
       <c r="R29" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="8:21" x14ac:dyDescent="0.3">
@@ -9523,11 +9831,11 @@
       </c>
       <c r="Q30">
         <f t="shared" ref="Q30:Q35" si="7">GCD(P30,D$4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R30" s="7">
         <f t="shared" ref="R30:R35" si="8">IF(P30&lt;=E$4,"-",MOD(P30*E$4,D$4))</f>
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="8:21" x14ac:dyDescent="0.3">
@@ -9540,7 +9848,7 @@
       </c>
       <c r="R31" s="7">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="8:21" x14ac:dyDescent="0.3">
@@ -9553,7 +9861,7 @@
       </c>
       <c r="R32" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="16:18" x14ac:dyDescent="0.3">
@@ -9562,11 +9870,11 @@
       </c>
       <c r="Q33">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R33" s="7">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="16:18" x14ac:dyDescent="0.3">
@@ -9579,7 +9887,7 @@
       </c>
       <c r="R34" s="7">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="16:18" x14ac:dyDescent="0.3">
@@ -9588,7 +9896,7 @@
       </c>
       <c r="Q35">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" si="8"/>
@@ -9601,11 +9909,11 @@
       </c>
       <c r="Q36">
         <f t="shared" ref="Q36:Q53" si="9">GCD(P36,D$4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R36" s="7">
         <f t="shared" ref="R36:R53" si="10">IF(P36&lt;=E$4,"-",MOD(P36*E$4,D$4))</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="16:18" x14ac:dyDescent="0.3">
@@ -9627,11 +9935,11 @@
       </c>
       <c r="Q38">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R38" s="7">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="16:18" x14ac:dyDescent="0.3">
@@ -9640,11 +9948,11 @@
       </c>
       <c r="Q39">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R39" s="7">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="16:18" x14ac:dyDescent="0.3">
@@ -9657,7 +9965,7 @@
       </c>
       <c r="R40" s="7">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="16:18" x14ac:dyDescent="0.3">
@@ -9670,7 +9978,7 @@
       </c>
       <c r="R41" s="7">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="16:18" x14ac:dyDescent="0.3">
@@ -9679,11 +9987,11 @@
       </c>
       <c r="Q42">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R42" s="7">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="16:18" x14ac:dyDescent="0.3">
@@ -9692,11 +10000,11 @@
       </c>
       <c r="Q43">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R43" s="7">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="16:18" x14ac:dyDescent="0.3">
@@ -9709,7 +10017,7 @@
       </c>
       <c r="R44" s="7">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="16:18" x14ac:dyDescent="0.3">
@@ -9718,11 +10026,11 @@
       </c>
       <c r="Q45">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R45" s="7">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="16:18" x14ac:dyDescent="0.3">
@@ -9735,7 +10043,7 @@
       </c>
       <c r="R46" s="7">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="16:18" x14ac:dyDescent="0.3">
@@ -9748,7 +10056,7 @@
       </c>
       <c r="R47" s="7">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="16:18" x14ac:dyDescent="0.3">
@@ -9757,11 +10065,11 @@
       </c>
       <c r="Q48">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R48" s="7">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="16:18" x14ac:dyDescent="0.3">
@@ -9774,7 +10082,7 @@
       </c>
       <c r="R49" s="7">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="16:18" x14ac:dyDescent="0.3">
@@ -9787,7 +10095,7 @@
       </c>
       <c r="R50" s="7">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="16:18" x14ac:dyDescent="0.3">
@@ -9796,11 +10104,11 @@
       </c>
       <c r="Q51">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R51" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="16:18" x14ac:dyDescent="0.3">
@@ -9813,7 +10121,7 @@
       </c>
       <c r="R52" s="7">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="16:18" x14ac:dyDescent="0.3">
@@ -9822,7 +10130,7 @@
       </c>
       <c r="Q53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R53" s="7">
         <f t="shared" si="10"/>
@@ -9860,8 +10168,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9878,13 +10186,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>6</v>
@@ -9899,87 +10207,87 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" t="s">
         <v>210</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="29" t="s">
         <v>212</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>211</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
         <v>161</v>
       </c>
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
         <v>164</v>
       </c>
-      <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" t="s">
-        <v>166</v>
-      </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
         <v>167</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
       </c>
       <c r="F6" t="s">
         <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -9990,89 +10298,89 @@
         <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -10081,31 +10389,31 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
         <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H17" s="29"/>
     </row>
@@ -10114,10 +10422,10 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H18" s="29"/>
     </row>
@@ -10126,7 +10434,7 @@
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H19" s="29"/>
     </row>
@@ -10135,91 +10443,91 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" t="s">
         <v>202</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>203</v>
-      </c>
-      <c r="C26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -10227,7 +10535,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
@@ -10235,7 +10543,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
@@ -10243,7 +10551,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s">
         <v>69</v>
@@ -10251,7 +10559,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -10259,10 +10567,10 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -10273,19 +10581,18 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A96A00-B420-4A12-AD77-4AD839B24B7B}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -10293,34 +10600,34 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
     </row>
@@ -10329,224 +10636,800 @@
         <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>440</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
         <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>441</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G8">
+        <f>9*9</f>
         <v>81</v>
       </c>
-      <c r="H8" t="s">
-        <v>238</v>
+      <c r="H8">
+        <f>MOD(G8,D$4)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>446</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9">
+        <v>234</v>
+      </c>
+      <c r="G9">
+        <f>169-10</f>
         <v>159</v>
       </c>
-      <c r="H9" t="s">
-        <v>244</v>
+      <c r="H9">
+        <f>MOD(G9,D$4)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>437</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>439</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
-      </c>
-      <c r="F10">
+        <v>236</v>
+      </c>
+      <c r="G10">
+        <f>65-78-1</f>
         <v>-14</v>
       </c>
-      <c r="H10" t="s">
-        <v>260</v>
+      <c r="H10">
+        <f>MOD(G10,D$4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>447</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>448</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
         <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13">
+        <v>244</v>
+      </c>
+      <c r="G13">
+        <f>2*1</f>
         <v>2</v>
       </c>
-      <c r="H13" t="s">
-        <v>261</v>
+      <c r="H13">
+        <f>MOD(G13,D$4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>475</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>451</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>450</v>
       </c>
       <c r="D14" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14">
+        <v>245</v>
+      </c>
+      <c r="E14" t="s">
+        <v>454</v>
+      </c>
+      <c r="G14">
+        <f>4-(6+5)</f>
         <v>-7</v>
       </c>
-      <c r="H14" t="s">
-        <v>269</v>
+      <c r="H14">
+        <f>MOD(G14,D$4)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>476</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>452</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>453</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="F15">
+        <v>247</v>
+      </c>
+      <c r="G15">
         <f>12-20-3</f>
         <v>-11</v>
       </c>
-      <c r="H15" t="s">
-        <v>244</v>
+      <c r="H15">
+        <f>MOD(G15,D$4)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D18" t="s">
+        <v>412</v>
+      </c>
+      <c r="E18" t="s">
+        <v>413</v>
+      </c>
+      <c r="G18">
+        <f>5*7</f>
+        <v>35</v>
+      </c>
+      <c r="H18">
+        <f>MOD(G18,D$4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B19" t="s">
+        <v>458</v>
+      </c>
+      <c r="C19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D19" t="s">
+        <v>414</v>
+      </c>
+      <c r="E19" t="s">
+        <v>462</v>
+      </c>
+      <c r="G19">
+        <f>1-(10+5)</f>
+        <v>-14</v>
+      </c>
+      <c r="H19">
+        <f>MOD(G19,D$4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>478</v>
+      </c>
+      <c r="B20" t="s">
+        <v>459</v>
+      </c>
+      <c r="C20" t="s">
+        <v>461</v>
+      </c>
+      <c r="D20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="G20">
+        <f>10-3-6</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>MOD(G20,D$4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" t="s">
+        <v>417</v>
+      </c>
+      <c r="J21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" t="s">
+        <v>463</v>
+      </c>
+      <c r="D22" t="s">
+        <v>419</v>
+      </c>
+      <c r="J22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D23" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" t="s">
+        <v>470</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>MOD(G23,D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B24" t="s">
+        <v>468</v>
+      </c>
+      <c r="C24" t="s">
+        <v>466</v>
+      </c>
+      <c r="D24" t="s">
+        <v>472</v>
+      </c>
+      <c r="E24" t="s">
+        <v>471</v>
+      </c>
+      <c r="G24">
+        <f>0-(3+5)</f>
+        <v>-8</v>
+      </c>
+      <c r="H24">
+        <f>MOD(G24,D$4)</f>
+        <v>9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>506</v>
+      </c>
+      <c r="B25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E25" t="s">
+        <v>474</v>
+      </c>
+      <c r="G25">
+        <f>0-0-1</f>
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <f>MOD(G25,D$4)</f>
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C26" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26" t="s">
+        <v>480</v>
+      </c>
+      <c r="J26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" t="s">
+        <v>481</v>
+      </c>
+      <c r="C27" t="s">
+        <v>484</v>
+      </c>
+      <c r="D27" t="s">
+        <v>488</v>
+      </c>
+      <c r="J27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>485</v>
+      </c>
+      <c r="D28" t="s">
+        <v>489</v>
+      </c>
+      <c r="E28" t="s">
+        <v>490</v>
+      </c>
+      <c r="G28">
+        <f>15*13</f>
+        <v>195</v>
+      </c>
+      <c r="H28">
+        <f>MOD(G28,D$4)</f>
+        <v>8</v>
+      </c>
+      <c r="J28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>507</v>
+      </c>
+      <c r="B29" t="s">
+        <v>482</v>
+      </c>
+      <c r="C29" t="s">
+        <v>486</v>
+      </c>
+      <c r="D29" t="s">
+        <v>491</v>
+      </c>
+      <c r="E29" t="s">
+        <v>492</v>
+      </c>
+      <c r="G29">
+        <f>64-(9+5)</f>
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <f>MOD(G29,D$4)</f>
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>508</v>
+      </c>
+      <c r="B30" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" t="s">
+        <v>487</v>
+      </c>
+      <c r="D30" t="s">
+        <v>493</v>
+      </c>
+      <c r="E30" t="s">
+        <v>494</v>
+      </c>
+      <c r="G30">
+        <f>72-128-16</f>
+        <v>-72</v>
+      </c>
+      <c r="H30">
+        <f>MOD(G30,D$4)</f>
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>481</v>
+      </c>
+      <c r="C31" t="s">
+        <v>497</v>
+      </c>
+      <c r="D31" t="s">
+        <v>495</v>
+      </c>
+      <c r="J31" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" t="s">
+        <v>496</v>
+      </c>
+      <c r="C32" t="s">
+        <v>498</v>
+      </c>
+      <c r="D32" t="s">
+        <v>499</v>
+      </c>
+      <c r="J32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>500</v>
+      </c>
+      <c r="D33" t="s">
+        <v>501</v>
+      </c>
+      <c r="E33" t="s">
+        <v>502</v>
+      </c>
+      <c r="G33">
+        <f>12*14</f>
+        <v>168</v>
+      </c>
+      <c r="H33">
+        <f>MOD(G33,D$4)</f>
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>503</v>
+      </c>
+      <c r="B34" t="s">
+        <v>509</v>
+      </c>
+      <c r="C34" t="s">
+        <v>511</v>
+      </c>
+      <c r="D34" t="s">
+        <v>513</v>
+      </c>
+      <c r="E34" t="s">
+        <v>514</v>
+      </c>
+      <c r="G34">
+        <f>225-(16+5)</f>
+        <v>204</v>
+      </c>
+      <c r="H34">
+        <f>MOD(G34,D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>504</v>
+      </c>
+      <c r="B35" t="s">
+        <v>510</v>
+      </c>
+      <c r="C35" t="s">
+        <v>512</v>
+      </c>
+      <c r="D35" t="s">
+        <v>515</v>
+      </c>
+      <c r="E35" t="s">
+        <v>516</v>
+      </c>
+      <c r="G35">
+        <f>240-0-13</f>
+        <v>227</v>
+      </c>
+      <c r="H35">
+        <f>MOD(G35,D$4)</f>
+        <v>6</v>
+      </c>
+      <c r="J35" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s">
+        <v>496</v>
+      </c>
+      <c r="C36" t="s">
+        <v>517</v>
+      </c>
+      <c r="D36" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" t="s">
+        <v>519</v>
+      </c>
+      <c r="C37" t="s">
+        <v>520</v>
+      </c>
+      <c r="D37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>522</v>
+      </c>
+      <c r="D38" t="s">
+        <v>523</v>
+      </c>
+      <c r="E38" t="s">
+        <v>524</v>
+      </c>
+      <c r="G38">
+        <f>5*10</f>
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <f>MOD(G38,D$4)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>525</v>
+      </c>
+      <c r="B39" t="s">
+        <v>527</v>
+      </c>
+      <c r="C39" t="s">
+        <v>529</v>
+      </c>
+      <c r="D39" t="s">
+        <v>530</v>
+      </c>
+      <c r="E39" t="s">
+        <v>531</v>
+      </c>
+      <c r="G39">
+        <f>256-5</f>
         <v>251</v>
       </c>
-      <c r="C16" t="s">
-        <v>272</v>
+      <c r="H39">
+        <f>MOD(G39,D$4)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>526</v>
+      </c>
+      <c r="B40" t="s">
+        <v>528</v>
+      </c>
+      <c r="C40" t="s">
+        <v>532</v>
+      </c>
+      <c r="D40" t="s">
+        <v>533</v>
+      </c>
+      <c r="E40" t="s">
+        <v>534</v>
+      </c>
+      <c r="G40">
+        <f>0-208-6</f>
+        <v>-214</v>
+      </c>
+      <c r="H40">
+        <f>MOD(G40,D$4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" t="s">
+        <v>519</v>
+      </c>
+      <c r="C41" t="s">
+        <v>535</v>
+      </c>
+      <c r="D41" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -10559,9 +11442,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10570,18 +11451,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
@@ -10589,400 +11470,396 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <f>MOD(A3,B3)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f>MATCH(1,I3:I40,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3" s="26">
         <f>A3</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I3" s="26">
         <f t="shared" ref="I3:I40" si="0">MOD(H3,B$3)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D4">
-        <f>D3-B3</f>
-        <v>-1</v>
-      </c>
       <c r="H4" s="26">
         <f t="shared" ref="H4:H10" si="1">H3+H$3</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I4" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H5" s="26">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I5" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" s="26">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I6" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H7" s="26">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" s="26">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="26">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="26">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H11" s="26">
         <f t="shared" ref="H11:H40" si="2">H10+H$3</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H12" s="26">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H13" s="26">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H14" s="26">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="26">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I15" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H16" s="26">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I16" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="26">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="26">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="26">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="26">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="26">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="26">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I22" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="26">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="26">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="26">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="I25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="26">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="I26" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="26">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I27" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="26">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="I28" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="26">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="26">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="I30" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="26">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="26">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I32" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H33" s="26">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="I33" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H34" s="26">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H35" s="26">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="I35" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H36" s="26">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="I36" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H37" s="26">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="I37" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H38" s="26">
         <f t="shared" si="2"/>
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="I38" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H39" s="26">
         <f t="shared" si="2"/>
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="I39" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" s="26">
         <f t="shared" si="2"/>
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="I40" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDDD3B-5004-4342-92AB-2F6AB9A552B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88259A9-097A-4F0F-B3F5-98048FCF32FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="7" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="539">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1056,9 +1056,6 @@
     <t>(3 x 11 = 7 mod 26)</t>
   </si>
   <si>
-    <t>gcd(5, 24) = 1</t>
-  </si>
-  <si>
     <t>(4 ^ 29 = 9 mod 35)</t>
   </si>
   <si>
@@ -1197,9 +1194,6 @@
     <t>Proof of correctness</t>
   </si>
   <si>
-    <t>Integers</t>
-  </si>
-  <si>
     <t>e x d = 1 mod n</t>
   </si>
   <si>
@@ -1209,9 +1203,6 @@
     <t>gcd(e,n)</t>
   </si>
   <si>
-    <t>e x d = 1 mod t</t>
-  </si>
-  <si>
     <t>Hash of message</t>
   </si>
   <si>
@@ -1648,6 +1639,21 @@
   </si>
   <si>
     <t>(13,7)</t>
+  </si>
+  <si>
+    <t>(5,35)</t>
+  </si>
+  <si>
+    <t>(e,n)</t>
+  </si>
+  <si>
+    <t>gcd(5,24) = 1</t>
+  </si>
+  <si>
+    <t>gcd(e,t(n))</t>
+  </si>
+  <si>
+    <t>e x d = 1 mod t(n)</t>
   </si>
 </sst>
 </file>
@@ -4291,39 +4297,38 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E13DE6-8DF4-4B7C-B600-DC44B025BC54}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y145"/>
+  <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>276</v>
       </c>
@@ -4348,7 +4353,7 @@
       <c r="N1" s="33"/>
       <c r="Q1" s="33"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4360,7 +4365,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="N2" s="33" t="s">
-        <v>386</v>
+        <v>96</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>329</v>
@@ -4372,7 +4377,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4398,22 +4403,22 @@
         <v>278</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="R3" s="39" t="s">
         <v>278</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="U3" s="45" t="s">
         <v>25</v>
@@ -4422,13 +4427,10 @@
         <v>316</v>
       </c>
       <c r="W3" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="X3" s="45" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N4" s="5">
         <v>1</v>
@@ -4469,25 +4471,22 @@
         <v>324</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>315</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>143</v>
+        <v>537</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y4" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="X4" s="39" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4514,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N5" s="4">
         <v>2</v>
@@ -4543,18 +4542,15 @@
         <f>GCD(T5,U5)</f>
         <v>1</v>
       </c>
-      <c r="W5" s="5">
-        <v>35</v>
-      </c>
-      <c r="X5" s="4">
-        <f t="shared" ref="X5:X39" si="4">MOD(T5*T$9,U5)</f>
+      <c r="W5" s="4">
+        <f t="shared" ref="W5:W39" si="4">MOD(T5*T$9,U5)</f>
         <v>5</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="X5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4608,18 +4604,15 @@
         <f t="shared" ref="V6:V39" si="5">GCD(T6,U6)</f>
         <v>2</v>
       </c>
-      <c r="W6" s="5">
-        <v>35</v>
-      </c>
-      <c r="X6" s="4">
+      <c r="W6" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="X6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4669,18 +4662,15 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="W7" s="5">
-        <v>35</v>
-      </c>
-      <c r="X7" s="4">
+      <c r="W7" s="4">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="X7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4733,18 +4723,15 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="W8" s="5">
-        <v>35</v>
-      </c>
-      <c r="X8" s="4">
+      <c r="W8" s="4">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="X8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4792,18 +4779,15 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W9" s="5">
-        <v>35</v>
-      </c>
-      <c r="X9" s="4">
+      <c r="W9" s="4">
         <f>MOD(T9*T$9,U9)</f>
         <v>1</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="X9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4854,18 +4838,15 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="W10" s="5">
-        <v>35</v>
-      </c>
-      <c r="X10" s="4">
+      <c r="W10" s="4">
         <f>MOD(T10*T$9,U10)</f>
         <v>6</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="X10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H11" s="4">
         <v>8</v>
       </c>
@@ -4901,18 +4882,15 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W11" s="5">
-        <v>35</v>
-      </c>
-      <c r="X11" s="4">
+      <c r="W11" s="4">
         <f>MOD(T11*T$9,U11)</f>
         <v>11</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="X11" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>289</v>
       </c>
@@ -4954,15 +4932,12 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="W12" s="5">
-        <v>35</v>
-      </c>
-      <c r="X12" s="4">
+      <c r="W12" s="4">
         <f>MOD(T12*T$9,U12)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H13" s="4">
         <v>10</v>
       </c>
@@ -4998,15 +4973,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="W13" s="5">
-        <v>35</v>
-      </c>
-      <c r="X13" s="4">
+      <c r="W13" s="4">
         <f>MOD(T13*T$9,U13)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>276</v>
       </c>
@@ -5057,15 +5029,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="W14" s="5">
-        <v>35</v>
-      </c>
-      <c r="X14" s="4">
+      <c r="W14" s="4">
         <f>MOD(T14*T$9,U14)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -5111,15 +5080,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W15" s="5">
-        <v>35</v>
-      </c>
-      <c r="X15" s="4">
+      <c r="W15" s="4">
         <f>MOD(T15*T$9,U15)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -5156,15 +5122,12 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="W16" s="5">
-        <v>35</v>
-      </c>
-      <c r="X16" s="4">
+      <c r="W16" s="4">
         <f>MOD(T16*T$9,U16)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -5200,15 +5163,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W17" s="5">
-        <v>35</v>
-      </c>
-      <c r="X17" s="4">
+      <c r="W17" s="4">
         <f>MOD(T17*T$9,U17)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -5247,15 +5207,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="W18" s="5">
-        <v>35</v>
-      </c>
-      <c r="X18" s="4">
+      <c r="W18" s="4">
         <f>MOD(T18*T$9,U18)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -5292,15 +5249,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="W19" s="5">
-        <v>35</v>
-      </c>
-      <c r="X19" s="4">
+      <c r="W19" s="4">
         <f>MOD(T19*T$9,U19)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -5333,15 +5287,12 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="W20" s="5">
-        <v>35</v>
-      </c>
-      <c r="X20" s="4">
+      <c r="W20" s="4">
         <f>MOD(T20*T$9,U20)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -5380,15 +5331,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W21" s="5">
-        <v>35</v>
-      </c>
-      <c r="X21" s="4">
+      <c r="W21" s="4">
         <f>MOD(T21*T$9,U21)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -5428,15 +5376,12 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="W22" s="5">
-        <v>35</v>
-      </c>
-      <c r="X22" s="4">
+      <c r="W22" s="4">
         <f>MOD(T22*T$9,U22)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>9</v>
       </c>
@@ -5476,15 +5421,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W23" s="5">
-        <v>35</v>
-      </c>
-      <c r="X23" s="4">
+      <c r="W23" s="4">
         <f>MOD(T23*T$9,U23)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5512,15 +5454,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="W24" s="5">
-        <v>35</v>
-      </c>
-      <c r="X24" s="4">
+      <c r="W24" s="4">
         <f>MOD(T24*T$9,U24)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>290</v>
       </c>
@@ -5548,15 +5487,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="W25" s="5">
-        <v>35</v>
-      </c>
-      <c r="X25" s="4">
+      <c r="W25" s="4">
         <f>MOD(T25*T$9,U25)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N26" s="4">
         <v>23</v>
       </c>
@@ -5581,15 +5517,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="W26" s="5">
-        <v>35</v>
-      </c>
-      <c r="X26" s="4">
+      <c r="W26" s="4">
         <f>MOD(T26*T$9,U26)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N27" s="4">
         <v>24</v>
       </c>
@@ -5614,15 +5547,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W27" s="5">
-        <v>35</v>
-      </c>
-      <c r="X27" s="4">
+      <c r="W27" s="4">
         <f>MOD(T27*T$9,U27)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N28" s="4">
         <v>25</v>
       </c>
@@ -5647,15 +5577,12 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="W28" s="5">
-        <v>35</v>
-      </c>
-      <c r="X28" s="4">
+      <c r="W28" s="4">
         <f>MOD(T28*T$9,U28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>276</v>
       </c>
@@ -5695,15 +5622,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W29" s="5">
-        <v>35</v>
-      </c>
-      <c r="X29" s="4">
+      <c r="W29" s="4">
         <f>MOD(T29*T$9,U29)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -5722,15 +5646,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="W30" s="5">
-        <v>35</v>
-      </c>
-      <c r="X30" s="4">
+      <c r="W30" s="4">
         <f>MOD(T30*T$9,U30)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -5754,15 +5675,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="W31" s="5">
-        <v>35</v>
-      </c>
-      <c r="X31" s="4">
+      <c r="W31" s="4">
         <f>MOD(T31*T$9,U31)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -5783,15 +5701,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="W32" s="5">
-        <v>35</v>
-      </c>
-      <c r="X32" s="4">
+      <c r="W32" s="4">
         <f>MOD(T32*T$9,U32)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>4</v>
       </c>
@@ -5814,18 +5729,15 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W33" s="5">
-        <v>35</v>
-      </c>
-      <c r="X33" s="43">
+      <c r="W33" s="43">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="X33" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -5855,15 +5767,12 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="W34" s="5">
-        <v>35</v>
-      </c>
-      <c r="X34" s="4">
+      <c r="W34" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>6</v>
       </c>
@@ -5899,15 +5808,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W35" s="5">
-        <v>35</v>
-      </c>
-      <c r="X35" s="4">
+      <c r="W35" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>7</v>
       </c>
@@ -5939,15 +5845,12 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="W36" s="5">
-        <v>35</v>
-      </c>
-      <c r="X36" s="4">
+      <c r="W36" s="4">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>8</v>
       </c>
@@ -5977,15 +5880,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="W37" s="5">
-        <v>35</v>
-      </c>
-      <c r="X37" s="4">
+      <c r="W37" s="4">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>9</v>
       </c>
@@ -6021,15 +5921,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="W38" s="5">
-        <v>35</v>
-      </c>
-      <c r="X38" s="4">
+      <c r="W38" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>10</v>
       </c>
@@ -6061,15 +5958,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W39" s="5">
-        <v>35</v>
-      </c>
-      <c r="X39" s="4">
+      <c r="W39" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>11</v>
       </c>
@@ -6097,7 +5991,7 @@
       </c>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -6118,7 +6012,7 @@
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
         <v>291</v>
       </c>
@@ -6137,7 +6031,7 @@
       </c>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -6153,7 +6047,7 @@
       </c>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>276</v>
       </c>
@@ -6181,7 +6075,7 @@
       </c>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -6202,7 +6096,7 @@
       </c>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -6224,7 +6118,7 @@
       </c>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>3</v>
       </c>
@@ -6247,7 +6141,7 @@
       </c>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>4</v>
       </c>
@@ -6544,9 +6438,7 @@
         <f>B59*B60</f>
         <v>35</v>
       </c>
-      <c r="C61" s="37" t="s">
-        <v>275</v>
-      </c>
+      <c r="C61" s="37"/>
       <c r="E61" s="4" t="s">
         <v>3</v>
       </c>
@@ -6570,15 +6462,18 @@
       <c r="A62" s="4">
         <v>4</v>
       </c>
-      <c r="C62" s="4">
-        <f>B61</f>
-        <v>35</v>
-      </c>
-      <c r="D62" s="4">
-        <v>35</v>
-      </c>
+      <c r="B62" s="4">
+        <f>(B59-1)*(B60-1)</f>
+        <v>24</v>
+      </c>
+      <c r="C62" s="37"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G62" t="s">
+        <v>313</v>
+      </c>
       <c r="N62" s="4">
         <v>28</v>
       </c>
@@ -6596,16 +6491,17 @@
         <v>5</v>
       </c>
       <c r="B63" s="4">
-        <f>(B59-1)*(B60-1)</f>
-        <v>24</v>
-      </c>
-      <c r="C63" s="37"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="4"/>
       <c r="G63" t="s">
-        <v>313</v>
+        <v>536</v>
       </c>
       <c r="N63" s="51">
         <v>29</v>
@@ -6623,19 +6519,16 @@
       <c r="A64" s="4">
         <v>6</v>
       </c>
-      <c r="B64" s="4">
+      <c r="C64" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D64" s="4">
         <v>5</v>
       </c>
-      <c r="C64" s="37" t="s">
-        <v>275</v>
-      </c>
       <c r="E64" s="4" t="s">
-        <v>20</v>
+        <v>535</v>
       </c>
       <c r="F64" s="4"/>
-      <c r="G64" t="s">
-        <v>339</v>
-      </c>
       <c r="N64" s="4">
         <v>30</v>
       </c>
@@ -6653,11 +6546,9 @@
         <v>7</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="4">
-        <v>5</v>
-      </c>
+      <c r="C65" s="37"/>
       <c r="D65" s="4">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -6789,11 +6680,8 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
       <c r="N71" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6734,7 @@
       </c>
       <c r="D77" s="4"/>
       <c r="E77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F77" s="4"/>
     </row>
@@ -6873,7 +6761,7 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F79" s="4"/>
     </row>
@@ -6885,7 +6773,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="37"/>
@@ -6930,7 +6818,7 @@
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F84" s="4"/>
     </row>
@@ -6945,7 +6833,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6958,7 +6846,7 @@
       <c r="C86" s="37"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F86" s="4"/>
     </row>
@@ -6975,7 +6863,7 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F87" s="4"/>
     </row>
@@ -6990,7 +6878,7 @@
         <v>6</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -7002,7 +6890,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -7016,7 +6904,7 @@
         <v>8</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -7027,7 +6915,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -7039,7 +6927,7 @@
         <v>24</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -7055,7 +6943,7 @@
         <v>29</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -7063,11 +6951,11 @@
         <v>11</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -7080,7 +6968,7 @@
       <c r="C95" s="37"/>
       <c r="D95" s="4"/>
       <c r="E95" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -7093,7 +6981,7 @@
       <c r="C96" s="37"/>
       <c r="D96" s="4"/>
       <c r="E96" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -7107,7 +6995,7 @@
       <c r="C97" s="37"/>
       <c r="D97" s="4"/>
       <c r="E97" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -7119,7 +7007,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -7131,13 +7019,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="37"/>
       <c r="D100" s="4"/>
       <c r="E100" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -7209,7 +7097,7 @@
         <v>57</v>
       </c>
       <c r="F105" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -7225,10 +7113,10 @@
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -7257,7 +7145,7 @@
         <v>56</v>
       </c>
       <c r="F108" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -7270,10 +7158,10 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F109" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -7287,7 +7175,7 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -7303,10 +7191,10 @@
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -7315,14 +7203,14 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D112" s="4">
         <f>B110</f>
         <v>5</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -7350,7 +7238,7 @@
         <v>5</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -7364,7 +7252,7 @@
         <v>2</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -7378,7 +7266,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -7392,7 +7280,7 @@
         <v>true</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -7404,13 +7292,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -7479,10 +7367,10 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F124" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -7498,10 +7386,10 @@
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F125" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -7525,10 +7413,10 @@
         <v>4</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F127" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -7542,7 +7430,7 @@
         <v>201</v>
       </c>
       <c r="F128" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -7554,10 +7442,10 @@
         <v>8</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F129" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -7571,10 +7459,10 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -7593,7 +7481,7 @@
         <v>201</v>
       </c>
       <c r="F131" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -7607,10 +7495,10 @@
         <v>8</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F132" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -7627,7 +7515,7 @@
         <v>149</v>
       </c>
       <c r="F133" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -7641,10 +7529,10 @@
         <v>8</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F134" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7658,10 +7546,10 @@
         <v>Verified</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F135" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7672,10 +7560,10 @@
       <c r="C136" s="4"/>
       <c r="D136" s="52"/>
       <c r="E136" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F136" t="s">
         <v>400</v>
-      </c>
-      <c r="F136" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -7686,10 +7574,10 @@
       <c r="C137" s="4"/>
       <c r="D137" s="52"/>
       <c r="E137" s="53" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F137" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -7700,10 +7588,10 @@
       <c r="C138" s="4"/>
       <c r="D138" s="52"/>
       <c r="E138" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F138" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -7714,10 +7602,10 @@
       <c r="C139" s="4"/>
       <c r="D139" s="52"/>
       <c r="E139" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F139" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -7728,10 +7616,10 @@
       <c r="C140" s="4"/>
       <c r="D140" s="52"/>
       <c r="E140" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F140" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -7741,10 +7629,10 @@
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="E141" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F141" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -7762,7 +7650,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="47" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -7771,12 +7659,12 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X9:X32">
-    <sortCondition ref="X9:X32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W9:W32">
+    <sortCondition ref="W9:W32"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E57:F57"/>
@@ -10583,8 +10471,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10606,7 +10494,7 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -10650,7 +10538,7 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -10661,7 +10549,7 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D6" t="s">
         <v>150</v>
@@ -10675,7 +10563,7 @@
         <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D7" t="s">
         <v>230</v>
@@ -10689,7 +10577,7 @@
         <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D8" t="s">
         <v>231</v>
@@ -10708,13 +10596,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D9" t="s">
         <v>233</v>
@@ -10733,13 +10621,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D10" t="s">
         <v>235</v>
@@ -10764,7 +10652,7 @@
         <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
         <v>237</v>
@@ -10778,7 +10666,7 @@
         <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D12" t="s">
         <v>239</v>
@@ -10792,7 +10680,7 @@
         <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D13" t="s">
         <v>243</v>
@@ -10811,19 +10699,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D14" t="s">
         <v>245</v>
       </c>
       <c r="E14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G14">
         <f>4-(6+5)</f>
@@ -10836,13 +10724,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B15" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C15" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D15" t="s">
         <v>246</v>
@@ -10867,7 +10755,7 @@
         <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D16" t="s">
         <v>248</v>
@@ -10878,13 +10766,13 @@
         <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C17" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -10895,13 +10783,13 @@
         <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G18">
         <f>5*7</f>
@@ -10914,19 +10802,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E19" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G19">
         <f>1-(10+5)</f>
@@ -10939,19 +10827,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B20" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C20" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G20">
         <f>10-3-6</f>
@@ -10967,16 +10855,16 @@
         <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C21" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -10984,16 +10872,16 @@
         <v>242</v>
       </c>
       <c r="B22" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C22" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D22" t="s">
+        <v>416</v>
+      </c>
+      <c r="J22" t="s">
         <v>419</v>
-      </c>
-      <c r="J22" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -11004,13 +10892,13 @@
         <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D23" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E23" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -11020,24 +10908,24 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24" t="s">
+        <v>463</v>
+      </c>
+      <c r="D24" t="s">
+        <v>469</v>
+      </c>
+      <c r="E24" t="s">
         <v>468</v>
-      </c>
-      <c r="C24" t="s">
-        <v>466</v>
-      </c>
-      <c r="D24" t="s">
-        <v>472</v>
-      </c>
-      <c r="E24" t="s">
-        <v>471</v>
       </c>
       <c r="G24">
         <f>0-(3+5)</f>
@@ -11048,24 +10936,24 @@
         <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B25" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G25">
         <f>0-0-1</f>
@@ -11076,7 +10964,7 @@
         <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -11084,16 +10972,16 @@
         <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C26" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D26" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J26" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -11101,16 +10989,16 @@
         <v>242</v>
       </c>
       <c r="B27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C27" t="s">
         <v>481</v>
       </c>
-      <c r="C27" t="s">
-        <v>484</v>
-      </c>
       <c r="D27" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -11121,13 +11009,13 @@
         <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D28" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E28" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G28">
         <f>15*13</f>
@@ -11138,24 +11026,24 @@
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B29" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C29" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D29" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E29" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G29">
         <f>64-(9+5)</f>
@@ -11166,24 +11054,24 @@
         <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B30" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C30" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G30">
         <f>72-128-16</f>
@@ -11194,7 +11082,7 @@
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -11202,16 +11090,16 @@
         <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C31" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J31" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -11219,16 +11107,16 @@
         <v>242</v>
       </c>
       <c r="B32" t="s">
+        <v>493</v>
+      </c>
+      <c r="C32" t="s">
+        <v>495</v>
+      </c>
+      <c r="D32" t="s">
         <v>496</v>
       </c>
-      <c r="C32" t="s">
-        <v>498</v>
-      </c>
-      <c r="D32" t="s">
-        <v>499</v>
-      </c>
       <c r="J32" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -11239,13 +11127,13 @@
         <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D33" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E33" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G33">
         <f>12*14</f>
@@ -11256,24 +11144,24 @@
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C34" t="s">
+        <v>508</v>
+      </c>
+      <c r="D34" t="s">
+        <v>510</v>
+      </c>
+      <c r="E34" t="s">
         <v>511</v>
-      </c>
-      <c r="D34" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" t="s">
-        <v>514</v>
       </c>
       <c r="G34">
         <f>225-(16+5)</f>
@@ -11284,24 +11172,24 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B35" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C35" t="s">
+        <v>509</v>
+      </c>
+      <c r="D35" t="s">
         <v>512</v>
       </c>
-      <c r="D35" t="s">
-        <v>515</v>
-      </c>
       <c r="E35" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G35">
         <f>240-0-13</f>
@@ -11312,7 +11200,7 @@
         <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -11320,13 +11208,13 @@
         <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C36" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D36" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -11334,13 +11222,13 @@
         <v>242</v>
       </c>
       <c r="B37" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C37" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D37" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -11351,13 +11239,13 @@
         <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D38" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E38" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G38">
         <f>5*10</f>
@@ -11370,19 +11258,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B39" t="s">
+        <v>524</v>
+      </c>
+      <c r="C39" t="s">
+        <v>526</v>
+      </c>
+      <c r="D39" t="s">
         <v>527</v>
       </c>
-      <c r="C39" t="s">
-        <v>529</v>
-      </c>
-      <c r="D39" t="s">
-        <v>530</v>
-      </c>
       <c r="E39" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G39">
         <f>256-5</f>
@@ -11395,19 +11283,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B40" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C40" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D40" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E40" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G40">
         <f>0-208-6</f>
@@ -11423,13 +11311,13 @@
         <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C41" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D41" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -11442,7 +11330,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11470,396 +11360,396 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <f>MOD(A3,B3)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <f>MATCH(1,I3:I40,0)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H3" s="26">
         <f>A3</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I3" s="26">
         <f t="shared" ref="I3:I40" si="0">MOD(H3,B$3)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H4" s="26">
         <f t="shared" ref="H4:H10" si="1">H3+H$3</f>
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I4" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H5" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="I5" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" s="26">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I6" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H7" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" s="26">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="26">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="26">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H11" s="26">
         <f t="shared" ref="H11:H40" si="2">H10+H$3</f>
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H12" s="26">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H13" s="26">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H14" s="26">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="26">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="I15" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H16" s="26">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="I16" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="26">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="26">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="26">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="26">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="26">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="26">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="I22" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="26">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="26">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="26">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>299</v>
       </c>
       <c r="I25" s="26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="26">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="I26" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="26">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>325</v>
       </c>
       <c r="I27" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="26">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>338</v>
       </c>
       <c r="I28" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="26">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="I29" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="26">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>364</v>
       </c>
       <c r="I30" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="26">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>377</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="26">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="I32" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H33" s="26">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>403</v>
       </c>
       <c r="I33" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H34" s="26">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>416</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H35" s="26">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>429</v>
       </c>
       <c r="I35" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H36" s="26">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>442</v>
       </c>
       <c r="I36" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H37" s="26">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>455</v>
       </c>
       <c r="I37" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H38" s="26">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>468</v>
       </c>
       <c r="I38" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H39" s="26">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>481</v>
       </c>
       <c r="I39" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" s="26">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>494</v>
       </c>
       <c r="I40" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88259A9-097A-4F0F-B3F5-98048FCF32FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4673550E-17B1-4863-8434-158F1F560603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="542">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1209,30 +1209,12 @@
     <t>Figure xx. Digital signature using multiplication over the real numbers to simulate ECDSA.</t>
   </si>
   <si>
-    <t>Ephemeral private key</t>
-  </si>
-  <si>
     <t>Ephemeral public key</t>
   </si>
   <si>
-    <t>ke*g = s^-1(h + r*ka)*g</t>
-  </si>
-  <si>
-    <t>ke = s^-1(h + r*ka)</t>
-  </si>
-  <si>
     <t>s = ke^-1(h + r*ka)</t>
   </si>
   <si>
-    <t>r = s^-1(h + r*ka)*g</t>
-  </si>
-  <si>
-    <t>r = s^-1*h*g + s^-1*r*Ka</t>
-  </si>
-  <si>
-    <t>r = s^-1*h*g + s^-1*r*ka*g</t>
-  </si>
-  <si>
     <t>r'</t>
   </si>
   <si>
@@ -1251,9 +1233,6 @@
     <t>Multiply both sides by s</t>
   </si>
   <si>
-    <t>ke*s = (h + r*ka)</t>
-  </si>
-  <si>
     <t>Divide both sides by ke</t>
   </si>
   <si>
@@ -1654,6 +1633,36 @@
   </si>
   <si>
     <t>e x d = 1 mod t(n)</t>
+  </si>
+  <si>
+    <t>h(m)</t>
+  </si>
+  <si>
+    <t>(42,8,9)</t>
+  </si>
+  <si>
+    <t>Ephemeral key (private)</t>
+  </si>
+  <si>
+    <t>r' = s^-1*h(m)*g + s^-1*r*Ka</t>
+  </si>
+  <si>
+    <t>r' = s^-1*h(m)*g + s^-1*r*ka*g</t>
+  </si>
+  <si>
+    <t>r' = s^-1(h(m) + r*ka)*g</t>
+  </si>
+  <si>
+    <t>ke*g = s^-1(h(m) + r*ka)*g</t>
+  </si>
+  <si>
+    <t>ke = s^-1(h(m) + r*ka)</t>
+  </si>
+  <si>
+    <t>ke*s = (h(m) + r*ka)</t>
+  </si>
+  <si>
+    <t>s = ke^-1(h(m) + r*ka)</t>
   </si>
 </sst>
 </file>
@@ -4297,19 +4306,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E13DE6-8DF4-4B7C-B600-DC44B025BC54}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:X145"/>
+  <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
     <col min="6" max="6" width="6.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" customWidth="1"/>
@@ -4477,10 +4484,10 @@
         <v>315</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="X4" s="39" t="s">
         <v>278</v>
@@ -4780,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="4">
-        <f>MOD(T9*T$9,U9)</f>
+        <f t="shared" ref="W9:W32" si="6">MOD(T9*T$9,U9)</f>
         <v>1</v>
       </c>
       <c r="X9" t="s">
@@ -4839,7 +4846,7 @@
         <v>6</v>
       </c>
       <c r="W10" s="4">
-        <f>MOD(T10*T$9,U10)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="X10" t="s">
@@ -4883,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="4">
-        <f>MOD(T11*T$9,U11)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="X11" t="s">
@@ -4933,7 +4940,7 @@
         <v>8</v>
       </c>
       <c r="W12" s="4">
-        <f>MOD(T12*T$9,U12)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -4974,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="W13" s="4">
-        <f>MOD(T13*T$9,U13)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
     </row>
@@ -5030,7 +5037,7 @@
         <v>2</v>
       </c>
       <c r="W14" s="4">
-        <f>MOD(T14*T$9,U14)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -5063,7 +5070,7 @@
         <v>26</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" ref="P15:P29" si="6">GCD(N15,O15)</f>
+        <f t="shared" ref="P15:P29" si="7">GCD(N15,O15)</f>
         <v>2</v>
       </c>
       <c r="Q15" s="4">
@@ -5081,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="4">
-        <f>MOD(T15*T$9,U15)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
@@ -5105,7 +5112,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="Q16" s="4">
@@ -5123,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="W16" s="4">
-        <f>MOD(T16*T$9,U16)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -5146,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q17" s="4">
@@ -5164,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="4">
-        <f>MOD(T17*T$9,U17)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
@@ -5190,7 +5197,7 @@
         <v>26</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q18" s="4">
@@ -5208,7 +5215,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="4">
-        <f>MOD(T18*T$9,U18)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
     </row>
@@ -5232,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q19" s="4">
@@ -5250,7 +5257,7 @@
         <v>3</v>
       </c>
       <c r="W19" s="4">
-        <f>MOD(T19*T$9,U19)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5270,7 +5277,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q20" s="4">
@@ -5288,7 +5295,7 @@
         <v>8</v>
       </c>
       <c r="W20" s="4">
-        <f>MOD(T20*T$9,U20)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -5314,7 +5321,7 @@
         <v>26</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q21" s="4">
@@ -5332,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="4">
-        <f>MOD(T21*T$9,U21)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
@@ -5356,7 +5363,7 @@
         <v>26</v>
       </c>
       <c r="P22" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q22" s="43">
@@ -5377,7 +5384,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="4">
-        <f>MOD(T22*T$9,U22)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -5404,7 +5411,7 @@
         <v>26</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q23" s="4">
@@ -5422,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="4">
-        <f>MOD(T23*T$9,U23)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
     </row>
@@ -5437,7 +5444,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q24" s="4">
@@ -5455,7 +5462,7 @@
         <v>4</v>
       </c>
       <c r="W24" s="4">
-        <f>MOD(T24*T$9,U24)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -5470,7 +5477,7 @@
         <v>26</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q25" s="4">
@@ -5488,7 +5495,7 @@
         <v>3</v>
       </c>
       <c r="W25" s="4">
-        <f>MOD(T25*T$9,U25)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -5500,7 +5507,7 @@
         <v>26</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q26" s="4">
@@ -5518,7 +5525,7 @@
         <v>2</v>
       </c>
       <c r="W26" s="4">
-        <f>MOD(T26*T$9,U26)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -5530,7 +5537,7 @@
         <v>26</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q27" s="4">
@@ -5548,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="W27" s="4">
-        <f>MOD(T27*T$9,U27)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -5560,7 +5567,7 @@
         <v>26</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q28" s="4">
@@ -5578,7 +5585,7 @@
         <v>24</v>
       </c>
       <c r="W28" s="4">
-        <f>MOD(T28*T$9,U28)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5605,7 +5612,7 @@
         <v>26</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Q29" s="4">
@@ -5623,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="W29" s="4">
-        <f>MOD(T29*T$9,U29)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -5647,7 +5654,7 @@
         <v>2</v>
       </c>
       <c r="W30" s="4">
-        <f>MOD(T30*T$9,U30)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -5676,7 +5683,7 @@
         <v>3</v>
       </c>
       <c r="W31" s="4">
-        <f>MOD(T31*T$9,U31)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
@@ -5702,7 +5709,7 @@
         <v>4</v>
       </c>
       <c r="W32" s="4">
-        <f>MOD(T32*T$9,U32)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -5907,7 +5914,7 @@
         <v>35</v>
       </c>
       <c r="P38" s="51">
-        <f t="shared" ref="P38:P69" si="7">GCD(N38,O38)</f>
+        <f t="shared" ref="P38:P69" si="8">GCD(N38,O38)</f>
         <v>1</v>
       </c>
       <c r="Q38" s="4"/>
@@ -5944,7 +5951,7 @@
         <v>35</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q39" s="4"/>
@@ -5986,7 +5993,7 @@
         <v>35</v>
       </c>
       <c r="P40" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q40" s="4"/>
@@ -6002,7 +6009,7 @@
         <v>35</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q41" s="4"/>
@@ -6026,7 +6033,7 @@
         <v>35</v>
       </c>
       <c r="P42" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q42" s="4"/>
@@ -6042,7 +6049,7 @@
         <v>35</v>
       </c>
       <c r="P43" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q43" s="4"/>
@@ -6070,7 +6077,7 @@
         <v>35</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q44" s="4"/>
@@ -6091,7 +6098,7 @@
         <v>35</v>
       </c>
       <c r="P45" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q45" s="4"/>
@@ -6113,7 +6120,7 @@
         <v>35</v>
       </c>
       <c r="P46" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q46" s="4"/>
@@ -6136,7 +6143,7 @@
         <v>35</v>
       </c>
       <c r="P47" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q47" s="4"/>
@@ -6157,7 +6164,7 @@
         <v>35</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q48" s="4"/>
@@ -6177,7 +6184,7 @@
         <v>35</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q49" s="4"/>
@@ -6204,7 +6211,7 @@
         <v>35</v>
       </c>
       <c r="P50" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q50" s="4"/>
@@ -6229,7 +6236,7 @@
         <v>35</v>
       </c>
       <c r="P51" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q51" s="4"/>
@@ -6250,7 +6257,7 @@
         <v>35</v>
       </c>
       <c r="P52" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q52" s="4"/>
@@ -6275,7 +6282,7 @@
         <v>35</v>
       </c>
       <c r="P53" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q53" s="4"/>
@@ -6292,7 +6299,7 @@
         <v>35</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q54" s="4"/>
@@ -6311,7 +6318,7 @@
         <v>35</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q55" s="4"/>
@@ -6328,7 +6335,7 @@
         <v>35</v>
       </c>
       <c r="P56" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q56" s="4"/>
@@ -6345,7 +6352,7 @@
         <v>35</v>
       </c>
       <c r="P57" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q57" s="4"/>
@@ -6379,7 +6386,7 @@
         <v>35</v>
       </c>
       <c r="P58" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q58" s="4"/>
@@ -6402,7 +6409,7 @@
         <v>35</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q59" s="4"/>
@@ -6425,7 +6432,7 @@
         <v>35</v>
       </c>
       <c r="P60" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q60" s="4"/>
@@ -6453,7 +6460,7 @@
         <v>35</v>
       </c>
       <c r="P61" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q61" s="4"/>
@@ -6481,7 +6488,7 @@
         <v>35</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q62" s="4"/>
@@ -6501,7 +6508,7 @@
       </c>
       <c r="F63" s="4"/>
       <c r="G63" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="N63" s="51">
         <v>29</v>
@@ -6510,7 +6517,7 @@
         <v>35</v>
       </c>
       <c r="P63" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q63" s="4"/>
@@ -6520,13 +6527,13 @@
         <v>6</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F64" s="4"/>
       <c r="N64" s="4">
@@ -6536,7 +6543,7 @@
         <v>35</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q64" s="4"/>
@@ -6559,7 +6566,7 @@
         <v>35</v>
       </c>
       <c r="P65" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q65" s="4"/>
@@ -6581,7 +6588,7 @@
         <v>35</v>
       </c>
       <c r="P66" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q66" s="4"/>
@@ -6609,7 +6616,7 @@
         <v>35</v>
       </c>
       <c r="P67" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q67" s="4"/>
@@ -6634,7 +6641,7 @@
         <v>35</v>
       </c>
       <c r="P68" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q68" s="4"/>
@@ -6661,7 +6668,7 @@
         <v>35</v>
       </c>
       <c r="P69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="Q69" s="4"/>
@@ -7416,7 +7423,7 @@
         <v>382</v>
       </c>
       <c r="F127" t="s">
-        <v>390</v>
+        <v>534</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -7424,13 +7431,13 @@
         <v>7</v>
       </c>
       <c r="B128" s="4">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="F128" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -7438,50 +7445,45 @@
         <v>8</v>
       </c>
       <c r="B129" s="4">
-        <f>B122*B127</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>379</v>
+        <v>532</v>
       </c>
       <c r="F129" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>9</v>
       </c>
-      <c r="B130" s="52">
-        <f>1/B127*(B128+(B124*B129))</f>
-        <v>9</v>
-      </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="B130" s="4">
+        <f>B122*B127</f>
+        <v>8</v>
+      </c>
       <c r="E130" s="3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="F130" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>10</v>
       </c>
-      <c r="B131" s="4"/>
-      <c r="C131" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D131" s="4">
-        <f>B128</f>
-        <v>12</v>
-      </c>
+      <c r="B131" s="52">
+        <f>1/B127*(B129+(B124*B130))</f>
+        <v>9</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
       <c r="E131" s="3" t="s">
-        <v>201</v>
+        <v>391</v>
       </c>
       <c r="F131" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -7489,16 +7491,8 @@
         <v>11</v>
       </c>
       <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4">
-        <f>B129</f>
-        <v>8</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F132" t="s">
-        <v>383</v>
+      <c r="C132" s="37" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -7506,16 +7500,17 @@
         <v>12</v>
       </c>
       <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="C133" s="4" t="s">
+        <v>533</v>
+      </c>
       <c r="D133" s="4">
-        <f>B130</f>
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="F133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -7524,15 +7519,14 @@
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
-      <c r="D134" s="52">
-        <f>(1/D133*D131*D123)+(1/D133*D132*D126)</f>
-        <v>8</v>
+      <c r="D134" s="4">
+        <v>12</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="F134" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7541,15 +7535,15 @@
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="3" t="str">
-        <f>IF(D134=D132,"Verified","Invalid")</f>
-        <v>Verified</v>
+      <c r="D135" s="4">
+        <f>B130</f>
+        <v>8</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="F135" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7558,12 +7552,15 @@
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="52"/>
+      <c r="D136" s="4">
+        <f>B131</f>
+        <v>9</v>
+      </c>
       <c r="E136" s="3" t="s">
-        <v>397</v>
+        <v>149</v>
       </c>
       <c r="F136" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -7572,9 +7569,12 @@
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="52"/>
-      <c r="E137" s="53" t="s">
-        <v>395</v>
+      <c r="D137" s="52">
+        <f>(1/D136*D134*D123)+(1/D136*D135*D126)</f>
+        <v>8</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="F137" t="s">
         <v>399</v>
@@ -7586,12 +7586,15 @@
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="52"/>
+      <c r="D138" s="3" t="str">
+        <f>IF(D137=D135,"Verified","Invalid")</f>
+        <v>Verified</v>
+      </c>
       <c r="E138" s="3" t="s">
-        <v>392</v>
+        <v>535</v>
       </c>
       <c r="F138" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -7602,10 +7605,10 @@
       <c r="C139" s="4"/>
       <c r="D139" s="52"/>
       <c r="E139" s="3" t="s">
-        <v>393</v>
+        <v>536</v>
       </c>
       <c r="F139" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -7615,11 +7618,11 @@
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="52"/>
-      <c r="E140" s="3" t="s">
-        <v>404</v>
+      <c r="E140" s="53" t="s">
+        <v>537</v>
       </c>
       <c r="F140" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -7628,37 +7631,73 @@
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
+      <c r="D141" s="52"/>
       <c r="E141" s="3" t="s">
-        <v>394</v>
+        <v>538</v>
       </c>
       <c r="F141" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="4"/>
+      <c r="A142" s="4">
+        <v>21</v>
+      </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
-      <c r="E142" s="3"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F142" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
+      <c r="A143" s="4">
+        <v>22</v>
+      </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="3"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F143" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="47" t="s">
-        <v>389</v>
+      <c r="A144" s="4">
+        <v>23</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="E144" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F144" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>378</v>
       </c>
     </row>
@@ -10494,7 +10533,7 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -10538,7 +10577,7 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -10549,7 +10588,7 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D6" t="s">
         <v>150</v>
@@ -10563,7 +10602,7 @@
         <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D7" t="s">
         <v>230</v>
@@ -10577,7 +10616,7 @@
         <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D8" t="s">
         <v>231</v>
@@ -10596,13 +10635,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C9" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D9" t="s">
         <v>233</v>
@@ -10621,13 +10660,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C10" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
         <v>235</v>
@@ -10652,7 +10691,7 @@
         <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D11" t="s">
         <v>237</v>
@@ -10666,7 +10705,7 @@
         <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D12" t="s">
         <v>239</v>
@@ -10680,7 +10719,7 @@
         <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D13" t="s">
         <v>243</v>
@@ -10699,19 +10738,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B14" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D14" t="s">
         <v>245</v>
       </c>
       <c r="E14" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G14">
         <f>4-(6+5)</f>
@@ -10724,13 +10763,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C15" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D15" t="s">
         <v>246</v>
@@ -10755,7 +10794,7 @@
         <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D16" t="s">
         <v>248</v>
@@ -10766,13 +10805,13 @@
         <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D17" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -10783,13 +10822,13 @@
         <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D18" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E18" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G18">
         <f>5*7</f>
@@ -10802,19 +10841,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B19" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C19" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D19" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E19" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G19">
         <f>1-(10+5)</f>
@@ -10827,19 +10866,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B20" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C20" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D20" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G20">
         <f>10-3-6</f>
@@ -10855,16 +10894,16 @@
         <v>154</v>
       </c>
       <c r="B21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21" t="s">
+        <v>454</v>
+      </c>
+      <c r="D21" t="s">
         <v>407</v>
       </c>
-      <c r="C21" t="s">
-        <v>461</v>
-      </c>
-      <c r="D21" t="s">
-        <v>414</v>
-      </c>
       <c r="J21" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -10872,16 +10911,16 @@
         <v>242</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C22" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D22" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="J22" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -10892,13 +10931,13 @@
         <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E23" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -10908,24 +10947,24 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C24" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D24" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E24" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G24">
         <f>0-(3+5)</f>
@@ -10936,24 +10975,24 @@
         <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C25" t="s">
+        <v>457</v>
+      </c>
+      <c r="D25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E25" t="s">
         <v>464</v>
-      </c>
-      <c r="D25" t="s">
-        <v>470</v>
-      </c>
-      <c r="E25" t="s">
-        <v>471</v>
       </c>
       <c r="G25">
         <f>0-0-1</f>
@@ -10964,7 +11003,7 @@
         <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -10972,16 +11011,16 @@
         <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C26" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D26" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J26" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -10989,16 +11028,16 @@
         <v>242</v>
       </c>
       <c r="B27" t="s">
+        <v>471</v>
+      </c>
+      <c r="C27" t="s">
+        <v>474</v>
+      </c>
+      <c r="D27" t="s">
         <v>478</v>
       </c>
-      <c r="C27" t="s">
-        <v>481</v>
-      </c>
-      <c r="D27" t="s">
-        <v>485</v>
-      </c>
       <c r="J27" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -11009,13 +11048,13 @@
         <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D28" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E28" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G28">
         <f>15*13</f>
@@ -11026,24 +11065,24 @@
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B29" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C29" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D29" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E29" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G29">
         <f>64-(9+5)</f>
@@ -11054,24 +11093,24 @@
         <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B30" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C30" t="s">
+        <v>477</v>
+      </c>
+      <c r="D30" t="s">
+        <v>483</v>
+      </c>
+      <c r="E30" t="s">
         <v>484</v>
-      </c>
-      <c r="D30" t="s">
-        <v>490</v>
-      </c>
-      <c r="E30" t="s">
-        <v>491</v>
       </c>
       <c r="G30">
         <f>72-128-16</f>
@@ -11082,7 +11121,7 @@
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -11090,16 +11129,16 @@
         <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C31" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D31" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="J31" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -11107,16 +11146,16 @@
         <v>242</v>
       </c>
       <c r="B32" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C32" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D32" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J32" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -11127,13 +11166,13 @@
         <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D33" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E33" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G33">
         <f>12*14</f>
@@ -11144,24 +11183,24 @@
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B34" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C34" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D34" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E34" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G34">
         <f>225-(16+5)</f>
@@ -11172,24 +11211,24 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B35" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C35" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D35" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E35" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G35">
         <f>240-0-13</f>
@@ -11200,7 +11239,7 @@
         <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -11208,13 +11247,13 @@
         <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C36" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D36" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -11222,13 +11261,13 @@
         <v>242</v>
       </c>
       <c r="B37" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C37" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D37" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -11239,13 +11278,13 @@
         <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D38" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E38" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="G38">
         <f>5*10</f>
@@ -11258,19 +11297,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B39" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C39" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D39" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E39" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G39">
         <f>256-5</f>
@@ -11283,19 +11322,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>516</v>
+      </c>
+      <c r="B40" t="s">
+        <v>518</v>
+      </c>
+      <c r="C40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D40" t="s">
         <v>523</v>
       </c>
-      <c r="B40" t="s">
-        <v>525</v>
-      </c>
-      <c r="C40" t="s">
-        <v>529</v>
-      </c>
-      <c r="D40" t="s">
-        <v>530</v>
-      </c>
       <c r="E40" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="G40">
         <f>0-208-6</f>
@@ -11311,13 +11350,13 @@
         <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C41" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D41" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4673550E-17B1-4863-8434-158F1F560603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD97AA32-F801-49EB-BE84-958F4A71BA96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <definedName name="TotientFunctions">'RSA Example'!$D$5:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="541">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1210,9 +1211,6 @@
   </si>
   <si>
     <t>Ephemeral public key</t>
-  </si>
-  <si>
-    <t>s = ke^-1(h + r*ka)</t>
   </si>
   <si>
     <t>r'</t>
@@ -4308,7 +4306,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4484,10 +4484,10 @@
         <v>315</v>
       </c>
       <c r="V4" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="W4" s="9" t="s">
         <v>530</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>531</v>
       </c>
       <c r="X4" s="39" t="s">
         <v>278</v>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="F63" s="4"/>
       <c r="G63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N63" s="51">
         <v>29</v>
@@ -6527,13 +6527,13 @@
         <v>6</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F64" s="4"/>
       <c r="N64" s="4">
@@ -7423,7 +7423,7 @@
         <v>382</v>
       </c>
       <c r="F127" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -7448,7 +7448,7 @@
         <v>12</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F129" t="s">
         <v>388</v>
@@ -7480,7 +7480,7 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="3" t="s">
-        <v>391</v>
+        <v>540</v>
       </c>
       <c r="F131" t="s">
         <v>376</v>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D133" s="4">
         <v>42</v>
@@ -7523,7 +7523,7 @@
         <v>12</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F134" t="s">
         <v>388</v>
@@ -7574,10 +7574,10 @@
         <v>8</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F137" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -7591,7 +7591,7 @@
         <v>Verified</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F138" t="s">
         <v>384</v>
@@ -7605,10 +7605,10 @@
       <c r="C139" s="4"/>
       <c r="D139" s="52"/>
       <c r="E139" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F139" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -7619,10 +7619,10 @@
       <c r="C140" s="4"/>
       <c r="D140" s="52"/>
       <c r="E140" s="53" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F140" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -7633,10 +7633,10 @@
       <c r="C141" s="4"/>
       <c r="D141" s="52"/>
       <c r="E141" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F141" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -7647,10 +7647,10 @@
       <c r="C142" s="4"/>
       <c r="D142" s="52"/>
       <c r="E142" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F142" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -7661,10 +7661,10 @@
       <c r="C143" s="4"/>
       <c r="D143" s="52"/>
       <c r="E143" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F143" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -7674,10 +7674,10 @@
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="E144" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -10533,7 +10533,7 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -10577,7 +10577,7 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -10588,7 +10588,7 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
         <v>150</v>
@@ -10602,7 +10602,7 @@
         <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
         <v>230</v>
@@ -10616,7 +10616,7 @@
         <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D8" t="s">
         <v>231</v>
@@ -10635,13 +10635,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D9" t="s">
         <v>233</v>
@@ -10660,13 +10660,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
         <v>235</v>
@@ -10691,7 +10691,7 @@
         <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D11" t="s">
         <v>237</v>
@@ -10705,7 +10705,7 @@
         <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D12" t="s">
         <v>239</v>
@@ -10719,7 +10719,7 @@
         <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D13" t="s">
         <v>243</v>
@@ -10738,19 +10738,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D14" t="s">
         <v>245</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G14">
         <f>4-(6+5)</f>
@@ -10763,13 +10763,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" t="s">
         <v>442</v>
-      </c>
-      <c r="C15" t="s">
-        <v>443</v>
       </c>
       <c r="D15" t="s">
         <v>246</v>
@@ -10794,7 +10794,7 @@
         <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D16" t="s">
         <v>248</v>
@@ -10805,13 +10805,13 @@
         <v>242</v>
       </c>
       <c r="B17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C17" t="s">
+        <v>445</v>
+      </c>
+      <c r="D17" t="s">
         <v>400</v>
-      </c>
-      <c r="C17" t="s">
-        <v>446</v>
-      </c>
-      <c r="D17" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -10822,13 +10822,13 @@
         <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D18" t="s">
+        <v>401</v>
+      </c>
+      <c r="E18" t="s">
         <v>402</v>
-      </c>
-      <c r="E18" t="s">
-        <v>403</v>
       </c>
       <c r="G18">
         <f>5*7</f>
@@ -10841,19 +10841,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G19">
         <f>1-(10+5)</f>
@@ -10866,19 +10866,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
+        <v>404</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>405</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>406</v>
       </c>
       <c r="G20">
         <f>10-3-6</f>
@@ -10894,16 +10894,16 @@
         <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -10911,16 +10911,16 @@
         <v>242</v>
       </c>
       <c r="B22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" t="s">
+        <v>452</v>
+      </c>
+      <c r="D22" t="s">
         <v>408</v>
       </c>
-      <c r="C22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D22" t="s">
-        <v>409</v>
-      </c>
       <c r="J22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -10931,13 +10931,13 @@
         <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -10947,24 +10947,24 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G24">
         <f>0-(3+5)</f>
@@ -10975,24 +10975,24 @@
         <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E25" t="s">
         <v>463</v>
-      </c>
-      <c r="E25" t="s">
-        <v>464</v>
       </c>
       <c r="G25">
         <f>0-0-1</f>
@@ -11003,7 +11003,7 @@
         <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -11011,16 +11011,16 @@
         <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D26" t="s">
         <v>469</v>
       </c>
-      <c r="D26" t="s">
-        <v>470</v>
-      </c>
       <c r="J26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -11028,16 +11028,16 @@
         <v>242</v>
       </c>
       <c r="B27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -11048,13 +11048,13 @@
         <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D28" t="s">
+        <v>478</v>
+      </c>
+      <c r="E28" t="s">
         <v>479</v>
-      </c>
-      <c r="E28" t="s">
-        <v>480</v>
       </c>
       <c r="G28">
         <f>15*13</f>
@@ -11065,24 +11065,24 @@
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D29" t="s">
+        <v>480</v>
+      </c>
+      <c r="E29" t="s">
         <v>481</v>
-      </c>
-      <c r="E29" t="s">
-        <v>482</v>
       </c>
       <c r="G29">
         <f>64-(9+5)</f>
@@ -11093,24 +11093,24 @@
         <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D30" t="s">
+        <v>482</v>
+      </c>
+      <c r="E30" t="s">
         <v>483</v>
-      </c>
-      <c r="E30" t="s">
-        <v>484</v>
       </c>
       <c r="G30">
         <f>72-128-16</f>
@@ -11121,7 +11121,7 @@
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -11129,16 +11129,16 @@
         <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -11146,16 +11146,16 @@
         <v>242</v>
       </c>
       <c r="B32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C32" t="s">
+        <v>487</v>
+      </c>
+      <c r="D32" t="s">
         <v>488</v>
       </c>
-      <c r="D32" t="s">
-        <v>489</v>
-      </c>
       <c r="J32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -11166,13 +11166,13 @@
         <v>149</v>
       </c>
       <c r="C33" t="s">
+        <v>489</v>
+      </c>
+      <c r="D33" t="s">
         <v>490</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>491</v>
-      </c>
-      <c r="E33" t="s">
-        <v>492</v>
       </c>
       <c r="G33">
         <f>12*14</f>
@@ -11183,24 +11183,24 @@
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D34" t="s">
+        <v>502</v>
+      </c>
+      <c r="E34" t="s">
         <v>503</v>
-      </c>
-      <c r="E34" t="s">
-        <v>504</v>
       </c>
       <c r="G34">
         <f>225-(16+5)</f>
@@ -11211,24 +11211,24 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D35" t="s">
+        <v>504</v>
+      </c>
+      <c r="E35" t="s">
         <v>505</v>
-      </c>
-      <c r="E35" t="s">
-        <v>506</v>
       </c>
       <c r="G35">
         <f>240-0-13</f>
@@ -11239,7 +11239,7 @@
         <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -11247,13 +11247,13 @@
         <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C36" t="s">
+        <v>506</v>
+      </c>
+      <c r="D36" t="s">
         <v>507</v>
-      </c>
-      <c r="D36" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -11261,13 +11261,13 @@
         <v>242</v>
       </c>
       <c r="B37" t="s">
+        <v>508</v>
+      </c>
+      <c r="C37" t="s">
         <v>509</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>510</v>
-      </c>
-      <c r="D37" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -11278,13 +11278,13 @@
         <v>149</v>
       </c>
       <c r="C38" t="s">
+        <v>511</v>
+      </c>
+      <c r="D38" t="s">
         <v>512</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>513</v>
-      </c>
-      <c r="E38" t="s">
-        <v>514</v>
       </c>
       <c r="G38">
         <f>5*10</f>
@@ -11297,19 +11297,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C39" t="s">
+        <v>518</v>
+      </c>
+      <c r="D39" t="s">
         <v>519</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>520</v>
-      </c>
-      <c r="E39" t="s">
-        <v>521</v>
       </c>
       <c r="G39">
         <f>256-5</f>
@@ -11322,19 +11322,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C40" t="s">
+        <v>521</v>
+      </c>
+      <c r="D40" t="s">
         <v>522</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>523</v>
-      </c>
-      <c r="E40" t="s">
-        <v>524</v>
       </c>
       <c r="G40">
         <f>0-208-6</f>
@@ -11350,13 +11350,13 @@
         <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C41" t="s">
+        <v>524</v>
+      </c>
+      <c r="D41" t="s">
         <v>525</v>
-      </c>
-      <c r="D41" t="s">
-        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -11399,202 +11399,202 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <f>MOD(A3,B3)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f>MATCH(1,I3:I40,0)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H3" s="26">
         <f>A3</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I3" s="26">
         <f t="shared" ref="I3:I40" si="0">MOD(H3,B$3)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H4" s="26">
         <f t="shared" ref="H4:H10" si="1">H3+H$3</f>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I4" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H5" s="26">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I5" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" s="26">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I6" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H7" s="26">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" s="26">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="26">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="26">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H11" s="26">
         <f t="shared" ref="H11:H40" si="2">H10+H$3</f>
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H12" s="26">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H13" s="26">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H14" s="26">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="26">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="I15" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H16" s="26">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="I16" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="26">
         <f t="shared" si="2"/>
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="26">
         <f t="shared" si="2"/>
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="26">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="26">
         <f t="shared" si="2"/>
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="26">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
@@ -11604,87 +11604,87 @@
     <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="26">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="I22" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="26">
         <f t="shared" si="2"/>
-        <v>273</v>
+        <v>63</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="26">
         <f t="shared" si="2"/>
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="26">
         <f t="shared" si="2"/>
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="I25" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="26">
         <f t="shared" si="2"/>
-        <v>312</v>
+        <v>72</v>
       </c>
       <c r="I26" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="26">
         <f t="shared" si="2"/>
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="I27" s="26">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="26">
         <f t="shared" si="2"/>
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="I28" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="26">
         <f t="shared" si="2"/>
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="I29" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="26">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="I30" s="26">
         <f t="shared" si="0"/>
@@ -11694,87 +11694,87 @@
     <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="26">
         <f t="shared" si="2"/>
-        <v>377</v>
+        <v>87</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="26">
         <f t="shared" si="2"/>
-        <v>390</v>
+        <v>90</v>
       </c>
       <c r="I32" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H33" s="26">
         <f t="shared" si="2"/>
-        <v>403</v>
+        <v>93</v>
       </c>
       <c r="I33" s="26">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H34" s="26">
         <f t="shared" si="2"/>
-        <v>416</v>
+        <v>96</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H35" s="26">
         <f t="shared" si="2"/>
-        <v>429</v>
+        <v>99</v>
       </c>
       <c r="I35" s="26">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H36" s="26">
         <f t="shared" si="2"/>
-        <v>442</v>
+        <v>102</v>
       </c>
       <c r="I36" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H37" s="26">
         <f t="shared" si="2"/>
-        <v>455</v>
+        <v>105</v>
       </c>
       <c r="I37" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H38" s="26">
         <f t="shared" si="2"/>
-        <v>468</v>
+        <v>108</v>
       </c>
       <c r="I38" s="26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H39" s="26">
         <f t="shared" si="2"/>
-        <v>481</v>
+        <v>111</v>
       </c>
       <c r="I39" s="26">
         <f t="shared" si="0"/>
@@ -11784,11 +11784,11 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" s="26">
         <f t="shared" si="2"/>
-        <v>494</v>
+        <v>114</v>
       </c>
       <c r="I40" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD97AA32-F801-49EB-BE84-958F4A71BA96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F40F3-B03A-4C57-845C-5211BF756C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
     <sheet name="Diffie-Hellman Key Derivation" sheetId="1" r:id="rId2"/>
     <sheet name="Figures" sheetId="11" r:id="rId3"/>
-    <sheet name="RSA" sheetId="2" r:id="rId4"/>
-    <sheet name="RSA Example" sheetId="4" r:id="rId5"/>
-    <sheet name="Elliptic Curve DH" sheetId="7" r:id="rId6"/>
-    <sheet name="EC Example" sheetId="8" r:id="rId7"/>
-    <sheet name="MMI Calculator" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId4"/>
+    <sheet name="RSA" sheetId="2" r:id="rId5"/>
+    <sheet name="RSA Example" sheetId="4" r:id="rId6"/>
+    <sheet name="Elliptic Curve DH" sheetId="7" r:id="rId7"/>
+    <sheet name="EC Example" sheetId="8" r:id="rId8"/>
+    <sheet name="MMI Calculator" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Primes">'RSA Example'!$A$5:$A$12</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="542">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1661,6 +1662,9 @@
   </si>
   <si>
     <t>s = ke^-1(h(m) + r*ka)</t>
+  </si>
+  <si>
+    <t>a-b</t>
   </si>
 </sst>
 </file>
@@ -3964,7 +3968,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -4306,8 +4310,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView showGridLines="0" topLeftCell="A121" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7715,6 +7719,792 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CE62CC-EF82-4EB4-A697-0044799F4B7A}">
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f>B2*B1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4">
+        <f>(B1-1)*(B2-1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <f>MOD(A7,B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <f>MOD(POWER($A7,2),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f>MOD(POWER($A7,3),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <f>MOD(POWER($A7,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <f>MOD(POWER($A7,5),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f>MOD(POWER($A7,6),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <f>MOD(POWER($A7,7),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <f>MOD(POWER($A7,8),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <f>MOD(POWER($A7,9),$B$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <f>MOD(A8,B$3)</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C21" si="0">MOD(POWER($A8,2),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <f>MOD(POWER($A8,3),$B$3)</f>
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <f>MOD(POWER($A8,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <f>MOD(POWER($A8,5),$B$3)</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <f>MOD(POWER($A8,6),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <f>MOD(POWER($A8,7),$B$3)</f>
+        <v>8</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8:I21" si="1">MOD(POWER($A8,8),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ref="J8:J21" si="2">MOD(POWER($A8,9),$B$3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <f>MOD(A9,B$3)</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <f>MOD(POWER($A9,3),$B$3)</f>
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <f>MOD(POWER($A9,4),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <f>MOD(POWER($A9,5),$B$3)</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <f>MOD(POWER($A9,6),$B$3)</f>
+        <v>9</v>
+      </c>
+      <c r="H9" s="2">
+        <f>MOD(POWER($A9,7),$B$3)</f>
+        <v>12</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <f>MOD(A10,B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <f>MOD(POWER($A10,3),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <f>MOD(POWER($A10,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <f>MOD(POWER($A10,5),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <f>MOD(POWER($A10,6),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ref="H10:H21" si="3">MOD(POWER($A10,7),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <f>MOD(A11,B$3)</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <f>MOD(POWER($A11,3),$B$3)</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <f>MOD(POWER($A11,4),$B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <f>MOD(POWER($A11,5),$B$3)</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <f>MOD(POWER($A11,6),$B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <f>MOD(A12,B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <f>MOD(POWER($A12,3),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <f>MOD(POWER($A12,4),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="F12" s="2">
+        <f>MOD(POWER($A12,5),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <f>MOD(POWER($A12,6),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <f>MOD(A13,B$3)</f>
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <f>MOD(POWER($A13,3),$B$3)</f>
+        <v>13</v>
+      </c>
+      <c r="E13" s="2">
+        <f>MOD(POWER($A13,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <f>MOD(POWER($A13,5),$B$3)</f>
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <f>MOD(POWER($A13,6),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <f>MOD(A14,B$3)</f>
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <f>MOD(POWER($A14,3),$B$3)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <f>MOD(POWER($A14,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <f>MOD(POWER($A14,5),$B$3)</f>
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <f>MOD(POWER($A14,6),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <f>MOD(A15,B$3)</f>
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <f>MOD(POWER($A15,3),$B$3)</f>
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <f>MOD(POWER($A15,4),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <f>MOD(POWER($A15,5),$B$3)</f>
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
+        <f>MOD(POWER($A15,6),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MOD(A16,B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <f>MOD(POWER($A16,3),$B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <f>MOD(POWER($A16,4),$B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <f>MOD(POWER($A16,5),$B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <f>MOD(POWER($A16,6),$B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MOD(A17,B$3)</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <f>MOD(POWER($A17,3),$B$3)</f>
+        <v>11</v>
+      </c>
+      <c r="E17" s="2">
+        <f>MOD(POWER($A17,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <f>MOD(POWER($A17,5),$B$3)</f>
+        <v>11</v>
+      </c>
+      <c r="G17" s="2">
+        <f>MOD(POWER($A17,6),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P17" s="15"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <f>MOD(A18,B$3)</f>
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <f>MOD(POWER($A18,3),$B$3)</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <f>MOD(POWER($A18,4),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="2">
+        <f>MOD(POWER($A18,5),$B$3)</f>
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
+        <f>MOD(POWER($A18,6),$B$3)</f>
+        <v>9</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="P18" s="15"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
+        <f>MOD(A19,B$3)</f>
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <f>MOD(POWER($A19,3),$B$3)</f>
+        <v>7</v>
+      </c>
+      <c r="E19" s="2">
+        <f>MOD(POWER($A19,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <f>MOD(POWER($A19,5),$B$3)</f>
+        <v>13</v>
+      </c>
+      <c r="G19" s="2">
+        <f>MOD(POWER($A19,6),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <f>MOD(A20,B$3)</f>
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <f>MOD(POWER($A20,3),$B$3)</f>
+        <v>14</v>
+      </c>
+      <c r="E20" s="2">
+        <f>MOD(POWER($A20,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <f>MOD(POWER($A20,5),$B$3)</f>
+        <v>14</v>
+      </c>
+      <c r="G20" s="2">
+        <f>MOD(POWER($A20,6),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <f>MOD(A21,B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <f>MOD(POWER($A21,3),$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <f>MOD(POWER($A21,4),$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f>MOD(POWER($A21,5),$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <f>MOD(POWER($A21,6),$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>541</v>
+      </c>
+      <c r="E28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29">
+        <v>96</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <f>B29-C29</f>
+        <v>84</v>
+      </c>
+      <c r="E29">
+        <f>D29/B1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <f>B30-C30</f>
+        <v>35</v>
+      </c>
+      <c r="E30">
+        <f>D30/B2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D9BD01-0E4D-488A-9F8B-3FC9D4746A54}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O64"/>
@@ -8544,7 +9334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CA44E2-1AB0-4DBC-8381-995D301099FD}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U53"/>
@@ -10090,7 +10880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647415D-CFD1-4745-A53D-5DF4C6FC6939}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H33"/>
@@ -10505,7 +11295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A96A00-B420-4A12-AD77-4AD839B24B7B}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J41"/>
@@ -11364,7 +12154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E485E03-FDA4-40E5-9DDA-BB586457AA05}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I69"/>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F40F3-B03A-4C57-845C-5211BF756C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78140312-A978-4CF9-ACB3-A7975BC63BF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <definedName name="TotientFunctions">'RSA Example'!$D$5:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="543">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1664,7 +1663,10 @@
     <t>s = ke^-1(h(m) + r*ka)</t>
   </si>
   <si>
-    <t>a-b</t>
+    <t>M^8 mod n</t>
+  </si>
+  <si>
+    <t>M^9 mod n</t>
   </si>
 </sst>
 </file>
@@ -3968,7 +3970,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -4310,7 +4312,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A121" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
@@ -7720,10 +7722,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CE62CC-EF82-4EB4-A697-0044799F4B7A}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7776,32 +7778,11 @@
       <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>9</v>
+      <c r="B6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,369 +7790,162 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <f>MOD(A7,B$3)</f>
+        <f>MOD(POWER($A7,B$4),$B$3)</f>
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <f>MOD(POWER($A7,2),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <f>MOD(POWER($A7,3),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <f>MOD(POWER($A7,4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <f>MOD(POWER($A7,5),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <f>MOD(POWER($A7,6),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <f>MOD(POWER($A7,7),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <f>MOD(POWER($A7,8),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <f>MOD(POWER($A7,9),$B$3)</f>
-        <v>1</v>
-      </c>
+        <f>MOD(POWER($A7,B$4+1),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <f>MOD(A8,B$3)</f>
+        <f>MOD(POWER($A8,B$4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C21" si="0">MOD(POWER($A8,B$4+1),$B$3)</f>
         <v>2</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:C21" si="0">MOD(POWER($A8,2),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <f>MOD(POWER($A8,3),$B$3)</f>
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
-        <f>MOD(POWER($A8,4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <f>MOD(POWER($A8,5),$B$3)</f>
-        <v>2</v>
-      </c>
-      <c r="G8" s="2">
-        <f>MOD(POWER($A8,6),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <f>MOD(POWER($A8,7),$B$3)</f>
-        <v>8</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" ref="I8:I21" si="1">MOD(POWER($A8,8),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" ref="J8:J21" si="2">MOD(POWER($A8,9),$B$3)</f>
-        <v>2</v>
-      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <f>MOD(A9,B$3)</f>
+        <f>MOD(POWER($A9,B$4),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <f>MOD(POWER($A9,3),$B$3)</f>
-        <v>12</v>
-      </c>
-      <c r="E9" s="2">
-        <f>MOD(POWER($A9,4),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="F9" s="2">
-        <f>MOD(POWER($A9,5),$B$3)</f>
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <f>MOD(POWER($A9,6),$B$3)</f>
-        <v>9</v>
-      </c>
-      <c r="H9" s="2">
-        <f>MOD(POWER($A9,7),$B$3)</f>
-        <v>12</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <f>MOD(A10,B$3)</f>
+        <f>MOD(POWER($A10,B$4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <f>MOD(POWER($A10,3),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <f>MOD(POWER($A10,4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <f>MOD(POWER($A10,5),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="G10" s="2">
-        <f>MOD(POWER($A10,6),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" ref="H10:H21" si="3">MOD(POWER($A10,7),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="2">
-        <f>MOD(A11,B$3)</f>
+        <f>MOD(POWER($A11,B$4),$B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <f>MOD(POWER($A11,3),$B$3)</f>
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <f>MOD(POWER($A11,4),$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="F11" s="2">
-        <f>MOD(POWER($A11,5),$B$3)</f>
-        <v>5</v>
-      </c>
-      <c r="G11" s="2">
-        <f>MOD(POWER($A11,6),$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="2">
-        <f>MOD(A12,B$3)</f>
+        <f>MOD(POWER($A12,B$4),$B$3)</f>
         <v>6</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="2">
-        <f>MOD(POWER($A12,3),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="E12" s="2">
-        <f>MOD(POWER($A12,4),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="F12" s="2">
-        <f>MOD(POWER($A12,5),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="G12" s="2">
-        <f>MOD(POWER($A12,6),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>7</v>
       </c>
       <c r="B13" s="2">
-        <f>MOD(A13,B$3)</f>
+        <f>MOD(POWER($A13,B$4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <f>MOD(POWER($A13,3),$B$3)</f>
-        <v>13</v>
-      </c>
-      <c r="E13" s="2">
-        <f>MOD(POWER($A13,4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <f>MOD(POWER($A13,5),$B$3)</f>
-        <v>7</v>
-      </c>
-      <c r="G13" s="2">
-        <f>MOD(POWER($A13,6),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <f>MOD(A14,B$3)</f>
+        <f>MOD(POWER($A14,B$4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <f>MOD(POWER($A14,3),$B$3)</f>
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <f>MOD(POWER($A14,4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <f>MOD(POWER($A14,5),$B$3)</f>
-        <v>8</v>
-      </c>
-      <c r="G14" s="2">
-        <f>MOD(POWER($A14,6),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" s="2">
-        <f>MOD(A15,B$3)</f>
+        <f>MOD(POWER($A15,B$4),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D15" s="2">
-        <f>MOD(POWER($A15,3),$B$3)</f>
-        <v>9</v>
-      </c>
-      <c r="E15" s="2">
-        <f>MOD(POWER($A15,4),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="F15" s="2">
-        <f>MOD(POWER($A15,5),$B$3)</f>
-        <v>9</v>
-      </c>
-      <c r="G15" s="2">
-        <f>MOD(POWER($A15,6),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -8185,41 +7959,18 @@
         <v>10</v>
       </c>
       <c r="B16" s="2">
-        <f>MOD(A16,B$3)</f>
+        <f>MOD(POWER($A16,B$4),$B$3)</f>
         <v>10</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="2">
-        <f>MOD(POWER($A16,3),$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
-        <f>MOD(POWER($A16,4),$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="F16" s="2">
-        <f>MOD(POWER($A16,5),$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <f>MOD(POWER($A16,6),$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -8227,41 +7978,18 @@
         <v>11</v>
       </c>
       <c r="B17" s="2">
-        <f>MOD(A17,B$3)</f>
+        <f>MOD(POWER($A17,B$4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <f>MOD(POWER($A17,3),$B$3)</f>
-        <v>11</v>
-      </c>
-      <c r="E17" s="2">
-        <f>MOD(POWER($A17,4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <f>MOD(POWER($A17,5),$B$3)</f>
-        <v>11</v>
-      </c>
-      <c r="G17" s="2">
-        <f>MOD(POWER($A17,6),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="P17" s="15"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -8269,41 +7997,18 @@
         <v>12</v>
       </c>
       <c r="B18" s="2">
-        <f>MOD(A18,B$3)</f>
+        <f>MOD(POWER($A18,B$4),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D18" s="2">
-        <f>MOD(POWER($A18,3),$B$3)</f>
-        <v>3</v>
-      </c>
-      <c r="E18" s="2">
-        <f>MOD(POWER($A18,4),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="F18" s="2">
-        <f>MOD(POWER($A18,5),$B$3)</f>
-        <v>12</v>
-      </c>
-      <c r="G18" s="2">
-        <f>MOD(POWER($A18,6),$B$3)</f>
-        <v>9</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="P18" s="15"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -8311,41 +8016,18 @@
         <v>13</v>
       </c>
       <c r="B19" s="2">
-        <f>MOD(A19,B$3)</f>
+        <f>MOD(POWER($A19,B$4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D19" s="2">
-        <f>MOD(POWER($A19,3),$B$3)</f>
-        <v>7</v>
-      </c>
-      <c r="E19" s="2">
-        <f>MOD(POWER($A19,4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <f>MOD(POWER($A19,5),$B$3)</f>
-        <v>13</v>
-      </c>
-      <c r="G19" s="2">
-        <f>MOD(POWER($A19,6),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="P19" s="15"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -8353,41 +8035,18 @@
         <v>14</v>
       </c>
       <c r="B20" s="2">
-        <f>MOD(A20,B$3)</f>
+        <f>MOD(POWER($A20,B$4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <f>MOD(POWER($A20,3),$B$3)</f>
-        <v>14</v>
-      </c>
-      <c r="E20" s="2">
-        <f>MOD(POWER($A20,4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <f>MOD(POWER($A20,5),$B$3)</f>
-        <v>14</v>
-      </c>
-      <c r="G20" s="2">
-        <f>MOD(POWER($A20,6),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -8395,108 +8054,124 @@
         <v>15</v>
       </c>
       <c r="B21" s="2">
-        <f>MOD(A21,B$3)</f>
+        <f>MOD(POWER($A21,B$4),$B$3)</f>
         <v>0</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="2">
-        <f>MOD(POWER($A21,3),$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <f>MOD(POWER($A21,4),$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <f>MOD(POWER($A21,5),$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <f>MOD(POWER($A21,6),$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="P21" s="15"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>541</v>
-      </c>
-      <c r="E28" t="s">
-        <v>179</v>
-      </c>
+      <c r="A28" s="15"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
-      <c r="B29">
-        <v>96</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <f>B29-C29</f>
-        <v>84</v>
-      </c>
-      <c r="E29">
-        <f>D29/B1</f>
-        <v>28</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
-      <c r="B30">
-        <v>47</v>
-      </c>
-      <c r="C30">
-        <v>12</v>
-      </c>
-      <c r="D30">
-        <f>B30-C30</f>
-        <v>35</v>
-      </c>
-      <c r="E30">
-        <f>D30/B2</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9339,7 +9014,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78140312-A978-4CF9-ACB3-A7975BC63BF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59B358F-9AE8-463D-A748-D85501A71B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="586">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1663,10 +1663,139 @@
     <t>s = ke^-1(h(m) + r*ka)</t>
   </si>
   <si>
-    <t>M^8 mod n</t>
-  </si>
-  <si>
-    <t>M^9 mod n</t>
+    <t>M^8 mod 15</t>
+  </si>
+  <si>
+    <t>M^9 mod 15</t>
+  </si>
+  <si>
+    <t>M^9 mod 3</t>
+  </si>
+  <si>
+    <t>M^9 mod 5</t>
+  </si>
+  <si>
+    <t>M^3 mod 3</t>
+  </si>
+  <si>
+    <t>M^5 mod 5</t>
+  </si>
+  <si>
+    <t>M^3 mod 5</t>
+  </si>
+  <si>
+    <t>M^5 mod 3</t>
+  </si>
+  <si>
+    <t>M^8 mod 3</t>
+  </si>
+  <si>
+    <t>M^8 mod 5</t>
+  </si>
+  <si>
+    <t>M^9 mod5</t>
+  </si>
+  <si>
+    <t>M^3 mod 15</t>
+  </si>
+  <si>
+    <t>M^5 mod 15</t>
+  </si>
+  <si>
+    <t>M^1 mod 15</t>
+  </si>
+  <si>
+    <t>M^2 mod 15</t>
+  </si>
+  <si>
+    <t>M^4 mod 15</t>
+  </si>
+  <si>
+    <t>M^6 mod 15</t>
+  </si>
+  <si>
+    <t>M^7 mod 15</t>
+  </si>
+  <si>
+    <t>M^1 mod 3</t>
+  </si>
+  <si>
+    <t>M^2 mod 3</t>
+  </si>
+  <si>
+    <t>M^1 mod 5</t>
+  </si>
+  <si>
+    <t>M^2 mod 5</t>
+  </si>
+  <si>
+    <t>M^4 mod 5</t>
+  </si>
+  <si>
+    <t>(0,3)</t>
+  </si>
+  <si>
+    <t>(0,4)</t>
+  </si>
+  <si>
+    <t>(1,4)</t>
+  </si>
+  <si>
+    <t>(2,0)</t>
+  </si>
+  <si>
+    <t>(0,1)</t>
+  </si>
+  <si>
+    <t>(1,2)</t>
+  </si>
+  <si>
+    <t>(2,3)</t>
+  </si>
+  <si>
+    <t>(1,0)</t>
+  </si>
+  <si>
+    <t>(2,1)</t>
+  </si>
+  <si>
+    <t>(0,2)</t>
+  </si>
+  <si>
+    <t>(1,3)</t>
+  </si>
+  <si>
+    <t>(2,4)</t>
+  </si>
+  <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
+    <t>(1,1)</t>
+  </si>
+  <si>
+    <t>(2,2)</t>
+  </si>
+  <si>
+    <t>M^9 - M mod 3</t>
+  </si>
+  <si>
+    <t>M^9 - M mod 5</t>
+  </si>
+  <si>
+    <t>M^4 mod 3</t>
+  </si>
+  <si>
+    <t>M^6 mod 3</t>
+  </si>
+  <si>
+    <t>M^7 mod 3</t>
+  </si>
+  <si>
+    <t>M^6 mod 5</t>
+  </si>
+  <si>
+    <t>M^7 mod 5</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1925,6 +2054,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2246,32 +2378,32 @@
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.109375" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.33203125" customWidth="1"/>
-    <col min="22" max="22" width="65.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.28515625" customWidth="1"/>
+    <col min="22" max="22" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R1" s="1" t="s">
         <v>93</v>
       </c>
@@ -2279,7 +2411,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="14"/>
       <c r="C2" s="55" t="s">
@@ -2310,7 +2442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="14"/>
       <c r="C3" s="54" t="s">
@@ -2349,7 +2481,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -2408,7 +2540,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2481,7 +2613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
@@ -2538,7 +2670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2595,7 +2727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2652,7 +2784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2709,7 +2841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2766,7 +2898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2823,7 +2955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -2880,7 +3012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2937,7 +3069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2994,7 +3126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3051,7 +3183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -3108,7 +3240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3165,7 +3297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -3222,7 +3354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3279,7 +3411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -3336,7 +3468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3393,7 +3525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -3450,7 +3582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3507,7 +3639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -3564,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -3621,7 +3753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -3678,7 +3810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -3735,7 +3867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -3792,7 +3924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -3849,7 +3981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -3906,13 +4038,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U31" s="57" t="s">
         <v>117</v>
       </c>
       <c r="V31" s="57"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U32" t="s">
         <v>35</v>
       </c>
@@ -3920,7 +4052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="21:22" ht="30" x14ac:dyDescent="0.25">
       <c r="U33" t="s">
         <v>36</v>
       </c>
@@ -3928,7 +4060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="21:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="21:22" ht="30" x14ac:dyDescent="0.25">
       <c r="U34" s="30" t="s">
         <v>37</v>
       </c>
@@ -3936,13 +4068,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="21:22" x14ac:dyDescent="0.25">
       <c r="V35" s="29"/>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="21:22" x14ac:dyDescent="0.25">
       <c r="V36" s="29"/>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="21:22" x14ac:dyDescent="0.25">
       <c r="V37" s="29"/>
     </row>
   </sheetData>
@@ -3974,24 +4106,24 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4005,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -4016,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
@@ -4030,7 +4162,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4055,7 +4187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4074,7 +4206,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4090,7 +4222,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4109,7 +4241,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4134,7 +4266,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4153,7 +4285,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -4169,7 +4301,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -4188,7 +4320,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -4213,7 +4345,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4232,7 +4364,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -4251,7 +4383,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4270,7 +4402,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>270</v>
       </c>
@@ -4281,12 +4413,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>12</v>
       </c>
@@ -4297,7 +4429,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>261</v>
       </c>
@@ -4316,32 +4448,32 @@
       <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>276</v>
       </c>
@@ -4366,7 +4498,7 @@
       <c r="N1" s="33"/>
       <c r="Q1" s="33"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4390,7 +4522,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4443,7 +4575,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4499,7 +4631,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4563,7 +4695,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4625,7 +4757,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4683,7 +4815,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4744,7 +4876,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4800,7 +4932,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4859,7 +4991,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H11" s="4">
         <v>8</v>
       </c>
@@ -4903,7 +5035,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>289</v>
       </c>
@@ -4950,7 +5082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H13" s="4">
         <v>10</v>
       </c>
@@ -4991,7 +5123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>276</v>
       </c>
@@ -5047,7 +5179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -5098,7 +5230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -5140,7 +5272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -5181,7 +5313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -5225,7 +5357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -5267,7 +5399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -5305,7 +5437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -5349,7 +5481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -5394,7 +5526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>9</v>
       </c>
@@ -5439,7 +5571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5472,7 +5604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>290</v>
       </c>
@@ -5505,7 +5637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N26" s="4">
         <v>23</v>
       </c>
@@ -5535,7 +5667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N27" s="4">
         <v>24</v>
       </c>
@@ -5565,7 +5697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N28" s="4">
         <v>25</v>
       </c>
@@ -5595,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>276</v>
       </c>
@@ -5640,7 +5772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -5664,7 +5796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -5693,7 +5825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -5719,7 +5851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4</v>
       </c>
@@ -5750,7 +5882,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -5785,7 +5917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>6</v>
       </c>
@@ -5826,7 +5958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>7</v>
       </c>
@@ -5863,7 +5995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>8</v>
       </c>
@@ -5898,7 +6030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>9</v>
       </c>
@@ -5939,7 +6071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>10</v>
       </c>
@@ -5976,7 +6108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>11</v>
       </c>
@@ -6004,7 +6136,7 @@
       </c>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -6025,7 +6157,7 @@
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
         <v>291</v>
       </c>
@@ -6044,7 +6176,7 @@
       </c>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -6060,7 +6192,7 @@
       </c>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>276</v>
       </c>
@@ -6088,7 +6220,7 @@
       </c>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -6109,7 +6241,7 @@
       </c>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -6131,7 +6263,7 @@
       </c>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>3</v>
       </c>
@@ -6154,7 +6286,7 @@
       </c>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>4</v>
       </c>
@@ -6175,7 +6307,7 @@
       </c>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>5</v>
       </c>
@@ -6195,7 +6327,7 @@
       </c>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>6</v>
       </c>
@@ -6222,7 +6354,7 @@
       </c>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>7</v>
       </c>
@@ -6247,7 +6379,7 @@
       </c>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>8</v>
       </c>
@@ -6268,7 +6400,7 @@
       </c>
       <c r="Q52" s="4"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>9</v>
       </c>
@@ -6293,7 +6425,7 @@
       </c>
       <c r="Q53" s="4"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -6310,7 +6442,7 @@
       </c>
       <c r="Q54" s="4"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
         <v>303</v>
       </c>
@@ -6329,7 +6461,7 @@
       </c>
       <c r="Q55" s="4"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -6346,7 +6478,7 @@
       </c>
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E57" s="58" t="s">
         <v>311</v>
       </c>
@@ -6363,7 +6495,7 @@
       </c>
       <c r="Q57" s="4"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>276</v>
       </c>
@@ -6397,7 +6529,7 @@
       </c>
       <c r="Q58" s="4"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -6420,7 +6552,7 @@
       </c>
       <c r="Q59" s="4"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>2</v>
       </c>
@@ -6443,7 +6575,7 @@
       </c>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>3</v>
       </c>
@@ -6471,7 +6603,7 @@
       </c>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>4</v>
       </c>
@@ -6499,7 +6631,7 @@
       </c>
       <c r="Q62" s="4"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>5</v>
       </c>
@@ -6528,7 +6660,7 @@
       </c>
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>6</v>
       </c>
@@ -6554,7 +6686,7 @@
       </c>
       <c r="Q64" s="4"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>7</v>
       </c>
@@ -6577,7 +6709,7 @@
       </c>
       <c r="Q65" s="4"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>8</v>
       </c>
@@ -6599,7 +6731,7 @@
       </c>
       <c r="Q66" s="4"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>9</v>
       </c>
@@ -6627,7 +6759,7 @@
       </c>
       <c r="Q67" s="4"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>10</v>
       </c>
@@ -6652,7 +6784,7 @@
       </c>
       <c r="Q68" s="4"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>11</v>
       </c>
@@ -6679,7 +6811,7 @@
       </c>
       <c r="Q69" s="4"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>12</v>
       </c>
@@ -6691,22 +6823,22 @@
         <v>319</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="N71" s="47" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="42" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E74" s="58"/>
       <c r="F74" s="58"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>276</v>
       </c>
@@ -6724,7 +6856,7 @@
       </c>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -6735,7 +6867,7 @@
       <c r="D76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2</v>
       </c>
@@ -6751,7 +6883,7 @@
       </c>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -6764,7 +6896,7 @@
       </c>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>4</v>
       </c>
@@ -6778,13 +6910,13 @@
       </c>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="37"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
         <v>341</v>
       </c>
@@ -6793,7 +6925,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6801,7 +6933,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>276</v>
       </c>
@@ -6819,7 +6951,7 @@
       </c>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>1</v>
       </c>
@@ -6835,7 +6967,7 @@
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>2</v>
       </c>
@@ -6849,7 +6981,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>3</v>
       </c>
@@ -6863,7 +6995,7 @@
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>4</v>
       </c>
@@ -6880,7 +7012,7 @@
       </c>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>5</v>
       </c>
@@ -6894,7 +7026,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>6</v>
       </c>
@@ -6906,7 +7038,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>7</v>
       </c>
@@ -6920,7 +7052,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>8</v>
       </c>
@@ -6931,7 +7063,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>9</v>
       </c>
@@ -6943,7 +7075,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>10</v>
       </c>
@@ -6959,7 +7091,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>11</v>
       </c>
@@ -6971,7 +7103,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>12</v>
       </c>
@@ -6984,7 +7116,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>13</v>
       </c>
@@ -6997,7 +7129,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>14</v>
       </c>
@@ -7011,7 +7143,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>15</v>
       </c>
@@ -7023,14 +7155,14 @@
         <v>356</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="37"/>
       <c r="D99" s="4"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
         <v>357</v>
       </c>
@@ -7041,14 +7173,14 @@
         <v>358</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="37"/>
       <c r="D101" s="4"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>276</v>
       </c>
@@ -7065,7 +7197,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>1</v>
       </c>
@@ -7081,7 +7213,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>2</v>
       </c>
@@ -7097,7 +7229,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>3</v>
       </c>
@@ -7113,7 +7245,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>4</v>
       </c>
@@ -7132,7 +7264,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>5</v>
       </c>
@@ -7147,7 +7279,7 @@
       </c>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>6</v>
       </c>
@@ -7161,7 +7293,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>7</v>
       </c>
@@ -7177,7 +7309,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>8</v>
       </c>
@@ -7191,7 +7323,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>9</v>
       </c>
@@ -7210,7 +7342,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>10</v>
       </c>
@@ -7226,7 +7358,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>11</v>
       </c>
@@ -7240,7 +7372,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>12</v>
       </c>
@@ -7254,7 +7386,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>13</v>
       </c>
@@ -7268,7 +7400,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>14</v>
       </c>
@@ -7282,7 +7414,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>15</v>
       </c>
@@ -7296,14 +7428,14 @@
         <v>371</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>368</v>
       </c>
@@ -7314,7 +7446,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="48"/>
       <c r="B120" s="48"/>
       <c r="C120" s="48"/>
@@ -7322,7 +7454,7 @@
       <c r="E120" s="49"/>
       <c r="F120" s="16"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>276</v>
       </c>
@@ -7339,7 +7471,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>1</v>
       </c>
@@ -7357,7 +7489,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -7370,7 +7502,7 @@
       </c>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>3</v>
       </c>
@@ -7386,7 +7518,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>4</v>
       </c>
@@ -7405,7 +7537,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -7418,7 +7550,7 @@
       </c>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -7432,7 +7564,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>7</v>
       </c>
@@ -7446,7 +7578,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>8</v>
       </c>
@@ -7460,7 +7592,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>9</v>
       </c>
@@ -7475,7 +7607,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>10</v>
       </c>
@@ -7492,7 +7624,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>11</v>
       </c>
@@ -7501,7 +7633,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>12</v>
       </c>
@@ -7519,7 +7651,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>13</v>
       </c>
@@ -7535,7 +7667,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>14</v>
       </c>
@@ -7552,7 +7684,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>15</v>
       </c>
@@ -7569,7 +7701,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>16</v>
       </c>
@@ -7586,7 +7718,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>17</v>
       </c>
@@ -7603,7 +7735,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>18</v>
       </c>
@@ -7617,7 +7749,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>19</v>
       </c>
@@ -7631,7 +7763,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>20</v>
       </c>
@@ -7645,7 +7777,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>21</v>
       </c>
@@ -7659,7 +7791,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>22</v>
       </c>
@@ -7673,7 +7805,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>23</v>
       </c>
@@ -7686,14 +7818,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="47" t="s">
         <v>389</v>
       </c>
@@ -7702,7 +7834,7 @@
       <c r="D146" s="4"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>378</v>
       </c>
@@ -7722,25 +7854,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CE62CC-EF82-4EB4-A697-0044799F4B7A}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -7748,7 +7880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -7756,7 +7888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7765,7 +7897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>315</v>
       </c>
@@ -7774,7 +7906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -7784,394 +7916,3873 @@
       <c r="C6" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <f>MOD(POWER($A7,B$4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="D6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F6" t="s">
+        <v>548</v>
+      </c>
+      <c r="G6" t="s">
+        <v>546</v>
+      </c>
+      <c r="H6" t="s">
+        <v>549</v>
+      </c>
+      <c r="I6" t="s">
+        <v>550</v>
+      </c>
+      <c r="J6" t="s">
+        <v>543</v>
+      </c>
+      <c r="K6" t="s">
+        <v>551</v>
+      </c>
+      <c r="L6" t="s">
+        <v>552</v>
+      </c>
+      <c r="M6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15">
+        <f>MOD(POWER($A7,$B$4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
         <f>MOD(POWER($A7,B$4+1),$B$3)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <f>MOD(POWER($A8,B$4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:C21" si="0">MOD(POWER($A8,B$4+1),$B$3)</f>
-        <v>2</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="D7" s="15">
+        <f>MOD(POWER($A7,$B$1),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <f>MOD(POWER($A7,$B$1),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <f>MOD(POWER($A7,$B$2),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <f>MOD(POWER($A7,$B$2),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <f>MOD(POWER($A7,$B$4),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <f>MOD(POWER($A7,$B$4),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <f>MOD(POWER($A7,$B$4+1),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="15">
+        <f>MOD(POWER($A7,$B$4+1),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="15">
+        <f>MOD(POWER($A7,$B$1),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="15">
+        <f>MOD(POWER($A7,$B$2),$B$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" ref="B8:B21" si="0">MOD(POWER($A8,$B$4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" ref="C8:D40" si="1">MOD(POWER($A8,B$4+1),$B$3)</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" ref="D8:D21" si="2">MOD(POWER($A8,$B$1),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" ref="E8:E21" si="3">MOD(POWER($A8,$B$1),$B$2)</f>
         <v>3</v>
       </c>
-      <c r="B9" s="2">
-        <f>MOD(POWER($A9,B$4),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
+      <c r="F8" s="15">
+        <f t="shared" ref="F8:F21" si="4">MOD(POWER($A8,$B$2),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" ref="G8:G21" si="5">MOD(POWER($A8,$B$2),$B$2)</f>
+        <v>2</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" ref="H8:H21" si="6">MOD(POWER($A8,$B$4),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" ref="I8:I21" si="7">MOD(POWER($A8,$B$4),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" ref="J8:J21" si="8">MOD(POWER($A8,$B$4+1),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" ref="K8:K21" si="9">MOD(POWER($A8,$B$4+1),$B$2)</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" ref="L8:L21" si="10">MOD(POWER($A8,$B$1),$B$3)</f>
+        <v>8</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" ref="M8:M21" si="11">MOD(POWER($A8,$B$2),$B$3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="59">
         <v>3</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <f>MOD(POWER($A10,B$4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <f>MOD(POWER($A11,B$4),$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
-        <f>MOD(POWER($A12,B$4),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B9" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="C9" s="59">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D9" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="59">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="59">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="59">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="59">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L9" s="59">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M9" s="59">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="59">
+        <v>5</v>
+      </c>
+      <c r="B11" s="59">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="59">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="59">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="59">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="59">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="59">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="59">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="M11" s="59">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
-        <f>MOD(POWER($A13,B$4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="D13" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
-        <f>MOD(POWER($A14,B$4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="D14" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>9</v>
       </c>
-      <c r="B15" s="2">
-        <f>MOD(POWER($A15,B$4),$B$3)</f>
+      <c r="B15" s="15">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
+      <c r="C15" s="15">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="D15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>10</v>
       </c>
-      <c r="B16" s="2">
-        <f>MOD(POWER($A16,B$4),$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="C16" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>11</v>
       </c>
-      <c r="B17" s="2">
-        <f>MOD(POWER($A17,B$4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="15">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="D17" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>12</v>
       </c>
-      <c r="B18" s="2">
-        <f>MOD(POWER($A18,B$4),$B$3)</f>
+      <c r="B18" s="15">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="P18" s="15"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>14</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>15</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>1</v>
+      </c>
+      <c r="B24" s="15">
+        <f>MOD(POWER($A24,1),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="15">
+        <f>MOD(POWER($A24,2),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
+        <f>MOD(POWER($A24,3),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="15">
+        <f>MOD(POWER($A24,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="15">
+        <f>MOD(POWER($A24,5),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="15">
+        <f>MOD(POWER($A24,6),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <f>MOD(POWER($A24,7),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <f>MOD(POWER($A24,8),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="15">
+        <f>MOD(POWER($A24,9),$B$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>2</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" ref="B25:B38" si="12">MOD(POWER($A25,1),$B$3)</f>
+        <v>2</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" ref="C25:C38" si="13">MOD(POWER($A25,2),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" ref="D25:D38" si="14">MOD(POWER($A25,3),$B$3)</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" ref="E25:E38" si="15">MOD(POWER($A25,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" ref="F25:F38" si="16">MOD(POWER($A25,5),$B$3)</f>
+        <v>2</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" ref="G25:G38" si="17">MOD(POWER($A25,6),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" ref="H25:H38" si="18">MOD(POWER($A25,7),$B$3)</f>
+        <v>8</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" ref="I25:I38" si="19">MOD(POWER($A25,8),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" ref="J25:J38" si="20">MOD(POWER($A25,9),$B$3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="59">
+        <v>3</v>
+      </c>
+      <c r="B26" s="59">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="59">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="D26" s="59">
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="P18" s="15"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="E26" s="59">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F26" s="59">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="59">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="H26" s="59">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="I26" s="59">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="J26" s="59">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>4</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="59">
+        <v>5</v>
+      </c>
+      <c r="B28" s="59">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C28" s="59">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="D28" s="59">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="E28" s="59">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="F28" s="59">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G28" s="59">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="H28" s="59">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="59">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="59">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="59">
+        <v>6</v>
+      </c>
+      <c r="B29" s="59">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C29" s="59">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="D29" s="59">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="E29" s="59">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F29" s="59">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="G29" s="59">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="H29" s="59">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="I29" s="59">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="J29" s="59">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>7</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="B19" s="2">
-        <f>MOD(POWER($A19,B$4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
+      <c r="E30" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="P19" s="15"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="I30" s="15">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>8</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="59">
+        <v>9</v>
+      </c>
+      <c r="B32" s="59">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="C32" s="59">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="D32" s="59">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="E32" s="59">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F32" s="59">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="G32" s="59">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="H32" s="59">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I32" s="59">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="J32" s="59">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="59">
+        <v>10</v>
+      </c>
+      <c r="B33" s="59">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="C33" s="59">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="D33" s="59">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="59">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="F33" s="59">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="G33" s="59">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="H33" s="59">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="I33" s="59">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="59">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>11</v>
+      </c>
+      <c r="B34" s="15">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="C34" s="15">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="59">
+        <v>12</v>
+      </c>
+      <c r="B35" s="59">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="C35" s="59">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="D35" s="59">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="E35" s="59">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F35" s="59">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="G35" s="59">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="H35" s="59">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="I35" s="59">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="J35" s="59">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>13</v>
+      </c>
+      <c r="B36" s="15">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="C36" s="15">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
         <v>14</v>
       </c>
-      <c r="B20" s="2">
-        <f>MOD(POWER($A20,B$4),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
+      <c r="B37" s="15">
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="P20" s="15"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="C37" s="15">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
         <v>15</v>
       </c>
-      <c r="B21" s="2">
-        <f>MOD(POWER($A21,B$4),$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="P21" s="15"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="B38" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>1</v>
+      </c>
+      <c r="B41" s="15">
+        <f>MOD(POWER($A41,1),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="15">
+        <f>MOD(POWER($A41,2),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="15">
+        <f>MOD(POWER($A41,3),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="15">
+        <f>MOD(POWER($A41,4),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="15">
+        <f>MOD(POWER($A41,5),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="15">
+        <f>MOD(POWER($A41,6),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="15">
+        <f>MOD(POWER($A41,7),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="15">
+        <f>MOD(POWER($A41,8),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J41" s="15">
+        <f>MOD(POWER($A41,9),$B$1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>2</v>
+      </c>
+      <c r="B42" s="15">
+        <f t="shared" ref="B42:B55" si="21">MOD(POWER($A42,1),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="C42" s="15">
+        <f t="shared" ref="C42:C55" si="22">MOD(POWER($A42,2),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="15">
+        <f t="shared" ref="D42:D55" si="23">MOD(POWER($A42,3),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="E42" s="15">
+        <f t="shared" ref="E42:E55" si="24">MOD(POWER($A42,4),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" ref="F42:F55" si="25">MOD(POWER($A42,5),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" ref="G42:G55" si="26">MOD(POWER($A42,6),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" ref="H42:H55" si="27">MOD(POWER($A42,7),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="I42" s="15">
+        <f t="shared" ref="I42:I55" si="28">MOD(POWER($A42,8),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" ref="J42:J55" si="29">MOD(POWER($A42,9),$B$1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="60">
+        <v>3</v>
+      </c>
+      <c r="B43" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="60">
+        <v>4</v>
+      </c>
+      <c r="B44" s="15">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="C44" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="15">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="15">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="15">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="60">
+        <v>5</v>
+      </c>
+      <c r="B45" s="15">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="15">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="15">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="I45" s="15">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="60">
+        <v>6</v>
+      </c>
+      <c r="B46" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="60">
+        <v>7</v>
+      </c>
+      <c r="B47" s="15">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="C47" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="15">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="60">
+        <v>8</v>
+      </c>
+      <c r="B48" s="15">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="C48" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="15">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="G48" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="15">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="I48" s="15">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J48" s="15">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="60">
+        <v>9</v>
+      </c>
+      <c r="B49" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="60">
+        <v>10</v>
+      </c>
+      <c r="B50" s="15">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="C50" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="15">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="15">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="15">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="H50" s="15">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="15">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J50" s="15">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="60">
+        <v>11</v>
+      </c>
+      <c r="B51" s="15">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="C51" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="15">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="E51" s="15">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="G51" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="15">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="I51" s="15">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J51" s="15">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="60">
+        <v>12</v>
+      </c>
+      <c r="B52" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="60">
+        <v>13</v>
+      </c>
+      <c r="B53" s="15">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="C53" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="15">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="15">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="15">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="15">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="15">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J53" s="15">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>14</v>
+      </c>
+      <c r="B54" s="15">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="C54" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="15">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="E54" s="15">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="15">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="I54" s="15">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="15">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>15</v>
+      </c>
+      <c r="B55" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>1</v>
+      </c>
+      <c r="B58" s="15">
+        <f>MOD(POWER($A58,1),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C58" s="15">
+        <f>MOD(POWER($A58,2),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="15">
+        <f>MOD(POWER($A58,3),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E58" s="15">
+        <f>MOD(POWER($A58,4),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F58" s="15">
+        <f>MOD(POWER($A58,5),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="15">
+        <f>MOD(POWER($A58,6),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="H58" s="15">
+        <f>MOD(POWER($A58,7),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="I58" s="15">
+        <f>MOD(POWER($A58,8),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="J58" s="15">
+        <f>MOD(POWER($A58,9),$B$2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>2</v>
+      </c>
+      <c r="B59" s="15">
+        <f t="shared" ref="B59:B72" si="30">MOD(POWER($A59,1),$B$2)</f>
+        <v>2</v>
+      </c>
+      <c r="C59" s="15">
+        <f t="shared" ref="C59:C72" si="31">MOD(POWER($A59,2),$B$2)</f>
+        <v>4</v>
+      </c>
+      <c r="D59" s="15">
+        <f t="shared" ref="D59:D72" si="32">MOD(POWER($A59,3),$B$2)</f>
+        <v>3</v>
+      </c>
+      <c r="E59" s="15">
+        <f t="shared" ref="E59:E72" si="33">MOD(POWER($A59,4),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F59" s="15">
+        <f t="shared" ref="F59:F72" si="34">MOD(POWER($A59,5),$B$2)</f>
+        <v>2</v>
+      </c>
+      <c r="G59" s="15">
+        <f t="shared" ref="G59:G72" si="35">MOD(POWER($A59,6),$B$2)</f>
+        <v>4</v>
+      </c>
+      <c r="H59" s="15">
+        <f t="shared" ref="H59:H72" si="36">MOD(POWER($A59,7),$B$2)</f>
+        <v>3</v>
+      </c>
+      <c r="I59" s="15">
+        <f t="shared" ref="I59:I72" si="37">MOD(POWER($A59,8),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="J59" s="15">
+        <f t="shared" ref="J59:J72" si="38">MOD(POWER($A59,9),$B$2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="60">
+        <v>3</v>
+      </c>
+      <c r="B60" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="C60" s="15">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="D60" s="15">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="E60" s="15">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="G60" s="15">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="H60" s="15">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="15">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="60">
+        <v>4</v>
+      </c>
+      <c r="B61" s="15">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="C61" s="15">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="15">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="E61" s="15">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="15">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="G61" s="15">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="15">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="I61" s="15">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J61" s="15">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="60">
+        <v>5</v>
+      </c>
+      <c r="B62" s="15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="15">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="15">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="60">
+        <v>6</v>
+      </c>
+      <c r="B63" s="15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C63" s="15">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="15">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="15">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="F63" s="15">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="15">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="15">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="I63" s="15">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J63" s="15">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="60">
+        <v>7</v>
+      </c>
+      <c r="B64" s="15">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="C64" s="15">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="D64" s="15">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="E64" s="15">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="F64" s="15">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="G64" s="15">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="H64" s="15">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="I64" s="15">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J64" s="15">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="60">
+        <v>8</v>
+      </c>
+      <c r="B65" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="C65" s="15">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="D65" s="15">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="E65" s="15">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="15">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="G65" s="15">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="H65" s="15">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="I65" s="15">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="15">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="60">
+        <v>9</v>
+      </c>
+      <c r="B66" s="15">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="C66" s="15">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="15">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="E66" s="15">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="F66" s="15">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="G66" s="15">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="15">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="I66" s="15">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J66" s="15">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="60">
+        <v>10</v>
+      </c>
+      <c r="B67" s="15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="15">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="15">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="15">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="60">
+        <v>11</v>
+      </c>
+      <c r="B68" s="15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C68" s="15">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="15">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="15">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="F68" s="15">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="G68" s="15">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="15">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="I68" s="15">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J68" s="15">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="60">
+        <v>12</v>
+      </c>
+      <c r="B69" s="15">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="C69" s="15">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="D69" s="15">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="E69" s="15">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="15">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="G69" s="15">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="H69" s="15">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="I69" s="15">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J69" s="15">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="60">
+        <v>13</v>
+      </c>
+      <c r="B70" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="C70" s="15">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="D70" s="15">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="E70" s="15">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="F70" s="15">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="G70" s="15">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="H70" s="15">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="I70" s="15">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J70" s="15">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
+        <v>14</v>
+      </c>
+      <c r="B71" s="15">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="C71" s="15">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="15">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="E71" s="15">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="F71" s="15">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="G71" s="15">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="H71" s="15">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="I71" s="15">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J71" s="15">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <v>15</v>
+      </c>
+      <c r="B72" s="15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="C72" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="15">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="15">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="15">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="L74" t="s">
+        <v>549</v>
+      </c>
+      <c r="M74" t="s">
+        <v>550</v>
+      </c>
+      <c r="N74" t="s">
+        <v>543</v>
+      </c>
+      <c r="O74" t="s">
+        <v>544</v>
+      </c>
+      <c r="P74" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="15">
+        <v>1</v>
+      </c>
+      <c r="B75" s="15">
+        <f>MOD(POWER($A75,1),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C75" s="15">
+        <f>MOD(POWER($A75,2),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="D75" s="15">
+        <f>MOD(POWER($A75,3),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="E75" s="15">
+        <f>MOD(POWER($A75,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F75" s="15">
+        <f>MOD(POWER($A75,5),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G75" s="15">
+        <f>MOD(POWER($A75,6),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="H75" s="15">
+        <f>MOD(POWER($A75,7),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I75" s="15">
+        <f>MOD(POWER($A75,8),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J75" s="15">
+        <f>MOD(POWER($A75,9),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>577</v>
+      </c>
+      <c r="L75" s="15">
+        <f>MOD(POWER($A75,$B$4),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="M75" s="15">
+        <f>MOD(POWER($A75,$B$4),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="N75" s="15">
+        <f>MOD(POWER($A75,$B$4+1),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="O75" s="15">
+        <f>MOD(POWER($A75,$B$4+1),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="P75" s="15">
+        <f>MOD(POWER($A75,$B$4+1)-$A75,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="15">
+        <f>MOD(POWER($A75,$B$4+1)-$A75,$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="15">
+        <v>2</v>
+      </c>
+      <c r="B76" s="15">
+        <f>MOD(POWER($A76,1),$B$3)</f>
+        <v>2</v>
+      </c>
+      <c r="C76" s="15">
+        <f>MOD(POWER($A76,2),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="D76" s="15">
+        <f t="shared" ref="D76:D89" si="39">MOD(POWER($A76,3),$B$3)</f>
+        <v>8</v>
+      </c>
+      <c r="E76" s="15">
+        <f t="shared" ref="E76:E89" si="40">MOD(POWER($A76,4),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F76" s="15">
+        <f t="shared" ref="F76:F89" si="41">MOD(POWER($A76,5),$B$3)</f>
+        <v>2</v>
+      </c>
+      <c r="G76" s="15">
+        <f t="shared" ref="G76:G89" si="42">MOD(POWER($A76,6),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="H76" s="15">
+        <f t="shared" ref="H76:H89" si="43">MOD(POWER($A76,7),$B$3)</f>
+        <v>8</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" ref="I76:I89" si="44">MOD(POWER($A76,8),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J76" s="15">
+        <f t="shared" ref="J76:J89" si="45">MOD(POWER($A76,9),$B$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K76" t="s">
+        <v>578</v>
+      </c>
+      <c r="L76" s="15">
+        <f t="shared" ref="L76:N89" si="46">MOD(POWER($A76,$B$4),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="M76" s="15">
+        <f t="shared" ref="M76:O89" si="47">MOD(POWER($A76,$B$4),$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="N76" s="15">
+        <f>MOD(POWER($A76,$B$4+1),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="O76" s="15">
+        <f t="shared" ref="O76:O89" si="48">MOD(POWER($A76,$B$4+1),$B$2)</f>
+        <v>2</v>
+      </c>
+      <c r="P76" s="15">
+        <f t="shared" ref="P76:P89" si="49">MOD(POWER($A76,$B$4+1)-$A76,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="15">
+        <f t="shared" ref="Q76:Q89" si="50">MOD(POWER($A76,$B$4+1)-$A76,$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="60">
+        <v>3</v>
+      </c>
+      <c r="B77" s="15">
+        <f>MOD(POWER($A77,1),$B$3)</f>
+        <v>3</v>
+      </c>
+      <c r="C77" s="15">
+        <f>MOD(POWER($A77,2),$B$3)</f>
+        <v>9</v>
+      </c>
+      <c r="D77" s="15">
+        <f t="shared" si="39"/>
+        <v>12</v>
+      </c>
+      <c r="E77" s="15">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="F77" s="15">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="G77" s="15">
+        <f t="shared" si="42"/>
+        <v>9</v>
+      </c>
+      <c r="H77" s="15">
+        <f t="shared" si="43"/>
+        <v>12</v>
+      </c>
+      <c r="I77" s="15">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="J77" s="15">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="K77" t="s">
+        <v>564</v>
+      </c>
+      <c r="L77" s="60">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="60">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="N77" s="15">
+        <f>MOD(POWER($A77,$B$4+1),$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O77" s="15">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="P77" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="60">
+        <v>4</v>
+      </c>
+      <c r="B78" s="15">
+        <f>MOD(POWER($A78,1),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="C78" s="15">
+        <f>MOD(POWER($A78,2),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="D78" s="15">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="E78" s="15">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="F78" s="15">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="G78" s="15">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="H78" s="15">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="I78" s="15">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="J78" s="15">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="K78" t="s">
+        <v>566</v>
+      </c>
+      <c r="L78" s="15">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="M78" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="N78" s="15">
+        <f>MOD(POWER($A78,$B$4+1),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="O78" s="15">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="P78" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="60">
+        <v>5</v>
+      </c>
+      <c r="B79" s="15">
+        <f>MOD(POWER($A79,1),$B$3)</f>
+        <v>5</v>
+      </c>
+      <c r="C79" s="15">
+        <f>MOD(POWER($A79,2),$B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="D79" s="15">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="E79" s="15">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="F79" s="15">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="G79" s="15">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="H79" s="15">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="I79" s="15">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="J79" s="15">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="K79" t="s">
+        <v>567</v>
+      </c>
+      <c r="L79" s="61">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="M79" s="61">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="15">
+        <f>MOD(POWER($A79,$B$4+1),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="O79" s="15">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="60">
+        <v>6</v>
+      </c>
+      <c r="B80" s="15">
+        <f>MOD(POWER($A80,1),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="C80" s="15">
+        <f>MOD(POWER($A80,2),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="D80" s="15">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="E80" s="15">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="F80" s="15">
+        <f t="shared" si="41"/>
+        <v>6</v>
+      </c>
+      <c r="G80" s="15">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="H80" s="15">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="I80" s="15">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="J80" s="15">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+      <c r="K80" t="s">
+        <v>568</v>
+      </c>
+      <c r="L80" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="N80" s="15">
+        <f>MOD(POWER($A80,$B$4+1),$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="15">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="P80" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="60">
+        <v>7</v>
+      </c>
+      <c r="B81" s="15">
+        <f>MOD(POWER($A81,1),$B$3)</f>
+        <v>7</v>
+      </c>
+      <c r="C81" s="15">
+        <f>MOD(POWER($A81,2),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="D81" s="15">
+        <f t="shared" si="39"/>
+        <v>13</v>
+      </c>
+      <c r="E81" s="15">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="F81" s="15">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="G81" s="15">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="H81" s="15">
+        <f t="shared" si="43"/>
+        <v>13</v>
+      </c>
+      <c r="I81" s="15">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="J81" s="15">
+        <f t="shared" si="45"/>
+        <v>7</v>
+      </c>
+      <c r="K81" t="s">
+        <v>569</v>
+      </c>
+      <c r="L81" s="15">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="M81" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="N81" s="15">
+        <f>MOD(POWER($A81,$B$4+1),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="O81" s="15">
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="P81" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="60">
+        <v>8</v>
+      </c>
+      <c r="B82" s="15">
+        <f>MOD(POWER($A82,1),$B$3)</f>
+        <v>8</v>
+      </c>
+      <c r="C82" s="15">
+        <f>MOD(POWER($A82,2),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="D82" s="15">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="E82" s="15">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="F82" s="15">
+        <f t="shared" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="G82" s="15">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="H82" s="15">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="I82" s="15">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="J82" s="15">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+      <c r="K82" t="s">
+        <v>570</v>
+      </c>
+      <c r="L82" s="15">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="M82" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="N82" s="15">
+        <f>MOD(POWER($A82,$B$4+1),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="O82" s="15">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="P82" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="60">
+        <v>9</v>
+      </c>
+      <c r="B83" s="15">
+        <f>MOD(POWER($A83,1),$B$3)</f>
+        <v>9</v>
+      </c>
+      <c r="C83" s="15">
+        <f>MOD(POWER($A83,2),$B$3)</f>
+        <v>6</v>
+      </c>
+      <c r="D83" s="15">
+        <f t="shared" si="39"/>
+        <v>9</v>
+      </c>
+      <c r="E83" s="15">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="F83" s="15">
+        <f t="shared" si="41"/>
+        <v>9</v>
+      </c>
+      <c r="G83" s="15">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="H83" s="15">
+        <f t="shared" si="43"/>
+        <v>9</v>
+      </c>
+      <c r="I83" s="15">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="J83" s="15">
+        <f t="shared" si="45"/>
+        <v>9</v>
+      </c>
+      <c r="K83" t="s">
+        <v>565</v>
+      </c>
+      <c r="L83" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="N83" s="15">
+        <f>MOD(POWER($A83,$B$4+1),$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O83" s="15">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="P83" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="60">
+        <v>10</v>
+      </c>
+      <c r="B84" s="15">
+        <f>MOD(POWER($A84,1),$B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="C84" s="15">
+        <f>MOD(POWER($A84,2),$B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="D84" s="15">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+      <c r="E84" s="15">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="F84" s="15">
+        <f t="shared" si="41"/>
+        <v>10</v>
+      </c>
+      <c r="G84" s="15">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="H84" s="15">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="I84" s="15">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="J84" s="15">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="K84" t="s">
+        <v>571</v>
+      </c>
+      <c r="L84" s="15">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="M84" s="15">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="15">
+        <f>MOD(POWER($A84,$B$4+1),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="O84" s="15">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="60">
+        <v>11</v>
+      </c>
+      <c r="B85" s="15">
+        <f>MOD(POWER($A85,1),$B$3)</f>
+        <v>11</v>
+      </c>
+      <c r="C85" s="15">
+        <f>MOD(POWER($A85,2),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="D85" s="15">
+        <f t="shared" si="39"/>
+        <v>11</v>
+      </c>
+      <c r="E85" s="15">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="15">
+        <f t="shared" si="41"/>
+        <v>11</v>
+      </c>
+      <c r="G85" s="15">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="H85" s="15">
+        <f t="shared" si="43"/>
+        <v>11</v>
+      </c>
+      <c r="I85" s="15">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="J85" s="15">
+        <f t="shared" si="45"/>
+        <v>11</v>
+      </c>
+      <c r="K85" t="s">
+        <v>572</v>
+      </c>
+      <c r="L85" s="15">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="M85" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="N85" s="15">
+        <f>MOD(POWER($A85,$B$4+1),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="O85" s="15">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="P85" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="60">
+        <v>12</v>
+      </c>
+      <c r="B86" s="15">
+        <f>MOD(POWER($A86,1),$B$3)</f>
+        <v>12</v>
+      </c>
+      <c r="C86" s="15">
+        <f>MOD(POWER($A86,2),$B$3)</f>
+        <v>9</v>
+      </c>
+      <c r="D86" s="15">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="E86" s="15">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="F86" s="15">
+        <f t="shared" si="41"/>
+        <v>12</v>
+      </c>
+      <c r="G86" s="15">
+        <f t="shared" si="42"/>
+        <v>9</v>
+      </c>
+      <c r="H86" s="15">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="I86" s="15">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="J86" s="15">
+        <f t="shared" si="45"/>
+        <v>12</v>
+      </c>
+      <c r="K86" t="s">
+        <v>573</v>
+      </c>
+      <c r="L86" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="N86" s="15">
+        <f>MOD(POWER($A86,$B$4+1),$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="15">
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="P86" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="60">
+        <v>13</v>
+      </c>
+      <c r="B87" s="15">
+        <f>MOD(POWER($A87,1),$B$3)</f>
+        <v>13</v>
+      </c>
+      <c r="C87" s="15">
+        <f>MOD(POWER($A87,2),$B$3)</f>
+        <v>4</v>
+      </c>
+      <c r="D87" s="15">
+        <f t="shared" si="39"/>
+        <v>7</v>
+      </c>
+      <c r="E87" s="15">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="F87" s="15">
+        <f t="shared" si="41"/>
+        <v>13</v>
+      </c>
+      <c r="G87" s="15">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="H87" s="15">
+        <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+      <c r="I87" s="15">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="J87" s="15">
+        <f t="shared" si="45"/>
+        <v>13</v>
+      </c>
+      <c r="K87" t="s">
+        <v>574</v>
+      </c>
+      <c r="L87" s="15">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="M87" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="N87" s="15">
+        <f>MOD(POWER($A87,$B$4+1),$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="O87" s="15">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="P87" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
+        <v>14</v>
+      </c>
+      <c r="B88" s="15">
+        <f>MOD(POWER($A88,1),$B$3)</f>
+        <v>14</v>
+      </c>
+      <c r="C88" s="15">
+        <f>MOD(POWER($A88,2),$B$3)</f>
+        <v>1</v>
+      </c>
+      <c r="D88" s="15">
+        <f t="shared" si="39"/>
+        <v>14</v>
+      </c>
+      <c r="E88" s="15">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="F88" s="15">
+        <f t="shared" si="41"/>
+        <v>14</v>
+      </c>
+      <c r="G88" s="15">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="H88" s="15">
+        <f t="shared" si="43"/>
+        <v>14</v>
+      </c>
+      <c r="I88" s="15">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="J88" s="15">
+        <f t="shared" si="45"/>
+        <v>14</v>
+      </c>
+      <c r="K88" t="s">
+        <v>575</v>
+      </c>
+      <c r="L88" s="15">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="M88" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="N88" s="15">
+        <f>MOD(POWER($A88,$B$4+1),$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="O88" s="15">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="P88" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
+        <v>15</v>
+      </c>
+      <c r="B89" s="15">
+        <f>MOD(POWER($A89,1),$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="15">
+        <f>MOD(POWER($A89,2),$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>576</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="15">
+        <f>MOD(POWER($A89,$B$4+1),$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8188,26 +11799,26 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.109375" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="95.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="95.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>274</v>
       </c>
@@ -8218,7 +11829,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4"/>
@@ -8227,7 +11838,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8238,7 +11849,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>24</v>
       </c>
@@ -8257,7 +11868,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
@@ -8283,7 +11894,7 @@
       <c r="I5" s="58"/>
       <c r="J5" s="58"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -8325,7 +11936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -8364,7 +11975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D8" s="32">
         <f>LCM(A7-1,B7-1)</f>
         <v>12</v>
@@ -8391,7 +12002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>124</v>
       </c>
@@ -8421,7 +12032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -8450,7 +12061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>126</v>
       </c>
@@ -8474,7 +12085,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -8505,7 +12116,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -8535,7 +12146,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -8559,7 +12170,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
@@ -8578,7 +12189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
@@ -8604,7 +12215,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -8630,7 +12241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
@@ -8652,7 +12263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -8683,7 +12294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -8707,7 +12318,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
@@ -8733,7 +12344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -8752,7 +12363,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
@@ -8779,7 +12390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -8800,7 +12411,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -8822,7 +12433,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>141</v>
       </c>
@@ -8838,7 +12449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -8857,7 +12468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
@@ -8876,7 +12487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
@@ -8895,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>293</v>
       </c>
@@ -8911,7 +12522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -8930,7 +12541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H32">
         <v>27</v>
       </c>
@@ -8943,59 +12554,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="15:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="15:15" ht="45" x14ac:dyDescent="0.25">
       <c r="O33" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="C61" s="24"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
     </row>
@@ -9018,26 +12629,26 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="8.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J1" s="58" t="s">
         <v>114</v>
       </c>
@@ -9047,7 +12658,7 @@
       </c>
       <c r="M1" s="58"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>107</v>
       </c>
@@ -9070,7 +12681,7 @@
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -9125,7 +12736,7 @@
       <c r="T3" s="57"/>
       <c r="U3" s="57"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9185,7 +12796,7 @@
       </c>
       <c r="U4" s="29"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9236,7 +12847,7 @@
       </c>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9287,7 +12898,7 @@
       </c>
       <c r="U6" s="29"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9330,7 +12941,7 @@
       </c>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9373,7 +12984,7 @@
       </c>
       <c r="U8" s="29"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -9416,7 +13027,7 @@
       </c>
       <c r="U9" s="29"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -9459,7 +13070,7 @@
       </c>
       <c r="U10" s="29"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -9502,7 +13113,7 @@
       </c>
       <c r="U11" s="29"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -9545,7 +13156,7 @@
       </c>
       <c r="U12" s="29"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
         <v>72</v>
       </c>
@@ -9585,7 +13196,7 @@
       </c>
       <c r="U13" s="29"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>73</v>
       </c>
@@ -9625,7 +13236,7 @@
       </c>
       <c r="U14" s="29"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>74</v>
       </c>
@@ -9665,7 +13276,7 @@
       </c>
       <c r="U15" s="29"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>75</v>
       </c>
@@ -9705,7 +13316,7 @@
       </c>
       <c r="U16" s="29"/>
     </row>
-    <row r="17" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>76</v>
       </c>
@@ -9745,7 +13356,7 @@
       </c>
       <c r="U17" s="29"/>
     </row>
-    <row r="18" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>77</v>
       </c>
@@ -9785,7 +13396,7 @@
       </c>
       <c r="U18" s="29"/>
     </row>
-    <row r="19" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>78</v>
       </c>
@@ -9825,7 +13436,7 @@
       </c>
       <c r="U19" s="29"/>
     </row>
-    <row r="20" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>79</v>
       </c>
@@ -9865,7 +13476,7 @@
       </c>
       <c r="U20" s="29"/>
     </row>
-    <row r="21" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>80</v>
       </c>
@@ -9905,7 +13516,7 @@
       </c>
       <c r="U21" s="29"/>
     </row>
-    <row r="22" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>81</v>
       </c>
@@ -9944,7 +13555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>82</v>
       </c>
@@ -9983,7 +13594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>83</v>
       </c>
@@ -10022,7 +13633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>84</v>
       </c>
@@ -10061,7 +13672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>85</v>
       </c>
@@ -10100,7 +13711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
         <v>86</v>
       </c>
@@ -10139,7 +13750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>87</v>
       </c>
@@ -10178,7 +13789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
         <v>88</v>
       </c>
@@ -10217,7 +13828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:21" x14ac:dyDescent="0.25">
       <c r="P30">
         <v>27</v>
       </c>
@@ -10230,7 +13841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:21" x14ac:dyDescent="0.25">
       <c r="P31">
         <v>28</v>
       </c>
@@ -10243,7 +13854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:21" x14ac:dyDescent="0.25">
       <c r="P32">
         <v>29</v>
       </c>
@@ -10256,7 +13867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P33">
         <v>30</v>
       </c>
@@ -10269,7 +13880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P34">
         <v>31</v>
       </c>
@@ -10282,7 +13893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P35">
         <v>32</v>
       </c>
@@ -10295,7 +13906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P36">
         <v>33</v>
       </c>
@@ -10308,7 +13919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P37">
         <v>34</v>
       </c>
@@ -10321,7 +13932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P38">
         <v>35</v>
       </c>
@@ -10334,7 +13945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P39">
         <v>36</v>
       </c>
@@ -10347,7 +13958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P40">
         <v>37</v>
       </c>
@@ -10360,7 +13971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P41">
         <v>38</v>
       </c>
@@ -10373,7 +13984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P42">
         <v>39</v>
       </c>
@@ -10386,7 +13997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P43">
         <v>40</v>
       </c>
@@ -10399,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P44">
         <v>41</v>
       </c>
@@ -10412,7 +14023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P45">
         <v>42</v>
       </c>
@@ -10425,7 +14036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P46">
         <v>43</v>
       </c>
@@ -10438,7 +14049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P47">
         <v>44</v>
       </c>
@@ -10451,7 +14062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P48">
         <v>45</v>
       </c>
@@ -10464,7 +14075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P49">
         <v>46</v>
       </c>
@@ -10477,7 +14088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P50">
         <v>47</v>
       </c>
@@ -10490,7 +14101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P51">
         <v>48</v>
       </c>
@@ -10503,7 +14114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P52">
         <v>49</v>
       </c>
@@ -10516,7 +14127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P53">
         <v>50</v>
       </c>
@@ -10564,19 +14175,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>183</v>
       </c>
@@ -10597,7 +14208,7 @@
       </c>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>157</v>
       </c>
@@ -10614,7 +14225,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>184</v>
       </c>
@@ -10631,7 +14242,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -10648,7 +14259,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -10665,7 +14276,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>165</v>
       </c>
@@ -10682,7 +14293,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -10702,7 +14313,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -10719,7 +14330,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -10736,7 +14347,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>172</v>
       </c>
@@ -10744,7 +14355,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -10755,7 +14366,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -10764,13 +14375,13 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>177</v>
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -10779,7 +14390,7 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -10788,7 +14399,7 @@
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -10803,13 +14414,13 @@
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>185</v>
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>67</v>
       </c>
@@ -10821,7 +14432,7 @@
       </c>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>79</v>
       </c>
@@ -10830,7 +14441,7 @@
       </c>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -10839,7 +14450,7 @@
       </c>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>179</v>
       </c>
@@ -10851,13 +14462,13 @@
       </c>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>192</v>
       </c>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -10872,7 +14483,7 @@
       </c>
       <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -10887,7 +14498,7 @@
       </c>
       <c r="H24" s="29"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -10898,7 +14509,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -10912,12 +14523,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>205</v>
       </c>
@@ -10925,7 +14536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>206</v>
       </c>
@@ -10933,7 +14544,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>206</v>
       </c>
@@ -10941,7 +14552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -10949,7 +14560,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>194</v>
       </c>
@@ -10957,7 +14568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -10979,18 +14590,18 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>228</v>
       </c>
@@ -11001,7 +14612,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>227</v>
       </c>
@@ -11012,7 +14623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -11023,7 +14634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -11034,7 +14645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -11045,7 +14656,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -11059,7 +14670,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>229</v>
       </c>
@@ -11073,7 +14684,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -11098,7 +14709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>433</v>
       </c>
@@ -11123,7 +14734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>434</v>
       </c>
@@ -11148,7 +14759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -11162,7 +14773,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>242</v>
       </c>
@@ -11176,7 +14787,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -11201,7 +14812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>464</v>
       </c>
@@ -11226,7 +14837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -11251,7 +14862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -11265,7 +14876,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>242</v>
       </c>
@@ -11279,7 +14890,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>241</v>
       </c>
@@ -11304,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>466</v>
       </c>
@@ -11329,7 +14940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>467</v>
       </c>
@@ -11354,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -11371,7 +14982,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -11388,7 +14999,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>241</v>
       </c>
@@ -11415,7 +15026,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>494</v>
       </c>
@@ -11443,7 +15054,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>495</v>
       </c>
@@ -11471,7 +15082,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -11488,7 +15099,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>242</v>
       </c>
@@ -11505,7 +15116,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>241</v>
       </c>
@@ -11533,7 +15144,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>496</v>
       </c>
@@ -11561,7 +15172,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>497</v>
       </c>
@@ -11589,7 +15200,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -11606,7 +15217,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>242</v>
       </c>
@@ -11623,7 +15234,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>241</v>
       </c>
@@ -11651,7 +15262,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>492</v>
       </c>
@@ -11679,7 +15290,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>493</v>
       </c>
@@ -11707,7 +15318,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -11721,7 +15332,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>242</v>
       </c>
@@ -11735,7 +15346,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>241</v>
       </c>
@@ -11760,7 +15371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>514</v>
       </c>
@@ -11785,7 +15396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>515</v>
       </c>
@@ -11810,7 +15421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -11838,17 +15449,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -11862,7 +15473,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11886,7 +15497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H4" s="26">
         <f t="shared" ref="H4:H10" si="1">H3+H$3</f>
         <v>6</v>
@@ -11896,7 +15507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H5" s="26">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -11906,7 +15517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H6" s="26">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -11916,7 +15527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H7" s="26">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -11926,7 +15537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H8" s="26">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -11936,7 +15547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="26">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -11946,7 +15557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H10" s="26">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -11956,7 +15567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H11" s="26">
         <f t="shared" ref="H11:H40" si="2">H10+H$3</f>
         <v>27</v>
@@ -11966,7 +15577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H12" s="26">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -11976,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H13" s="26">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -11986,7 +15597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H14" s="26">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -11996,7 +15607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H15" s="26">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -12006,7 +15617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H16" s="26">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -12016,7 +15627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="26">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -12026,7 +15637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="26">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -12036,7 +15647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="26">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -12046,7 +15657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="26">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -12056,7 +15667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H21" s="26">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -12066,7 +15677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H22" s="26">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -12076,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H23" s="26">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -12086,7 +15697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H24" s="26">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -12096,7 +15707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H25" s="26">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -12106,7 +15717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H26" s="26">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -12116,7 +15727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H27" s="26">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -12126,7 +15737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H28" s="26">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -12136,7 +15747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H29" s="26">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -12146,7 +15757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H30" s="26">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -12156,7 +15767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H31" s="26">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -12166,7 +15777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H32" s="26">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -12176,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H33" s="26">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -12186,7 +15797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H34" s="26">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -12196,7 +15807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H35" s="26">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -12206,7 +15817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H36" s="26">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -12216,7 +15827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H37" s="26">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -12226,7 +15837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H38" s="26">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -12236,7 +15847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H39" s="26">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -12246,7 +15857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" s="26">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -12256,7 +15867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -12272,7 +15883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -12288,7 +15899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -12304,7 +15915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -12320,7 +15931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -12336,7 +15947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -12352,7 +15963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -12368,7 +15979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -12384,7 +15995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -12400,7 +16011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -12416,7 +16027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11</v>
       </c>
@@ -12432,7 +16043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -12452,7 +16063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>13</v>
       </c>
@@ -12461,7 +16072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>14</v>
       </c>
@@ -12470,7 +16081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>15</v>
       </c>
@@ -12479,7 +16090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>16</v>
       </c>
@@ -12488,7 +16099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17</v>
       </c>
@@ -12497,7 +16108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>18</v>
       </c>
@@ -12506,7 +16117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>19</v>
       </c>
@@ -12515,7 +16126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20</v>
       </c>
@@ -12524,7 +16135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>21</v>
       </c>
@@ -12533,7 +16144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>22</v>
       </c>
@@ -12542,7 +16153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>23</v>
       </c>
@@ -12551,7 +16162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>24</v>
       </c>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59B358F-9AE8-463D-A748-D85501A71B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0F9EED-117E-4FDC-870B-401E0787042E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="599">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1796,6 +1796,45 @@
   </si>
   <si>
     <t>M^7 mod 5</t>
+  </si>
+  <si>
+    <t>M^1 mod 35</t>
+  </si>
+  <si>
+    <t>M^2 mod 35</t>
+  </si>
+  <si>
+    <t>M^3 mod 35</t>
+  </si>
+  <si>
+    <t>M^4 mod 35</t>
+  </si>
+  <si>
+    <t>M^5 mod 35</t>
+  </si>
+  <si>
+    <t>M^6 mod 35</t>
+  </si>
+  <si>
+    <t>M^7 mod 35</t>
+  </si>
+  <si>
+    <t>M^8 mod 35</t>
+  </si>
+  <si>
+    <t>M^9 mod 35</t>
+  </si>
+  <si>
+    <t>M^10 mod 35</t>
+  </si>
+  <si>
+    <t>M^11 mod 35</t>
+  </si>
+  <si>
+    <t>M^12 mod 35</t>
+  </si>
+  <si>
+    <t>M^13 mod 35</t>
   </si>
 </sst>
 </file>
@@ -7854,22 +7893,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CE62CC-EF82-4EB4-A697-0044799F4B7A}">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Y127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12" customWidth="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -11172,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="60">
         <v>7</v>
       </c>
@@ -11240,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="60">
         <v>8</v>
       </c>
@@ -11308,7 +11344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="60">
         <v>9</v>
       </c>
@@ -11376,7 +11412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="60">
         <v>10</v>
       </c>
@@ -11444,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="60">
         <v>11</v>
       </c>
@@ -11512,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="60">
         <v>12</v>
       </c>
@@ -11580,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="60">
         <v>13</v>
       </c>
@@ -11648,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <v>14</v>
       </c>
@@ -11716,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>15</v>
       </c>
@@ -11783,6 +11819,2042 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="J92" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="K92" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="L92" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="M92" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="N92" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A93" s="15">
+        <v>1</v>
+      </c>
+      <c r="B93" s="15">
+        <f>MOD(POWER($A93,1),35)</f>
+        <v>1</v>
+      </c>
+      <c r="C93" s="15">
+        <f>MOD(POWER($A93,2),35)</f>
+        <v>1</v>
+      </c>
+      <c r="D93" s="15">
+        <f>MOD(POWER($A93,3),35)</f>
+        <v>1</v>
+      </c>
+      <c r="E93" s="15">
+        <f>MOD(POWER($A93,4),35)</f>
+        <v>1</v>
+      </c>
+      <c r="F93" s="15">
+        <f>MOD(POWER($A93,5),35)</f>
+        <v>1</v>
+      </c>
+      <c r="G93" s="15">
+        <f>MOD(POWER($A93,6),35)</f>
+        <v>1</v>
+      </c>
+      <c r="H93" s="15">
+        <f>MOD(POWER($A93,7),35)</f>
+        <v>1</v>
+      </c>
+      <c r="I93" s="15">
+        <f>MOD(POWER($A93,8),35)</f>
+        <v>1</v>
+      </c>
+      <c r="J93" s="15">
+        <f>MOD(POWER($A93,9),35)</f>
+        <v>1</v>
+      </c>
+      <c r="K93" s="15">
+        <f>MOD(POWER($A93,10),35)</f>
+        <v>1</v>
+      </c>
+      <c r="L93" s="15">
+        <f>MOD(POWER($A93,11),35)</f>
+        <v>1</v>
+      </c>
+      <c r="M93" s="15">
+        <f>MOD(POWER($A93,12),35)</f>
+        <v>1</v>
+      </c>
+      <c r="N93" s="15">
+        <f>MOD(POWER($A93,13),35)</f>
+        <v>1</v>
+      </c>
+      <c r="O93" s="15"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A94" s="15">
+        <v>2</v>
+      </c>
+      <c r="B94" s="15">
+        <f t="shared" ref="B94:B127" si="51">MOD(POWER($A94,1),35)</f>
+        <v>2</v>
+      </c>
+      <c r="C94" s="15">
+        <f t="shared" ref="C94:C127" si="52">MOD(POWER($A94,2),35)</f>
+        <v>4</v>
+      </c>
+      <c r="D94" s="15">
+        <f t="shared" ref="D94:D127" si="53">MOD(POWER($A94,3),35)</f>
+        <v>8</v>
+      </c>
+      <c r="E94" s="15">
+        <f t="shared" ref="E94:E127" si="54">MOD(POWER($A94,4),35)</f>
+        <v>16</v>
+      </c>
+      <c r="F94" s="15">
+        <f t="shared" ref="F94:F127" si="55">MOD(POWER($A94,5),35)</f>
+        <v>32</v>
+      </c>
+      <c r="G94" s="15">
+        <f t="shared" ref="G94:G127" si="56">MOD(POWER($A94,6),35)</f>
+        <v>29</v>
+      </c>
+      <c r="H94" s="15">
+        <f t="shared" ref="H94:H127" si="57">MOD(POWER($A94,7),35)</f>
+        <v>23</v>
+      </c>
+      <c r="I94" s="15">
+        <f t="shared" ref="I94:I127" si="58">MOD(POWER($A94,8),35)</f>
+        <v>11</v>
+      </c>
+      <c r="J94" s="15">
+        <f t="shared" ref="J94:J127" si="59">MOD(POWER($A94,9),35)</f>
+        <v>22</v>
+      </c>
+      <c r="K94" s="15">
+        <f>MOD(POWER($A94,10),35)</f>
+        <v>9</v>
+      </c>
+      <c r="L94" s="15">
+        <f t="shared" ref="L94:L127" si="60">MOD(POWER($A94,11),35)</f>
+        <v>18</v>
+      </c>
+      <c r="M94" s="15">
+        <f t="shared" ref="M94:M127" si="61">MOD(POWER($A94,12),35)</f>
+        <v>1</v>
+      </c>
+      <c r="N94" s="15">
+        <f t="shared" ref="N94:N127" si="62">MOD(POWER($A94,13),35)</f>
+        <v>2</v>
+      </c>
+      <c r="O94" s="15"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A95" s="60">
+        <v>3</v>
+      </c>
+      <c r="B95" s="15">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="C95" s="15">
+        <f t="shared" si="52"/>
+        <v>9</v>
+      </c>
+      <c r="D95" s="15">
+        <f t="shared" si="53"/>
+        <v>27</v>
+      </c>
+      <c r="E95" s="15">
+        <f t="shared" si="54"/>
+        <v>11</v>
+      </c>
+      <c r="F95" s="15">
+        <f t="shared" si="55"/>
+        <v>33</v>
+      </c>
+      <c r="G95" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="H95" s="15">
+        <f t="shared" si="57"/>
+        <v>17</v>
+      </c>
+      <c r="I95" s="15">
+        <f t="shared" si="58"/>
+        <v>16</v>
+      </c>
+      <c r="J95" s="15">
+        <f t="shared" si="59"/>
+        <v>13</v>
+      </c>
+      <c r="K95" s="15">
+        <f>MOD(POWER($A95,10),35)</f>
+        <v>4</v>
+      </c>
+      <c r="L95" s="15">
+        <f t="shared" si="60"/>
+        <v>12</v>
+      </c>
+      <c r="M95" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N95" s="15">
+        <f t="shared" si="62"/>
+        <v>3</v>
+      </c>
+      <c r="O95" s="15"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A96" s="60">
+        <v>4</v>
+      </c>
+      <c r="B96" s="15">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="C96" s="15">
+        <f t="shared" si="52"/>
+        <v>16</v>
+      </c>
+      <c r="D96" s="15">
+        <f t="shared" si="53"/>
+        <v>29</v>
+      </c>
+      <c r="E96" s="15">
+        <f t="shared" si="54"/>
+        <v>11</v>
+      </c>
+      <c r="F96" s="15">
+        <f t="shared" si="55"/>
+        <v>9</v>
+      </c>
+      <c r="G96" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H96" s="15">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="I96" s="15">
+        <f t="shared" si="58"/>
+        <v>16</v>
+      </c>
+      <c r="J96" s="15">
+        <f t="shared" si="59"/>
+        <v>29</v>
+      </c>
+      <c r="K96" s="15">
+        <f>MOD(POWER($A96,10),35)</f>
+        <v>11</v>
+      </c>
+      <c r="L96" s="15">
+        <f t="shared" si="60"/>
+        <v>9</v>
+      </c>
+      <c r="M96" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N96" s="15">
+        <f t="shared" si="62"/>
+        <v>4</v>
+      </c>
+      <c r="O96" s="15"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="60">
+        <v>5</v>
+      </c>
+      <c r="B97" s="15">
+        <f t="shared" si="51"/>
+        <v>5</v>
+      </c>
+      <c r="C97" s="15">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="D97" s="15">
+        <f t="shared" si="53"/>
+        <v>20</v>
+      </c>
+      <c r="E97" s="15">
+        <f t="shared" si="54"/>
+        <v>30</v>
+      </c>
+      <c r="F97" s="15">
+        <f t="shared" si="55"/>
+        <v>10</v>
+      </c>
+      <c r="G97" s="15">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="H97" s="15">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="I97" s="15">
+        <f t="shared" si="58"/>
+        <v>25</v>
+      </c>
+      <c r="J97" s="15">
+        <f t="shared" si="59"/>
+        <v>20</v>
+      </c>
+      <c r="K97" s="15">
+        <f t="shared" ref="K97:K127" si="63">MOD(POWER($A97,10),35)</f>
+        <v>30</v>
+      </c>
+      <c r="L97" s="15">
+        <f t="shared" si="60"/>
+        <v>10</v>
+      </c>
+      <c r="M97" s="15">
+        <f t="shared" si="61"/>
+        <v>15</v>
+      </c>
+      <c r="N97" s="15">
+        <f t="shared" si="62"/>
+        <v>5</v>
+      </c>
+      <c r="O97" s="15"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="60">
+        <v>6</v>
+      </c>
+      <c r="B98" s="15">
+        <f t="shared" si="51"/>
+        <v>6</v>
+      </c>
+      <c r="C98" s="15">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="15">
+        <f t="shared" si="53"/>
+        <v>6</v>
+      </c>
+      <c r="E98" s="15">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="F98" s="15">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="G98" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H98" s="15">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="I98" s="15">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="J98" s="15">
+        <f t="shared" si="59"/>
+        <v>6</v>
+      </c>
+      <c r="K98" s="15">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="L98" s="15">
+        <f t="shared" si="60"/>
+        <v>6</v>
+      </c>
+      <c r="M98" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N98" s="15">
+        <f t="shared" si="62"/>
+        <v>6</v>
+      </c>
+      <c r="O98" s="15"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="60">
+        <v>7</v>
+      </c>
+      <c r="B99" s="15">
+        <f t="shared" si="51"/>
+        <v>7</v>
+      </c>
+      <c r="C99" s="15">
+        <f t="shared" si="52"/>
+        <v>14</v>
+      </c>
+      <c r="D99" s="15">
+        <f t="shared" si="53"/>
+        <v>28</v>
+      </c>
+      <c r="E99" s="15">
+        <f t="shared" si="54"/>
+        <v>21</v>
+      </c>
+      <c r="F99" s="15">
+        <f t="shared" si="55"/>
+        <v>7</v>
+      </c>
+      <c r="G99" s="15">
+        <f t="shared" si="56"/>
+        <v>14</v>
+      </c>
+      <c r="H99" s="15">
+        <f t="shared" si="57"/>
+        <v>28</v>
+      </c>
+      <c r="I99" s="15">
+        <f t="shared" si="58"/>
+        <v>21</v>
+      </c>
+      <c r="J99" s="15">
+        <f t="shared" si="59"/>
+        <v>7</v>
+      </c>
+      <c r="K99" s="15">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="L99" s="15">
+        <f t="shared" si="60"/>
+        <v>28</v>
+      </c>
+      <c r="M99" s="15">
+        <f t="shared" si="61"/>
+        <v>21</v>
+      </c>
+      <c r="N99" s="15">
+        <f t="shared" si="62"/>
+        <v>7</v>
+      </c>
+      <c r="O99" s="15"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="60">
+        <v>8</v>
+      </c>
+      <c r="B100" s="15">
+        <f t="shared" si="51"/>
+        <v>8</v>
+      </c>
+      <c r="C100" s="15">
+        <f t="shared" si="52"/>
+        <v>29</v>
+      </c>
+      <c r="D100" s="15">
+        <f t="shared" si="53"/>
+        <v>22</v>
+      </c>
+      <c r="E100" s="15">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="F100" s="15">
+        <f t="shared" si="55"/>
+        <v>8</v>
+      </c>
+      <c r="G100" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="H100" s="15">
+        <f t="shared" si="57"/>
+        <v>22</v>
+      </c>
+      <c r="I100" s="15">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="J100" s="15">
+        <f t="shared" si="59"/>
+        <v>8</v>
+      </c>
+      <c r="K100" s="15">
+        <f t="shared" si="63"/>
+        <v>29</v>
+      </c>
+      <c r="L100" s="15">
+        <f t="shared" si="60"/>
+        <v>22</v>
+      </c>
+      <c r="M100" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N100" s="15">
+        <f t="shared" si="62"/>
+        <v>8</v>
+      </c>
+      <c r="O100" s="15"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="60">
+        <v>9</v>
+      </c>
+      <c r="B101" s="15">
+        <f t="shared" si="51"/>
+        <v>9</v>
+      </c>
+      <c r="C101" s="15">
+        <f t="shared" si="52"/>
+        <v>11</v>
+      </c>
+      <c r="D101" s="15">
+        <f t="shared" si="53"/>
+        <v>29</v>
+      </c>
+      <c r="E101" s="15">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="F101" s="15">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="G101" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H101" s="15">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="I101" s="15">
+        <f t="shared" si="58"/>
+        <v>11</v>
+      </c>
+      <c r="J101" s="15">
+        <f t="shared" si="59"/>
+        <v>29</v>
+      </c>
+      <c r="K101" s="15">
+        <f t="shared" si="63"/>
+        <v>16</v>
+      </c>
+      <c r="L101" s="15">
+        <f t="shared" si="60"/>
+        <v>4</v>
+      </c>
+      <c r="M101" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N101" s="15">
+        <f t="shared" si="62"/>
+        <v>9</v>
+      </c>
+      <c r="O101" s="15"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="60">
+        <v>10</v>
+      </c>
+      <c r="B102" s="15">
+        <f t="shared" si="51"/>
+        <v>10</v>
+      </c>
+      <c r="C102" s="15">
+        <f t="shared" si="52"/>
+        <v>30</v>
+      </c>
+      <c r="D102" s="15">
+        <f t="shared" si="53"/>
+        <v>20</v>
+      </c>
+      <c r="E102" s="15">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="F102" s="15">
+        <f t="shared" si="55"/>
+        <v>5</v>
+      </c>
+      <c r="G102" s="15">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="H102" s="15">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="I102" s="15">
+        <f t="shared" si="58"/>
+        <v>30</v>
+      </c>
+      <c r="J102" s="15">
+        <f t="shared" si="59"/>
+        <v>20</v>
+      </c>
+      <c r="K102" s="15">
+        <f t="shared" si="63"/>
+        <v>25</v>
+      </c>
+      <c r="L102" s="15">
+        <f t="shared" si="60"/>
+        <v>5</v>
+      </c>
+      <c r="M102" s="15">
+        <f t="shared" si="61"/>
+        <v>15</v>
+      </c>
+      <c r="N102" s="15">
+        <f t="shared" si="62"/>
+        <v>10</v>
+      </c>
+      <c r="O102" s="15"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="60">
+        <v>11</v>
+      </c>
+      <c r="B103" s="15">
+        <f t="shared" si="51"/>
+        <v>11</v>
+      </c>
+      <c r="C103" s="15">
+        <f t="shared" si="52"/>
+        <v>16</v>
+      </c>
+      <c r="D103" s="15">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="15">
+        <f t="shared" si="54"/>
+        <v>11</v>
+      </c>
+      <c r="F103" s="15">
+        <f t="shared" si="55"/>
+        <v>16</v>
+      </c>
+      <c r="G103" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H103" s="15">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="I103" s="15">
+        <f t="shared" si="58"/>
+        <v>16</v>
+      </c>
+      <c r="J103" s="15">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="K103" s="15">
+        <f t="shared" si="63"/>
+        <v>11</v>
+      </c>
+      <c r="L103" s="15">
+        <f t="shared" si="60"/>
+        <v>16</v>
+      </c>
+      <c r="M103" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N103" s="15">
+        <f t="shared" si="62"/>
+        <v>11</v>
+      </c>
+      <c r="O103" s="15"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="60">
+        <v>12</v>
+      </c>
+      <c r="B104" s="15">
+        <f t="shared" si="51"/>
+        <v>12</v>
+      </c>
+      <c r="C104" s="15">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="D104" s="15">
+        <f t="shared" si="53"/>
+        <v>13</v>
+      </c>
+      <c r="E104" s="15">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="F104" s="15">
+        <f t="shared" si="55"/>
+        <v>17</v>
+      </c>
+      <c r="G104" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="H104" s="15">
+        <f t="shared" si="57"/>
+        <v>33</v>
+      </c>
+      <c r="I104" s="15">
+        <f t="shared" si="58"/>
+        <v>11</v>
+      </c>
+      <c r="J104" s="15">
+        <f t="shared" si="59"/>
+        <v>27</v>
+      </c>
+      <c r="K104" s="15">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+      <c r="L104" s="15">
+        <f t="shared" si="60"/>
+        <v>3</v>
+      </c>
+      <c r="M104" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N104" s="15">
+        <v>12</v>
+      </c>
+      <c r="O104" s="15"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="60">
+        <v>13</v>
+      </c>
+      <c r="B105" s="15">
+        <f t="shared" si="51"/>
+        <v>13</v>
+      </c>
+      <c r="C105" s="15">
+        <f t="shared" si="52"/>
+        <v>29</v>
+      </c>
+      <c r="D105" s="15">
+        <f t="shared" si="53"/>
+        <v>27</v>
+      </c>
+      <c r="E105" s="15">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="F105" s="15">
+        <f t="shared" si="55"/>
+        <v>13</v>
+      </c>
+      <c r="G105" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="H105" s="15">
+        <f t="shared" si="57"/>
+        <v>27</v>
+      </c>
+      <c r="I105" s="15">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="J105" s="15">
+        <f t="shared" si="59"/>
+        <v>13</v>
+      </c>
+      <c r="K105" s="15">
+        <f t="shared" si="63"/>
+        <v>29</v>
+      </c>
+      <c r="L105" s="15">
+        <f t="shared" si="60"/>
+        <v>27</v>
+      </c>
+      <c r="M105" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N105" s="15">
+        <v>13</v>
+      </c>
+      <c r="O105" s="15"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="15">
+        <v>14</v>
+      </c>
+      <c r="B106" s="15">
+        <f t="shared" si="51"/>
+        <v>14</v>
+      </c>
+      <c r="C106" s="15">
+        <f t="shared" si="52"/>
+        <v>21</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="53"/>
+        <v>14</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="54"/>
+        <v>21</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="55"/>
+        <v>14</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="56"/>
+        <v>21</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="58"/>
+        <v>21</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="59"/>
+        <v>14</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="63"/>
+        <v>21</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="60"/>
+        <v>14</v>
+      </c>
+      <c r="M106" s="15">
+        <v>21</v>
+      </c>
+      <c r="N106" s="15">
+        <v>14</v>
+      </c>
+      <c r="O106" s="15"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="15">
+        <v>15</v>
+      </c>
+      <c r="B107" s="15">
+        <f t="shared" si="51"/>
+        <v>15</v>
+      </c>
+      <c r="C107" s="15">
+        <f t="shared" si="52"/>
+        <v>15</v>
+      </c>
+      <c r="D107" s="15">
+        <f t="shared" si="53"/>
+        <v>15</v>
+      </c>
+      <c r="E107" s="15">
+        <f t="shared" si="54"/>
+        <v>15</v>
+      </c>
+      <c r="F107" s="15">
+        <f t="shared" si="55"/>
+        <v>15</v>
+      </c>
+      <c r="G107" s="15">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="H107" s="15">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+      <c r="I107" s="15">
+        <f t="shared" si="58"/>
+        <v>15</v>
+      </c>
+      <c r="J107" s="15">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="K107" s="15">
+        <f t="shared" si="63"/>
+        <v>15</v>
+      </c>
+      <c r="L107" s="15">
+        <f t="shared" si="60"/>
+        <v>15</v>
+      </c>
+      <c r="M107" s="15">
+        <v>15</v>
+      </c>
+      <c r="N107" s="15">
+        <v>15</v>
+      </c>
+      <c r="O107" s="15"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="15">
+        <v>16</v>
+      </c>
+      <c r="B108" s="15">
+        <f t="shared" si="51"/>
+        <v>16</v>
+      </c>
+      <c r="C108" s="15">
+        <f t="shared" si="52"/>
+        <v>11</v>
+      </c>
+      <c r="D108" s="15">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="15">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="F108" s="15">
+        <f t="shared" si="55"/>
+        <v>11</v>
+      </c>
+      <c r="G108" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H108" s="15">
+        <f t="shared" si="57"/>
+        <v>16</v>
+      </c>
+      <c r="I108" s="15">
+        <f t="shared" si="58"/>
+        <v>11</v>
+      </c>
+      <c r="J108" s="15">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="K108" s="15">
+        <f t="shared" si="63"/>
+        <v>16</v>
+      </c>
+      <c r="L108" s="15">
+        <f t="shared" si="60"/>
+        <v>11</v>
+      </c>
+      <c r="M108" s="15">
+        <v>1</v>
+      </c>
+      <c r="N108" s="15">
+        <v>16</v>
+      </c>
+      <c r="O108" s="15"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="15">
+        <v>17</v>
+      </c>
+      <c r="B109" s="15">
+        <f t="shared" si="51"/>
+        <v>17</v>
+      </c>
+      <c r="C109" s="15">
+        <f t="shared" si="52"/>
+        <v>9</v>
+      </c>
+      <c r="D109" s="15">
+        <f t="shared" si="53"/>
+        <v>13</v>
+      </c>
+      <c r="E109" s="15">
+        <f t="shared" si="54"/>
+        <v>11</v>
+      </c>
+      <c r="F109" s="15">
+        <f t="shared" si="55"/>
+        <v>12</v>
+      </c>
+      <c r="G109" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="H109" s="15">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="I109" s="15">
+        <f t="shared" si="58"/>
+        <v>16</v>
+      </c>
+      <c r="J109" s="15">
+        <f t="shared" si="59"/>
+        <v>27</v>
+      </c>
+      <c r="K109" s="15">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="L109" s="15">
+        <f t="shared" si="60"/>
+        <v>33</v>
+      </c>
+      <c r="M109" s="15">
+        <v>1</v>
+      </c>
+      <c r="N109" s="15">
+        <v>17</v>
+      </c>
+      <c r="O109" s="15"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="15">
+        <v>18</v>
+      </c>
+      <c r="B110" s="15">
+        <f t="shared" si="51"/>
+        <v>18</v>
+      </c>
+      <c r="C110" s="15">
+        <f t="shared" si="52"/>
+        <v>9</v>
+      </c>
+      <c r="D110" s="15">
+        <f t="shared" si="53"/>
+        <v>22</v>
+      </c>
+      <c r="E110" s="15">
+        <f t="shared" si="54"/>
+        <v>11</v>
+      </c>
+      <c r="F110" s="15">
+        <f t="shared" si="55"/>
+        <v>23</v>
+      </c>
+      <c r="G110" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="H110" s="15">
+        <f t="shared" si="57"/>
+        <v>32</v>
+      </c>
+      <c r="I110" s="15">
+        <f t="shared" si="58"/>
+        <v>16</v>
+      </c>
+      <c r="J110" s="15">
+        <f t="shared" si="59"/>
+        <v>8</v>
+      </c>
+      <c r="K110" s="15">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="L110" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M110" s="15">
+        <v>1</v>
+      </c>
+      <c r="N110" s="15">
+        <v>18</v>
+      </c>
+      <c r="O110" s="15"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="15">
+        <v>19</v>
+      </c>
+      <c r="B111" s="15">
+        <f t="shared" si="51"/>
+        <v>19</v>
+      </c>
+      <c r="C111" s="15">
+        <f t="shared" si="52"/>
+        <v>11</v>
+      </c>
+      <c r="D111" s="15">
+        <f t="shared" si="53"/>
+        <v>34</v>
+      </c>
+      <c r="E111" s="15">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="F111" s="15">
+        <f t="shared" si="55"/>
+        <v>24</v>
+      </c>
+      <c r="G111" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H111" s="15">
+        <f t="shared" si="57"/>
+        <v>19</v>
+      </c>
+      <c r="I111" s="15">
+        <f t="shared" si="58"/>
+        <v>11</v>
+      </c>
+      <c r="J111" s="15">
+        <f t="shared" si="59"/>
+        <v>34</v>
+      </c>
+      <c r="K111" s="15">
+        <f t="shared" si="63"/>
+        <v>16</v>
+      </c>
+      <c r="L111" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M111" s="15">
+        <v>1</v>
+      </c>
+      <c r="N111" s="15">
+        <v>19</v>
+      </c>
+      <c r="O111" s="15"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="15">
+        <v>20</v>
+      </c>
+      <c r="B112" s="15">
+        <f t="shared" si="51"/>
+        <v>20</v>
+      </c>
+      <c r="C112" s="15">
+        <f t="shared" si="52"/>
+        <v>15</v>
+      </c>
+      <c r="D112" s="15">
+        <f t="shared" si="53"/>
+        <v>20</v>
+      </c>
+      <c r="E112" s="15">
+        <f t="shared" si="54"/>
+        <v>15</v>
+      </c>
+      <c r="F112" s="15">
+        <f t="shared" si="55"/>
+        <v>20</v>
+      </c>
+      <c r="G112" s="15">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="H112" s="15">
+        <f t="shared" si="57"/>
+        <v>20</v>
+      </c>
+      <c r="I112" s="15">
+        <f t="shared" si="58"/>
+        <v>15</v>
+      </c>
+      <c r="J112" s="15">
+        <f t="shared" si="59"/>
+        <v>20</v>
+      </c>
+      <c r="K112" s="15">
+        <f t="shared" si="63"/>
+        <v>15</v>
+      </c>
+      <c r="L112" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M112" s="15">
+        <v>15</v>
+      </c>
+      <c r="N112" s="15">
+        <v>20</v>
+      </c>
+      <c r="O112" s="15"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="15">
+        <v>21</v>
+      </c>
+      <c r="B113" s="15">
+        <f t="shared" si="51"/>
+        <v>21</v>
+      </c>
+      <c r="C113" s="15">
+        <f t="shared" si="52"/>
+        <v>21</v>
+      </c>
+      <c r="D113" s="15">
+        <f t="shared" si="53"/>
+        <v>21</v>
+      </c>
+      <c r="E113" s="15">
+        <f t="shared" si="54"/>
+        <v>21</v>
+      </c>
+      <c r="F113" s="15">
+        <f t="shared" si="55"/>
+        <v>21</v>
+      </c>
+      <c r="G113" s="15">
+        <f t="shared" si="56"/>
+        <v>21</v>
+      </c>
+      <c r="H113" s="15">
+        <f t="shared" si="57"/>
+        <v>21</v>
+      </c>
+      <c r="I113" s="15">
+        <f t="shared" si="58"/>
+        <v>21</v>
+      </c>
+      <c r="J113" s="15">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="K113" s="15">
+        <f t="shared" si="63"/>
+        <v>21</v>
+      </c>
+      <c r="L113" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M113" s="15">
+        <v>21</v>
+      </c>
+      <c r="N113" s="15">
+        <v>21</v>
+      </c>
+      <c r="O113" s="15"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="15">
+        <v>22</v>
+      </c>
+      <c r="B114" s="15">
+        <f t="shared" si="51"/>
+        <v>22</v>
+      </c>
+      <c r="C114" s="15">
+        <f t="shared" si="52"/>
+        <v>29</v>
+      </c>
+      <c r="D114" s="15">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="E114" s="15">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="F114" s="15">
+        <f t="shared" si="55"/>
+        <v>22</v>
+      </c>
+      <c r="G114" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="H114" s="15">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="I114" s="15">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="J114" s="15">
+        <f t="shared" si="59"/>
+        <v>22</v>
+      </c>
+      <c r="K114" s="15">
+        <f t="shared" si="63"/>
+        <v>29</v>
+      </c>
+      <c r="L114" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M114" s="15">
+        <v>1</v>
+      </c>
+      <c r="N114" s="15">
+        <v>22</v>
+      </c>
+      <c r="O114" s="15"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="15">
+        <v>23</v>
+      </c>
+      <c r="B115" s="15">
+        <f t="shared" si="51"/>
+        <v>23</v>
+      </c>
+      <c r="C115" s="15">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="D115" s="15">
+        <f t="shared" si="53"/>
+        <v>22</v>
+      </c>
+      <c r="E115" s="15">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="F115" s="15">
+        <f t="shared" si="55"/>
+        <v>18</v>
+      </c>
+      <c r="G115" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="H115" s="15">
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="I115" s="15">
+        <f t="shared" si="58"/>
+        <v>11</v>
+      </c>
+      <c r="J115" s="15">
+        <f t="shared" si="59"/>
+        <v>8</v>
+      </c>
+      <c r="K115" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L115" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M115" s="15">
+        <v>1</v>
+      </c>
+      <c r="N115" s="15">
+        <v>23</v>
+      </c>
+      <c r="O115" s="15"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="15">
+        <v>24</v>
+      </c>
+      <c r="B116" s="15">
+        <f t="shared" si="51"/>
+        <v>24</v>
+      </c>
+      <c r="C116" s="15">
+        <f t="shared" si="52"/>
+        <v>16</v>
+      </c>
+      <c r="D116" s="15">
+        <f t="shared" si="53"/>
+        <v>34</v>
+      </c>
+      <c r="E116" s="15">
+        <f t="shared" si="54"/>
+        <v>11</v>
+      </c>
+      <c r="F116" s="15">
+        <f t="shared" si="55"/>
+        <v>19</v>
+      </c>
+      <c r="G116" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H116" s="15">
+        <f t="shared" si="57"/>
+        <v>24</v>
+      </c>
+      <c r="I116" s="15">
+        <f t="shared" si="58"/>
+        <v>16</v>
+      </c>
+      <c r="J116" s="15">
+        <f t="shared" si="59"/>
+        <v>34</v>
+      </c>
+      <c r="K116" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L116" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M116" s="15">
+        <v>1</v>
+      </c>
+      <c r="N116" s="15">
+        <v>24</v>
+      </c>
+      <c r="O116" s="15"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="15">
+        <v>25</v>
+      </c>
+      <c r="B117" s="15">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="C117" s="15">
+        <f t="shared" si="52"/>
+        <v>30</v>
+      </c>
+      <c r="D117" s="15">
+        <f t="shared" si="53"/>
+        <v>15</v>
+      </c>
+      <c r="E117" s="15">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="F117" s="15">
+        <f t="shared" si="55"/>
+        <v>30</v>
+      </c>
+      <c r="G117" s="15">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="H117" s="15">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="I117" s="15">
+        <f t="shared" si="58"/>
+        <v>30</v>
+      </c>
+      <c r="J117" s="15">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="K117" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L117" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M117" s="15">
+        <v>15</v>
+      </c>
+      <c r="N117" s="15">
+        <v>25</v>
+      </c>
+      <c r="O117" s="15"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="15">
+        <v>26</v>
+      </c>
+      <c r="B118" s="15">
+        <f t="shared" si="51"/>
+        <v>26</v>
+      </c>
+      <c r="C118" s="15">
+        <f t="shared" si="52"/>
+        <v>11</v>
+      </c>
+      <c r="D118" s="15">
+        <f t="shared" si="53"/>
+        <v>6</v>
+      </c>
+      <c r="E118" s="15">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="F118" s="15">
+        <f t="shared" si="55"/>
+        <v>31</v>
+      </c>
+      <c r="G118" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H118" s="15">
+        <f t="shared" si="57"/>
+        <v>26</v>
+      </c>
+      <c r="I118" s="15">
+        <f t="shared" si="58"/>
+        <v>11</v>
+      </c>
+      <c r="J118" s="15">
+        <f t="shared" si="59"/>
+        <v>6</v>
+      </c>
+      <c r="K118" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L118" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M118" s="15">
+        <v>1</v>
+      </c>
+      <c r="N118" s="15">
+        <v>26</v>
+      </c>
+      <c r="O118" s="15"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="15">
+        <v>27</v>
+      </c>
+      <c r="B119" s="15">
+        <f t="shared" si="51"/>
+        <v>27</v>
+      </c>
+      <c r="C119" s="15">
+        <f t="shared" si="52"/>
+        <v>29</v>
+      </c>
+      <c r="D119" s="15">
+        <f t="shared" si="53"/>
+        <v>13</v>
+      </c>
+      <c r="E119" s="15">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="F119" s="15">
+        <f t="shared" si="55"/>
+        <v>27</v>
+      </c>
+      <c r="G119" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="H119" s="15">
+        <f t="shared" si="57"/>
+        <v>13</v>
+      </c>
+      <c r="I119" s="15">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="J119" s="15">
+        <f t="shared" si="59"/>
+        <v>27</v>
+      </c>
+      <c r="K119" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L119" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M119" s="15">
+        <v>1</v>
+      </c>
+      <c r="N119" s="15">
+        <v>27</v>
+      </c>
+      <c r="O119" s="15"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="15">
+        <v>28</v>
+      </c>
+      <c r="B120" s="15">
+        <f t="shared" si="51"/>
+        <v>28</v>
+      </c>
+      <c r="C120" s="15">
+        <f t="shared" si="52"/>
+        <v>14</v>
+      </c>
+      <c r="D120" s="15">
+        <f t="shared" si="53"/>
+        <v>7</v>
+      </c>
+      <c r="E120" s="15">
+        <f t="shared" si="54"/>
+        <v>21</v>
+      </c>
+      <c r="F120" s="15">
+        <f t="shared" si="55"/>
+        <v>28</v>
+      </c>
+      <c r="G120" s="15">
+        <f t="shared" si="56"/>
+        <v>14</v>
+      </c>
+      <c r="H120" s="15">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="I120" s="15">
+        <f t="shared" si="58"/>
+        <v>21</v>
+      </c>
+      <c r="J120" s="15">
+        <f t="shared" si="59"/>
+        <v>28</v>
+      </c>
+      <c r="K120" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L120" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M120" s="15">
+        <v>21</v>
+      </c>
+      <c r="N120" s="15">
+        <v>28</v>
+      </c>
+      <c r="O120" s="15"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="15">
+        <v>29</v>
+      </c>
+      <c r="B121" s="15">
+        <f t="shared" si="51"/>
+        <v>29</v>
+      </c>
+      <c r="C121" s="15">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="D121" s="15">
+        <f t="shared" si="53"/>
+        <v>29</v>
+      </c>
+      <c r="E121" s="15">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="F121" s="15">
+        <f t="shared" si="55"/>
+        <v>29</v>
+      </c>
+      <c r="G121" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H121" s="15">
+        <f t="shared" si="57"/>
+        <v>29</v>
+      </c>
+      <c r="I121" s="15">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="J121" s="15">
+        <f t="shared" si="59"/>
+        <v>29</v>
+      </c>
+      <c r="K121" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L121" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M121" s="15">
+        <v>1</v>
+      </c>
+      <c r="N121" s="15">
+        <v>29</v>
+      </c>
+      <c r="O121" s="15"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="15">
+        <v>30</v>
+      </c>
+      <c r="B122" s="15">
+        <f t="shared" si="51"/>
+        <v>30</v>
+      </c>
+      <c r="C122" s="15">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="D122" s="15">
+        <f t="shared" si="53"/>
+        <v>15</v>
+      </c>
+      <c r="E122" s="15">
+        <f t="shared" si="54"/>
+        <v>30</v>
+      </c>
+      <c r="F122" s="15">
+        <f t="shared" si="55"/>
+        <v>25</v>
+      </c>
+      <c r="G122" s="15">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="H122" s="15">
+        <f t="shared" si="57"/>
+        <v>30</v>
+      </c>
+      <c r="I122" s="15">
+        <f t="shared" si="58"/>
+        <v>25</v>
+      </c>
+      <c r="J122" s="15">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="K122" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L122" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M122" s="15">
+        <v>15</v>
+      </c>
+      <c r="N122" s="15">
+        <v>30</v>
+      </c>
+      <c r="O122" s="15"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="15">
+        <v>31</v>
+      </c>
+      <c r="B123" s="15">
+        <f t="shared" si="51"/>
+        <v>31</v>
+      </c>
+      <c r="C123" s="15">
+        <f t="shared" si="52"/>
+        <v>16</v>
+      </c>
+      <c r="D123" s="15">
+        <f t="shared" si="53"/>
+        <v>6</v>
+      </c>
+      <c r="E123" s="15">
+        <f t="shared" si="54"/>
+        <v>11</v>
+      </c>
+      <c r="F123" s="15">
+        <f t="shared" si="55"/>
+        <v>26</v>
+      </c>
+      <c r="G123" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H123" s="15">
+        <f t="shared" si="57"/>
+        <v>31</v>
+      </c>
+      <c r="I123" s="15">
+        <f t="shared" si="58"/>
+        <v>16</v>
+      </c>
+      <c r="J123" s="15">
+        <f t="shared" si="59"/>
+        <v>6</v>
+      </c>
+      <c r="K123" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L123" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M123" s="15">
+        <v>1</v>
+      </c>
+      <c r="N123" s="15">
+        <v>31</v>
+      </c>
+      <c r="O123" s="15"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="15">
+        <v>32</v>
+      </c>
+      <c r="B124" s="15">
+        <f t="shared" si="51"/>
+        <v>32</v>
+      </c>
+      <c r="C124" s="15">
+        <f t="shared" si="52"/>
+        <v>9</v>
+      </c>
+      <c r="D124" s="15">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="E124" s="15">
+        <f t="shared" si="54"/>
+        <v>11</v>
+      </c>
+      <c r="F124" s="15">
+        <f t="shared" si="55"/>
+        <v>2</v>
+      </c>
+      <c r="G124" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="H124" s="15">
+        <f t="shared" si="57"/>
+        <v>18</v>
+      </c>
+      <c r="I124" s="15">
+        <f t="shared" si="58"/>
+        <v>16</v>
+      </c>
+      <c r="J124" s="15">
+        <f t="shared" si="59"/>
+        <v>22</v>
+      </c>
+      <c r="K124" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L124" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M124" s="15">
+        <v>1</v>
+      </c>
+      <c r="N124" s="15">
+        <v>32</v>
+      </c>
+      <c r="O124" s="15"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="15">
+        <v>33</v>
+      </c>
+      <c r="B125" s="15">
+        <f t="shared" si="51"/>
+        <v>33</v>
+      </c>
+      <c r="C125" s="15">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="D125" s="15">
+        <f t="shared" si="53"/>
+        <v>27</v>
+      </c>
+      <c r="E125" s="15">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="F125" s="15">
+        <f t="shared" si="55"/>
+        <v>3</v>
+      </c>
+      <c r="G125" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="H125" s="15">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="I125" s="15">
+        <f t="shared" si="58"/>
+        <v>11</v>
+      </c>
+      <c r="J125" s="15">
+        <v>13</v>
+      </c>
+      <c r="K125" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L125" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M125" s="15">
+        <v>1</v>
+      </c>
+      <c r="N125" s="15">
+        <v>33</v>
+      </c>
+      <c r="O125" s="15"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="15">
+        <v>34</v>
+      </c>
+      <c r="B126" s="15">
+        <f t="shared" si="51"/>
+        <v>34</v>
+      </c>
+      <c r="C126" s="15">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="D126" s="15">
+        <f t="shared" si="53"/>
+        <v>34</v>
+      </c>
+      <c r="E126" s="15">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="F126" s="15">
+        <f t="shared" si="55"/>
+        <v>34</v>
+      </c>
+      <c r="G126" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H126" s="15">
+        <f t="shared" si="57"/>
+        <v>34</v>
+      </c>
+      <c r="I126" s="15">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="J126" s="15">
+        <v>34</v>
+      </c>
+      <c r="K126" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L126" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M126" s="15">
+        <v>1</v>
+      </c>
+      <c r="N126" s="15">
+        <v>34</v>
+      </c>
+      <c r="O126" s="15"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="15">
+        <v>35</v>
+      </c>
+      <c r="B127" s="15">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="C127" s="15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="D127" s="15">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="E127" s="15">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="F127" s="15">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="15">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="15">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="15">
+        <v>0</v>
+      </c>
+      <c r="K127" s="15" t="e">
+        <f t="shared" si="63"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L127" s="15" t="e">
+        <f t="shared" si="60"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M127" s="15">
+        <v>0</v>
+      </c>
+      <c r="N127" s="15">
+        <v>35</v>
+      </c>
+      <c r="O127" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0F9EED-117E-4FDC-870B-401E0787042E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E251D158-71A2-4DBC-A7E2-613B9932CADB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="7" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="TotientFunctions">'RSA Example'!$D$5:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2078,6 +2079,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2093,9 +2097,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2453,25 +2454,25 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="54" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="54" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="59"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="1" t="s">
@@ -2484,31 +2485,31 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="56"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="56"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19" t="s">
         <v>99</v>
@@ -4078,10 +4079,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U31" s="57" t="s">
+      <c r="U31" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="V31" s="57"/>
+      <c r="V31" s="60"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U32" t="s">
@@ -6518,10 +6519,10 @@
       <c r="Q56" s="4"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E57" s="58" t="s">
+      <c r="E57" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="F57" s="58"/>
+      <c r="F57" s="61"/>
       <c r="N57" s="51">
         <v>23</v>
       </c>
@@ -6874,8 +6875,8 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
@@ -7893,10 +7894,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CE62CC-EF82-4EB4-A697-0044799F4B7A}">
-  <dimension ref="A1:Y127"/>
+  <dimension ref="A1:Y138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="N117" sqref="N117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8045,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="15">
-        <f t="shared" ref="C8:D40" si="1">MOD(POWER($A8,B$4+1),$B$3)</f>
+        <f t="shared" ref="C8:C21" si="1">MOD(POWER($A8,B$4+1),$B$3)</f>
         <v>2</v>
       </c>
       <c r="D8" s="15">
@@ -8090,54 +8091,54 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
+      <c r="A9" s="54">
         <v>3</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="54">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="54">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="54">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="54">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="54">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="54">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="54">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="54">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="54">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
@@ -8196,54 +8197,54 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
+      <c r="A11" s="54">
         <v>5</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="54">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="54">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="54">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="54">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="54">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="54">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="54">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="54">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="54">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
@@ -8916,42 +8917,42 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="59">
+      <c r="A26" s="54">
         <v>3</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="54">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="54">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="54">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="54">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="54">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G26" s="54">
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="54">
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="I26" s="59">
+      <c r="I26" s="54">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="J26" s="59">
+      <c r="J26" s="54">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
@@ -8998,83 +8999,83 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="59">
+      <c r="A28" s="54">
         <v>5</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="54">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="54">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="54">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="54">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="54">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="54">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="54">
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="I28" s="59">
+      <c r="I28" s="54">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="54">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="59">
+      <c r="A29" s="54">
         <v>6</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="54">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="54">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="54">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="54">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="54">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="54">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="54">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="I29" s="59">
+      <c r="I29" s="54">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="J29" s="59">
+      <c r="J29" s="54">
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
@@ -9162,83 +9163,83 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="59">
+      <c r="A32" s="54">
         <v>9</v>
       </c>
-      <c r="B32" s="59">
+      <c r="B32" s="54">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="54">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="54">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="54">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="54">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="54">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="54">
         <f t="shared" si="18"/>
         <v>9</v>
       </c>
-      <c r="I32" s="59">
+      <c r="I32" s="54">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="J32" s="59">
+      <c r="J32" s="54">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="59">
+      <c r="A33" s="54">
         <v>10</v>
       </c>
-      <c r="B33" s="59">
+      <c r="B33" s="54">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="54">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="54">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="54">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="54">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="54">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="54">
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="I33" s="59">
+      <c r="I33" s="54">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="J33" s="59">
+      <c r="J33" s="54">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
@@ -9285,42 +9286,42 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="59">
+      <c r="A35" s="54">
         <v>12</v>
       </c>
-      <c r="B35" s="59">
+      <c r="B35" s="54">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="54">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="54">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="54">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="54">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="54">
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="54">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="I35" s="59">
+      <c r="I35" s="54">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="J35" s="59">
+      <c r="J35" s="54">
         <f t="shared" si="20"/>
         <v>12</v>
       </c>
@@ -9571,7 +9572,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="60">
+      <c r="A43" s="55">
         <v>3</v>
       </c>
       <c r="B43" s="15">
@@ -9612,7 +9613,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60">
+      <c r="A44" s="55">
         <v>4</v>
       </c>
       <c r="B44" s="15">
@@ -9653,7 +9654,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="60">
+      <c r="A45" s="55">
         <v>5</v>
       </c>
       <c r="B45" s="15">
@@ -9694,7 +9695,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="60">
+      <c r="A46" s="55">
         <v>6</v>
       </c>
       <c r="B46" s="15">
@@ -9735,7 +9736,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="60">
+      <c r="A47" s="55">
         <v>7</v>
       </c>
       <c r="B47" s="15">
@@ -9776,7 +9777,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="60">
+      <c r="A48" s="55">
         <v>8</v>
       </c>
       <c r="B48" s="15">
@@ -9817,7 +9818,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="60">
+      <c r="A49" s="55">
         <v>9</v>
       </c>
       <c r="B49" s="15">
@@ -9858,7 +9859,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="60">
+      <c r="A50" s="55">
         <v>10</v>
       </c>
       <c r="B50" s="15">
@@ -9899,7 +9900,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="60">
+      <c r="A51" s="55">
         <v>11</v>
       </c>
       <c r="B51" s="15">
@@ -9940,7 +9941,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="60">
+      <c r="A52" s="55">
         <v>12</v>
       </c>
       <c r="B52" s="15">
@@ -9981,7 +9982,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="60">
+      <c r="A53" s="55">
         <v>13</v>
       </c>
       <c r="B53" s="15">
@@ -10218,7 +10219,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="60">
+      <c r="A60" s="55">
         <v>3</v>
       </c>
       <c r="B60" s="15">
@@ -10259,7 +10260,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="60">
+      <c r="A61" s="55">
         <v>4</v>
       </c>
       <c r="B61" s="15">
@@ -10300,7 +10301,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="60">
+      <c r="A62" s="55">
         <v>5</v>
       </c>
       <c r="B62" s="15">
@@ -10341,7 +10342,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="60">
+      <c r="A63" s="55">
         <v>6</v>
       </c>
       <c r="B63" s="15">
@@ -10382,7 +10383,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="60">
+      <c r="A64" s="55">
         <v>7</v>
       </c>
       <c r="B64" s="15">
@@ -10423,7 +10424,7 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="60">
+      <c r="A65" s="55">
         <v>8</v>
       </c>
       <c r="B65" s="15">
@@ -10464,7 +10465,7 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="60">
+      <c r="A66" s="55">
         <v>9</v>
       </c>
       <c r="B66" s="15">
@@ -10505,7 +10506,7 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="60">
+      <c r="A67" s="55">
         <v>10</v>
       </c>
       <c r="B67" s="15">
@@ -10546,7 +10547,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="60">
+      <c r="A68" s="55">
         <v>11</v>
       </c>
       <c r="B68" s="15">
@@ -10587,7 +10588,7 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="60">
+      <c r="A69" s="55">
         <v>12</v>
       </c>
       <c r="B69" s="15">
@@ -10628,7 +10629,7 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="60">
+      <c r="A70" s="55">
         <v>13</v>
       </c>
       <c r="B70" s="15">
@@ -10805,11 +10806,11 @@
         <v>1</v>
       </c>
       <c r="B75" s="15">
-        <f>MOD(POWER($A75,1),$B$3)</f>
+        <f t="shared" ref="B75:B89" si="39">MOD(POWER($A75,1),$B$3)</f>
         <v>1</v>
       </c>
       <c r="C75" s="15">
-        <f>MOD(POWER($A75,2),$B$3)</f>
+        <f t="shared" ref="C75:C89" si="40">MOD(POWER($A75,2),$B$3)</f>
         <v>1</v>
       </c>
       <c r="D75" s="15">
@@ -10852,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="N75" s="15">
-        <f>MOD(POWER($A75,$B$4+1),$B$1)</f>
+        <f t="shared" ref="N75:N89" si="41">MOD(POWER($A75,$B$4+1),$B$1)</f>
         <v>1</v>
       </c>
       <c r="O75" s="15">
@@ -10873,814 +10874,814 @@
         <v>2</v>
       </c>
       <c r="B76" s="15">
-        <f>MOD(POWER($A76,1),$B$3)</f>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="C76" s="15">
-        <f>MOD(POWER($A76,2),$B$3)</f>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="D76" s="15">
-        <f t="shared" ref="D76:D89" si="39">MOD(POWER($A76,3),$B$3)</f>
+        <f t="shared" ref="D76:D89" si="42">MOD(POWER($A76,3),$B$3)</f>
         <v>8</v>
       </c>
       <c r="E76" s="15">
-        <f t="shared" ref="E76:E89" si="40">MOD(POWER($A76,4),$B$3)</f>
+        <f t="shared" ref="E76:E89" si="43">MOD(POWER($A76,4),$B$3)</f>
         <v>1</v>
       </c>
       <c r="F76" s="15">
-        <f t="shared" ref="F76:F89" si="41">MOD(POWER($A76,5),$B$3)</f>
+        <f t="shared" ref="F76:F89" si="44">MOD(POWER($A76,5),$B$3)</f>
         <v>2</v>
       </c>
       <c r="G76" s="15">
-        <f t="shared" ref="G76:G89" si="42">MOD(POWER($A76,6),$B$3)</f>
+        <f t="shared" ref="G76:G89" si="45">MOD(POWER($A76,6),$B$3)</f>
         <v>4</v>
       </c>
       <c r="H76" s="15">
-        <f t="shared" ref="H76:H89" si="43">MOD(POWER($A76,7),$B$3)</f>
+        <f t="shared" ref="H76:H89" si="46">MOD(POWER($A76,7),$B$3)</f>
         <v>8</v>
       </c>
       <c r="I76" s="15">
-        <f t="shared" ref="I76:I89" si="44">MOD(POWER($A76,8),$B$3)</f>
+        <f t="shared" ref="I76:I89" si="47">MOD(POWER($A76,8),$B$3)</f>
         <v>1</v>
       </c>
       <c r="J76" s="15">
-        <f t="shared" ref="J76:J89" si="45">MOD(POWER($A76,9),$B$3)</f>
+        <f t="shared" ref="J76:J89" si="48">MOD(POWER($A76,9),$B$3)</f>
         <v>2</v>
       </c>
       <c r="K76" t="s">
         <v>578</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" ref="L76:N89" si="46">MOD(POWER($A76,$B$4),$B$1)</f>
+        <f t="shared" ref="L76:L89" si="49">MOD(POWER($A76,$B$4),$B$1)</f>
         <v>1</v>
       </c>
       <c r="M76" s="15">
-        <f t="shared" ref="M76:O89" si="47">MOD(POWER($A76,$B$4),$B$2)</f>
+        <f t="shared" ref="M76:M89" si="50">MOD(POWER($A76,$B$4),$B$2)</f>
         <v>1</v>
       </c>
       <c r="N76" s="15">
-        <f>MOD(POWER($A76,$B$4+1),$B$1)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="O76" s="15">
-        <f t="shared" ref="O76:O89" si="48">MOD(POWER($A76,$B$4+1),$B$2)</f>
+        <f t="shared" ref="O76:O89" si="51">MOD(POWER($A76,$B$4+1),$B$2)</f>
         <v>2</v>
       </c>
       <c r="P76" s="15">
-        <f t="shared" ref="P76:P89" si="49">MOD(POWER($A76,$B$4+1)-$A76,$B$1)</f>
+        <f t="shared" ref="P76:P89" si="52">MOD(POWER($A76,$B$4+1)-$A76,$B$1)</f>
         <v>0</v>
       </c>
       <c r="Q76" s="15">
-        <f t="shared" ref="Q76:Q89" si="50">MOD(POWER($A76,$B$4+1)-$A76,$B$2)</f>
+        <f t="shared" ref="Q76:Q89" si="53">MOD(POWER($A76,$B$4+1)-$A76,$B$2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="60">
+      <c r="A77" s="55">
         <v>3</v>
       </c>
       <c r="B77" s="15">
-        <f>MOD(POWER($A77,1),$B$3)</f>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="C77" s="15">
-        <f>MOD(POWER($A77,2),$B$3)</f>
+        <f t="shared" si="40"/>
         <v>9</v>
       </c>
       <c r="D77" s="15">
+        <f t="shared" si="42"/>
+        <v>12</v>
+      </c>
+      <c r="E77" s="15">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="F77" s="15">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+      <c r="G77" s="15">
+        <f t="shared" si="45"/>
+        <v>9</v>
+      </c>
+      <c r="H77" s="15">
+        <f t="shared" si="46"/>
+        <v>12</v>
+      </c>
+      <c r="I77" s="15">
+        <f t="shared" si="47"/>
+        <v>6</v>
+      </c>
+      <c r="J77" s="15">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="K77" t="s">
+        <v>564</v>
+      </c>
+      <c r="L77" s="55">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="55">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="N77" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="15">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="P77" s="15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="15">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="55">
+        <v>4</v>
+      </c>
+      <c r="B78" s="15">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="C78" s="15">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="15">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="E78" s="15">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="F78" s="15">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="G78" s="15">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="H78" s="15">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="I78" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="J78" s="15">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="K78" t="s">
+        <v>566</v>
+      </c>
+      <c r="L78" s="15">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="M78" s="15">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="N78" s="15">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="O78" s="15">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="P78" s="15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="15">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="55">
+        <v>5</v>
+      </c>
+      <c r="B79" s="15">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="C79" s="15">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="D79" s="15">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="E79" s="15">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="F79" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="G79" s="15">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="H79" s="15">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="I79" s="15">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
+      <c r="J79" s="15">
+        <f t="shared" si="48"/>
+        <v>5</v>
+      </c>
+      <c r="K79" t="s">
+        <v>567</v>
+      </c>
+      <c r="L79" s="56">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="M79" s="56">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="15">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="O79" s="15">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="15">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="55">
+        <v>6</v>
+      </c>
+      <c r="B80" s="15">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="C80" s="15">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="D80" s="15">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="E80" s="15">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="F80" s="15">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="G80" s="15">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+      <c r="H80" s="15">
+        <f t="shared" si="46"/>
+        <v>6</v>
+      </c>
+      <c r="I80" s="15">
+        <f t="shared" si="47"/>
+        <v>6</v>
+      </c>
+      <c r="J80" s="15">
+        <f t="shared" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="K80" t="s">
+        <v>568</v>
+      </c>
+      <c r="L80" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="15">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="N80" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="15">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P80" s="15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="15">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A81" s="55">
+        <v>7</v>
+      </c>
+      <c r="B81" s="15">
+        <f t="shared" si="39"/>
+        <v>7</v>
+      </c>
+      <c r="C81" s="15">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="D81" s="15">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="E81" s="15">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="F81" s="15">
+        <f t="shared" si="44"/>
+        <v>7</v>
+      </c>
+      <c r="G81" s="15">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="H81" s="15">
+        <f t="shared" si="46"/>
+        <v>13</v>
+      </c>
+      <c r="I81" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="J81" s="15">
+        <f t="shared" si="48"/>
+        <v>7</v>
+      </c>
+      <c r="K81" t="s">
+        <v>569</v>
+      </c>
+      <c r="L81" s="15">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="M81" s="15">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="N81" s="15">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="O81" s="15">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="P81" s="15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="15">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A82" s="55">
+        <v>8</v>
+      </c>
+      <c r="B82" s="15">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="C82" s="15">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="D82" s="15">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="E82" s="15">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="F82" s="15">
+        <f t="shared" si="44"/>
+        <v>8</v>
+      </c>
+      <c r="G82" s="15">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="H82" s="15">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="I82" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="J82" s="15">
+        <f t="shared" si="48"/>
+        <v>8</v>
+      </c>
+      <c r="K82" t="s">
+        <v>570</v>
+      </c>
+      <c r="L82" s="15">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="M82" s="15">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="N82" s="15">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="O82" s="15">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="P82" s="15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="15">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A83" s="55">
+        <v>9</v>
+      </c>
+      <c r="B83" s="15">
+        <f t="shared" si="39"/>
+        <v>9</v>
+      </c>
+      <c r="C83" s="15">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="D83" s="15">
+        <f t="shared" si="42"/>
+        <v>9</v>
+      </c>
+      <c r="E83" s="15">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="F83" s="15">
+        <f t="shared" si="44"/>
+        <v>9</v>
+      </c>
+      <c r="G83" s="15">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+      <c r="H83" s="15">
+        <f t="shared" si="46"/>
+        <v>9</v>
+      </c>
+      <c r="I83" s="15">
+        <f t="shared" si="47"/>
+        <v>6</v>
+      </c>
+      <c r="J83" s="15">
+        <f t="shared" si="48"/>
+        <v>9</v>
+      </c>
+      <c r="K83" t="s">
+        <v>565</v>
+      </c>
+      <c r="L83" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="15">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="N83" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="15">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="P83" s="15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="15">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A84" s="55">
+        <v>10</v>
+      </c>
+      <c r="B84" s="15">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+      <c r="C84" s="15">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="D84" s="15">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="E84" s="15">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="F84" s="15">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="G84" s="15">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="H84" s="15">
+        <f t="shared" si="46"/>
+        <v>10</v>
+      </c>
+      <c r="I84" s="15">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
+      <c r="J84" s="15">
+        <f t="shared" si="48"/>
+        <v>10</v>
+      </c>
+      <c r="K84" t="s">
+        <v>571</v>
+      </c>
+      <c r="L84" s="15">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="M84" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="15">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="O84" s="15">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="15">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A85" s="55">
+        <v>11</v>
+      </c>
+      <c r="B85" s="15">
+        <f t="shared" si="39"/>
+        <v>11</v>
+      </c>
+      <c r="C85" s="15">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="15">
+        <f t="shared" si="42"/>
+        <v>11</v>
+      </c>
+      <c r="E85" s="15">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="15">
+        <f t="shared" si="44"/>
+        <v>11</v>
+      </c>
+      <c r="G85" s="15">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="H85" s="15">
+        <f t="shared" si="46"/>
+        <v>11</v>
+      </c>
+      <c r="I85" s="15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="J85" s="15">
+        <f t="shared" si="48"/>
+        <v>11</v>
+      </c>
+      <c r="K85" t="s">
+        <v>572</v>
+      </c>
+      <c r="L85" s="15">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="M85" s="15">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="N85" s="15">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="O85" s="15">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P85" s="15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="15">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A86" s="55">
+        <v>12</v>
+      </c>
+      <c r="B86" s="15">
         <f t="shared" si="39"/>
         <v>12</v>
       </c>
-      <c r="E77" s="15">
+      <c r="C86" s="15">
         <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="D86" s="15">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="E86" s="15">
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F86" s="15">
+        <f t="shared" si="44"/>
+        <v>12</v>
+      </c>
+      <c r="G86" s="15">
+        <f t="shared" si="45"/>
+        <v>9</v>
+      </c>
+      <c r="H86" s="15">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="I86" s="15">
+        <f t="shared" si="47"/>
+        <v>6</v>
+      </c>
+      <c r="J86" s="15">
+        <f t="shared" si="48"/>
+        <v>12</v>
+      </c>
+      <c r="K86" t="s">
+        <v>573</v>
+      </c>
+      <c r="L86" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="15">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="N86" s="15">
         <f t="shared" si="41"/>
-        <v>3</v>
-      </c>
-      <c r="G77" s="15">
+        <v>0</v>
+      </c>
+      <c r="O86" s="15">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="P86" s="15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="15">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A87" s="55">
+        <v>13</v>
+      </c>
+      <c r="B87" s="15">
+        <f t="shared" si="39"/>
+        <v>13</v>
+      </c>
+      <c r="C87" s="15">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="D87" s="15">
         <f t="shared" si="42"/>
-        <v>9</v>
-      </c>
-      <c r="H77" s="15">
+        <v>7</v>
+      </c>
+      <c r="E87" s="15">
         <f t="shared" si="43"/>
-        <v>12</v>
-      </c>
-      <c r="I77" s="15">
+        <v>1</v>
+      </c>
+      <c r="F87" s="15">
         <f t="shared" si="44"/>
-        <v>6</v>
-      </c>
-      <c r="J77" s="15">
-        <f t="shared" si="45"/>
-        <v>3</v>
-      </c>
-      <c r="K77" t="s">
-        <v>564</v>
-      </c>
-      <c r="L77" s="60">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="60">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="N77" s="15">
-        <f>MOD(POWER($A77,$B$4+1),$B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O77" s="15">
-        <f t="shared" si="48"/>
-        <v>3</v>
-      </c>
-      <c r="P77" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="60">
-        <v>4</v>
-      </c>
-      <c r="B78" s="15">
-        <f>MOD(POWER($A78,1),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="C78" s="15">
-        <f>MOD(POWER($A78,2),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="D78" s="15">
-        <f t="shared" si="39"/>
-        <v>4</v>
-      </c>
-      <c r="E78" s="15">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="F78" s="15">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="G78" s="15">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="H78" s="15">
-        <f t="shared" si="43"/>
-        <v>4</v>
-      </c>
-      <c r="I78" s="15">
-        <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="J78" s="15">
+        <v>13</v>
+      </c>
+      <c r="G87" s="15">
         <f t="shared" si="45"/>
         <v>4</v>
       </c>
-      <c r="K78" t="s">
-        <v>566</v>
-      </c>
-      <c r="L78" s="15">
+      <c r="H87" s="15">
         <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="M78" s="15">
+        <v>7</v>
+      </c>
+      <c r="I87" s="15">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="N78" s="15">
-        <f>MOD(POWER($A78,$B$4+1),$B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="O78" s="15">
+      <c r="J87" s="15">
         <f t="shared" si="48"/>
-        <v>4</v>
-      </c>
-      <c r="P78" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q78" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="60">
-        <v>5</v>
-      </c>
-      <c r="B79" s="15">
-        <f>MOD(POWER($A79,1),$B$3)</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="15">
-        <f>MOD(POWER($A79,2),$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="D79" s="15">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="E79" s="15">
-        <f t="shared" si="40"/>
-        <v>10</v>
-      </c>
-      <c r="F79" s="15">
-        <f t="shared" si="41"/>
-        <v>5</v>
-      </c>
-      <c r="G79" s="15">
-        <f t="shared" si="42"/>
-        <v>10</v>
-      </c>
-      <c r="H79" s="15">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="I79" s="15">
-        <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="J79" s="15">
-        <f t="shared" si="45"/>
-        <v>5</v>
-      </c>
-      <c r="K79" t="s">
-        <v>567</v>
-      </c>
-      <c r="L79" s="61">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="M79" s="61">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="15">
-        <f>MOD(POWER($A79,$B$4+1),$B$1)</f>
-        <v>2</v>
-      </c>
-      <c r="O79" s="15">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="60">
-        <v>6</v>
-      </c>
-      <c r="B80" s="15">
-        <f>MOD(POWER($A80,1),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="C80" s="15">
-        <f>MOD(POWER($A80,2),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="D80" s="15">
-        <f t="shared" si="39"/>
-        <v>6</v>
-      </c>
-      <c r="E80" s="15">
-        <f t="shared" si="40"/>
-        <v>6</v>
-      </c>
-      <c r="F80" s="15">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="G80" s="15">
-        <f t="shared" si="42"/>
-        <v>6</v>
-      </c>
-      <c r="H80" s="15">
-        <f t="shared" si="43"/>
-        <v>6</v>
-      </c>
-      <c r="I80" s="15">
-        <f t="shared" si="44"/>
-        <v>6</v>
-      </c>
-      <c r="J80" s="15">
-        <f t="shared" si="45"/>
-        <v>6</v>
-      </c>
-      <c r="K80" t="s">
-        <v>568</v>
-      </c>
-      <c r="L80" s="15">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="15">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="N80" s="15">
-        <f>MOD(POWER($A80,$B$4+1),$B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O80" s="15">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="P80" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q80" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="60">
-        <v>7</v>
-      </c>
-      <c r="B81" s="15">
-        <f>MOD(POWER($A81,1),$B$3)</f>
-        <v>7</v>
-      </c>
-      <c r="C81" s="15">
-        <f>MOD(POWER($A81,2),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="D81" s="15">
-        <f t="shared" si="39"/>
-        <v>13</v>
-      </c>
-      <c r="E81" s="15">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="F81" s="15">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="G81" s="15">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="H81" s="15">
-        <f t="shared" si="43"/>
-        <v>13</v>
-      </c>
-      <c r="I81" s="15">
-        <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="J81" s="15">
-        <f t="shared" si="45"/>
-        <v>7</v>
-      </c>
-      <c r="K81" t="s">
-        <v>569</v>
-      </c>
-      <c r="L81" s="15">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="M81" s="15">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="N81" s="15">
-        <f>MOD(POWER($A81,$B$4+1),$B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="O81" s="15">
-        <f t="shared" si="48"/>
-        <v>2</v>
-      </c>
-      <c r="P81" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q81" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="60">
-        <v>8</v>
-      </c>
-      <c r="B82" s="15">
-        <f>MOD(POWER($A82,1),$B$3)</f>
-        <v>8</v>
-      </c>
-      <c r="C82" s="15">
-        <f>MOD(POWER($A82,2),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="D82" s="15">
-        <f t="shared" si="39"/>
-        <v>2</v>
-      </c>
-      <c r="E82" s="15">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="F82" s="15">
-        <f t="shared" si="41"/>
-        <v>8</v>
-      </c>
-      <c r="G82" s="15">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="H82" s="15">
-        <f t="shared" si="43"/>
-        <v>2</v>
-      </c>
-      <c r="I82" s="15">
-        <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="J82" s="15">
-        <f t="shared" si="45"/>
-        <v>8</v>
-      </c>
-      <c r="K82" t="s">
-        <v>570</v>
-      </c>
-      <c r="L82" s="15">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="M82" s="15">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="N82" s="15">
-        <f>MOD(POWER($A82,$B$4+1),$B$1)</f>
-        <v>2</v>
-      </c>
-      <c r="O82" s="15">
-        <f t="shared" si="48"/>
-        <v>3</v>
-      </c>
-      <c r="P82" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q82" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="60">
-        <v>9</v>
-      </c>
-      <c r="B83" s="15">
-        <f>MOD(POWER($A83,1),$B$3)</f>
-        <v>9</v>
-      </c>
-      <c r="C83" s="15">
-        <f>MOD(POWER($A83,2),$B$3)</f>
-        <v>6</v>
-      </c>
-      <c r="D83" s="15">
-        <f t="shared" si="39"/>
-        <v>9</v>
-      </c>
-      <c r="E83" s="15">
-        <f t="shared" si="40"/>
-        <v>6</v>
-      </c>
-      <c r="F83" s="15">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="G83" s="15">
-        <f t="shared" si="42"/>
-        <v>6</v>
-      </c>
-      <c r="H83" s="15">
-        <f t="shared" si="43"/>
-        <v>9</v>
-      </c>
-      <c r="I83" s="15">
-        <f t="shared" si="44"/>
-        <v>6</v>
-      </c>
-      <c r="J83" s="15">
-        <f t="shared" si="45"/>
-        <v>9</v>
-      </c>
-      <c r="K83" t="s">
-        <v>565</v>
-      </c>
-      <c r="L83" s="15">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="15">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="N83" s="15">
-        <f>MOD(POWER($A83,$B$4+1),$B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O83" s="15">
-        <f t="shared" si="48"/>
-        <v>4</v>
-      </c>
-      <c r="P83" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q83" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="60">
-        <v>10</v>
-      </c>
-      <c r="B84" s="15">
-        <f>MOD(POWER($A84,1),$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="C84" s="15">
-        <f>MOD(POWER($A84,2),$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="D84" s="15">
-        <f t="shared" si="39"/>
-        <v>10</v>
-      </c>
-      <c r="E84" s="15">
-        <f t="shared" si="40"/>
-        <v>10</v>
-      </c>
-      <c r="F84" s="15">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="G84" s="15">
-        <f t="shared" si="42"/>
-        <v>10</v>
-      </c>
-      <c r="H84" s="15">
-        <f t="shared" si="43"/>
-        <v>10</v>
-      </c>
-      <c r="I84" s="15">
-        <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="J84" s="15">
-        <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="K84" t="s">
-        <v>571</v>
-      </c>
-      <c r="L84" s="15">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="M84" s="15">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="15">
-        <f>MOD(POWER($A84,$B$4+1),$B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="O84" s="15">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="P84" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q84" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="60">
-        <v>11</v>
-      </c>
-      <c r="B85" s="15">
-        <f>MOD(POWER($A85,1),$B$3)</f>
-        <v>11</v>
-      </c>
-      <c r="C85" s="15">
-        <f>MOD(POWER($A85,2),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="D85" s="15">
-        <f t="shared" si="39"/>
-        <v>11</v>
-      </c>
-      <c r="E85" s="15">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="F85" s="15">
-        <f t="shared" si="41"/>
-        <v>11</v>
-      </c>
-      <c r="G85" s="15">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="H85" s="15">
-        <f t="shared" si="43"/>
-        <v>11</v>
-      </c>
-      <c r="I85" s="15">
-        <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="J85" s="15">
-        <f t="shared" si="45"/>
-        <v>11</v>
-      </c>
-      <c r="K85" t="s">
-        <v>572</v>
-      </c>
-      <c r="L85" s="15">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="M85" s="15">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="N85" s="15">
-        <f>MOD(POWER($A85,$B$4+1),$B$1)</f>
-        <v>2</v>
-      </c>
-      <c r="O85" s="15">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="P85" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q85" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="60">
-        <v>12</v>
-      </c>
-      <c r="B86" s="15">
-        <f>MOD(POWER($A86,1),$B$3)</f>
-        <v>12</v>
-      </c>
-      <c r="C86" s="15">
-        <f>MOD(POWER($A86,2),$B$3)</f>
-        <v>9</v>
-      </c>
-      <c r="D86" s="15">
-        <f t="shared" si="39"/>
-        <v>3</v>
-      </c>
-      <c r="E86" s="15">
-        <f t="shared" si="40"/>
-        <v>6</v>
-      </c>
-      <c r="F86" s="15">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="G86" s="15">
-        <f t="shared" si="42"/>
-        <v>9</v>
-      </c>
-      <c r="H86" s="15">
-        <f t="shared" si="43"/>
-        <v>3</v>
-      </c>
-      <c r="I86" s="15">
-        <f t="shared" si="44"/>
-        <v>6</v>
-      </c>
-      <c r="J86" s="15">
-        <f t="shared" si="45"/>
-        <v>12</v>
-      </c>
-      <c r="K86" t="s">
-        <v>573</v>
-      </c>
-      <c r="L86" s="15">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="15">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="N86" s="15">
-        <f>MOD(POWER($A86,$B$4+1),$B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O86" s="15">
-        <f t="shared" si="48"/>
-        <v>2</v>
-      </c>
-      <c r="P86" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q86" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="60">
-        <v>13</v>
-      </c>
-      <c r="B87" s="15">
-        <f>MOD(POWER($A87,1),$B$3)</f>
-        <v>13</v>
-      </c>
-      <c r="C87" s="15">
-        <f>MOD(POWER($A87,2),$B$3)</f>
-        <v>4</v>
-      </c>
-      <c r="D87" s="15">
-        <f t="shared" si="39"/>
-        <v>7</v>
-      </c>
-      <c r="E87" s="15">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="F87" s="15">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="G87" s="15">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="H87" s="15">
-        <f t="shared" si="43"/>
-        <v>7</v>
-      </c>
-      <c r="I87" s="15">
-        <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="J87" s="15">
-        <f t="shared" si="45"/>
         <v>13</v>
       </c>
       <c r="K87" t="s">
         <v>574</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="M87" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="N87" s="15">
-        <f>MOD(POWER($A87,$B$4+1),$B$1)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="O87" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q87" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -11689,66 +11690,66 @@
         <v>14</v>
       </c>
       <c r="B88" s="15">
-        <f>MOD(POWER($A88,1),$B$3)</f>
-        <v>14</v>
-      </c>
-      <c r="C88" s="15">
-        <f>MOD(POWER($A88,2),$B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="D88" s="15">
         <f t="shared" si="39"/>
         <v>14</v>
       </c>
+      <c r="C88" s="15">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="15">
+        <f t="shared" si="42"/>
+        <v>14</v>
+      </c>
       <c r="E88" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="F88" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>14</v>
       </c>
       <c r="G88" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="H88" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="I88" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="J88" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>14</v>
       </c>
       <c r="K88" t="s">
         <v>575</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="M88" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="N88" s="15">
-        <f>MOD(POWER($A88,$B$4+1),$B$1)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="O88" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>4</v>
       </c>
       <c r="P88" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q88" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -11757,66 +11758,66 @@
         <v>15</v>
       </c>
       <c r="B89" s="15">
-        <f>MOD(POWER($A89,1),$B$3)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="C89" s="15">
-        <f>MOD(POWER($A89,2),$B$3)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K89" t="s">
         <v>576</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N89" s="15">
-        <f>MOD(POWER($A89,$B$4+1),$B$1)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -11938,39 +11939,39 @@
         <v>2</v>
       </c>
       <c r="B94" s="15">
-        <f t="shared" ref="B94:B127" si="51">MOD(POWER($A94,1),35)</f>
+        <f t="shared" ref="B94:B127" si="54">MOD(POWER($A94,1),35)</f>
         <v>2</v>
       </c>
       <c r="C94" s="15">
-        <f t="shared" ref="C94:C127" si="52">MOD(POWER($A94,2),35)</f>
+        <f t="shared" ref="C94:C127" si="55">MOD(POWER($A94,2),35)</f>
         <v>4</v>
       </c>
       <c r="D94" s="15">
-        <f t="shared" ref="D94:D127" si="53">MOD(POWER($A94,3),35)</f>
+        <f t="shared" ref="D94:D127" si="56">MOD(POWER($A94,3),35)</f>
         <v>8</v>
       </c>
       <c r="E94" s="15">
-        <f t="shared" ref="E94:E127" si="54">MOD(POWER($A94,4),35)</f>
+        <f t="shared" ref="E94:E127" si="57">MOD(POWER($A94,4),35)</f>
         <v>16</v>
       </c>
       <c r="F94" s="15">
-        <f t="shared" ref="F94:F127" si="55">MOD(POWER($A94,5),35)</f>
+        <f t="shared" ref="F94:F127" si="58">MOD(POWER($A94,5),35)</f>
         <v>32</v>
       </c>
       <c r="G94" s="15">
-        <f t="shared" ref="G94:G127" si="56">MOD(POWER($A94,6),35)</f>
+        <f t="shared" ref="G94:G127" si="59">MOD(POWER($A94,6),35)</f>
         <v>29</v>
       </c>
       <c r="H94" s="15">
-        <f t="shared" ref="H94:H127" si="57">MOD(POWER($A94,7),35)</f>
+        <f t="shared" ref="H94:H127" si="60">MOD(POWER($A94,7),35)</f>
         <v>23</v>
       </c>
       <c r="I94" s="15">
-        <f t="shared" ref="I94:I127" si="58">MOD(POWER($A94,8),35)</f>
+        <f t="shared" ref="I94:I127" si="61">MOD(POWER($A94,8),35)</f>
         <v>11</v>
       </c>
       <c r="J94" s="15">
-        <f t="shared" ref="J94:J127" si="59">MOD(POWER($A94,9),35)</f>
+        <f t="shared" ref="J94:J124" si="62">MOD(POWER($A94,9),35)</f>
         <v>22</v>
       </c>
       <c r="K94" s="15">
@@ -11978,57 +11979,57 @@
         <v>9</v>
       </c>
       <c r="L94" s="15">
-        <f t="shared" ref="L94:L127" si="60">MOD(POWER($A94,11),35)</f>
+        <f t="shared" ref="L94:L127" si="63">MOD(POWER($A94,11),35)</f>
         <v>18</v>
       </c>
       <c r="M94" s="15">
-        <f t="shared" ref="M94:M127" si="61">MOD(POWER($A94,12),35)</f>
+        <f t="shared" ref="M94:M105" si="64">MOD(POWER($A94,12),35)</f>
         <v>1</v>
       </c>
       <c r="N94" s="15">
-        <f t="shared" ref="N94:N127" si="62">MOD(POWER($A94,13),35)</f>
+        <f t="shared" ref="N94:N103" si="65">MOD(POWER($A94,13),35)</f>
         <v>2</v>
       </c>
       <c r="O94" s="15"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="60">
+      <c r="A95" s="55">
         <v>3</v>
       </c>
       <c r="B95" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="C95" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>9</v>
       </c>
       <c r="D95" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>27</v>
       </c>
       <c r="E95" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>11</v>
       </c>
       <c r="F95" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>33</v>
       </c>
       <c r="G95" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>29</v>
       </c>
       <c r="H95" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>17</v>
       </c>
       <c r="I95" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>16</v>
       </c>
       <c r="J95" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>13</v>
       </c>
       <c r="K95" s="15">
@@ -12036,57 +12037,57 @@
         <v>4</v>
       </c>
       <c r="L95" s="15">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+      <c r="M95" s="15">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="N95" s="15">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="O95" s="15"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A96" s="55">
+        <v>4</v>
+      </c>
+      <c r="B96" s="15">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="C96" s="15">
+        <f t="shared" si="55"/>
+        <v>16</v>
+      </c>
+      <c r="D96" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="E96" s="15">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="F96" s="15">
+        <f t="shared" si="58"/>
+        <v>9</v>
+      </c>
+      <c r="G96" s="15">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="H96" s="15">
         <f t="shared" si="60"/>
-        <v>12</v>
-      </c>
-      <c r="M95" s="15">
+        <v>4</v>
+      </c>
+      <c r="I96" s="15">
         <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="N95" s="15">
+        <v>16</v>
+      </c>
+      <c r="J96" s="15">
         <f t="shared" si="62"/>
-        <v>3</v>
-      </c>
-      <c r="O95" s="15"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="60">
-        <v>4</v>
-      </c>
-      <c r="B96" s="15">
-        <f t="shared" si="51"/>
-        <v>4</v>
-      </c>
-      <c r="C96" s="15">
-        <f t="shared" si="52"/>
-        <v>16</v>
-      </c>
-      <c r="D96" s="15">
-        <f t="shared" si="53"/>
-        <v>29</v>
-      </c>
-      <c r="E96" s="15">
-        <f t="shared" si="54"/>
-        <v>11</v>
-      </c>
-      <c r="F96" s="15">
-        <f t="shared" si="55"/>
-        <v>9</v>
-      </c>
-      <c r="G96" s="15">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="H96" s="15">
-        <f t="shared" si="57"/>
-        <v>4</v>
-      </c>
-      <c r="I96" s="15">
-        <f t="shared" si="58"/>
-        <v>16</v>
-      </c>
-      <c r="J96" s="15">
-        <f t="shared" si="59"/>
         <v>29</v>
       </c>
       <c r="K96" s="15">
@@ -12094,475 +12095,475 @@
         <v>11</v>
       </c>
       <c r="L96" s="15">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+      <c r="M96" s="15">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="N96" s="15">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="O96" s="15"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="55">
+        <v>5</v>
+      </c>
+      <c r="B97" s="15">
+        <f t="shared" si="54"/>
+        <v>5</v>
+      </c>
+      <c r="C97" s="15">
+        <f t="shared" si="55"/>
+        <v>25</v>
+      </c>
+      <c r="D97" s="15">
+        <f t="shared" si="56"/>
+        <v>20</v>
+      </c>
+      <c r="E97" s="15">
+        <f t="shared" si="57"/>
+        <v>30</v>
+      </c>
+      <c r="F97" s="15">
+        <f t="shared" si="58"/>
+        <v>10</v>
+      </c>
+      <c r="G97" s="15">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="H97" s="15">
+        <f t="shared" si="60"/>
+        <v>5</v>
+      </c>
+      <c r="I97" s="15">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="J97" s="15">
+        <f t="shared" si="62"/>
+        <v>20</v>
+      </c>
+      <c r="K97" s="15">
+        <f t="shared" ref="K97:K127" si="66">MOD(POWER($A97,10),35)</f>
+        <v>30</v>
+      </c>
+      <c r="L97" s="15">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+      <c r="M97" s="15">
+        <f t="shared" si="64"/>
+        <v>15</v>
+      </c>
+      <c r="N97" s="15">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="O97" s="15"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="55">
+        <v>6</v>
+      </c>
+      <c r="B98" s="15">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="C98" s="15">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="15">
+        <f t="shared" si="56"/>
+        <v>6</v>
+      </c>
+      <c r="E98" s="15">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="F98" s="15">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+      <c r="G98" s="15">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="H98" s="15">
+        <f t="shared" si="60"/>
+        <v>6</v>
+      </c>
+      <c r="I98" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="J98" s="15">
+        <f t="shared" si="62"/>
+        <v>6</v>
+      </c>
+      <c r="K98" s="15">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="L98" s="15">
+        <f t="shared" si="63"/>
+        <v>6</v>
+      </c>
+      <c r="M98" s="15">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="N98" s="15">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+      <c r="O98" s="15"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="55">
+        <v>7</v>
+      </c>
+      <c r="B99" s="15">
+        <f t="shared" si="54"/>
+        <v>7</v>
+      </c>
+      <c r="C99" s="15">
+        <f t="shared" si="55"/>
+        <v>14</v>
+      </c>
+      <c r="D99" s="15">
+        <f t="shared" si="56"/>
+        <v>28</v>
+      </c>
+      <c r="E99" s="15">
+        <f t="shared" si="57"/>
+        <v>21</v>
+      </c>
+      <c r="F99" s="15">
+        <f t="shared" si="58"/>
+        <v>7</v>
+      </c>
+      <c r="G99" s="15">
+        <f t="shared" si="59"/>
+        <v>14</v>
+      </c>
+      <c r="H99" s="15">
+        <f t="shared" si="60"/>
+        <v>28</v>
+      </c>
+      <c r="I99" s="15">
+        <f t="shared" si="61"/>
+        <v>21</v>
+      </c>
+      <c r="J99" s="15">
+        <f t="shared" si="62"/>
+        <v>7</v>
+      </c>
+      <c r="K99" s="15">
+        <f t="shared" si="66"/>
+        <v>14</v>
+      </c>
+      <c r="L99" s="15">
+        <f t="shared" si="63"/>
+        <v>28</v>
+      </c>
+      <c r="M99" s="15">
+        <f t="shared" si="64"/>
+        <v>21</v>
+      </c>
+      <c r="N99" s="15">
+        <f t="shared" si="65"/>
+        <v>7</v>
+      </c>
+      <c r="O99" s="15"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="55">
+        <v>8</v>
+      </c>
+      <c r="B100" s="15">
+        <f t="shared" si="54"/>
+        <v>8</v>
+      </c>
+      <c r="C100" s="15">
+        <f t="shared" si="55"/>
+        <v>29</v>
+      </c>
+      <c r="D100" s="15">
+        <f t="shared" si="56"/>
+        <v>22</v>
+      </c>
+      <c r="E100" s="15">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="F100" s="15">
+        <f t="shared" si="58"/>
+        <v>8</v>
+      </c>
+      <c r="G100" s="15">
+        <f t="shared" si="59"/>
+        <v>29</v>
+      </c>
+      <c r="H100" s="15">
+        <f t="shared" si="60"/>
+        <v>22</v>
+      </c>
+      <c r="I100" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="J100" s="15">
+        <f t="shared" si="62"/>
+        <v>8</v>
+      </c>
+      <c r="K100" s="15">
+        <f t="shared" si="66"/>
+        <v>29</v>
+      </c>
+      <c r="L100" s="15">
+        <f t="shared" si="63"/>
+        <v>22</v>
+      </c>
+      <c r="M100" s="15">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="N100" s="15">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="O100" s="15"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="55">
+        <v>9</v>
+      </c>
+      <c r="B101" s="15">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="C101" s="15">
+        <f t="shared" si="55"/>
+        <v>11</v>
+      </c>
+      <c r="D101" s="15">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="E101" s="15">
+        <f t="shared" si="57"/>
+        <v>16</v>
+      </c>
+      <c r="F101" s="15">
+        <f t="shared" si="58"/>
+        <v>4</v>
+      </c>
+      <c r="G101" s="15">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="H101" s="15">
         <f t="shared" si="60"/>
         <v>9</v>
       </c>
-      <c r="M96" s="15">
+      <c r="I101" s="15">
         <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="N96" s="15">
+        <v>11</v>
+      </c>
+      <c r="J101" s="15">
         <f t="shared" si="62"/>
+        <v>29</v>
+      </c>
+      <c r="K101" s="15">
+        <f t="shared" si="66"/>
+        <v>16</v>
+      </c>
+      <c r="L101" s="15">
+        <f t="shared" si="63"/>
         <v>4</v>
       </c>
-      <c r="O96" s="15"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="60">
+      <c r="M101" s="15">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="N101" s="15">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="O101" s="15"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="55">
+        <v>10</v>
+      </c>
+      <c r="B102" s="15">
+        <f t="shared" si="54"/>
+        <v>10</v>
+      </c>
+      <c r="C102" s="15">
+        <f t="shared" si="55"/>
+        <v>30</v>
+      </c>
+      <c r="D102" s="15">
+        <f t="shared" si="56"/>
+        <v>20</v>
+      </c>
+      <c r="E102" s="15">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="F102" s="15">
+        <f t="shared" si="58"/>
         <v>5</v>
       </c>
-      <c r="B97" s="15">
-        <f t="shared" si="51"/>
-        <v>5</v>
-      </c>
-      <c r="C97" s="15">
-        <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="D97" s="15">
-        <f t="shared" si="53"/>
-        <v>20</v>
-      </c>
-      <c r="E97" s="15">
-        <f t="shared" si="54"/>
-        <v>30</v>
-      </c>
-      <c r="F97" s="15">
-        <f t="shared" si="55"/>
-        <v>10</v>
-      </c>
-      <c r="G97" s="15">
-        <f t="shared" si="56"/>
+      <c r="G102" s="15">
+        <f t="shared" si="59"/>
         <v>15</v>
       </c>
-      <c r="H97" s="15">
-        <f t="shared" si="57"/>
-        <v>5</v>
-      </c>
-      <c r="I97" s="15">
-        <f t="shared" si="58"/>
-        <v>25</v>
-      </c>
-      <c r="J97" s="15">
-        <f t="shared" si="59"/>
-        <v>20</v>
-      </c>
-      <c r="K97" s="15">
-        <f t="shared" ref="K97:K127" si="63">MOD(POWER($A97,10),35)</f>
-        <v>30</v>
-      </c>
-      <c r="L97" s="15">
+      <c r="H102" s="15">
         <f t="shared" si="60"/>
         <v>10</v>
       </c>
-      <c r="M97" s="15">
+      <c r="I102" s="15">
         <f t="shared" si="61"/>
+        <v>30</v>
+      </c>
+      <c r="J102" s="15">
+        <f t="shared" si="62"/>
+        <v>20</v>
+      </c>
+      <c r="K102" s="15">
+        <f t="shared" si="66"/>
+        <v>25</v>
+      </c>
+      <c r="L102" s="15">
+        <f t="shared" si="63"/>
+        <v>5</v>
+      </c>
+      <c r="M102" s="15">
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
-      <c r="N97" s="15">
+      <c r="N102" s="15">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="O102" s="15"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="55">
+        <v>11</v>
+      </c>
+      <c r="B103" s="15">
+        <f t="shared" si="54"/>
+        <v>11</v>
+      </c>
+      <c r="C103" s="15">
+        <f t="shared" si="55"/>
+        <v>16</v>
+      </c>
+      <c r="D103" s="15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="15">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="F103" s="15">
+        <f t="shared" si="58"/>
+        <v>16</v>
+      </c>
+      <c r="G103" s="15">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="H103" s="15">
+        <f t="shared" si="60"/>
+        <v>11</v>
+      </c>
+      <c r="I103" s="15">
+        <f t="shared" si="61"/>
+        <v>16</v>
+      </c>
+      <c r="J103" s="15">
         <f t="shared" si="62"/>
-        <v>5</v>
-      </c>
-      <c r="O97" s="15"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="60">
-        <v>6</v>
-      </c>
-      <c r="B98" s="15">
-        <f t="shared" si="51"/>
-        <v>6</v>
-      </c>
-      <c r="C98" s="15">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="D98" s="15">
-        <f t="shared" si="53"/>
-        <v>6</v>
-      </c>
-      <c r="E98" s="15">
+        <v>1</v>
+      </c>
+      <c r="K103" s="15">
+        <f t="shared" si="66"/>
+        <v>11</v>
+      </c>
+      <c r="L103" s="15">
+        <f t="shared" si="63"/>
+        <v>16</v>
+      </c>
+      <c r="M103" s="15">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="N103" s="15">
+        <f t="shared" si="65"/>
+        <v>11</v>
+      </c>
+      <c r="O103" s="15"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="55">
+        <v>12</v>
+      </c>
+      <c r="B104" s="15">
         <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="F98" s="15">
-        <f t="shared" si="55"/>
-        <v>6</v>
-      </c>
-      <c r="G98" s="15">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="H98" s="15">
-        <f t="shared" si="57"/>
-        <v>6</v>
-      </c>
-      <c r="I98" s="15">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="J98" s="15">
-        <f t="shared" si="59"/>
-        <v>6</v>
-      </c>
-      <c r="K98" s="15">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="L98" s="15">
-        <f t="shared" si="60"/>
-        <v>6</v>
-      </c>
-      <c r="M98" s="15">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="N98" s="15">
-        <f t="shared" si="62"/>
-        <v>6</v>
-      </c>
-      <c r="O98" s="15"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="60">
-        <v>7</v>
-      </c>
-      <c r="B99" s="15">
-        <f t="shared" si="51"/>
-        <v>7</v>
-      </c>
-      <c r="C99" s="15">
-        <f t="shared" si="52"/>
-        <v>14</v>
-      </c>
-      <c r="D99" s="15">
-        <f t="shared" si="53"/>
-        <v>28</v>
-      </c>
-      <c r="E99" s="15">
-        <f t="shared" si="54"/>
-        <v>21</v>
-      </c>
-      <c r="F99" s="15">
-        <f t="shared" si="55"/>
-        <v>7</v>
-      </c>
-      <c r="G99" s="15">
-        <f t="shared" si="56"/>
-        <v>14</v>
-      </c>
-      <c r="H99" s="15">
-        <f t="shared" si="57"/>
-        <v>28</v>
-      </c>
-      <c r="I99" s="15">
-        <f t="shared" si="58"/>
-        <v>21</v>
-      </c>
-      <c r="J99" s="15">
-        <f t="shared" si="59"/>
-        <v>7</v>
-      </c>
-      <c r="K99" s="15">
-        <f t="shared" si="63"/>
-        <v>14</v>
-      </c>
-      <c r="L99" s="15">
-        <f t="shared" si="60"/>
-        <v>28</v>
-      </c>
-      <c r="M99" s="15">
-        <f t="shared" si="61"/>
-        <v>21</v>
-      </c>
-      <c r="N99" s="15">
-        <f t="shared" si="62"/>
-        <v>7</v>
-      </c>
-      <c r="O99" s="15"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="60">
-        <v>8</v>
-      </c>
-      <c r="B100" s="15">
-        <f t="shared" si="51"/>
-        <v>8</v>
-      </c>
-      <c r="C100" s="15">
-        <f t="shared" si="52"/>
-        <v>29</v>
-      </c>
-      <c r="D100" s="15">
-        <f t="shared" si="53"/>
-        <v>22</v>
-      </c>
-      <c r="E100" s="15">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="F100" s="15">
-        <f t="shared" si="55"/>
-        <v>8</v>
-      </c>
-      <c r="G100" s="15">
-        <f t="shared" si="56"/>
-        <v>29</v>
-      </c>
-      <c r="H100" s="15">
-        <f t="shared" si="57"/>
-        <v>22</v>
-      </c>
-      <c r="I100" s="15">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="J100" s="15">
-        <f t="shared" si="59"/>
-        <v>8</v>
-      </c>
-      <c r="K100" s="15">
-        <f t="shared" si="63"/>
-        <v>29</v>
-      </c>
-      <c r="L100" s="15">
-        <f t="shared" si="60"/>
-        <v>22</v>
-      </c>
-      <c r="M100" s="15">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="N100" s="15">
-        <f t="shared" si="62"/>
-        <v>8</v>
-      </c>
-      <c r="O100" s="15"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="60">
-        <v>9</v>
-      </c>
-      <c r="B101" s="15">
-        <f t="shared" si="51"/>
-        <v>9</v>
-      </c>
-      <c r="C101" s="15">
-        <f t="shared" si="52"/>
-        <v>11</v>
-      </c>
-      <c r="D101" s="15">
-        <f t="shared" si="53"/>
-        <v>29</v>
-      </c>
-      <c r="E101" s="15">
-        <f t="shared" si="54"/>
-        <v>16</v>
-      </c>
-      <c r="F101" s="15">
+        <v>12</v>
+      </c>
+      <c r="C104" s="15">
         <f t="shared" si="55"/>
         <v>4</v>
       </c>
-      <c r="G101" s="15">
+      <c r="D104" s="15">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="H101" s="15">
+        <v>13</v>
+      </c>
+      <c r="E104" s="15">
         <f t="shared" si="57"/>
-        <v>9</v>
-      </c>
-      <c r="I101" s="15">
+        <v>16</v>
+      </c>
+      <c r="F104" s="15">
         <f t="shared" si="58"/>
-        <v>11</v>
-      </c>
-      <c r="J101" s="15">
+        <v>17</v>
+      </c>
+      <c r="G104" s="15">
         <f t="shared" si="59"/>
         <v>29</v>
       </c>
-      <c r="K101" s="15">
+      <c r="H104" s="15">
+        <f t="shared" si="60"/>
+        <v>33</v>
+      </c>
+      <c r="I104" s="15">
+        <f t="shared" si="61"/>
+        <v>11</v>
+      </c>
+      <c r="J104" s="15">
+        <f t="shared" si="62"/>
+        <v>27</v>
+      </c>
+      <c r="K104" s="15">
+        <f t="shared" si="66"/>
+        <v>9</v>
+      </c>
+      <c r="L104" s="15">
         <f t="shared" si="63"/>
-        <v>16</v>
-      </c>
-      <c r="L101" s="15">
-        <f t="shared" si="60"/>
-        <v>4</v>
-      </c>
-      <c r="M101" s="15">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="N101" s="15">
-        <f t="shared" si="62"/>
-        <v>9</v>
-      </c>
-      <c r="O101" s="15"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="60">
-        <v>10</v>
-      </c>
-      <c r="B102" s="15">
-        <f t="shared" si="51"/>
-        <v>10</v>
-      </c>
-      <c r="C102" s="15">
-        <f t="shared" si="52"/>
-        <v>30</v>
-      </c>
-      <c r="D102" s="15">
-        <f t="shared" si="53"/>
-        <v>20</v>
-      </c>
-      <c r="E102" s="15">
-        <f t="shared" si="54"/>
-        <v>25</v>
-      </c>
-      <c r="F102" s="15">
-        <f t="shared" si="55"/>
-        <v>5</v>
-      </c>
-      <c r="G102" s="15">
-        <f t="shared" si="56"/>
-        <v>15</v>
-      </c>
-      <c r="H102" s="15">
-        <f t="shared" si="57"/>
-        <v>10</v>
-      </c>
-      <c r="I102" s="15">
-        <f t="shared" si="58"/>
-        <v>30</v>
-      </c>
-      <c r="J102" s="15">
-        <f t="shared" si="59"/>
-        <v>20</v>
-      </c>
-      <c r="K102" s="15">
-        <f t="shared" si="63"/>
-        <v>25</v>
-      </c>
-      <c r="L102" s="15">
-        <f t="shared" si="60"/>
-        <v>5</v>
-      </c>
-      <c r="M102" s="15">
-        <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
-      <c r="N102" s="15">
-        <f t="shared" si="62"/>
-        <v>10</v>
-      </c>
-      <c r="O102" s="15"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="60">
-        <v>11</v>
-      </c>
-      <c r="B103" s="15">
-        <f t="shared" si="51"/>
-        <v>11</v>
-      </c>
-      <c r="C103" s="15">
-        <f t="shared" si="52"/>
-        <v>16</v>
-      </c>
-      <c r="D103" s="15">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="E103" s="15">
-        <f t="shared" si="54"/>
-        <v>11</v>
-      </c>
-      <c r="F103" s="15">
-        <f t="shared" si="55"/>
-        <v>16</v>
-      </c>
-      <c r="G103" s="15">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="H103" s="15">
-        <f t="shared" si="57"/>
-        <v>11</v>
-      </c>
-      <c r="I103" s="15">
-        <f t="shared" si="58"/>
-        <v>16</v>
-      </c>
-      <c r="J103" s="15">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="K103" s="15">
-        <f t="shared" si="63"/>
-        <v>11</v>
-      </c>
-      <c r="L103" s="15">
-        <f t="shared" si="60"/>
-        <v>16</v>
-      </c>
-      <c r="M103" s="15">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="N103" s="15">
-        <f t="shared" si="62"/>
-        <v>11</v>
-      </c>
-      <c r="O103" s="15"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="60">
-        <v>12</v>
-      </c>
-      <c r="B104" s="15">
-        <f t="shared" si="51"/>
-        <v>12</v>
-      </c>
-      <c r="C104" s="15">
-        <f t="shared" si="52"/>
-        <v>4</v>
-      </c>
-      <c r="D104" s="15">
-        <f t="shared" si="53"/>
-        <v>13</v>
-      </c>
-      <c r="E104" s="15">
-        <f t="shared" si="54"/>
-        <v>16</v>
-      </c>
-      <c r="F104" s="15">
-        <f t="shared" si="55"/>
-        <v>17</v>
-      </c>
-      <c r="G104" s="15">
-        <f t="shared" si="56"/>
-        <v>29</v>
-      </c>
-      <c r="H104" s="15">
-        <f t="shared" si="57"/>
-        <v>33</v>
-      </c>
-      <c r="I104" s="15">
-        <f t="shared" si="58"/>
-        <v>11</v>
-      </c>
-      <c r="J104" s="15">
-        <f t="shared" si="59"/>
-        <v>27</v>
-      </c>
-      <c r="K104" s="15">
-        <f t="shared" si="63"/>
-        <v>9</v>
-      </c>
-      <c r="L104" s="15">
-        <f t="shared" si="60"/>
         <v>3</v>
       </c>
       <c r="M104" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="N104" s="15">
@@ -12571,55 +12572,55 @@
       <c r="O104" s="15"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="60">
+      <c r="A105" s="55">
         <v>13</v>
       </c>
       <c r="B105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>13</v>
       </c>
       <c r="C105" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>29</v>
       </c>
       <c r="D105" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>27</v>
       </c>
       <c r="E105" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="F105" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>13</v>
       </c>
       <c r="G105" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>29</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" si="57"/>
-        <v>27</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="59"/>
-        <v>13</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="63"/>
-        <v>29</v>
-      </c>
-      <c r="L105" s="15">
         <f t="shared" si="60"/>
         <v>27</v>
       </c>
+      <c r="I105" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="J105" s="15">
+        <f t="shared" si="62"/>
+        <v>13</v>
+      </c>
+      <c r="K105" s="15">
+        <f t="shared" si="66"/>
+        <v>29</v>
+      </c>
+      <c r="L105" s="15">
+        <f t="shared" si="63"/>
+        <v>27</v>
+      </c>
       <c r="M105" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="N105" s="15">
@@ -12632,47 +12633,47 @@
         <v>14</v>
       </c>
       <c r="B106" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="C106" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>21</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>21</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>21</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>14</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>21</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="K106" s="15">
+        <f t="shared" si="66"/>
+        <v>21</v>
+      </c>
+      <c r="L106" s="15">
         <f t="shared" si="63"/>
-        <v>21</v>
-      </c>
-      <c r="L106" s="15">
-        <f t="shared" si="60"/>
         <v>14</v>
       </c>
       <c r="M106" s="15">
@@ -12688,47 +12689,47 @@
         <v>15</v>
       </c>
       <c r="B107" s="15">
-        <f t="shared" si="51"/>
-        <v>15</v>
-      </c>
-      <c r="C107" s="15">
-        <f t="shared" si="52"/>
-        <v>15</v>
-      </c>
-      <c r="D107" s="15">
-        <f t="shared" si="53"/>
-        <v>15</v>
-      </c>
-      <c r="E107" s="15">
         <f t="shared" si="54"/>
         <v>15</v>
       </c>
-      <c r="F107" s="15">
+      <c r="C107" s="15">
         <f t="shared" si="55"/>
         <v>15</v>
       </c>
-      <c r="G107" s="15">
+      <c r="D107" s="15">
         <f t="shared" si="56"/>
         <v>15</v>
       </c>
-      <c r="H107" s="15">
+      <c r="E107" s="15">
         <f t="shared" si="57"/>
         <v>15</v>
       </c>
-      <c r="I107" s="15">
+      <c r="F107" s="15">
         <f t="shared" si="58"/>
         <v>15</v>
       </c>
-      <c r="J107" s="15">
+      <c r="G107" s="15">
         <f t="shared" si="59"/>
         <v>15</v>
       </c>
+      <c r="H107" s="15">
+        <f t="shared" si="60"/>
+        <v>15</v>
+      </c>
+      <c r="I107" s="15">
+        <f t="shared" si="61"/>
+        <v>15</v>
+      </c>
+      <c r="J107" s="15">
+        <f t="shared" si="62"/>
+        <v>15</v>
+      </c>
       <c r="K107" s="15">
+        <f t="shared" si="66"/>
+        <v>15</v>
+      </c>
+      <c r="L107" s="15">
         <f t="shared" si="63"/>
-        <v>15</v>
-      </c>
-      <c r="L107" s="15">
-        <f t="shared" si="60"/>
         <v>15</v>
       </c>
       <c r="M107" s="15">
@@ -12744,47 +12745,47 @@
         <v>16</v>
       </c>
       <c r="B108" s="15">
-        <f t="shared" si="51"/>
-        <v>16</v>
-      </c>
-      <c r="C108" s="15">
-        <f t="shared" si="52"/>
-        <v>11</v>
-      </c>
-      <c r="D108" s="15">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="E108" s="15">
         <f t="shared" si="54"/>
         <v>16</v>
       </c>
-      <c r="F108" s="15">
+      <c r="C108" s="15">
         <f t="shared" si="55"/>
         <v>11</v>
       </c>
-      <c r="G108" s="15">
+      <c r="D108" s="15">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="H108" s="15">
+      <c r="E108" s="15">
         <f t="shared" si="57"/>
         <v>16</v>
       </c>
-      <c r="I108" s="15">
+      <c r="F108" s="15">
         <f t="shared" si="58"/>
         <v>11</v>
       </c>
+      <c r="G108" s="15">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="H108" s="15">
+        <f t="shared" si="60"/>
+        <v>16</v>
+      </c>
+      <c r="I108" s="15">
+        <f t="shared" si="61"/>
+        <v>11</v>
+      </c>
       <c r="J108" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="K108" s="15">
+        <f t="shared" si="66"/>
+        <v>16</v>
+      </c>
+      <c r="L108" s="15">
         <f t="shared" si="63"/>
-        <v>16</v>
-      </c>
-      <c r="L108" s="15">
-        <f t="shared" si="60"/>
         <v>11</v>
       </c>
       <c r="M108" s="15">
@@ -12800,47 +12801,47 @@
         <v>17</v>
       </c>
       <c r="B109" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>17</v>
       </c>
       <c r="C109" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>9</v>
       </c>
       <c r="D109" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>13</v>
       </c>
       <c r="E109" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>11</v>
       </c>
       <c r="F109" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>12</v>
       </c>
       <c r="G109" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>29</v>
       </c>
       <c r="H109" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
       <c r="I109" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>16</v>
       </c>
       <c r="J109" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>27</v>
       </c>
       <c r="K109" s="15">
+        <f t="shared" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="L109" s="15">
         <f t="shared" si="63"/>
-        <v>4</v>
-      </c>
-      <c r="L109" s="15">
-        <f t="shared" si="60"/>
         <v>33</v>
       </c>
       <c r="M109" s="15">
@@ -12856,47 +12857,47 @@
         <v>18</v>
       </c>
       <c r="B110" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>18</v>
       </c>
       <c r="C110" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>9</v>
       </c>
       <c r="D110" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>22</v>
       </c>
       <c r="E110" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>11</v>
       </c>
       <c r="F110" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>23</v>
       </c>
       <c r="G110" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>29</v>
       </c>
       <c r="H110" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>32</v>
       </c>
       <c r="I110" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>16</v>
       </c>
       <c r="J110" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>8</v>
       </c>
       <c r="K110" s="15">
+        <f t="shared" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="L110" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>4</v>
-      </c>
-      <c r="L110" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M110" s="15">
@@ -12912,47 +12913,47 @@
         <v>19</v>
       </c>
       <c r="B111" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>19</v>
       </c>
       <c r="C111" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>11</v>
       </c>
       <c r="D111" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>34</v>
       </c>
       <c r="E111" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>16</v>
       </c>
       <c r="F111" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>24</v>
       </c>
       <c r="G111" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H111" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>19</v>
       </c>
       <c r="I111" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="J111" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>34</v>
       </c>
       <c r="K111" s="15">
+        <f t="shared" si="66"/>
+        <v>16</v>
+      </c>
+      <c r="L111" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>16</v>
-      </c>
-      <c r="L111" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M111" s="15">
@@ -12968,47 +12969,47 @@
         <v>20</v>
       </c>
       <c r="B112" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>20</v>
       </c>
       <c r="C112" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="D112" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>20</v>
       </c>
       <c r="E112" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>15</v>
       </c>
       <c r="F112" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>20</v>
       </c>
       <c r="G112" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>15</v>
       </c>
       <c r="H112" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>20</v>
       </c>
       <c r="I112" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>15</v>
       </c>
       <c r="J112" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>20</v>
       </c>
       <c r="K112" s="15">
+        <f t="shared" si="66"/>
+        <v>15</v>
+      </c>
+      <c r="L112" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>15</v>
-      </c>
-      <c r="L112" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M112" s="15">
@@ -13024,47 +13025,47 @@
         <v>21</v>
       </c>
       <c r="B113" s="15">
-        <f t="shared" si="51"/>
-        <v>21</v>
-      </c>
-      <c r="C113" s="15">
-        <f t="shared" si="52"/>
-        <v>21</v>
-      </c>
-      <c r="D113" s="15">
-        <f t="shared" si="53"/>
-        <v>21</v>
-      </c>
-      <c r="E113" s="15">
         <f t="shared" si="54"/>
         <v>21</v>
       </c>
-      <c r="F113" s="15">
+      <c r="C113" s="15">
         <f t="shared" si="55"/>
         <v>21</v>
       </c>
-      <c r="G113" s="15">
+      <c r="D113" s="15">
         <f t="shared" si="56"/>
         <v>21</v>
       </c>
-      <c r="H113" s="15">
+      <c r="E113" s="15">
         <f t="shared" si="57"/>
         <v>21</v>
       </c>
-      <c r="I113" s="15">
+      <c r="F113" s="15">
         <f t="shared" si="58"/>
         <v>21</v>
       </c>
-      <c r="J113" s="15">
+      <c r="G113" s="15">
         <f t="shared" si="59"/>
         <v>21</v>
       </c>
+      <c r="H113" s="15">
+        <f t="shared" si="60"/>
+        <v>21</v>
+      </c>
+      <c r="I113" s="15">
+        <f t="shared" si="61"/>
+        <v>21</v>
+      </c>
+      <c r="J113" s="15">
+        <f t="shared" si="62"/>
+        <v>21</v>
+      </c>
       <c r="K113" s="15">
+        <f t="shared" si="66"/>
+        <v>21</v>
+      </c>
+      <c r="L113" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>21</v>
-      </c>
-      <c r="L113" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M113" s="15">
@@ -13080,47 +13081,47 @@
         <v>22</v>
       </c>
       <c r="B114" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>22</v>
       </c>
       <c r="C114" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>29</v>
       </c>
       <c r="D114" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>8</v>
       </c>
       <c r="E114" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="F114" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>22</v>
       </c>
       <c r="G114" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>29</v>
       </c>
       <c r="H114" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="I114" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="J114" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>22</v>
       </c>
       <c r="K114" s="15">
+        <f t="shared" si="66"/>
+        <v>29</v>
+      </c>
+      <c r="L114" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>29</v>
-      </c>
-      <c r="L114" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M114" s="15">
@@ -13136,47 +13137,47 @@
         <v>23</v>
       </c>
       <c r="B115" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>23</v>
       </c>
       <c r="C115" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>4</v>
       </c>
       <c r="D115" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>22</v>
       </c>
       <c r="E115" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>16</v>
       </c>
       <c r="F115" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>18</v>
       </c>
       <c r="G115" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>29</v>
       </c>
       <c r="H115" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="I115" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="J115" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>8</v>
       </c>
       <c r="K115" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L115" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L115" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M115" s="15">
@@ -13192,47 +13193,47 @@
         <v>24</v>
       </c>
       <c r="B116" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>24</v>
       </c>
       <c r="C116" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>16</v>
       </c>
       <c r="D116" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>34</v>
       </c>
       <c r="E116" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>11</v>
       </c>
       <c r="F116" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>19</v>
       </c>
       <c r="G116" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H116" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>24</v>
       </c>
       <c r="I116" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>16</v>
       </c>
       <c r="J116" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>34</v>
       </c>
       <c r="K116" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L116" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L116" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M116" s="15">
@@ -13248,47 +13249,47 @@
         <v>25</v>
       </c>
       <c r="B117" s="15">
-        <f t="shared" si="51"/>
-        <v>25</v>
-      </c>
-      <c r="C117" s="15">
-        <f t="shared" si="52"/>
-        <v>30</v>
-      </c>
-      <c r="D117" s="15">
-        <f t="shared" si="53"/>
-        <v>15</v>
-      </c>
-      <c r="E117" s="15">
         <f t="shared" si="54"/>
         <v>25</v>
       </c>
-      <c r="F117" s="15">
+      <c r="C117" s="15">
         <f t="shared" si="55"/>
         <v>30</v>
       </c>
-      <c r="G117" s="15">
+      <c r="D117" s="15">
         <f t="shared" si="56"/>
         <v>15</v>
       </c>
-      <c r="H117" s="15">
+      <c r="E117" s="15">
         <f t="shared" si="57"/>
         <v>25</v>
       </c>
-      <c r="I117" s="15">
+      <c r="F117" s="15">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="J117" s="15">
+      <c r="G117" s="15">
         <f t="shared" si="59"/>
         <v>15</v>
       </c>
+      <c r="H117" s="15">
+        <f t="shared" si="60"/>
+        <v>25</v>
+      </c>
+      <c r="I117" s="15">
+        <f t="shared" si="61"/>
+        <v>30</v>
+      </c>
+      <c r="J117" s="15">
+        <f t="shared" si="62"/>
+        <v>15</v>
+      </c>
       <c r="K117" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L117" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L117" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M117" s="15">
@@ -13304,47 +13305,47 @@
         <v>26</v>
       </c>
       <c r="B118" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>26</v>
       </c>
       <c r="C118" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>11</v>
       </c>
       <c r="D118" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="E118" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>16</v>
       </c>
       <c r="F118" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>31</v>
       </c>
       <c r="G118" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H118" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>26</v>
       </c>
       <c r="I118" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="J118" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>6</v>
       </c>
       <c r="K118" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L118" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L118" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M118" s="15">
@@ -13360,47 +13361,47 @@
         <v>27</v>
       </c>
       <c r="B119" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>27</v>
       </c>
       <c r="C119" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>29</v>
       </c>
       <c r="D119" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>13</v>
       </c>
       <c r="E119" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="F119" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>27</v>
       </c>
       <c r="G119" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>29</v>
       </c>
       <c r="H119" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>13</v>
       </c>
       <c r="I119" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="J119" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>27</v>
       </c>
       <c r="K119" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L119" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L119" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M119" s="15">
@@ -13416,47 +13417,47 @@
         <v>28</v>
       </c>
       <c r="B120" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>28</v>
       </c>
       <c r="C120" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="D120" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>7</v>
       </c>
       <c r="E120" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>21</v>
       </c>
       <c r="F120" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>28</v>
       </c>
       <c r="G120" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>14</v>
       </c>
       <c r="H120" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>7</v>
       </c>
       <c r="I120" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>21</v>
       </c>
       <c r="J120" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>28</v>
       </c>
       <c r="K120" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L120" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L120" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M120" s="15">
@@ -13472,47 +13473,47 @@
         <v>29</v>
       </c>
       <c r="B121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>29</v>
       </c>
       <c r="C121" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="D121" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>29</v>
       </c>
       <c r="E121" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="F121" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>29</v>
       </c>
       <c r="G121" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H121" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>29</v>
       </c>
       <c r="I121" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="J121" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>29</v>
       </c>
       <c r="K121" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L121" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L121" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M121" s="15">
@@ -13528,47 +13529,47 @@
         <v>30</v>
       </c>
       <c r="B122" s="15">
-        <f t="shared" si="51"/>
-        <v>30</v>
-      </c>
-      <c r="C122" s="15">
-        <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="D122" s="15">
-        <f t="shared" si="53"/>
-        <v>15</v>
-      </c>
-      <c r="E122" s="15">
         <f t="shared" si="54"/>
         <v>30</v>
       </c>
-      <c r="F122" s="15">
+      <c r="C122" s="15">
         <f t="shared" si="55"/>
         <v>25</v>
       </c>
-      <c r="G122" s="15">
+      <c r="D122" s="15">
         <f t="shared" si="56"/>
         <v>15</v>
       </c>
-      <c r="H122" s="15">
+      <c r="E122" s="15">
         <f t="shared" si="57"/>
         <v>30</v>
       </c>
-      <c r="I122" s="15">
+      <c r="F122" s="15">
         <f t="shared" si="58"/>
         <v>25</v>
       </c>
-      <c r="J122" s="15">
+      <c r="G122" s="15">
         <f t="shared" si="59"/>
         <v>15</v>
       </c>
+      <c r="H122" s="15">
+        <f t="shared" si="60"/>
+        <v>30</v>
+      </c>
+      <c r="I122" s="15">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="J122" s="15">
+        <f t="shared" si="62"/>
+        <v>15</v>
+      </c>
       <c r="K122" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L122" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L122" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M122" s="15">
@@ -13584,47 +13585,47 @@
         <v>31</v>
       </c>
       <c r="B123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>31</v>
       </c>
       <c r="C123" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>16</v>
       </c>
       <c r="D123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="E123" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>11</v>
       </c>
       <c r="F123" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>26</v>
       </c>
       <c r="G123" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H123" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>31</v>
       </c>
       <c r="I123" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>16</v>
       </c>
       <c r="J123" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>6</v>
       </c>
       <c r="K123" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L123" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L123" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M123" s="15">
@@ -13640,47 +13641,47 @@
         <v>32</v>
       </c>
       <c r="B124" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>32</v>
       </c>
       <c r="C124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>9</v>
       </c>
       <c r="D124" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>8</v>
       </c>
       <c r="E124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>11</v>
       </c>
       <c r="F124" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="G124" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>29</v>
       </c>
       <c r="H124" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>18</v>
       </c>
       <c r="I124" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>16</v>
       </c>
       <c r="J124" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>22</v>
       </c>
       <c r="K124" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L124" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L124" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M124" s="15">
@@ -13696,46 +13697,46 @@
         <v>33</v>
       </c>
       <c r="B125" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>33</v>
       </c>
       <c r="C125" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>4</v>
       </c>
       <c r="D125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>27</v>
       </c>
       <c r="E125" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>16</v>
       </c>
       <c r="F125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
       <c r="G125" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>29</v>
       </c>
       <c r="H125" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>12</v>
       </c>
       <c r="I125" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="J125" s="15">
         <v>13</v>
       </c>
       <c r="K125" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L125" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L125" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M125" s="15">
@@ -13751,46 +13752,46 @@
         <v>34</v>
       </c>
       <c r="B126" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>34</v>
       </c>
       <c r="C126" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="D126" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>34</v>
       </c>
       <c r="E126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="F126" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>34</v>
       </c>
       <c r="G126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="H126" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>34</v>
       </c>
       <c r="I126" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="J126" s="15">
         <v>34</v>
       </c>
       <c r="K126" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L126" s="15" t="e">
         <f t="shared" si="63"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L126" s="15" t="e">
-        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="M126" s="15">
@@ -13806,48 +13807,48 @@
         <v>35</v>
       </c>
       <c r="B127" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="C127" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="D127" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="E127" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="F127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="G127" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I127" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="J127" s="15">
         <v>0</v>
       </c>
       <c r="K127" s="15" t="e">
+        <f t="shared" si="66"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L127" s="15" t="e">
         <f t="shared" si="63"/>
         <v>#NUM!</v>
       </c>
-      <c r="L127" s="15" t="e">
-        <f t="shared" si="60"/>
-        <v>#NUM!</v>
-      </c>
       <c r="M127" s="15">
         <v>0</v>
       </c>
@@ -13855,6 +13856,302 @@
         <v>35</v>
       </c>
       <c r="O127" s="15"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <f>MOD(POWER($A131,1),8)</f>
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <f>MOD(POWER($A131,2),8)</f>
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <f>MOD(POWER($A131,3),8)</f>
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <f>MOD(POWER($A131,4),8)</f>
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <f>MOD(POWER($A131,5),8)</f>
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <f>MOD(POWER($A131,6),8)</f>
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <f>MOD(POWER($A131,7),8)</f>
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <f>MOD(POWER($A131,8),8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ref="B132:B138" si="67">MOD(POWER(A132,1),8)</f>
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <f>MOD(POWER($A132,2),8)</f>
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <f>MOD(POWER($A132,3),8)</f>
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132:E138" si="68">MOD(POWER($A132,4),8)</f>
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ref="F132:F138" si="69">MOD(POWER($A132,5),8)</f>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" ref="G132:G138" si="70">MOD(POWER($A132,6),8)</f>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" ref="H132:H138" si="71">MOD(POWER($A132,7),8)</f>
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ref="I132:I138" si="72">MOD(POWER($A132,8),8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <f>MOD(POWER($A133,2),8)</f>
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <f>MOD(POWER($A133,3),8)</f>
+        <v>3</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="69"/>
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="71"/>
+        <v>3</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>4</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="67"/>
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <f>MOD(POWER($A134,2),8)</f>
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <f>MOD(POWER($A134,3),8)</f>
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="67"/>
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <f>MOD(POWER($A135,2),8)</f>
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <f>MOD(POWER($A135,3),8)</f>
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="69"/>
+        <v>5</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="71"/>
+        <v>5</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="67"/>
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <f>MOD(POWER($A136,2),8)</f>
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <f>MOD(POWER($A136,3),8)</f>
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="67"/>
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <f>MOD(POWER($A137,2),8)</f>
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <f>MOD(POWER($A137,3),8)</f>
+        <v>7</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="69"/>
+        <v>7</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="71"/>
+        <v>7</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>8</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <f>MOD(POWER($A138,2),8)</f>
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <f>MOD(POWER($A138,3),8)</f>
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13922,10 +14219,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="19" t="s">
         <v>99</v>
       </c>
@@ -13960,11 +14257,11 @@
         <v>23</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -14721,37 +15018,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="58"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="J2" s="58" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="J2" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58" t="s">
+      <c r="K2" s="61"/>
+      <c r="L2" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="P2" s="58" t="s">
+      <c r="M2" s="61"/>
+      <c r="P2" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -14805,8 +15102,8 @@
         <v>123</v>
       </c>
       <c r="S3" s="25"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -16658,7 +16955,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/Cryptography.xlsx
+++ b/Cryptography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E251D158-71A2-4DBC-A7E2-613B9932CADB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E477B4-2046-499D-847C-F03CA545B644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="7" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="3" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <definedName name="TotientFunctions">'RSA Example'!$D$5:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2418,32 +2417,32 @@
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.28515625" customWidth="1"/>
-    <col min="22" max="22" width="65.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.33203125" customWidth="1"/>
+    <col min="22" max="22" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R1" s="1" t="s">
         <v>93</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="14"/>
       <c r="C2" s="58" t="s">
@@ -2482,7 +2481,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="14"/>
       <c r="C3" s="57" t="s">
@@ -2521,7 +2520,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3223,7 +3222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3337,7 +3336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3451,7 +3450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -3793,7 +3792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -3907,7 +3906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -4078,13 +4077,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U31" s="60" t="s">
         <v>117</v>
       </c>
       <c r="V31" s="60"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U32" t="s">
         <v>35</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="21:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U33" t="s">
         <v>36</v>
       </c>
@@ -4100,7 +4099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="21:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="U34" s="30" t="s">
         <v>37</v>
       </c>
@@ -4108,13 +4107,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:22" x14ac:dyDescent="0.3">
       <c r="V35" s="29"/>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="21:22" x14ac:dyDescent="0.3">
       <c r="V36" s="29"/>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="21:22" x14ac:dyDescent="0.3">
       <c r="V37" s="29"/>
     </row>
   </sheetData>
@@ -4146,24 +4145,24 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4306,7 +4305,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -4360,7 +4359,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -4423,7 +4422,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>270</v>
       </c>
@@ -4453,12 +4452,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H19" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>12</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
         <v>261</v>
       </c>
@@ -4488,32 +4487,32 @@
       <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>276</v>
       </c>
@@ -4538,7 +4537,7 @@
       <c r="N1" s="33"/>
       <c r="Q1" s="33"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4615,7 +4614,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4797,7 +4796,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4855,7 +4854,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5031,7 +5030,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H11" s="4">
         <v>8</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>289</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H13" s="4">
         <v>10</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>276</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>9</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5644,7 +5643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>290</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N26" s="4">
         <v>23</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N27" s="4">
         <v>24</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N28" s="4">
         <v>25</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>276</v>
       </c>
@@ -5812,7 +5811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -5891,7 +5890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>4</v>
       </c>
@@ -5922,7 +5921,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>6</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>7</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>8</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>9</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>10</v>
       </c>
@@ -6148,7 +6147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>11</v>
       </c>
@@ -6176,7 +6175,7 @@
       </c>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -6197,7 +6196,7 @@
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
         <v>291</v>
       </c>
@@ -6216,7 +6215,7 @@
       </c>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -6232,7 +6231,7 @@
       </c>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>276</v>
       </c>
@@ -6260,7 +6259,7 @@
       </c>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -6281,7 +6280,7 @@
       </c>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -6303,7 +6302,7 @@
       </c>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>3</v>
       </c>
@@ -6326,7 +6325,7 @@
       </c>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>4</v>
       </c>
@@ -6347,7 +6346,7 @@
       </c>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>5</v>
       </c>
@@ -6367,7 +6366,7 @@
       </c>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>6</v>
       </c>
@@ -6394,7 +6393,7 @@
       </c>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>7</v>
       </c>
@@ -6419,7 +6418,7 @@
       </c>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>8</v>
       </c>
@@ -6440,7 +6439,7 @@
       </c>
       <c r="Q52" s="4"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>9</v>
       </c>
@@ -6465,7 +6464,7 @@
       </c>
       <c r="Q53" s="4"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -6482,7 +6481,7 @@
       </c>
       <c r="Q54" s="4"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="42" t="s">
         <v>303</v>
       </c>
@@ -6501,7 +6500,7 @@
       </c>
       <c r="Q55" s="4"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -6518,7 +6517,7 @@
       </c>
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E57" s="61" t="s">
         <v>311</v>
       </c>
@@ -6535,7 +6534,7 @@
       </c>
       <c r="Q57" s="4"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>276</v>
       </c>
@@ -6569,7 +6568,7 @@
       </c>
       <c r="Q58" s="4"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -6592,7 +6591,7 @@
       </c>
       <c r="Q59" s="4"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>2</v>
       </c>
@@ -6615,7 +6614,7 @@
       </c>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>3</v>
       </c>
@@ -6643,7 +6642,7 @@
       </c>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>4</v>
       </c>
@@ -6671,7 +6670,7 @@
       </c>
       <c r="Q62" s="4"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>5</v>
       </c>
@@ -6700,7 +6699,7 @@
       </c>
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>6</v>
       </c>
@@ -6726,7 +6725,7 @@
       </c>
       <c r="Q64" s="4"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>7</v>
       </c>
@@ -6749,7 +6748,7 @@
       </c>
       <c r="Q65" s="4"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>8</v>
       </c>
@@ -6771,7 +6770,7 @@
       </c>
       <c r="Q66" s="4"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>9</v>
       </c>
@@ -6799,7 +6798,7 @@
       </c>
       <c r="Q67" s="4"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>10</v>
       </c>
@@ -6824,7 +6823,7 @@
       </c>
       <c r="Q68" s="4"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>11</v>
       </c>
@@ -6851,7 +6850,7 @@
       </c>
       <c r="Q69" s="4"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>12</v>
       </c>
@@ -6863,22 +6862,22 @@
         <v>319</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="N71" s="47" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E74" s="61"/>
       <c r="F74" s="61"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>276</v>
       </c>
@@ -6896,7 +6895,7 @@
       </c>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -6907,7 +6906,7 @@
       <c r="D76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>2</v>
       </c>
@@ -6923,7 +6922,7 @@
       </c>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -6936,7 +6935,7 @@
       </c>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>4</v>
       </c>
@@ -6950,13 +6949,13 @@
       </c>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
       <c r="C80" s="37"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
         <v>341</v>
       </c>
@@ -6965,7 +6964,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6973,7 +6972,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>276</v>
       </c>
@@ -6991,7 +6990,7 @@
       </c>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>1</v>
       </c>
@@ -7007,7 +7006,7 @@
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>2</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>3</v>
       </c>
@@ -7035,7 +7034,7 @@
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>4</v>
       </c>
@@ -7052,7 +7051,7 @@
       </c>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>5</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>6</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>7</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>8</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>9</v>
       </c>
@@ -7115,7 +7114,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>10</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>11</v>
       </c>
@@ -7143,7 +7142,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>12</v>
       </c>
@@ -7156,7 +7155,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>13</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>14</v>
       </c>
@@ -7183,7 +7182,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>15</v>
       </c>
@@ -7195,14 +7194,14 @@
         <v>356</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="37"/>
       <c r="D99" s="4"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
         <v>357</v>
       </c>
@@ -7213,14 +7212,14 @@
         <v>358</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="37"/>
       <c r="D101" s="4"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>276</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>1</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>2</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>3</v>
       </c>
@@ -7285,7 +7284,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>4</v>
       </c>
@@ -7304,7 +7303,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>5</v>
       </c>
@@ -7319,7 +7318,7 @@
       </c>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>6</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>7</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>8</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>9</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>10</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>11</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>12</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>13</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>14</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>15</v>
       </c>
@@ -7468,14 +7467,14 @@
         <v>371</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
         <v>368</v>
       </c>
@@ -7486,7 +7485,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="48"/>
       <c r="B120" s="48"/>
       <c r="C120" s="48"/>
@@ -7494,7 +7493,7 @@
       <c r="E120" s="49"/>
       <c r="F120" s="16"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>276</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>1</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -7542,7 +7541,7 @@
       </c>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>3</v>
       </c>
@@ -7558,7 +7557,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>4</v>
       </c>
@@ -7577,7 +7576,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>5</v>
       </c>
@@ -7590,7 +7589,7 @@
       </c>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -7604,7 +7603,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>7</v>
       </c>
@@ -7618,7 +7617,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>8</v>
       </c>
@@ -7632,7 +7631,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>9</v>
       </c>
@@ -7647,7 +7646,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>10</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>11</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>12</v>
       </c>
@@ -7691,7 +7690,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>13</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>14</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>15</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>16</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>17</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>18</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>19</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>20</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>21</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>22</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>23</v>
       </c>
@@ -7858,14 +7857,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="47" t="s">
         <v>389</v>
       </c>
@@ -7874,7 +7873,7 @@
       <c r="D146" s="4"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>378</v>
       </c>
@@ -7896,20 +7895,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CE62CC-EF82-4EB4-A697-0044799F4B7A}">
   <dimension ref="A1:Y138"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="N117" sqref="N117"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>315</v>
       </c>
@@ -7943,7 +7942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -7983,8 +7982,39 @@
       <c r="M6" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f>MOD(POWER(1,O6),7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f>MOD(POWER(2,$O6),7)</f>
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <f>MOD(POWER(3,$O6),7)</f>
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <f>MOD(POWER(4,$O6),7)</f>
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f>MOD(POWER(5,$O6),7)</f>
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <f>MOD(POWER(6,$O6),7)</f>
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <f>MOD(POWER(7,$O6),7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -8036,8 +8066,39 @@
         <f>MOD(POWER($A7,$B$2),$B$3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f>MOD(POWER(1,O7),7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f>MOD(POWER(2,$O7),7)</f>
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <f>MOD(POWER(3,$O7),7)</f>
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f>MOD(POWER(4,$O7),7)</f>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <f>MOD(POWER(5,$O7),7)</f>
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <f>MOD(POWER(6,$O7),7)</f>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f>MOD(POWER(7,$O7),7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2</v>
       </c>
@@ -8089,8 +8150,39 @@
         <f t="shared" ref="M8:M21" si="11">MOD(POWER($A8,$B$2),$B$3)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <f>MOD(POWER(1,O8),7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f>MOD(POWER(2,$O8),7)</f>
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f>MOD(POWER(3,$O8),7)</f>
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <f>MOD(POWER(4,$O8),7)</f>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f>MOD(POWER(5,$O8),7)</f>
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <f>MOD(POWER(6,$O8),7)</f>
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <f>MOD(POWER(7,$O8),7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="54">
         <v>3</v>
       </c>
@@ -8142,8 +8234,39 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <f>MOD(POWER(1,O9),7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f>MOD(POWER(2,$O9),7)</f>
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <f>MOD(POWER(3,$O9),7)</f>
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <f>MOD(POWER(4,$O9),7)</f>
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <f>MOD(POWER(5,$O9),7)</f>
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <f>MOD(POWER(6,$O9),7)</f>
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <f>MOD(POWER(7,$O9),7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>4</v>
       </c>
@@ -8195,8 +8318,39 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <f>MOD(POWER(1,O10),7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f>MOD(POWER(2,$O10),7)</f>
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <f>MOD(POWER(3,$O10),7)</f>
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <f>MOD(POWER(4,$O10),7)</f>
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f>MOD(POWER(5,$O10),7)</f>
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <f>MOD(POWER(6,$O10),7)</f>
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <f>MOD(POWER(7,$O10),7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="54">
         <v>5</v>
       </c>
@@ -8248,8 +8402,39 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <f>MOD(POWER(1,O11),7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f>MOD(POWER(2,$O11),7)</f>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f>MOD(POWER(3,$O11),7)</f>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f>MOD(POWER(4,$O11),7)</f>
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <f>MOD(POWER(5,$O11),7)</f>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f>MOD(POWER(6,$O11),7)</f>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f>MOD(POWER(7,$O11),7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -8301,8 +8486,39 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <f>MOD(POWER(1,O12),7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f>MOD(POWER(2,$O12),7)</f>
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <f>MOD(POWER(3,$O12),7)</f>
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <f>MOD(POWER(4,$O12),7)</f>
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <f>MOD(POWER(5,$O12),7)</f>
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <f>MOD(POWER(6,$O12),7)</f>
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <f>MOD(POWER(7,$O12),7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>7</v>
       </c>
@@ -8355,7 +8571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>8</v>
       </c>
@@ -8408,7 +8624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>9</v>
       </c>
@@ -8465,7 +8681,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>10</v>
       </c>
@@ -8519,7 +8735,7 @@
       </c>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>11</v>
       </c>
@@ -8573,7 +8789,7 @@
       </c>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>12</v>
       </c>
@@ -8627,7 +8843,7 @@
       </c>
       <c r="P18" s="15"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>13</v>
       </c>
@@ -8681,7 +8897,7 @@
       </c>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>14</v>
       </c>
@@ -8735,7 +8951,7 @@
       </c>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>15</v>
       </c>
@@ -8789,7 +9005,7 @@
       </c>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -8799,7 +9015,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -8834,7 +9050,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>1</v>
       </c>
@@ -8875,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>2</v>
       </c>
@@ -8916,7 +9132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="54">
         <v>3</v>
       </c>
@@ -8957,7 +9173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>4</v>
       </c>
@@ -8998,7 +9214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="54">
         <v>5</v>
       </c>
@@ -9039,7 +9255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="54">
         <v>6</v>
       </c>
@@ -9080,7 +9296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>7</v>
       </c>
@@ -9121,7 +9337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>8</v>
       </c>
@@ -9162,7 +9378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="54">
         <v>9</v>
       </c>
@@ -9203,7 +9419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="54">
         <v>10</v>
       </c>
@@ -9244,7 +9460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>11</v>
       </c>
@@ -9285,7 +9501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="54">
         <v>12</v>
       </c>
@@ -9326,7 +9542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>13</v>
       </c>
@@ -9367,7 +9583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>14</v>
       </c>
@@ -9408,7 +9624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>15</v>
       </c>
@@ -9449,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9457,7 +9673,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -9489,7 +9705,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>1</v>
       </c>
@@ -9530,7 +9746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>2</v>
       </c>
@@ -9571,7 +9787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="55">
         <v>3</v>
       </c>
@@ -9612,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="55">
         <v>4</v>
       </c>
@@ -9653,7 +9869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="55">
         <v>5</v>
       </c>
@@ -9694,7 +9910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="55">
         <v>6</v>
       </c>
@@ -9735,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="55">
         <v>7</v>
       </c>
@@ -9776,7 +9992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="55">
         <v>8</v>
       </c>
@@ -9817,7 +10033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="55">
         <v>9</v>
       </c>
@@ -9858,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="55">
         <v>10</v>
       </c>
@@ -9899,7 +10115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="55">
         <v>11</v>
       </c>
@@ -9940,7 +10156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="55">
         <v>12</v>
       </c>
@@ -9981,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="55">
         <v>13</v>
       </c>
@@ -10022,7 +10238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>14</v>
       </c>
@@ -10063,7 +10279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>15</v>
       </c>
@@ -10104,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -10136,7 +10352,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>1</v>
       </c>
@@ -10177,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>2</v>
       </c>
@@ -10218,7 +10434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="55">
         <v>3</v>
       </c>
@@ -10259,7 +10475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="55">
         <v>4</v>
       </c>
@@ -10300,7 +10516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="55">
         <v>5</v>
       </c>
@@ -10341,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="55">
         <v>6</v>
       </c>
@@ -10382,7 +10598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="55">
         <v>7</v>
       </c>
@@ -10423,7 +10639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="55">
         <v>8</v>
       </c>
@@ -10464,7 +10680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="55">
         <v>9</v>
       </c>
@@ -10505,7 +10721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="55">
         <v>10</v>
       </c>
@@ -10546,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="55">
         <v>11</v>
       </c>
@@ -10587,7 +10803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="55">
         <v>12</v>
       </c>
@@ -10628,7 +10844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="55">
         <v>13</v>
       </c>
@@ -10669,7 +10885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>14</v>
       </c>
@@ -10710,7 +10926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>15</v>
       </c>
@@ -10751,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -10801,7 +11017,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>1</v>
       </c>
@@ -10869,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>2</v>
       </c>
@@ -10937,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="55">
         <v>3</v>
       </c>
@@ -11005,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="55">
         <v>4</v>
       </c>
@@ -11073,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="55">
         <v>5</v>
       </c>
@@ -11141,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="55">
         <v>6</v>
       </c>
@@ -11209,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="55">
         <v>7</v>
       </c>
@@ -11277,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="55">
         <v>8</v>
       </c>
@@ -11345,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="55">
         <v>9</v>
       </c>
@@ -11413,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="55">
         <v>10</v>
       </c>
@@ -11481,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="55">
         <v>11</v>
       </c>
@@ -11549,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="55">
         <v>12</v>
       </c>
@@ -11617,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="55">
         <v>13</v>
       </c>
@@ -11685,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>14</v>
       </c>
@@ -11753,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>15</v>
       </c>
@@ -11821,7 +12037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -11876,7 +12092,7 @@
       <c r="X92" s="15"/>
       <c r="Y92" s="15"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>1</v>
       </c>
@@ -11934,7 +12150,7 @@
       </c>
       <c r="O93" s="15"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>2</v>
       </c>
@@ -11992,7 +12208,7 @@
       </c>
       <c r="O94" s="15"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="55">
         <v>3</v>
       </c>
@@ -12050,7 +12266,7 @@
       </c>
       <c r="O95" s="15"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="55">
         <v>4</v>
       </c>
@@ -12108,7 +12324,7 @@
       </c>
       <c r="O96" s="15"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="55">
         <v>5</v>
       </c>
@@ -12166,7 +12382,7 @@
       </c>
       <c r="O97" s="15"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="55">
         <v>6</v>
       </c>
@@ -12224,7 +12440,7 @@
       </c>
       <c r="O98" s="15"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="55">
         <v>7</v>
       </c>
@@ -12282,7 +12498,7 @@
       </c>
       <c r="O99" s="15"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="55">
         <v>8</v>
       </c>
@@ -12340,7 +12556,7 @@
       </c>
       <c r="O100" s="15"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="55">
         <v>9</v>
       </c>
@@ -12398,7 +12614,7 @@
       </c>
       <c r="O101" s="15"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="55">
         <v>10</v>
       </c>
@@ -12456,7 +12672,7 @@
       </c>
       <c r="O102" s="15"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="55">
         <v>11</v>
       </c>
@@ -12514,7 +12730,7 @@
       </c>
       <c r="O103" s="15"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="55">
         <v>12</v>
       </c>
@@ -12571,7 +12787,7 @@
       </c>
       <c r="O104" s="15"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="55">
         <v>13</v>
       </c>
@@ -12628,7 +12844,7 @@
       </c>
       <c r="O105" s="15"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
         <v>14</v>
       </c>
@@ -12684,7 +12900,7 @@
       </c>
       <c r="O106" s="15"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
         <v>15</v>
       </c>
@@ -12740,7 +12956,7 @@
       </c>
       <c r="O107" s="15"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
         <v>16</v>
       </c>
@@ -12796,7 +13012,7 @@
       </c>
       <c r="O108" s="15"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>17</v>
       </c>
@@ -12852,7 +13068,7 @@
       </c>
       <c r="O109" s="15"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="15">
         <v>18</v>
       </c>
@@ -12908,7 +13124,7 @@
       </c>
       <c r="O110" s="15"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>19</v>
       </c>
@@ -12964,7 +13180,7 @@
       </c>
       <c r="O111" s="15"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <v>20</v>
       </c>
@@ -13020,7 +13236,7 @@
       </c>
       <c r="O112" s="15"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <v>21</v>
       </c>
@@ -13076,7 +13292,7 @@
       </c>
       <c r="O113" s="15"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <v>22</v>
       </c>
@@ -13132,7 +13348,7 @@
       </c>
       <c r="O114" s="15"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="15">
         <v>23</v>
       </c>
@@ -13188,7 +13404,7 @@
       </c>
       <c r="O115" s="15"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="15">
         <v>24</v>
       </c>
@@ -13244,7 +13460,7 @@
       </c>
       <c r="O116" s="15"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <v>25</v>
       </c>
@@ -13300,7 +13516,7 @@
       </c>
       <c r="O117" s="15"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
         <v>26</v>
       </c>
@@ -13356,7 +13572,7 @@
       </c>
       <c r="O118" s="15"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <v>27</v>
       </c>
@@ -13412,7 +13628,7 @@
       </c>
       <c r="O119" s="15"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
         <v>28</v>
       </c>
@@ -13468,7 +13684,7 @@
       </c>
       <c r="O120" s="15"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="15">
         <v>29</v>
       </c>
@@ -13524,7 +13740,7 @@
       </c>
       <c r="O121" s="15"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <v>30</v>
       </c>
@@ -13580,7 +13796,7 @@
       </c>
       <c r="O122" s="15"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <v>31</v>
       </c>
@@ -13636,7 +13852,7 @@
       </c>
       <c r="O123" s="15"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <v>32</v>
       </c>
@@ -13692,7 +13908,7 @@
       </c>
       <c r="O124" s="15"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <v>33</v>
       </c>
@@ -13747,7 +13963,7 @@
       </c>
       <c r="O125" s="15"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="15">
         <v>34</v>
       </c>
@@ -13802,7 +14018,7 @@
       </c>
       <c r="O126" s="15"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="15">
         <v>35</v>
       </c>
@@ -13857,7 +14073,7 @@
       </c>
       <c r="O127" s="15"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -13866,11 +14082,11 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <f>MOD(POWER($A131,2),8)</f>
+        <f t="shared" ref="C131:C138" si="67">MOD(POWER($A131,2),8)</f>
         <v>1</v>
       </c>
       <c r="D131">
-        <f>MOD(POWER($A131,3),8)</f>
+        <f t="shared" ref="D131:D138" si="68">MOD(POWER($A131,3),8)</f>
         <v>1</v>
       </c>
       <c r="E131">
@@ -13894,262 +14110,262 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B138" si="67">MOD(POWER(A132,1),8)</f>
+        <f t="shared" ref="B132:B138" si="69">MOD(POWER(A132,1),8)</f>
         <v>2</v>
       </c>
       <c r="C132">
-        <f>MOD(POWER($A132,2),8)</f>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="D132">
-        <f>MOD(POWER($A132,3),8)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E138" si="68">MOD(POWER($A132,4),8)</f>
+        <f t="shared" ref="E132:E138" si="70">MOD(POWER($A132,4),8)</f>
         <v>0</v>
       </c>
       <c r="F132">
-        <f t="shared" ref="F132:F138" si="69">MOD(POWER($A132,5),8)</f>
+        <f t="shared" ref="F132:F138" si="71">MOD(POWER($A132,5),8)</f>
         <v>0</v>
       </c>
       <c r="G132">
-        <f t="shared" ref="G132:G138" si="70">MOD(POWER($A132,6),8)</f>
+        <f t="shared" ref="G132:G138" si="72">MOD(POWER($A132,6),8)</f>
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" ref="H132:H138" si="71">MOD(POWER($A132,7),8)</f>
+        <f t="shared" ref="H132:H138" si="73">MOD(POWER($A132,7),8)</f>
         <v>0</v>
       </c>
       <c r="I132">
-        <f t="shared" ref="I132:I138" si="72">MOD(POWER($A132,8),8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I132:I138" si="74">MOD(POWER($A132,8),8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>3</v>
       </c>
       <c r="B133">
-        <f t="shared" si="67"/>
-        <v>3</v>
-      </c>
-      <c r="C133">
-        <f>MOD(POWER($A133,2),8)</f>
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <f>MOD(POWER($A133,3),8)</f>
-        <v>3</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="F133">
         <f t="shared" si="69"/>
         <v>3</v>
       </c>
-      <c r="G133">
+      <c r="C133">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="68"/>
+        <v>3</v>
+      </c>
+      <c r="E133">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
-      <c r="H133">
+      <c r="F133">
         <f t="shared" si="71"/>
         <v>3</v>
       </c>
+      <c r="G133">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
       <c r="I133">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>4</v>
       </c>
       <c r="B134">
+        <f t="shared" si="69"/>
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="69"/>
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="68"/>
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="71"/>
+        <v>5</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="69"/>
+        <v>6</v>
+      </c>
+      <c r="C136">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
-      <c r="C134">
-        <f>MOD(POWER($A134,2),8)</f>
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <f>MOD(POWER($A134,3),8)</f>
-        <v>0</v>
-      </c>
-      <c r="E134">
+      <c r="D136">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="F134">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="G134">
+      <c r="E136">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="H134">
+      <c r="F136">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="I134">
+      <c r="G136">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>5</v>
-      </c>
-      <c r="B135">
-        <f t="shared" si="67"/>
-        <v>5</v>
-      </c>
-      <c r="C135">
-        <f>MOD(POWER($A135,2),8)</f>
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <f>MOD(POWER($A135,3),8)</f>
-        <v>5</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <f t="shared" si="69"/>
-        <v>5</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="H135">
-        <f t="shared" si="71"/>
-        <v>5</v>
-      </c>
-      <c r="I135">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>6</v>
-      </c>
-      <c r="B136">
-        <f t="shared" si="67"/>
-        <v>6</v>
-      </c>
-      <c r="C136">
-        <f>MOD(POWER($A136,2),8)</f>
-        <v>4</v>
-      </c>
-      <c r="D136">
-        <f>MOD(POWER($A136,3),8)</f>
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
       <c r="H136">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="I136">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>7</v>
       </c>
       <c r="B137">
-        <f t="shared" si="67"/>
-        <v>7</v>
-      </c>
-      <c r="C137">
-        <f>MOD(POWER($A137,2),8)</f>
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <f>MOD(POWER($A137,3),8)</f>
-        <v>7</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="F137">
         <f t="shared" si="69"/>
         <v>7</v>
       </c>
-      <c r="G137">
+      <c r="C137">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="68"/>
+        <v>7</v>
+      </c>
+      <c r="E137">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
-      <c r="H137">
+      <c r="F137">
         <f t="shared" si="71"/>
         <v>7</v>
       </c>
+      <c r="G137">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
       <c r="I137">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>8</v>
       </c>
       <c r="B138">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="C138">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="C138">
-        <f>MOD(POWER($A138,2),8)</f>
-        <v>0</v>
-      </c>
       <c r="D138">
-        <f>MOD(POWER($A138,3),8)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="F138">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G138">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="I138">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
@@ -14168,26 +14384,26 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="95.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="95.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>274</v>
       </c>
@@ -14198,7 +14414,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4"/>
@@ -14207,7 +14423,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -14218,7 +14434,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>24</v>
       </c>
@@ -14237,7 +14453,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
@@ -14263,7 +14479,7 @@
       <c r="I5" s="61"/>
       <c r="J5" s="61"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -14305,7 +14521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -14344,7 +14560,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D8" s="32">
         <f>LCM(A7-1,B7-1)</f>
         <v>12</v>
@@ -14371,7 +14587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>124</v>
       </c>
@@ -14401,7 +14617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -14430,7 +14646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>126</v>
       </c>
@@ -14454,7 +14670,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -14485,7 +14701,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -14515,7 +14731,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -14539,7 +14755,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
@@ -14558,7 +14774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
@@ -14584,7 +14800,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -14610,7 +14826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
@@ -14632,7 +14848,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -14663,7 +14879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -14687,7 +14903,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
@@ -14713,7 +14929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -14732,7 +14948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
@@ -14759,7 +14975,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -14780,7 +14996,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -14802,7 +15018,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>141</v>
       </c>
@@ -14818,7 +15034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -14837,7 +15053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
@@ -14856,7 +15072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
@@ -14875,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>293</v>
       </c>
@@ -14891,7 +15107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -14910,7 +15126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>27</v>
       </c>
@@ -14923,59 +15139,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="15:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="O33" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="C61" s="24"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
     </row>
@@ -14998,26 +15214,26 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J1" s="61" t="s">
         <v>114</v>
       </c>
@@ -15027,7 +15243,7 @@
       </c>
       <c r="M1" s="61"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>107</v>
       </c>
@@ -15050,7 +15266,7 @@
       <c r="Q2" s="61"/>
       <c r="R2" s="61"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -15105,7 +15321,7 @@
       <c r="T3" s="60"/>
       <c r="U3" s="60"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15165,7 +15381,7 @@
       </c>
       <c r="U4" s="29"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -15216,7 +15432,7 @@
       </c>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -15267,7 +15483,7 @@
       </c>
       <c r="U6" s="29"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -15310,7 +15526,7 @@
       </c>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15353,7 +15569,7 @@
       </c>
       <c r="U8" s="29"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -15396,7 +15612,7 @@
       </c>
       <c r="U9" s="29"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -15439,7 +15655,7 @@
       </c>
       <c r="U10" s="29"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>17</v>
       </c>
@@ -15482,7 +15698,7 @@
       </c>
       <c r="U11" s="29"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>19</v>
       </c>
@@ -15525,7 +15741,7 @@
       </c>
       <c r="U12" s="29"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>72</v>
       </c>
@@ -15565,7 +15781,7 @@
       </c>
       <c r="U13" s="29"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>73</v>
       </c>
@@ -15605,7 +15821,7 @@
       </c>
       <c r="U14" s="29"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>74</v>
       </c>
@@ -15645,7 +15861,7 @@
       </c>
       <c r="U15" s="29"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
         <v>75</v>
       </c>
@@ -15685,7 +15901,7 @@
       </c>
       <c r="U16" s="29"/>
     </row>
-    <row r="17" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>76</v>
       </c>
@@ -15725,7 +15941,7 @@
       </c>
       <c r="U17" s="29"/>
     </row>
-    <row r="18" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>77</v>
       </c>
@@ -15765,7 +15981,7 @@
       </c>
       <c r="U18" s="29"/>
     </row>
-    <row r="19" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
         <v>78</v>
       </c>
@@ -15805,7 +16021,7 @@
       </c>
       <c r="U19" s="29"/>
     </row>
-    <row r="20" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>79</v>
       </c>
@@ -15845,7 +16061,7 @@
       </c>
       <c r="U20" s="29"/>
     </row>
-    <row r="21" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
         <v>80</v>
       </c>
@@ -15885,7 +16101,7 @@
       </c>
       <c r="U21" s="29"/>
     </row>
-    <row r="22" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H22" t="s">
         <v>81</v>
       </c>
@@ -15924,7 +16140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>82</v>
       </c>
@@ -15963,7 +16179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
         <v>83</v>
       </c>
@@ -16002,7 +16218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>84</v>
       </c>
@@ -16041,7 +16257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
         <v>85</v>
       </c>
@@ -16080,7 +16296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
         <v>86</v>
       </c>
@@ -16119,7 +16335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H28" t="s">
         <v>87</v>
       </c>
@@ -16158,7 +16374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:21" x14ac:dyDescent="0.3">
       <c r="H29" t="s">
         <v>88</v>
       </c>
@@ -16197,7 +16413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:21" x14ac:dyDescent="0.3">
       <c r="P30">
         <v>27</v>
       </c>
@@ -16210,7 +16426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:21" x14ac:dyDescent="0.3">
       <c r="P31">
         <v>28</v>
       </c>
@@ -16223,7 +16439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:21" x14ac:dyDescent="0.3">
       <c r="P32">
         <v>29</v>
       </c>
@@ -16236,7 +16452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P33">
         <v>30</v>
       </c>
@@ -16249,7 +16465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P34">
         <v>31</v>
       </c>
@@ -16262,7 +16478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P35">
         <v>32</v>
       </c>
@@ -16275,7 +16491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P36">
         <v>33</v>
       </c>
@@ -16288,7 +16504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P37">
         <v>34</v>
       </c>
@@ -16301,7 +16517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P38">
         <v>35</v>
       </c>
@@ -16314,7 +16530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P39">
         <v>36</v>
       </c>
@@ -16327,7 +16543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P40">
         <v>37</v>
       </c>
@@ -16340,7 +16556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P41">
         <v>38</v>
       </c>
@@ -16353,7 +16569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P42">
         <v>39</v>
       </c>
@@ -16366,7 +16582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P43">
         <v>40</v>
       </c>
@@ -16379,7 +16595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P44">
         <v>41</v>
       </c>
@@ -16392,7 +16608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P45">
         <v>42</v>
       </c>
@@ -16405,7 +16621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P46">
         <v>43</v>
       </c>
@@ -16418,7 +16634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P47">
         <v>44</v>
       </c>
@@ -16431,7 +16647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P48">
         <v>45</v>
       </c>
@@ -16444,7 +16660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P49">
         <v>46</v>
       </c>
@@ -16457,7 +16673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P50">
         <v>47</v>
       </c>
@@ -16470,7 +16686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P51">
         <v>48</v>
       </c>
@@ -16483,7 +16699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P52">
         <v>49</v>
       </c>
@@ -16496,7 +16712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P53">
         <v>50</v>
       </c>
@@ -16544,19 +16760,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>183</v>
       </c>
@@ -16577,7 +16793,7 @@
       </c>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>157</v>
       </c>
@@ -16594,7 +16810,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>184</v>
       </c>
@@ -16611,7 +16827,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -16628,7 +16844,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -16645,7 +16861,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>165</v>
       </c>
@@ -16662,7 +16878,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -16682,7 +16898,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -16699,7 +16915,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -16716,7 +16932,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>172</v>
       </c>
@@ -16724,7 +16940,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -16735,7 +16951,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -16744,13 +16960,13 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>177</v>
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -16759,7 +16975,7 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -16768,7 +16984,7 @@
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -16783,13 +16999,13 @@
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>185</v>
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>67</v>
       </c>
@@ -16801,7 +17017,7 @@
       </c>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>79</v>
       </c>
@@ -16810,7 +17026,7 @@
       </c>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -16819,7 +17035,7 @@
       </c>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>179</v>
       </c>
@@ -16831,13 +17047,13 @@
       </c>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>192</v>
       </c>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -16852,7 +17068,7 @@
       </c>
       <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -16867,7 +17083,7 @@
       </c>
       <c r="H24" s="29"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -16878,7 +17094,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -16892,12 +17108,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>205</v>
       </c>
@@ -16905,7 +17121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>206</v>
       </c>
@@ -16913,7 +17129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>206</v>
       </c>
@@ -16921,7 +17137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -16929,7 +17145,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>194</v>
       </c>
@@ -16937,7 +17153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -16955,22 +17171,22 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>228</v>
       </c>
@@ -16981,7 +17197,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>227</v>
       </c>
@@ -16992,7 +17208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -17003,7 +17219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -17014,7 +17230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -17025,7 +17241,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -17039,7 +17255,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>229</v>
       </c>
@@ -17053,7 +17269,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -17078,7 +17294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>433</v>
       </c>
@@ -17103,7 +17319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>434</v>
       </c>
@@ -17128,7 +17344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -17142,7 +17358,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>242</v>
       </c>
@@ -17156,7 +17372,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -17181,7 +17397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>464</v>
       </c>
@@ -17206,7 +17422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -17231,7 +17447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -17245,7 +17461,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>242</v>
       </c>
@@ -17259,7 +17475,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>241</v>
       </c>
@@ -17284,7 +17500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>466</v>
       </c>
@@ -17309,7 +17525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>467</v>
       </c>
@@ -17334,7 +17550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -17351,7 +17567,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -17368,7 +17584,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>241</v>
       </c>
@@ -17395,7 +17611,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>494</v>
       </c>
@@ -17423,7 +17639,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>495</v>
       </c>
@@ -17451,7 +17667,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -17468,7 +17684,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>242</v>
       </c>
@@ -17485,7 +17701,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>241</v>
       </c>
@@ -17513,7 +17729,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>496</v>
       </c>
@@ -17541,7 +17757,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>497</v>
       </c>
@@ -17569,7 +17785,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -17586,7 +17802,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>242</v>
       </c>
@@ -17603,7 +17819,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>241</v>
       </c>
@@ -17631,7 +17847,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>492</v>
       </c>
@@ -17659,7 +17875,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>493</v>
       </c>
@@ -17687,7 +17903,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -17701,7 +17917,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>242</v>
       </c>
@@ -17715,7 +17931,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>241</v>
       </c>
@@ -17740,7 +17956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>514</v>
       </c>
@@ -17765,7 +17981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>515</v>
       </c>
@@ -17790,7 +18006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -17818,17 +18034,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -17842,7 +18058,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -17866,7 +18082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H4" s="26">
         <f t="shared" ref="H4:H10" si="1">H3+H$3</f>
         <v>6</v>
@@ -17876,7 +18092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H5" s="26">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -17886,7 +18102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" s="26">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -17896,7 +18112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H7" s="26">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -17906,7 +18122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" s="26">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -17916,7 +18132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="26">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -17926,7 +18142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="26">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -17936,7 +18152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H11" s="26">
         <f t="shared" ref="H11:H40" si="2">H10+H$3</f>
         <v>27</v>
@@ -17946,7 +18162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H12" s="26">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -17956,7 +18172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H13" s="26">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -17966,7 +18182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H14" s="26">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -17976,7 +18192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="26">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -17986,7 +18202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H16" s="26">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -17996,7 +18212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="26">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -18006,7 +18222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="26">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -18016,7 +18232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="26">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -18026,7 +18242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="26">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -18036,7 +18252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="26">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -18046,7 +18262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="26">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -18056,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="26">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -18066,7 +18282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="26">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -18076,7 +18292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="26">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -18086,7 +18302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="26">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -18096,7 +18312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="26">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -18106,7 +18322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="26">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -18116,7 +18332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="26">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -18126,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="26">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -18136,7 +18352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="26">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -18146,7 +18362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="26">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -18156,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H33" s="26">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -18166,7 +18382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H34" s="26">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -18176,7 +18392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H35" s="26">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -18186,7 +18402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H36" s="26">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -18196,7 +18412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H37" s="26">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -18206,7 +18422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H38" s="26">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -18216,7 +18432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H39" s="26">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -18226,7 +18442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" s="26">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -18236,7 +18452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -18252,7 +18468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -18268,7 +18484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -18284,7 +18500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -18300,7 +18516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -18316,7 +18532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6</v>
       </c>
@@ -18332,7 +18548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7</v>
       </c>
@@ -18348,7 +18564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>8</v>
       </c>
@@ -18364,7 +18580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>9</v>
       </c>
@@ -18380,7 +18596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>10</v>
       </c>
@@ -18396,7 +18612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>11</v>
       </c>
@@ -18412,7 +18628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>12</v>
       </c>
@@ -18432,7 +18648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>13</v>
       </c>
@@ -18441,7 +18657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>14</v>
       </c>
@@ -18450,7 +18666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>15</v>
       </c>
@@ -18459,7 +18675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>16</v>
       </c>
@@ -18468,7 +18684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>17</v>
       </c>
@@ -18477,7 +18693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>18</v>
       </c>
@@ -18486,7 +18702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>19</v>
       </c>
@@ -18495,7 +18711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>20</v>
       </c>
@@ -18504,7 +18720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>21</v>
       </c>
@@ -18513,7 +18729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>22</v>
       </c>
@@ -18522,7 +18738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>23</v>
       </c>
@@ -18531,7 +18747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>24</v>
       </c>
